--- a/database/industries/shoyande/gharn/product/monthly.xlsx
+++ b/database/industries/shoyande/gharn/product/monthly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\gharn\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86811DC7-6F9C-4219-901B-BCCE1BC2418A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -264,7 +265,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -457,7 +458,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -469,7 +470,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -516,6 +517,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -551,6 +569,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -702,17 +737,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -767,7 +802,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -824,7 +859,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -881,7 +916,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -936,7 +971,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -993,7 +1028,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1050,7 +1085,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1105,7 +1140,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1262,7 +1297,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1317,7 +1352,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1374,7 +1409,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1533,7 +1568,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1692,7 +1727,7 @@
         <v>3588</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1851,7 +1886,7 @@
         <v>6802</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -2010,7 +2045,7 @@
         <v>5535</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>61</v>
       </c>
@@ -2067,7 +2102,7 @@
       <c r="BA15" s="9"/>
       <c r="BB15" s="9"/>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>62</v>
       </c>
@@ -2226,7 +2261,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>64</v>
       </c>
@@ -2383,7 +2418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>65</v>
       </c>
@@ -2540,7 +2575,7 @@
         <v>15925</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2595,7 +2630,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2650,7 +2685,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2705,7 +2740,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>66</v>
       </c>
@@ -2862,7 +2897,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2917,7 +2952,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>66</v>
       </c>
@@ -2974,7 +3009,7 @@
       <c r="BA24" s="9"/>
       <c r="BB24" s="9"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>55</v>
       </c>
@@ -3133,7 +3168,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
         <v>58</v>
       </c>
@@ -3292,7 +3327,7 @@
         <v>4035</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>59</v>
       </c>
@@ -3451,7 +3486,7 @@
         <v>6226</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>60</v>
       </c>
@@ -3610,7 +3645,7 @@
         <v>5276</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>61</v>
       </c>
@@ -3667,7 +3702,7 @@
       <c r="BA29" s="9"/>
       <c r="BB29" s="9"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>62</v>
       </c>
@@ -3826,7 +3861,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>64</v>
       </c>
@@ -3983,7 +4018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="18" t="s">
         <v>67</v>
       </c>
@@ -4040,7 +4075,7 @@
       <c r="BA32" s="19"/>
       <c r="BB32" s="19"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>68</v>
       </c>
@@ -4197,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="14" t="s">
         <v>65</v>
       </c>
@@ -4354,7 +4389,7 @@
         <v>15537</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4409,7 +4444,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -4464,7 +4499,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -4519,7 +4554,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>69</v>
       </c>
@@ -4676,7 +4711,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -4731,7 +4766,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>69</v>
       </c>
@@ -4788,7 +4823,7 @@
       <c r="BA40" s="9"/>
       <c r="BB40" s="9"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>55</v>
       </c>
@@ -4947,7 +4982,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>58</v>
       </c>
@@ -5106,7 +5141,7 @@
         <v>1434059</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>59</v>
       </c>
@@ -5265,7 +5300,7 @@
         <v>1664118</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>60</v>
       </c>
@@ -5424,7 +5459,7 @@
         <v>779107</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>71</v>
       </c>
@@ -5481,7 +5516,7 @@
       <c r="BA45" s="9"/>
       <c r="BB45" s="9"/>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>62</v>
       </c>
@@ -5631,7 +5666,7 @@
         <v>8864</v>
       </c>
       <c r="AZ46" s="11">
-        <v>7414</v>
+        <v>7404</v>
       </c>
       <c r="BA46" s="11">
         <v>7218</v>
@@ -5640,7 +5675,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>64</v>
       </c>
@@ -5790,7 +5825,7 @@
         <v>8864</v>
       </c>
       <c r="AZ47" s="15">
-        <v>7414</v>
+        <v>7404</v>
       </c>
       <c r="BA47" s="15">
         <v>7218</v>
@@ -5799,7 +5834,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="18" t="s">
         <v>72</v>
       </c>
@@ -5856,7 +5891,7 @@
       <c r="BA48" s="19"/>
       <c r="BB48" s="19"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="16" t="s">
         <v>68</v>
       </c>
@@ -6015,7 +6050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>73</v>
       </c>
@@ -6072,7 +6107,7 @@
       <c r="BA50" s="9"/>
       <c r="BB50" s="9"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>74</v>
       </c>
@@ -6231,7 +6266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="14" t="s">
         <v>65</v>
       </c>
@@ -6379,7 +6414,7 @@
         <v>3173007</v>
       </c>
       <c r="AZ52" s="15">
-        <v>3036598</v>
+        <v>3036588</v>
       </c>
       <c r="BA52" s="15">
         <v>2822174</v>
@@ -6388,7 +6423,7 @@
         <v>3878250</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6443,7 +6478,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -6498,7 +6533,7 @@
       <c r="BA54" s="1"/>
       <c r="BB54" s="1"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -6553,7 +6588,7 @@
       <c r="BA55" s="1"/>
       <c r="BB55" s="1"/>
     </row>
-    <row r="56" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
         <v>75</v>
       </c>
@@ -6710,7 +6745,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -6765,7 +6800,7 @@
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>76</v>
       </c>
@@ -6822,7 +6857,7 @@
       <c r="BA58" s="9"/>
       <c r="BB58" s="9"/>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>58</v>
       </c>
@@ -6981,7 +7016,7 @@
         <v>355404957</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>59</v>
       </c>
@@ -7140,7 +7175,7 @@
         <v>267285255</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>60</v>
       </c>
@@ -7299,7 +7334,7 @@
         <v>147670015</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>78</v>
       </c>
@@ -7356,7 +7391,7 @@
       <c r="BA62" s="9"/>
       <c r="BB62" s="9"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>62</v>
       </c>

--- a/database/industries/shoyande/gharn/product/monthly.xlsx
+++ b/database/industries/shoyande/gharn/product/monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\gharn\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86811DC7-6F9C-4219-901B-BCCE1BC2418A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C10D86-1805-498D-BE24-B8F2ED5E735E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="80">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>قرن-پدیده شیمی قرن</t>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 7 منتهی به 1397/07</t>
-  </si>
-  <si>
     <t>ماه 8 منتهی به 1397/08</t>
   </si>
   <si>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>سایر</t>
@@ -1504,8 +1504,8 @@
       <c r="AG11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH11" s="11" t="s">
-        <v>57</v>
+      <c r="AH11" s="11">
+        <v>0</v>
       </c>
       <c r="AI11" s="11">
         <v>0</v>
@@ -1540,8 +1540,8 @@
       <c r="AS11" s="11">
         <v>0</v>
       </c>
-      <c r="AT11" s="11">
-        <v>0</v>
+      <c r="AT11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU11" s="11" t="s">
         <v>57</v>
@@ -1591,140 +1591,140 @@
       <c r="I12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="13" t="s">
-        <v>57</v>
+      <c r="J12" s="13">
+        <v>1745</v>
       </c>
       <c r="K12" s="13">
-        <v>1745</v>
+        <v>3498</v>
       </c>
       <c r="L12" s="13">
-        <v>3498</v>
+        <v>2884</v>
       </c>
       <c r="M12" s="13">
-        <v>2884</v>
+        <v>3898</v>
       </c>
       <c r="N12" s="13">
-        <v>3898</v>
+        <v>2452</v>
       </c>
       <c r="O12" s="13">
-        <v>2452</v>
+        <v>3187</v>
       </c>
       <c r="P12" s="13">
-        <v>3187</v>
+        <v>2803</v>
       </c>
       <c r="Q12" s="13">
-        <v>2803</v>
+        <v>2514</v>
       </c>
       <c r="R12" s="13">
-        <v>2514</v>
+        <v>3801</v>
       </c>
       <c r="S12" s="13">
-        <v>3801</v>
+        <v>3829</v>
       </c>
       <c r="T12" s="13">
-        <v>3829</v>
+        <v>3972</v>
       </c>
       <c r="U12" s="13">
-        <v>3972</v>
+        <v>5108</v>
       </c>
       <c r="V12" s="13">
-        <v>5108</v>
+        <v>3629</v>
       </c>
       <c r="W12" s="13">
-        <v>3629</v>
+        <v>5395</v>
       </c>
       <c r="X12" s="13">
-        <v>5395</v>
+        <v>4741</v>
       </c>
       <c r="Y12" s="13">
-        <v>4741</v>
+        <v>5003</v>
       </c>
       <c r="Z12" s="13">
-        <v>5003</v>
+        <v>4441</v>
       </c>
       <c r="AA12" s="13">
-        <v>4441</v>
+        <v>3227</v>
       </c>
       <c r="AB12" s="13">
-        <v>3227</v>
+        <v>4038</v>
       </c>
       <c r="AC12" s="13">
-        <v>4038</v>
+        <v>5117</v>
       </c>
       <c r="AD12" s="13">
-        <v>5117</v>
+        <v>6377</v>
       </c>
       <c r="AE12" s="13">
-        <v>6377</v>
+        <v>6970</v>
       </c>
       <c r="AF12" s="13">
-        <v>6970</v>
+        <v>3508</v>
       </c>
       <c r="AG12" s="13">
-        <v>3508</v>
+        <v>5201</v>
       </c>
       <c r="AH12" s="13">
-        <v>5201</v>
+        <v>2219</v>
       </c>
       <c r="AI12" s="13">
-        <v>2219</v>
+        <v>2061</v>
       </c>
       <c r="AJ12" s="13">
-        <v>2061</v>
+        <v>2726</v>
       </c>
       <c r="AK12" s="13">
-        <v>2726</v>
+        <v>5507</v>
       </c>
       <c r="AL12" s="13">
-        <v>5507</v>
+        <v>4011</v>
       </c>
       <c r="AM12" s="13">
-        <v>4011</v>
+        <v>4579</v>
       </c>
       <c r="AN12" s="13">
-        <v>4579</v>
+        <v>3298</v>
       </c>
       <c r="AO12" s="13">
-        <v>3298</v>
+        <v>2788</v>
       </c>
       <c r="AP12" s="13">
-        <v>2788</v>
+        <v>2869</v>
       </c>
       <c r="AQ12" s="13">
-        <v>2869</v>
+        <v>2727</v>
       </c>
       <c r="AR12" s="13">
-        <v>2727</v>
+        <v>4657</v>
       </c>
       <c r="AS12" s="13">
-        <v>4657</v>
+        <v>3661</v>
       </c>
       <c r="AT12" s="13">
-        <v>3661</v>
+        <v>1798</v>
       </c>
       <c r="AU12" s="13">
-        <v>1798</v>
+        <v>2509</v>
       </c>
       <c r="AV12" s="13">
-        <v>2509</v>
+        <v>4262</v>
       </c>
       <c r="AW12" s="13">
-        <v>4262</v>
+        <v>3811</v>
       </c>
       <c r="AX12" s="13">
-        <v>3811</v>
+        <v>3928</v>
       </c>
       <c r="AY12" s="13">
-        <v>3928</v>
+        <v>4555</v>
       </c>
       <c r="AZ12" s="13">
-        <v>4555</v>
+        <v>3266</v>
       </c>
       <c r="BA12" s="13">
-        <v>3266</v>
+        <v>3588</v>
       </c>
       <c r="BB12" s="13">
-        <v>3588</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1750,140 +1750,140 @@
       <c r="I13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="11" t="s">
-        <v>57</v>
+      <c r="J13" s="11">
+        <v>2242</v>
       </c>
       <c r="K13" s="11">
-        <v>2242</v>
+        <v>4250</v>
       </c>
       <c r="L13" s="11">
-        <v>4250</v>
+        <v>2863</v>
       </c>
       <c r="M13" s="11">
-        <v>2863</v>
+        <v>4800</v>
       </c>
       <c r="N13" s="11">
-        <v>4800</v>
+        <v>3613</v>
       </c>
       <c r="O13" s="11">
-        <v>3613</v>
+        <v>4665</v>
       </c>
       <c r="P13" s="11">
-        <v>4665</v>
+        <v>3321</v>
       </c>
       <c r="Q13" s="11">
-        <v>3321</v>
+        <v>2946</v>
       </c>
       <c r="R13" s="11">
-        <v>2946</v>
+        <v>3813</v>
       </c>
       <c r="S13" s="11">
-        <v>3813</v>
+        <v>4920</v>
       </c>
       <c r="T13" s="11">
-        <v>4920</v>
+        <v>5229</v>
       </c>
       <c r="U13" s="11">
-        <v>5229</v>
+        <v>4494</v>
       </c>
       <c r="V13" s="11">
-        <v>4494</v>
+        <v>3002</v>
       </c>
       <c r="W13" s="11">
-        <v>3002</v>
+        <v>4738</v>
       </c>
       <c r="X13" s="11">
-        <v>4738</v>
+        <v>3318</v>
       </c>
       <c r="Y13" s="11">
-        <v>3318</v>
+        <v>3965</v>
       </c>
       <c r="Z13" s="11">
-        <v>3965</v>
+        <v>2649</v>
       </c>
       <c r="AA13" s="11">
-        <v>2649</v>
+        <v>4152</v>
       </c>
       <c r="AB13" s="11">
-        <v>4152</v>
+        <v>3219</v>
       </c>
       <c r="AC13" s="11">
-        <v>3219</v>
+        <v>4166</v>
       </c>
       <c r="AD13" s="11">
-        <v>4166</v>
+        <v>5144</v>
       </c>
       <c r="AE13" s="11">
-        <v>5144</v>
+        <v>5700</v>
       </c>
       <c r="AF13" s="11">
-        <v>5700</v>
+        <v>3767</v>
       </c>
       <c r="AG13" s="11">
-        <v>3767</v>
+        <v>5500</v>
       </c>
       <c r="AH13" s="11">
-        <v>5500</v>
+        <v>2838</v>
       </c>
       <c r="AI13" s="11">
-        <v>2838</v>
+        <v>885</v>
       </c>
       <c r="AJ13" s="11">
-        <v>885</v>
+        <v>3309</v>
       </c>
       <c r="AK13" s="11">
-        <v>3309</v>
+        <v>5341</v>
       </c>
       <c r="AL13" s="11">
-        <v>5341</v>
+        <v>3657</v>
       </c>
       <c r="AM13" s="11">
-        <v>3657</v>
+        <v>4860</v>
       </c>
       <c r="AN13" s="11">
-        <v>4860</v>
+        <v>3183</v>
       </c>
       <c r="AO13" s="11">
-        <v>3183</v>
+        <v>3651</v>
       </c>
       <c r="AP13" s="11">
-        <v>3651</v>
+        <v>4748</v>
       </c>
       <c r="AQ13" s="11">
-        <v>4748</v>
+        <v>4251</v>
       </c>
       <c r="AR13" s="11">
-        <v>4251</v>
+        <v>5069</v>
       </c>
       <c r="AS13" s="11">
-        <v>5069</v>
+        <v>4555</v>
       </c>
       <c r="AT13" s="11">
-        <v>4555</v>
+        <v>2354</v>
       </c>
       <c r="AU13" s="11">
-        <v>2354</v>
+        <v>3415</v>
       </c>
       <c r="AV13" s="11">
-        <v>3415</v>
+        <v>5170</v>
       </c>
       <c r="AW13" s="11">
-        <v>5170</v>
+        <v>5489</v>
       </c>
       <c r="AX13" s="11">
-        <v>5489</v>
+        <v>5494</v>
       </c>
       <c r="AY13" s="11">
-        <v>5494</v>
+        <v>5571</v>
       </c>
       <c r="AZ13" s="11">
-        <v>5571</v>
+        <v>4921</v>
       </c>
       <c r="BA13" s="11">
-        <v>4921</v>
+        <v>6802</v>
       </c>
       <c r="BB13" s="11">
-        <v>6802</v>
+        <v>6652</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1909,140 +1909,140 @@
       <c r="I14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="13" t="s">
-        <v>57</v>
+      <c r="J14" s="13">
+        <v>1838</v>
       </c>
       <c r="K14" s="13">
-        <v>1838</v>
+        <v>3469</v>
       </c>
       <c r="L14" s="13">
-        <v>3469</v>
+        <v>2743</v>
       </c>
       <c r="M14" s="13">
-        <v>2743</v>
+        <v>3519</v>
       </c>
       <c r="N14" s="13">
-        <v>3519</v>
+        <v>2665</v>
       </c>
       <c r="O14" s="13">
-        <v>2665</v>
+        <v>3141</v>
       </c>
       <c r="P14" s="13">
-        <v>3141</v>
+        <v>2877</v>
       </c>
       <c r="Q14" s="13">
-        <v>2877</v>
+        <v>2278</v>
       </c>
       <c r="R14" s="13">
-        <v>2278</v>
+        <v>3015</v>
       </c>
       <c r="S14" s="13">
-        <v>3015</v>
+        <v>4016</v>
       </c>
       <c r="T14" s="13">
-        <v>4016</v>
+        <v>4010</v>
       </c>
       <c r="U14" s="13">
-        <v>4010</v>
+        <v>3544</v>
       </c>
       <c r="V14" s="13">
-        <v>3544</v>
+        <v>1584</v>
       </c>
       <c r="W14" s="13">
-        <v>1584</v>
+        <v>3328</v>
       </c>
       <c r="X14" s="13">
-        <v>3328</v>
+        <v>3107</v>
       </c>
       <c r="Y14" s="13">
-        <v>3107</v>
+        <v>4240</v>
       </c>
       <c r="Z14" s="13">
-        <v>4240</v>
+        <v>2713</v>
       </c>
       <c r="AA14" s="13">
-        <v>2713</v>
+        <v>2941</v>
       </c>
       <c r="AB14" s="13">
-        <v>2941</v>
+        <v>2879</v>
       </c>
       <c r="AC14" s="13">
-        <v>2879</v>
+        <v>3392</v>
       </c>
       <c r="AD14" s="13">
-        <v>3392</v>
+        <v>4575</v>
       </c>
       <c r="AE14" s="13">
-        <v>4575</v>
+        <v>5244</v>
       </c>
       <c r="AF14" s="13">
-        <v>5244</v>
+        <v>5692</v>
       </c>
       <c r="AG14" s="13">
-        <v>5692</v>
+        <v>5317</v>
       </c>
       <c r="AH14" s="13">
-        <v>5317</v>
+        <v>2424</v>
       </c>
       <c r="AI14" s="13">
-        <v>2424</v>
+        <v>2852</v>
       </c>
       <c r="AJ14" s="13">
-        <v>2852</v>
+        <v>3738</v>
       </c>
       <c r="AK14" s="13">
-        <v>3738</v>
+        <v>4833</v>
       </c>
       <c r="AL14" s="13">
-        <v>4833</v>
+        <v>4126</v>
       </c>
       <c r="AM14" s="13">
-        <v>4126</v>
+        <v>5335</v>
       </c>
       <c r="AN14" s="13">
-        <v>5335</v>
+        <v>4371</v>
       </c>
       <c r="AO14" s="13">
-        <v>4371</v>
+        <v>4164</v>
       </c>
       <c r="AP14" s="13">
-        <v>4164</v>
+        <v>3631</v>
       </c>
       <c r="AQ14" s="13">
-        <v>3631</v>
+        <v>3673</v>
       </c>
       <c r="AR14" s="13">
-        <v>3673</v>
+        <v>5490</v>
       </c>
       <c r="AS14" s="13">
-        <v>5490</v>
+        <v>4234</v>
       </c>
       <c r="AT14" s="13">
-        <v>4234</v>
+        <v>2384</v>
       </c>
       <c r="AU14" s="13">
-        <v>2384</v>
+        <v>3547</v>
       </c>
       <c r="AV14" s="13">
-        <v>3547</v>
+        <v>4053</v>
       </c>
       <c r="AW14" s="13">
-        <v>4053</v>
+        <v>4193</v>
       </c>
       <c r="AX14" s="13">
-        <v>4193</v>
+        <v>4611</v>
       </c>
       <c r="AY14" s="13">
-        <v>4611</v>
+        <v>4703</v>
       </c>
       <c r="AZ14" s="13">
-        <v>4703</v>
+        <v>3902</v>
       </c>
       <c r="BA14" s="13">
-        <v>3902</v>
+        <v>5535</v>
       </c>
       <c r="BB14" s="13">
-        <v>5535</v>
+        <v>5618</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2236,17 +2236,17 @@
       <c r="AT16" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU16" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV16" s="11">
-        <v>0</v>
+      <c r="AU16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AW16" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AX16" s="11" t="s">
-        <v>57</v>
+      <c r="AX16" s="11">
+        <v>0</v>
       </c>
       <c r="AY16" s="11">
         <v>0</v>
@@ -2327,8 +2327,8 @@
       <c r="X17" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Y17" s="15" t="s">
-        <v>57</v>
+      <c r="Y17" s="15">
+        <v>0</v>
       </c>
       <c r="Z17" s="15">
         <v>0</v>
@@ -2440,139 +2440,139 @@
         <v>0</v>
       </c>
       <c r="J18" s="17">
-        <v>0</v>
+        <v>5825</v>
       </c>
       <c r="K18" s="17">
-        <v>5825</v>
+        <v>11217</v>
       </c>
       <c r="L18" s="17">
-        <v>11217</v>
+        <v>8490</v>
       </c>
       <c r="M18" s="17">
-        <v>8490</v>
+        <v>12217</v>
       </c>
       <c r="N18" s="17">
-        <v>12217</v>
+        <v>8730</v>
       </c>
       <c r="O18" s="17">
-        <v>8730</v>
+        <v>10993</v>
       </c>
       <c r="P18" s="17">
-        <v>10993</v>
+        <v>9001</v>
       </c>
       <c r="Q18" s="17">
-        <v>9001</v>
+        <v>7738</v>
       </c>
       <c r="R18" s="17">
-        <v>7738</v>
+        <v>10629</v>
       </c>
       <c r="S18" s="17">
-        <v>10629</v>
+        <v>12765</v>
       </c>
       <c r="T18" s="17">
-        <v>12765</v>
+        <v>13211</v>
       </c>
       <c r="U18" s="17">
-        <v>13211</v>
+        <v>13146</v>
       </c>
       <c r="V18" s="17">
-        <v>13146</v>
+        <v>8215</v>
       </c>
       <c r="W18" s="17">
-        <v>8215</v>
+        <v>13461</v>
       </c>
       <c r="X18" s="17">
-        <v>13461</v>
+        <v>11166</v>
       </c>
       <c r="Y18" s="17">
-        <v>11166</v>
+        <v>13208</v>
       </c>
       <c r="Z18" s="17">
-        <v>13208</v>
+        <v>9803</v>
       </c>
       <c r="AA18" s="17">
-        <v>9803</v>
+        <v>10320</v>
       </c>
       <c r="AB18" s="17">
-        <v>10320</v>
+        <v>10136</v>
       </c>
       <c r="AC18" s="17">
-        <v>10136</v>
+        <v>12675</v>
       </c>
       <c r="AD18" s="17">
-        <v>12675</v>
+        <v>16096</v>
       </c>
       <c r="AE18" s="17">
-        <v>16096</v>
+        <v>17914</v>
       </c>
       <c r="AF18" s="17">
-        <v>17914</v>
+        <v>12967</v>
       </c>
       <c r="AG18" s="17">
-        <v>12967</v>
+        <v>16018</v>
       </c>
       <c r="AH18" s="17">
-        <v>16018</v>
+        <v>7481</v>
       </c>
       <c r="AI18" s="17">
-        <v>7481</v>
+        <v>5798</v>
       </c>
       <c r="AJ18" s="17">
-        <v>5798</v>
+        <v>9773</v>
       </c>
       <c r="AK18" s="17">
-        <v>9773</v>
+        <v>15681</v>
       </c>
       <c r="AL18" s="17">
-        <v>15681</v>
+        <v>11794</v>
       </c>
       <c r="AM18" s="17">
-        <v>11794</v>
+        <v>14774</v>
       </c>
       <c r="AN18" s="17">
-        <v>14774</v>
+        <v>10852</v>
       </c>
       <c r="AO18" s="17">
-        <v>10852</v>
+        <v>10603</v>
       </c>
       <c r="AP18" s="17">
-        <v>10603</v>
+        <v>11248</v>
       </c>
       <c r="AQ18" s="17">
-        <v>11248</v>
+        <v>10651</v>
       </c>
       <c r="AR18" s="17">
-        <v>10651</v>
+        <v>15216</v>
       </c>
       <c r="AS18" s="17">
-        <v>15216</v>
+        <v>12450</v>
       </c>
       <c r="AT18" s="17">
-        <v>12450</v>
+        <v>6536</v>
       </c>
       <c r="AU18" s="17">
-        <v>6536</v>
+        <v>9471</v>
       </c>
       <c r="AV18" s="17">
-        <v>9471</v>
+        <v>13485</v>
       </c>
       <c r="AW18" s="17">
-        <v>13485</v>
+        <v>13493</v>
       </c>
       <c r="AX18" s="17">
-        <v>13493</v>
+        <v>14033</v>
       </c>
       <c r="AY18" s="17">
-        <v>14033</v>
+        <v>14829</v>
       </c>
       <c r="AZ18" s="17">
-        <v>14829</v>
+        <v>12089</v>
       </c>
       <c r="BA18" s="17">
-        <v>12089</v>
+        <v>15925</v>
       </c>
       <c r="BB18" s="17">
-        <v>15925</v>
+        <v>16161</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -3104,8 +3104,8 @@
       <c r="AG25" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH25" s="11" t="s">
-        <v>57</v>
+      <c r="AH25" s="11">
+        <v>0</v>
       </c>
       <c r="AI25" s="11">
         <v>0</v>
@@ -3140,8 +3140,8 @@
       <c r="AS25" s="11">
         <v>0</v>
       </c>
-      <c r="AT25" s="11">
-        <v>0</v>
+      <c r="AT25" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU25" s="11" t="s">
         <v>57</v>
@@ -3191,140 +3191,140 @@
       <c r="I26" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J26" s="13" t="s">
-        <v>57</v>
+      <c r="J26" s="13">
+        <v>1716</v>
       </c>
       <c r="K26" s="13">
-        <v>1716</v>
+        <v>3527</v>
       </c>
       <c r="L26" s="13">
-        <v>3527</v>
+        <v>2654</v>
       </c>
       <c r="M26" s="13">
-        <v>2654</v>
+        <v>3608</v>
       </c>
       <c r="N26" s="13">
-        <v>3608</v>
+        <v>2317</v>
       </c>
       <c r="O26" s="13">
-        <v>2317</v>
+        <v>4004</v>
       </c>
       <c r="P26" s="13">
-        <v>4004</v>
+        <v>1796</v>
       </c>
       <c r="Q26" s="13">
-        <v>1796</v>
+        <v>2188</v>
       </c>
       <c r="R26" s="13">
-        <v>2188</v>
+        <v>3762</v>
       </c>
       <c r="S26" s="13">
-        <v>3762</v>
+        <v>3760</v>
       </c>
       <c r="T26" s="13">
-        <v>3760</v>
+        <v>3851</v>
       </c>
       <c r="U26" s="13">
-        <v>3851</v>
+        <v>5171</v>
       </c>
       <c r="V26" s="13">
-        <v>5171</v>
+        <v>3977</v>
       </c>
       <c r="W26" s="13">
-        <v>3977</v>
+        <v>4984</v>
       </c>
       <c r="X26" s="13">
-        <v>4984</v>
+        <v>4224</v>
       </c>
       <c r="Y26" s="13">
-        <v>4224</v>
+        <v>5034</v>
       </c>
       <c r="Z26" s="13">
-        <v>5034</v>
+        <v>4877</v>
       </c>
       <c r="AA26" s="13">
-        <v>4877</v>
+        <v>3557</v>
       </c>
       <c r="AB26" s="13">
-        <v>3557</v>
+        <v>4026</v>
       </c>
       <c r="AC26" s="13">
-        <v>4026</v>
+        <v>4801</v>
       </c>
       <c r="AD26" s="13">
-        <v>4801</v>
+        <v>5835</v>
       </c>
       <c r="AE26" s="13">
-        <v>5835</v>
+        <v>6862</v>
       </c>
       <c r="AF26" s="13">
-        <v>6862</v>
+        <v>4729</v>
       </c>
       <c r="AG26" s="13">
-        <v>4729</v>
+        <v>5003</v>
       </c>
       <c r="AH26" s="13">
-        <v>5003</v>
+        <v>1229</v>
       </c>
       <c r="AI26" s="13">
-        <v>1229</v>
+        <v>3209</v>
       </c>
       <c r="AJ26" s="13">
-        <v>3209</v>
+        <v>2622</v>
       </c>
       <c r="AK26" s="13">
-        <v>2622</v>
+        <v>4951</v>
       </c>
       <c r="AL26" s="13">
-        <v>4951</v>
+        <v>4018</v>
       </c>
       <c r="AM26" s="13">
-        <v>4018</v>
+        <v>4622</v>
       </c>
       <c r="AN26" s="13">
-        <v>4622</v>
+        <v>2864</v>
       </c>
       <c r="AO26" s="13">
-        <v>2864</v>
+        <v>3616</v>
       </c>
       <c r="AP26" s="13">
-        <v>3616</v>
+        <v>2417</v>
       </c>
       <c r="AQ26" s="13">
-        <v>2417</v>
+        <v>3486</v>
       </c>
       <c r="AR26" s="13">
-        <v>3486</v>
+        <v>3976</v>
       </c>
       <c r="AS26" s="13">
-        <v>3976</v>
+        <v>4358</v>
       </c>
       <c r="AT26" s="13">
-        <v>4358</v>
+        <v>1443</v>
       </c>
       <c r="AU26" s="13">
-        <v>1443</v>
+        <v>2759</v>
       </c>
       <c r="AV26" s="13">
-        <v>2759</v>
+        <v>3575</v>
       </c>
       <c r="AW26" s="13">
-        <v>3575</v>
+        <v>3514</v>
       </c>
       <c r="AX26" s="13">
-        <v>3514</v>
+        <v>4116</v>
       </c>
       <c r="AY26" s="13">
-        <v>4116</v>
+        <v>4003</v>
       </c>
       <c r="AZ26" s="13">
-        <v>4003</v>
+        <v>3202</v>
       </c>
       <c r="BA26" s="13">
-        <v>3202</v>
+        <v>4035</v>
       </c>
       <c r="BB26" s="13">
-        <v>4035</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -3350,140 +3350,140 @@
       <c r="I27" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J27" s="11" t="s">
-        <v>57</v>
+      <c r="J27" s="11">
+        <v>1980</v>
       </c>
       <c r="K27" s="11">
-        <v>1980</v>
+        <v>3784</v>
       </c>
       <c r="L27" s="11">
-        <v>3784</v>
+        <v>3314</v>
       </c>
       <c r="M27" s="11">
-        <v>3314</v>
+        <v>4337</v>
       </c>
       <c r="N27" s="11">
-        <v>4337</v>
+        <v>3362</v>
       </c>
       <c r="O27" s="11">
-        <v>3362</v>
+        <v>5284</v>
       </c>
       <c r="P27" s="11">
-        <v>5284</v>
+        <v>2702</v>
       </c>
       <c r="Q27" s="11">
-        <v>2702</v>
+        <v>2593</v>
       </c>
       <c r="R27" s="11">
-        <v>2593</v>
+        <v>3706</v>
       </c>
       <c r="S27" s="11">
-        <v>3706</v>
+        <v>3763</v>
       </c>
       <c r="T27" s="11">
-        <v>3763</v>
+        <v>4919</v>
       </c>
       <c r="U27" s="11">
-        <v>4919</v>
+        <v>4952</v>
       </c>
       <c r="V27" s="11">
-        <v>4952</v>
+        <v>2617</v>
       </c>
       <c r="W27" s="11">
-        <v>2617</v>
+        <v>4245</v>
       </c>
       <c r="X27" s="11">
-        <v>4245</v>
+        <v>3978</v>
       </c>
       <c r="Y27" s="11">
-        <v>3978</v>
+        <v>3405</v>
       </c>
       <c r="Z27" s="11">
-        <v>3405</v>
+        <v>3243</v>
       </c>
       <c r="AA27" s="11">
-        <v>3243</v>
+        <v>4240</v>
       </c>
       <c r="AB27" s="11">
-        <v>4240</v>
+        <v>3889</v>
       </c>
       <c r="AC27" s="11">
-        <v>3889</v>
+        <v>4270</v>
       </c>
       <c r="AD27" s="11">
-        <v>4270</v>
+        <v>4419</v>
       </c>
       <c r="AE27" s="11">
-        <v>4419</v>
+        <v>5310</v>
       </c>
       <c r="AF27" s="11">
-        <v>5310</v>
+        <v>4881</v>
       </c>
       <c r="AG27" s="11">
-        <v>4881</v>
+        <v>5085</v>
       </c>
       <c r="AH27" s="11">
-        <v>5085</v>
+        <v>1964</v>
       </c>
       <c r="AI27" s="11">
-        <v>1964</v>
+        <v>2387</v>
       </c>
       <c r="AJ27" s="11">
-        <v>2387</v>
+        <v>2819</v>
       </c>
       <c r="AK27" s="11">
-        <v>2819</v>
+        <v>4689</v>
       </c>
       <c r="AL27" s="11">
-        <v>4689</v>
+        <v>4046</v>
       </c>
       <c r="AM27" s="11">
-        <v>4046</v>
+        <v>4119</v>
       </c>
       <c r="AN27" s="11">
-        <v>4119</v>
+        <v>2911</v>
       </c>
       <c r="AO27" s="11">
-        <v>2911</v>
+        <v>4283</v>
       </c>
       <c r="AP27" s="11">
-        <v>4283</v>
+        <v>3815</v>
       </c>
       <c r="AQ27" s="11">
-        <v>3815</v>
+        <v>4067</v>
       </c>
       <c r="AR27" s="11">
-        <v>4067</v>
+        <v>4856</v>
       </c>
       <c r="AS27" s="11">
-        <v>4856</v>
+        <v>5742</v>
       </c>
       <c r="AT27" s="11">
-        <v>5742</v>
+        <v>2260</v>
       </c>
       <c r="AU27" s="11">
-        <v>2260</v>
+        <v>3802</v>
       </c>
       <c r="AV27" s="11">
-        <v>3802</v>
+        <v>4249</v>
       </c>
       <c r="AW27" s="11">
-        <v>4249</v>
+        <v>5729</v>
       </c>
       <c r="AX27" s="11">
-        <v>5729</v>
+        <v>5801</v>
       </c>
       <c r="AY27" s="11">
-        <v>5801</v>
+        <v>5440</v>
       </c>
       <c r="AZ27" s="11">
-        <v>5440</v>
+        <v>4767</v>
       </c>
       <c r="BA27" s="11">
-        <v>4767</v>
+        <v>6226</v>
       </c>
       <c r="BB27" s="11">
-        <v>6226</v>
+        <v>5990</v>
       </c>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.3">
@@ -3509,140 +3509,140 @@
       <c r="I28" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J28" s="13" t="s">
-        <v>57</v>
+      <c r="J28" s="13">
+        <v>1586</v>
       </c>
       <c r="K28" s="13">
-        <v>1586</v>
+        <v>3435</v>
       </c>
       <c r="L28" s="13">
-        <v>3435</v>
+        <v>2882</v>
       </c>
       <c r="M28" s="13">
-        <v>2882</v>
+        <v>3183</v>
       </c>
       <c r="N28" s="13">
-        <v>3183</v>
+        <v>2648</v>
       </c>
       <c r="O28" s="13">
-        <v>2648</v>
+        <v>3361</v>
       </c>
       <c r="P28" s="13">
-        <v>3361</v>
+        <v>2641</v>
       </c>
       <c r="Q28" s="13">
-        <v>2641</v>
+        <v>2172</v>
       </c>
       <c r="R28" s="13">
-        <v>2172</v>
+        <v>2861</v>
       </c>
       <c r="S28" s="13">
-        <v>2861</v>
+        <v>3195</v>
       </c>
       <c r="T28" s="13">
-        <v>3195</v>
+        <v>4375</v>
       </c>
       <c r="U28" s="13">
-        <v>4375</v>
+        <v>4291</v>
       </c>
       <c r="V28" s="13">
-        <v>4291</v>
+        <v>1456</v>
       </c>
       <c r="W28" s="13">
-        <v>1456</v>
+        <v>3241</v>
       </c>
       <c r="X28" s="13">
-        <v>3241</v>
+        <v>3053</v>
       </c>
       <c r="Y28" s="13">
-        <v>3053</v>
+        <v>4004</v>
       </c>
       <c r="Z28" s="13">
-        <v>4004</v>
+        <v>2870</v>
       </c>
       <c r="AA28" s="13">
-        <v>2870</v>
+        <v>2962</v>
       </c>
       <c r="AB28" s="13">
-        <v>2962</v>
+        <v>3071</v>
       </c>
       <c r="AC28" s="13">
-        <v>3071</v>
+        <v>3060</v>
       </c>
       <c r="AD28" s="13">
-        <v>3060</v>
+        <v>4189</v>
       </c>
       <c r="AE28" s="13">
-        <v>4189</v>
+        <v>4784</v>
       </c>
       <c r="AF28" s="13">
-        <v>4784</v>
+        <v>5942</v>
       </c>
       <c r="AG28" s="13">
-        <v>5942</v>
+        <v>4396</v>
       </c>
       <c r="AH28" s="13">
-        <v>4396</v>
+        <v>2234</v>
       </c>
       <c r="AI28" s="13">
-        <v>2234</v>
+        <v>3022</v>
       </c>
       <c r="AJ28" s="13">
-        <v>3022</v>
+        <v>3188</v>
       </c>
       <c r="AK28" s="13">
-        <v>3188</v>
+        <v>4675</v>
       </c>
       <c r="AL28" s="13">
-        <v>4675</v>
+        <v>3717</v>
       </c>
       <c r="AM28" s="13">
-        <v>3717</v>
+        <v>5361</v>
       </c>
       <c r="AN28" s="13">
-        <v>5361</v>
+        <v>4043</v>
       </c>
       <c r="AO28" s="13">
-        <v>4043</v>
+        <v>4110</v>
       </c>
       <c r="AP28" s="13">
-        <v>4110</v>
+        <v>3353</v>
       </c>
       <c r="AQ28" s="13">
-        <v>3353</v>
+        <v>4250</v>
       </c>
       <c r="AR28" s="13">
-        <v>4250</v>
+        <v>5181</v>
       </c>
       <c r="AS28" s="13">
-        <v>5181</v>
+        <v>5218</v>
       </c>
       <c r="AT28" s="13">
-        <v>5218</v>
+        <v>1848</v>
       </c>
       <c r="AU28" s="13">
-        <v>1848</v>
+        <v>3694</v>
       </c>
       <c r="AV28" s="13">
-        <v>3694</v>
+        <v>3630</v>
       </c>
       <c r="AW28" s="13">
-        <v>3630</v>
+        <v>4206</v>
       </c>
       <c r="AX28" s="13">
-        <v>4206</v>
+        <v>4837</v>
       </c>
       <c r="AY28" s="13">
-        <v>4837</v>
+        <v>4461</v>
       </c>
       <c r="AZ28" s="13">
-        <v>4461</v>
+        <v>3932</v>
       </c>
       <c r="BA28" s="13">
-        <v>3932</v>
+        <v>5276</v>
       </c>
       <c r="BB28" s="13">
-        <v>5276</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.3">
@@ -3836,17 +3836,17 @@
       <c r="AT30" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU30" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV30" s="11">
-        <v>0</v>
+      <c r="AU30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV30" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AW30" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AX30" s="11" t="s">
-        <v>57</v>
+      <c r="AX30" s="11">
+        <v>0</v>
       </c>
       <c r="AY30" s="11">
         <v>0</v>
@@ -3927,8 +3927,8 @@
       <c r="X31" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Y31" s="15" t="s">
-        <v>57</v>
+      <c r="Y31" s="15">
+        <v>0</v>
       </c>
       <c r="Z31" s="15">
         <v>0</v>
@@ -4141,8 +4141,8 @@
       <c r="X33" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y33" s="17" t="s">
-        <v>57</v>
+      <c r="Y33" s="17">
+        <v>0</v>
       </c>
       <c r="Z33" s="17">
         <v>0</v>
@@ -4254,139 +4254,139 @@
         <v>0</v>
       </c>
       <c r="J34" s="15">
-        <v>0</v>
+        <v>5282</v>
       </c>
       <c r="K34" s="15">
-        <v>5282</v>
+        <v>10746</v>
       </c>
       <c r="L34" s="15">
-        <v>10746</v>
+        <v>8850</v>
       </c>
       <c r="M34" s="15">
-        <v>8850</v>
+        <v>11128</v>
       </c>
       <c r="N34" s="15">
-        <v>11128</v>
+        <v>8327</v>
       </c>
       <c r="O34" s="15">
-        <v>8327</v>
+        <v>12649</v>
       </c>
       <c r="P34" s="15">
-        <v>12649</v>
+        <v>7139</v>
       </c>
       <c r="Q34" s="15">
-        <v>7139</v>
+        <v>6953</v>
       </c>
       <c r="R34" s="15">
-        <v>6953</v>
+        <v>10329</v>
       </c>
       <c r="S34" s="15">
-        <v>10329</v>
+        <v>10718</v>
       </c>
       <c r="T34" s="15">
-        <v>10718</v>
+        <v>13145</v>
       </c>
       <c r="U34" s="15">
-        <v>13145</v>
+        <v>14414</v>
       </c>
       <c r="V34" s="15">
-        <v>14414</v>
+        <v>8050</v>
       </c>
       <c r="W34" s="15">
-        <v>8050</v>
+        <v>12470</v>
       </c>
       <c r="X34" s="15">
-        <v>12470</v>
+        <v>11255</v>
       </c>
       <c r="Y34" s="15">
-        <v>11255</v>
+        <v>12443</v>
       </c>
       <c r="Z34" s="15">
-        <v>12443</v>
+        <v>10990</v>
       </c>
       <c r="AA34" s="15">
-        <v>10990</v>
+        <v>10759</v>
       </c>
       <c r="AB34" s="15">
-        <v>10759</v>
+        <v>10986</v>
       </c>
       <c r="AC34" s="15">
-        <v>10986</v>
+        <v>12131</v>
       </c>
       <c r="AD34" s="15">
-        <v>12131</v>
+        <v>14443</v>
       </c>
       <c r="AE34" s="15">
-        <v>14443</v>
+        <v>16956</v>
       </c>
       <c r="AF34" s="15">
-        <v>16956</v>
+        <v>15552</v>
       </c>
       <c r="AG34" s="15">
-        <v>15552</v>
+        <v>14484</v>
       </c>
       <c r="AH34" s="15">
-        <v>14484</v>
+        <v>5427</v>
       </c>
       <c r="AI34" s="15">
-        <v>5427</v>
+        <v>8618</v>
       </c>
       <c r="AJ34" s="15">
-        <v>8618</v>
+        <v>8629</v>
       </c>
       <c r="AK34" s="15">
-        <v>8629</v>
+        <v>14315</v>
       </c>
       <c r="AL34" s="15">
-        <v>14315</v>
+        <v>11781</v>
       </c>
       <c r="AM34" s="15">
-        <v>11781</v>
+        <v>14102</v>
       </c>
       <c r="AN34" s="15">
-        <v>14102</v>
+        <v>9818</v>
       </c>
       <c r="AO34" s="15">
-        <v>9818</v>
+        <v>12009</v>
       </c>
       <c r="AP34" s="15">
-        <v>12009</v>
+        <v>9585</v>
       </c>
       <c r="AQ34" s="15">
-        <v>9585</v>
+        <v>11803</v>
       </c>
       <c r="AR34" s="15">
-        <v>11803</v>
+        <v>14013</v>
       </c>
       <c r="AS34" s="15">
-        <v>14013</v>
+        <v>15318</v>
       </c>
       <c r="AT34" s="15">
-        <v>15318</v>
+        <v>5551</v>
       </c>
       <c r="AU34" s="15">
-        <v>5551</v>
+        <v>10255</v>
       </c>
       <c r="AV34" s="15">
-        <v>10255</v>
+        <v>11454</v>
       </c>
       <c r="AW34" s="15">
-        <v>11454</v>
+        <v>13449</v>
       </c>
       <c r="AX34" s="15">
-        <v>13449</v>
+        <v>14754</v>
       </c>
       <c r="AY34" s="15">
-        <v>14754</v>
+        <v>13904</v>
       </c>
       <c r="AZ34" s="15">
-        <v>13904</v>
+        <v>11901</v>
       </c>
       <c r="BA34" s="15">
-        <v>11901</v>
+        <v>15537</v>
       </c>
       <c r="BB34" s="15">
-        <v>15537</v>
+        <v>14596</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4918,8 +4918,8 @@
       <c r="AG41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH41" s="11" t="s">
-        <v>57</v>
+      <c r="AH41" s="11">
+        <v>0</v>
       </c>
       <c r="AI41" s="11">
         <v>0</v>
@@ -4954,8 +4954,8 @@
       <c r="AS41" s="11">
         <v>0</v>
       </c>
-      <c r="AT41" s="11">
-        <v>0</v>
+      <c r="AT41" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU41" s="11" t="s">
         <v>57</v>
@@ -5005,140 +5005,140 @@
       <c r="I42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J42" s="13" t="s">
-        <v>57</v>
+      <c r="J42" s="13">
+        <v>146301</v>
       </c>
       <c r="K42" s="13">
-        <v>146301</v>
+        <v>306687</v>
       </c>
       <c r="L42" s="13">
-        <v>306687</v>
+        <v>265735</v>
       </c>
       <c r="M42" s="13">
-        <v>265735</v>
+        <v>377182</v>
       </c>
       <c r="N42" s="13">
-        <v>377182</v>
+        <v>272335</v>
       </c>
       <c r="O42" s="13">
-        <v>272335</v>
+        <v>478398</v>
       </c>
       <c r="P42" s="13">
-        <v>478398</v>
+        <v>210428</v>
       </c>
       <c r="Q42" s="13">
-        <v>210428</v>
+        <v>240205</v>
       </c>
       <c r="R42" s="13">
-        <v>240205</v>
+        <v>403712</v>
       </c>
       <c r="S42" s="13">
-        <v>403712</v>
+        <v>382531</v>
       </c>
       <c r="T42" s="13">
-        <v>382531</v>
+        <v>410833</v>
       </c>
       <c r="U42" s="13">
-        <v>410833</v>
+        <v>564386</v>
       </c>
       <c r="V42" s="13">
-        <v>564386</v>
+        <v>437522</v>
       </c>
       <c r="W42" s="13">
-        <v>437522</v>
+        <v>550411</v>
       </c>
       <c r="X42" s="13">
-        <v>550411</v>
+        <v>444026</v>
       </c>
       <c r="Y42" s="13">
-        <v>444026</v>
+        <v>618197</v>
       </c>
       <c r="Z42" s="13">
-        <v>618197</v>
+        <v>599851</v>
       </c>
       <c r="AA42" s="13">
-        <v>599851</v>
+        <v>539514</v>
       </c>
       <c r="AB42" s="13">
-        <v>539514</v>
+        <v>535115</v>
       </c>
       <c r="AC42" s="13">
-        <v>535115</v>
+        <v>762474</v>
       </c>
       <c r="AD42" s="13">
-        <v>762474</v>
+        <v>934493</v>
       </c>
       <c r="AE42" s="13">
-        <v>934493</v>
+        <v>1210523</v>
       </c>
       <c r="AF42" s="13">
-        <v>1210523</v>
+        <v>792902</v>
       </c>
       <c r="AG42" s="13">
-        <v>792902</v>
+        <v>862481</v>
       </c>
       <c r="AH42" s="13">
-        <v>862481</v>
+        <v>233832</v>
       </c>
       <c r="AI42" s="13">
-        <v>233832</v>
+        <v>638333</v>
       </c>
       <c r="AJ42" s="13">
-        <v>638333</v>
+        <v>600740</v>
       </c>
       <c r="AK42" s="13">
-        <v>600740</v>
+        <v>1088330</v>
       </c>
       <c r="AL42" s="13">
-        <v>1088330</v>
+        <v>965245</v>
       </c>
       <c r="AM42" s="13">
-        <v>965245</v>
+        <v>1193147</v>
       </c>
       <c r="AN42" s="13">
-        <v>1193147</v>
+        <v>695002</v>
       </c>
       <c r="AO42" s="13">
-        <v>695002</v>
+        <v>879595</v>
       </c>
       <c r="AP42" s="13">
-        <v>879595</v>
+        <v>629709</v>
       </c>
       <c r="AQ42" s="13">
-        <v>629709</v>
+        <v>860015</v>
       </c>
       <c r="AR42" s="13">
-        <v>860015</v>
+        <v>883686</v>
       </c>
       <c r="AS42" s="13">
-        <v>883686</v>
+        <v>1015387</v>
       </c>
       <c r="AT42" s="13">
-        <v>1015387</v>
+        <v>400503</v>
       </c>
       <c r="AU42" s="13">
-        <v>400503</v>
+        <v>746962</v>
       </c>
       <c r="AV42" s="13">
-        <v>746962</v>
+        <v>1104795</v>
       </c>
       <c r="AW42" s="13">
-        <v>1104795</v>
+        <v>1190930</v>
       </c>
       <c r="AX42" s="13">
-        <v>1190930</v>
+        <v>1150708</v>
       </c>
       <c r="AY42" s="13">
-        <v>1150708</v>
+        <v>1225846</v>
       </c>
       <c r="AZ42" s="13">
-        <v>1225846</v>
+        <v>1085885</v>
       </c>
       <c r="BA42" s="13">
-        <v>1085885</v>
+        <v>1434059</v>
       </c>
       <c r="BB42" s="13">
-        <v>1434059</v>
+        <v>1293919</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5164,140 +5164,140 @@
       <c r="I43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J43" s="11" t="s">
-        <v>57</v>
+      <c r="J43" s="11">
+        <v>149761</v>
       </c>
       <c r="K43" s="11">
-        <v>149761</v>
+        <v>293977</v>
       </c>
       <c r="L43" s="11">
-        <v>293977</v>
+        <v>263037</v>
       </c>
       <c r="M43" s="11">
-        <v>263037</v>
+        <v>399846</v>
       </c>
       <c r="N43" s="11">
-        <v>399846</v>
+        <v>321643</v>
       </c>
       <c r="O43" s="11">
-        <v>321643</v>
+        <v>508286</v>
       </c>
       <c r="P43" s="11">
-        <v>508286</v>
+        <v>241088</v>
       </c>
       <c r="Q43" s="11">
-        <v>241088</v>
+        <v>239413</v>
       </c>
       <c r="R43" s="11">
-        <v>239413</v>
+        <v>350196</v>
       </c>
       <c r="S43" s="11">
-        <v>350196</v>
+        <v>354984</v>
       </c>
       <c r="T43" s="11">
-        <v>354984</v>
+        <v>438597</v>
       </c>
       <c r="U43" s="11">
-        <v>438597</v>
+        <v>426526</v>
       </c>
       <c r="V43" s="11">
-        <v>426526</v>
+        <v>241638</v>
       </c>
       <c r="W43" s="11">
-        <v>241638</v>
+        <v>416145</v>
       </c>
       <c r="X43" s="11">
-        <v>416145</v>
+        <v>373148</v>
       </c>
       <c r="Y43" s="11">
-        <v>373148</v>
+        <v>392987</v>
       </c>
       <c r="Z43" s="11">
-        <v>392987</v>
+        <v>369450</v>
       </c>
       <c r="AA43" s="11">
-        <v>369450</v>
+        <v>517319</v>
       </c>
       <c r="AB43" s="11">
-        <v>517319</v>
+        <v>489695</v>
       </c>
       <c r="AC43" s="11">
-        <v>489695</v>
+        <v>676661</v>
       </c>
       <c r="AD43" s="11">
-        <v>676661</v>
+        <v>701829</v>
       </c>
       <c r="AE43" s="11">
-        <v>701829</v>
+        <v>837746</v>
       </c>
       <c r="AF43" s="11">
-        <v>837746</v>
+        <v>760151</v>
       </c>
       <c r="AG43" s="11">
-        <v>760151</v>
+        <v>817967</v>
       </c>
       <c r="AH43" s="11">
-        <v>817967</v>
+        <v>311846</v>
       </c>
       <c r="AI43" s="11">
-        <v>311846</v>
+        <v>359496</v>
       </c>
       <c r="AJ43" s="11">
-        <v>359496</v>
+        <v>428859</v>
       </c>
       <c r="AK43" s="11">
-        <v>428859</v>
+        <v>851629</v>
       </c>
       <c r="AL43" s="11">
-        <v>851629</v>
+        <v>799234</v>
       </c>
       <c r="AM43" s="11">
-        <v>799234</v>
+        <v>822584</v>
       </c>
       <c r="AN43" s="11">
-        <v>822584</v>
+        <v>558241</v>
       </c>
       <c r="AO43" s="11">
-        <v>558241</v>
+        <v>826681</v>
       </c>
       <c r="AP43" s="11">
-        <v>826681</v>
+        <v>708201</v>
       </c>
       <c r="AQ43" s="11">
-        <v>708201</v>
+        <v>708790</v>
       </c>
       <c r="AR43" s="11">
-        <v>708790</v>
+        <v>887055</v>
       </c>
       <c r="AS43" s="11">
-        <v>887055</v>
+        <v>1019647</v>
       </c>
       <c r="AT43" s="11">
-        <v>1019647</v>
+        <v>448159</v>
       </c>
       <c r="AU43" s="11">
-        <v>448159</v>
+        <v>800241</v>
       </c>
       <c r="AV43" s="11">
-        <v>800241</v>
+        <v>953625</v>
       </c>
       <c r="AW43" s="11">
-        <v>953625</v>
+        <v>1425697</v>
       </c>
       <c r="AX43" s="11">
-        <v>1425697</v>
+        <v>1313071</v>
       </c>
       <c r="AY43" s="11">
-        <v>1313071</v>
+        <v>1189388</v>
       </c>
       <c r="AZ43" s="11">
-        <v>1189388</v>
+        <v>1176802</v>
       </c>
       <c r="BA43" s="11">
-        <v>1176802</v>
+        <v>1664118</v>
       </c>
       <c r="BB43" s="11">
-        <v>1664118</v>
+        <v>1524083</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -5323,140 +5323,140 @@
       <c r="I44" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J44" s="13" t="s">
-        <v>57</v>
+      <c r="J44" s="13">
+        <v>83676</v>
       </c>
       <c r="K44" s="13">
-        <v>83676</v>
+        <v>164484</v>
       </c>
       <c r="L44" s="13">
-        <v>164484</v>
+        <v>143029</v>
       </c>
       <c r="M44" s="13">
-        <v>143029</v>
+        <v>180653</v>
       </c>
       <c r="N44" s="13">
-        <v>180653</v>
+        <v>156385</v>
       </c>
       <c r="O44" s="13">
-        <v>156385</v>
+        <v>230991</v>
       </c>
       <c r="P44" s="13">
-        <v>230991</v>
+        <v>141829</v>
       </c>
       <c r="Q44" s="13">
-        <v>141829</v>
+        <v>109262</v>
       </c>
       <c r="R44" s="13">
-        <v>109262</v>
+        <v>170593</v>
       </c>
       <c r="S44" s="13">
-        <v>170593</v>
+        <v>185831</v>
       </c>
       <c r="T44" s="13">
-        <v>185831</v>
+        <v>256287</v>
       </c>
       <c r="U44" s="13">
-        <v>256287</v>
+        <v>261151</v>
       </c>
       <c r="V44" s="13">
-        <v>261151</v>
+        <v>81195</v>
       </c>
       <c r="W44" s="13">
-        <v>81195</v>
+        <v>196733</v>
       </c>
       <c r="X44" s="13">
-        <v>196733</v>
+        <v>182428</v>
       </c>
       <c r="Y44" s="13">
-        <v>182428</v>
+        <v>310867</v>
       </c>
       <c r="Z44" s="13">
-        <v>310867</v>
+        <v>190654</v>
       </c>
       <c r="AA44" s="13">
-        <v>190654</v>
+        <v>200646</v>
       </c>
       <c r="AB44" s="13">
-        <v>200646</v>
+        <v>216550</v>
       </c>
       <c r="AC44" s="13">
-        <v>216550</v>
+        <v>272077</v>
       </c>
       <c r="AD44" s="13">
-        <v>272077</v>
+        <v>398527</v>
       </c>
       <c r="AE44" s="13">
-        <v>398527</v>
+        <v>471571</v>
       </c>
       <c r="AF44" s="13">
-        <v>471571</v>
+        <v>581794</v>
       </c>
       <c r="AG44" s="13">
-        <v>581794</v>
+        <v>474679</v>
       </c>
       <c r="AH44" s="13">
-        <v>474679</v>
+        <v>225385</v>
       </c>
       <c r="AI44" s="13">
-        <v>225385</v>
+        <v>304049</v>
       </c>
       <c r="AJ44" s="13">
-        <v>304049</v>
+        <v>321980</v>
       </c>
       <c r="AK44" s="13">
-        <v>321980</v>
+        <v>511042</v>
       </c>
       <c r="AL44" s="13">
-        <v>511042</v>
+        <v>471275</v>
       </c>
       <c r="AM44" s="13">
-        <v>471275</v>
+        <v>721353</v>
       </c>
       <c r="AN44" s="13">
-        <v>721353</v>
+        <v>434703</v>
       </c>
       <c r="AO44" s="13">
-        <v>434703</v>
+        <v>444102</v>
       </c>
       <c r="AP44" s="13">
-        <v>444102</v>
+        <v>364693</v>
       </c>
       <c r="AQ44" s="13">
-        <v>364693</v>
+        <v>450219</v>
       </c>
       <c r="AR44" s="13">
-        <v>450219</v>
+        <v>555600</v>
       </c>
       <c r="AS44" s="13">
-        <v>555600</v>
+        <v>590428</v>
       </c>
       <c r="AT44" s="13">
-        <v>590428</v>
+        <v>241042</v>
       </c>
       <c r="AU44" s="13">
-        <v>241042</v>
+        <v>463723</v>
       </c>
       <c r="AV44" s="13">
-        <v>463723</v>
+        <v>556739</v>
       </c>
       <c r="AW44" s="13">
-        <v>556739</v>
+        <v>604086</v>
       </c>
       <c r="AX44" s="13">
-        <v>604086</v>
+        <v>700364</v>
       </c>
       <c r="AY44" s="13">
-        <v>700364</v>
+        <v>613950</v>
       </c>
       <c r="AZ44" s="13">
-        <v>613950</v>
+        <v>552269</v>
       </c>
       <c r="BA44" s="13">
-        <v>552269</v>
+        <v>779107</v>
       </c>
       <c r="BB44" s="13">
-        <v>779107</v>
+        <v>763016</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -5617,62 +5617,62 @@
       <c r="AI46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AJ46" s="11" t="s">
-        <v>57</v>
+      <c r="AJ46" s="11">
+        <v>6789</v>
       </c>
       <c r="AK46" s="11">
-        <v>6789</v>
+        <v>0</v>
       </c>
       <c r="AL46" s="11">
         <v>0</v>
       </c>
       <c r="AM46" s="11">
-        <v>0</v>
+        <v>5565</v>
       </c>
       <c r="AN46" s="11">
-        <v>5565</v>
+        <v>2306</v>
       </c>
       <c r="AO46" s="11">
-        <v>2306</v>
+        <v>1518</v>
       </c>
       <c r="AP46" s="11">
-        <v>1518</v>
+        <v>19527</v>
       </c>
       <c r="AQ46" s="11">
-        <v>19527</v>
+        <v>5089</v>
       </c>
       <c r="AR46" s="11">
-        <v>5089</v>
+        <v>1558</v>
       </c>
       <c r="AS46" s="11">
-        <v>1558</v>
+        <v>1839</v>
       </c>
       <c r="AT46" s="11">
-        <v>1839</v>
+        <v>1485</v>
       </c>
       <c r="AU46" s="11">
-        <v>1485</v>
+        <v>8779</v>
       </c>
       <c r="AV46" s="11">
-        <v>8779</v>
+        <v>4375</v>
       </c>
       <c r="AW46" s="11">
-        <v>4375</v>
+        <v>9332</v>
       </c>
       <c r="AX46" s="11">
-        <v>9332</v>
+        <v>8864</v>
       </c>
       <c r="AY46" s="11">
-        <v>8864</v>
+        <v>7414</v>
       </c>
       <c r="AZ46" s="11">
-        <v>7404</v>
+        <v>7218</v>
       </c>
       <c r="BA46" s="11">
-        <v>7218</v>
+        <v>966</v>
       </c>
       <c r="BB46" s="11">
-        <v>966</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -5743,8 +5743,8 @@
       <c r="X47" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Y47" s="15" t="s">
-        <v>57</v>
+      <c r="Y47" s="15">
+        <v>0</v>
       </c>
       <c r="Z47" s="15">
         <v>0</v>
@@ -5777,61 +5777,61 @@
         <v>0</v>
       </c>
       <c r="AJ47" s="15">
-        <v>0</v>
+        <v>6789</v>
       </c>
       <c r="AK47" s="15">
-        <v>6789</v>
+        <v>0</v>
       </c>
       <c r="AL47" s="15">
         <v>0</v>
       </c>
       <c r="AM47" s="15">
-        <v>0</v>
+        <v>5565</v>
       </c>
       <c r="AN47" s="15">
-        <v>5565</v>
+        <v>2306</v>
       </c>
       <c r="AO47" s="15">
-        <v>2306</v>
+        <v>1518</v>
       </c>
       <c r="AP47" s="15">
-        <v>1518</v>
+        <v>19527</v>
       </c>
       <c r="AQ47" s="15">
-        <v>19527</v>
+        <v>5089</v>
       </c>
       <c r="AR47" s="15">
-        <v>5089</v>
+        <v>1558</v>
       </c>
       <c r="AS47" s="15">
-        <v>1558</v>
+        <v>1839</v>
       </c>
       <c r="AT47" s="15">
-        <v>1839</v>
+        <v>1485</v>
       </c>
       <c r="AU47" s="15">
-        <v>1485</v>
+        <v>8779</v>
       </c>
       <c r="AV47" s="15">
-        <v>8779</v>
+        <v>4375</v>
       </c>
       <c r="AW47" s="15">
-        <v>4375</v>
+        <v>9332</v>
       </c>
       <c r="AX47" s="15">
-        <v>9332</v>
+        <v>8864</v>
       </c>
       <c r="AY47" s="15">
-        <v>8864</v>
+        <v>7414</v>
       </c>
       <c r="AZ47" s="15">
-        <v>7404</v>
+        <v>7218</v>
       </c>
       <c r="BA47" s="15">
-        <v>7218</v>
+        <v>966</v>
       </c>
       <c r="BB47" s="15">
-        <v>966</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -5959,8 +5959,8 @@
       <c r="X49" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y49" s="17" t="s">
-        <v>57</v>
+      <c r="Y49" s="17">
+        <v>0</v>
       </c>
       <c r="Z49" s="17">
         <v>0</v>
@@ -6175,8 +6175,8 @@
       <c r="X51" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y51" s="11" t="s">
-        <v>57</v>
+      <c r="Y51" s="11">
+        <v>0</v>
       </c>
       <c r="Z51" s="11">
         <v>0</v>
@@ -6288,139 +6288,139 @@
         <v>0</v>
       </c>
       <c r="J52" s="15">
-        <v>0</v>
+        <v>379738</v>
       </c>
       <c r="K52" s="15">
-        <v>379738</v>
+        <v>765148</v>
       </c>
       <c r="L52" s="15">
-        <v>765148</v>
+        <v>671801</v>
       </c>
       <c r="M52" s="15">
-        <v>671801</v>
+        <v>957681</v>
       </c>
       <c r="N52" s="15">
-        <v>957681</v>
+        <v>750363</v>
       </c>
       <c r="O52" s="15">
-        <v>750363</v>
+        <v>1217675</v>
       </c>
       <c r="P52" s="15">
-        <v>1217675</v>
+        <v>593345</v>
       </c>
       <c r="Q52" s="15">
-        <v>593345</v>
+        <v>588880</v>
       </c>
       <c r="R52" s="15">
-        <v>588880</v>
+        <v>924501</v>
       </c>
       <c r="S52" s="15">
-        <v>924501</v>
+        <v>923346</v>
       </c>
       <c r="T52" s="15">
-        <v>923346</v>
+        <v>1105717</v>
       </c>
       <c r="U52" s="15">
-        <v>1105717</v>
+        <v>1252063</v>
       </c>
       <c r="V52" s="15">
-        <v>1252063</v>
+        <v>760355</v>
       </c>
       <c r="W52" s="15">
-        <v>760355</v>
+        <v>1163289</v>
       </c>
       <c r="X52" s="15">
-        <v>1163289</v>
+        <v>999602</v>
       </c>
       <c r="Y52" s="15">
-        <v>999602</v>
+        <v>1322051</v>
       </c>
       <c r="Z52" s="15">
-        <v>1322051</v>
+        <v>1159955</v>
       </c>
       <c r="AA52" s="15">
-        <v>1159955</v>
+        <v>1257479</v>
       </c>
       <c r="AB52" s="15">
-        <v>1257479</v>
+        <v>1241360</v>
       </c>
       <c r="AC52" s="15">
-        <v>1241360</v>
+        <v>1711212</v>
       </c>
       <c r="AD52" s="15">
-        <v>1711212</v>
+        <v>2034849</v>
       </c>
       <c r="AE52" s="15">
-        <v>2034849</v>
+        <v>2519840</v>
       </c>
       <c r="AF52" s="15">
-        <v>2519840</v>
+        <v>2134847</v>
       </c>
       <c r="AG52" s="15">
-        <v>2134847</v>
+        <v>2155127</v>
       </c>
       <c r="AH52" s="15">
-        <v>2155127</v>
+        <v>771063</v>
       </c>
       <c r="AI52" s="15">
-        <v>771063</v>
+        <v>1301878</v>
       </c>
       <c r="AJ52" s="15">
-        <v>1301878</v>
+        <v>1358368</v>
       </c>
       <c r="AK52" s="15">
-        <v>1358368</v>
+        <v>2451001</v>
       </c>
       <c r="AL52" s="15">
-        <v>2451001</v>
+        <v>2235754</v>
       </c>
       <c r="AM52" s="15">
-        <v>2235754</v>
+        <v>2742649</v>
       </c>
       <c r="AN52" s="15">
-        <v>2742649</v>
+        <v>1690252</v>
       </c>
       <c r="AO52" s="15">
-        <v>1690252</v>
+        <v>2151896</v>
       </c>
       <c r="AP52" s="15">
-        <v>2151896</v>
+        <v>1722130</v>
       </c>
       <c r="AQ52" s="15">
-        <v>1722130</v>
+        <v>2024113</v>
       </c>
       <c r="AR52" s="15">
-        <v>2024113</v>
+        <v>2327899</v>
       </c>
       <c r="AS52" s="15">
-        <v>2327899</v>
+        <v>2627301</v>
       </c>
       <c r="AT52" s="15">
-        <v>2627301</v>
+        <v>1091189</v>
       </c>
       <c r="AU52" s="15">
-        <v>1091189</v>
+        <v>2019705</v>
       </c>
       <c r="AV52" s="15">
-        <v>2019705</v>
+        <v>2619534</v>
       </c>
       <c r="AW52" s="15">
-        <v>2619534</v>
+        <v>3230045</v>
       </c>
       <c r="AX52" s="15">
-        <v>3230045</v>
+        <v>3173007</v>
       </c>
       <c r="AY52" s="15">
-        <v>3173007</v>
+        <v>3036598</v>
       </c>
       <c r="AZ52" s="15">
-        <v>3036588</v>
+        <v>2822174</v>
       </c>
       <c r="BA52" s="15">
-        <v>2822174</v>
+        <v>3878250</v>
       </c>
       <c r="BB52" s="15">
-        <v>3878250</v>
+        <v>3584741</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
@@ -6880,140 +6880,140 @@
       <c r="I59" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J59" s="11" t="s">
-        <v>57</v>
+      <c r="J59" s="11">
+        <v>85256993</v>
       </c>
       <c r="K59" s="11">
-        <v>85256993</v>
+        <v>86954069</v>
       </c>
       <c r="L59" s="11">
-        <v>86954069</v>
+        <v>100126225</v>
       </c>
       <c r="M59" s="11">
-        <v>100126225</v>
+        <v>104540466</v>
       </c>
       <c r="N59" s="11">
-        <v>104540466</v>
+        <v>117537764</v>
       </c>
       <c r="O59" s="11">
-        <v>117537764</v>
+        <v>119480020</v>
       </c>
       <c r="P59" s="11">
-        <v>119480020</v>
+        <v>117164811</v>
       </c>
       <c r="Q59" s="11">
-        <v>117164811</v>
+        <v>109782907</v>
       </c>
       <c r="R59" s="11">
-        <v>109782907</v>
+        <v>107313131</v>
       </c>
       <c r="S59" s="11">
-        <v>107313131</v>
+        <v>101736968</v>
       </c>
       <c r="T59" s="11">
-        <v>101736968</v>
+        <v>106682160</v>
       </c>
       <c r="U59" s="11">
-        <v>106682160</v>
+        <v>109144459</v>
       </c>
       <c r="V59" s="11">
-        <v>109144459</v>
+        <v>110013075</v>
       </c>
       <c r="W59" s="11">
-        <v>110013075</v>
+        <v>110435594</v>
       </c>
       <c r="X59" s="11">
-        <v>110435594</v>
+        <v>105119792</v>
       </c>
       <c r="Y59" s="11">
-        <v>105119792</v>
+        <v>122804331</v>
       </c>
       <c r="Z59" s="11">
-        <v>122804331</v>
+        <v>122995899</v>
       </c>
       <c r="AA59" s="11">
-        <v>122995899</v>
+        <v>151676694</v>
       </c>
       <c r="AB59" s="11">
-        <v>151676694</v>
+        <v>132914804</v>
       </c>
       <c r="AC59" s="11">
-        <v>132914804</v>
+        <v>158815663</v>
       </c>
       <c r="AD59" s="11">
-        <v>158815663</v>
+        <v>160153042</v>
       </c>
       <c r="AE59" s="11">
-        <v>160153042</v>
+        <v>176409647</v>
       </c>
       <c r="AF59" s="11">
-        <v>176409647</v>
+        <v>167668006</v>
       </c>
       <c r="AG59" s="11">
-        <v>167668006</v>
+        <v>172392764</v>
       </c>
       <c r="AH59" s="11">
-        <v>172392764</v>
+        <v>190262002</v>
       </c>
       <c r="AI59" s="11">
-        <v>190262002</v>
+        <v>198919601</v>
       </c>
       <c r="AJ59" s="11">
-        <v>198919601</v>
+        <v>229115179</v>
       </c>
       <c r="AK59" s="11">
-        <v>229115179</v>
+        <v>219820238</v>
       </c>
       <c r="AL59" s="11">
-        <v>219820238</v>
+        <v>240230214</v>
       </c>
       <c r="AM59" s="11">
-        <v>240230214</v>
+        <v>258145175</v>
       </c>
       <c r="AN59" s="11">
-        <v>258145175</v>
+        <v>242668296</v>
       </c>
       <c r="AO59" s="11">
-        <v>242668296</v>
+        <v>243250830</v>
       </c>
       <c r="AP59" s="11">
-        <v>243250830</v>
+        <v>260533306</v>
       </c>
       <c r="AQ59" s="11">
-        <v>260533306</v>
+        <v>246705393</v>
       </c>
       <c r="AR59" s="11">
-        <v>246705393</v>
+        <v>222255030</v>
       </c>
       <c r="AS59" s="11">
-        <v>222255030</v>
+        <v>232993805</v>
       </c>
       <c r="AT59" s="11">
-        <v>232993805</v>
+        <v>277548857</v>
       </c>
       <c r="AU59" s="11">
-        <v>277548857</v>
+        <v>270736499</v>
       </c>
       <c r="AV59" s="11">
-        <v>270736499</v>
+        <v>309033566</v>
       </c>
       <c r="AW59" s="11">
-        <v>309033566</v>
+        <v>338910074</v>
       </c>
       <c r="AX59" s="11">
-        <v>338910074</v>
+        <v>306260419</v>
       </c>
       <c r="AY59" s="11">
-        <v>306260419</v>
+        <v>306231826</v>
       </c>
       <c r="AZ59" s="11">
-        <v>306231826</v>
+        <v>339127108</v>
       </c>
       <c r="BA59" s="11">
-        <v>339127108</v>
+        <v>355404957</v>
       </c>
       <c r="BB59" s="11">
-        <v>355404957</v>
+        <v>362239362</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -7039,140 +7039,140 @@
       <c r="I60" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J60" s="13" t="s">
-        <v>57</v>
+      <c r="J60" s="13">
+        <v>75636869</v>
       </c>
       <c r="K60" s="13">
-        <v>75636869</v>
+        <v>77689482</v>
       </c>
       <c r="L60" s="13">
-        <v>77689482</v>
+        <v>79371454</v>
       </c>
       <c r="M60" s="13">
-        <v>79371454</v>
+        <v>92194143</v>
       </c>
       <c r="N60" s="13">
-        <v>92194143</v>
+        <v>95670137</v>
       </c>
       <c r="O60" s="13">
-        <v>95670137</v>
+        <v>96193414</v>
       </c>
       <c r="P60" s="13">
-        <v>96193414</v>
+        <v>89225759</v>
       </c>
       <c r="Q60" s="13">
-        <v>89225759</v>
+        <v>92330505</v>
       </c>
       <c r="R60" s="13">
-        <v>92330505</v>
+        <v>94494334</v>
       </c>
       <c r="S60" s="13">
-        <v>94494334</v>
+        <v>94335371</v>
       </c>
       <c r="T60" s="13">
-        <v>94335371</v>
+        <v>89163854</v>
       </c>
       <c r="U60" s="13">
-        <v>89163854</v>
+        <v>86132068</v>
       </c>
       <c r="V60" s="13">
-        <v>86132068</v>
+        <v>92333970</v>
       </c>
       <c r="W60" s="13">
-        <v>92333970</v>
+        <v>98031802</v>
       </c>
       <c r="X60" s="13">
-        <v>98031802</v>
+        <v>93802916</v>
       </c>
       <c r="Y60" s="13">
-        <v>93802916</v>
+        <v>115414684</v>
       </c>
       <c r="Z60" s="13">
-        <v>115414684</v>
+        <v>113922294</v>
       </c>
       <c r="AA60" s="13">
-        <v>113922294</v>
+        <v>122009198</v>
       </c>
       <c r="AB60" s="13">
-        <v>122009198</v>
+        <v>125917974</v>
       </c>
       <c r="AC60" s="13">
-        <v>125917974</v>
+        <v>158468618</v>
       </c>
       <c r="AD60" s="13">
-        <v>158468618</v>
+        <v>158820774</v>
       </c>
       <c r="AE60" s="13">
-        <v>158820774</v>
+        <v>157767608</v>
       </c>
       <c r="AF60" s="13">
-        <v>157767608</v>
+        <v>155736734</v>
       </c>
       <c r="AG60" s="13">
-        <v>155736734</v>
+        <v>160858800</v>
       </c>
       <c r="AH60" s="13">
-        <v>160858800</v>
+        <v>158781059</v>
       </c>
       <c r="AI60" s="13">
-        <v>158781059</v>
+        <v>150605781</v>
       </c>
       <c r="AJ60" s="13">
-        <v>150605781</v>
+        <v>152131607</v>
       </c>
       <c r="AK60" s="13">
-        <v>152131607</v>
+        <v>181622734</v>
       </c>
       <c r="AL60" s="13">
-        <v>181622734</v>
+        <v>197536827</v>
       </c>
       <c r="AM60" s="13">
-        <v>197536827</v>
+        <v>199704783</v>
       </c>
       <c r="AN60" s="13">
-        <v>199704783</v>
+        <v>191769495</v>
       </c>
       <c r="AO60" s="13">
-        <v>191769495</v>
+        <v>193014476</v>
       </c>
       <c r="AP60" s="13">
-        <v>193014476</v>
+        <v>185635911</v>
       </c>
       <c r="AQ60" s="13">
-        <v>185635911</v>
+        <v>174278338</v>
       </c>
       <c r="AR60" s="13">
-        <v>174278338</v>
+        <v>182671952</v>
       </c>
       <c r="AS60" s="13">
-        <v>182671952</v>
+        <v>177576977</v>
       </c>
       <c r="AT60" s="13">
-        <v>177576977</v>
+        <v>198300442</v>
       </c>
       <c r="AU60" s="13">
-        <v>198300442</v>
+        <v>210478958</v>
       </c>
       <c r="AV60" s="13">
-        <v>210478958</v>
+        <v>224435161</v>
       </c>
       <c r="AW60" s="13">
-        <v>224435161</v>
+        <v>248856170</v>
       </c>
       <c r="AX60" s="13">
-        <v>248856170</v>
+        <v>247834539</v>
       </c>
       <c r="AY60" s="13">
-        <v>247834539</v>
+        <v>218637500</v>
       </c>
       <c r="AZ60" s="13">
-        <v>218637500</v>
+        <v>246864275</v>
       </c>
       <c r="BA60" s="13">
-        <v>246864275</v>
+        <v>267285255</v>
       </c>
       <c r="BB60" s="13">
-        <v>267285255</v>
+        <v>254437896</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -7198,140 +7198,140 @@
       <c r="I61" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J61" s="11" t="s">
-        <v>57</v>
+      <c r="J61" s="11">
+        <v>52759142</v>
       </c>
       <c r="K61" s="11">
-        <v>52759142</v>
+        <v>47884716</v>
       </c>
       <c r="L61" s="11">
-        <v>47884716</v>
+        <v>49628383</v>
       </c>
       <c r="M61" s="11">
-        <v>49628383</v>
+        <v>56755577</v>
       </c>
       <c r="N61" s="11">
-        <v>56755577</v>
+        <v>59057779</v>
       </c>
       <c r="O61" s="11">
-        <v>59057779</v>
+        <v>68726867</v>
       </c>
       <c r="P61" s="11">
-        <v>68726867</v>
+        <v>53702764</v>
       </c>
       <c r="Q61" s="11">
-        <v>53702764</v>
+        <v>50304788</v>
       </c>
       <c r="R61" s="11">
-        <v>50304788</v>
+        <v>59627053</v>
       </c>
       <c r="S61" s="11">
-        <v>59627053</v>
+        <v>58163067</v>
       </c>
       <c r="T61" s="11">
-        <v>58163067</v>
+        <v>58579886</v>
       </c>
       <c r="U61" s="11">
-        <v>58579886</v>
+        <v>60860172</v>
       </c>
       <c r="V61" s="11">
-        <v>60860172</v>
+        <v>55765797</v>
       </c>
       <c r="W61" s="11">
-        <v>55765797</v>
+        <v>60701327</v>
       </c>
       <c r="X61" s="11">
-        <v>60701327</v>
+        <v>59753685</v>
       </c>
       <c r="Y61" s="11">
-        <v>59753685</v>
+        <v>77639111</v>
       </c>
       <c r="Z61" s="11">
-        <v>77639111</v>
+        <v>66429965</v>
       </c>
       <c r="AA61" s="11">
-        <v>66429965</v>
+        <v>67740041</v>
       </c>
       <c r="AB61" s="11">
-        <v>67740041</v>
+        <v>70514490</v>
       </c>
       <c r="AC61" s="11">
-        <v>70514490</v>
+        <v>88914052</v>
       </c>
       <c r="AD61" s="11">
-        <v>88914052</v>
+        <v>95136548</v>
       </c>
       <c r="AE61" s="11">
-        <v>95136548</v>
+        <v>98572533</v>
       </c>
       <c r="AF61" s="11">
-        <v>98572533</v>
+        <v>97912151</v>
       </c>
       <c r="AG61" s="11">
-        <v>97912151</v>
+        <v>107979754</v>
       </c>
       <c r="AH61" s="11">
-        <v>107979754</v>
+        <v>100888541</v>
       </c>
       <c r="AI61" s="11">
-        <v>100888541</v>
+        <v>100611846</v>
       </c>
       <c r="AJ61" s="11">
-        <v>100611846</v>
+        <v>100997491</v>
       </c>
       <c r="AK61" s="11">
-        <v>100997491</v>
+        <v>109313797</v>
       </c>
       <c r="AL61" s="11">
-        <v>109313797</v>
+        <v>126789077</v>
       </c>
       <c r="AM61" s="11">
-        <v>126789077</v>
+        <v>134555680</v>
       </c>
       <c r="AN61" s="11">
-        <v>134555680</v>
+        <v>107519911</v>
       </c>
       <c r="AO61" s="11">
-        <v>107519911</v>
+        <v>108054015</v>
       </c>
       <c r="AP61" s="11">
-        <v>108054015</v>
+        <v>108766180</v>
       </c>
       <c r="AQ61" s="11">
-        <v>108766180</v>
+        <v>105933882</v>
       </c>
       <c r="AR61" s="11">
-        <v>105933882</v>
+        <v>107237985</v>
       </c>
       <c r="AS61" s="11">
-        <v>107237985</v>
+        <v>113152166</v>
       </c>
       <c r="AT61" s="11">
-        <v>113152166</v>
+        <v>130433983</v>
       </c>
       <c r="AU61" s="11">
-        <v>130433983</v>
+        <v>125534109</v>
       </c>
       <c r="AV61" s="11">
-        <v>125534109</v>
+        <v>153371625</v>
       </c>
       <c r="AW61" s="11">
-        <v>153371625</v>
+        <v>143624822</v>
       </c>
       <c r="AX61" s="11">
-        <v>143624822</v>
+        <v>157034691</v>
       </c>
       <c r="AY61" s="11">
-        <v>157034691</v>
+        <v>137626093</v>
       </c>
       <c r="AZ61" s="11">
-        <v>137626093</v>
+        <v>140454985</v>
       </c>
       <c r="BA61" s="11">
-        <v>140454985</v>
+        <v>147670015</v>
       </c>
       <c r="BB61" s="11">
-        <v>147670015</v>
+        <v>151572507</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -7492,8 +7492,8 @@
       <c r="AI63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AJ63" s="11" t="s">
-        <v>57</v>
+      <c r="AJ63" s="11">
+        <v>0</v>
       </c>
       <c r="AK63" s="11">
         <v>0</v>

--- a/database/industries/shoyande/gharn/product/monthly.xlsx
+++ b/database/industries/shoyande/gharn/product/monthly.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\gharn\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C10D86-1805-498D-BE24-B8F2ED5E735E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="9450"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="80">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +36,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
     <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
@@ -185,6 +181,9 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
   </si>
   <si>
     <t>سایر</t>
@@ -265,7 +264,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -458,7 +457,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -470,7 +469,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -517,23 +516,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -569,23 +551,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -737,17 +702,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -802,7 +767,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -859,7 +824,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -916,7 +881,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -971,7 +936,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1028,7 +993,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1085,7 +1050,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1140,7 +1105,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1297,7 +1262,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1352,7 +1317,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1409,7 +1374,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1501,8 +1466,8 @@
       <c r="AF11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AG11" s="11" t="s">
-        <v>57</v>
+      <c r="AG11" s="11">
+        <v>0</v>
       </c>
       <c r="AH11" s="11">
         <v>0</v>
@@ -1537,8 +1502,8 @@
       <c r="AR11" s="11">
         <v>0</v>
       </c>
-      <c r="AS11" s="11">
-        <v>0</v>
+      <c r="AS11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT11" s="11" t="s">
         <v>57</v>
@@ -1568,7 +1533,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1588,146 +1553,146 @@
       <c r="H12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>57</v>
+      <c r="I12" s="13">
+        <v>1745</v>
       </c>
       <c r="J12" s="13">
-        <v>1745</v>
+        <v>3498</v>
       </c>
       <c r="K12" s="13">
-        <v>3498</v>
+        <v>2884</v>
       </c>
       <c r="L12" s="13">
-        <v>2884</v>
+        <v>3898</v>
       </c>
       <c r="M12" s="13">
-        <v>3898</v>
+        <v>2452</v>
       </c>
       <c r="N12" s="13">
-        <v>2452</v>
+        <v>3187</v>
       </c>
       <c r="O12" s="13">
-        <v>3187</v>
+        <v>2803</v>
       </c>
       <c r="P12" s="13">
-        <v>2803</v>
+        <v>2514</v>
       </c>
       <c r="Q12" s="13">
-        <v>2514</v>
+        <v>3801</v>
       </c>
       <c r="R12" s="13">
-        <v>3801</v>
+        <v>3829</v>
       </c>
       <c r="S12" s="13">
-        <v>3829</v>
+        <v>3972</v>
       </c>
       <c r="T12" s="13">
-        <v>3972</v>
+        <v>5108</v>
       </c>
       <c r="U12" s="13">
-        <v>5108</v>
+        <v>3629</v>
       </c>
       <c r="V12" s="13">
-        <v>3629</v>
+        <v>5395</v>
       </c>
       <c r="W12" s="13">
-        <v>5395</v>
+        <v>4741</v>
       </c>
       <c r="X12" s="13">
-        <v>4741</v>
+        <v>5003</v>
       </c>
       <c r="Y12" s="13">
-        <v>5003</v>
+        <v>4441</v>
       </c>
       <c r="Z12" s="13">
-        <v>4441</v>
+        <v>3227</v>
       </c>
       <c r="AA12" s="13">
-        <v>3227</v>
+        <v>4038</v>
       </c>
       <c r="AB12" s="13">
-        <v>4038</v>
+        <v>5117</v>
       </c>
       <c r="AC12" s="13">
-        <v>5117</v>
+        <v>6377</v>
       </c>
       <c r="AD12" s="13">
-        <v>6377</v>
+        <v>6970</v>
       </c>
       <c r="AE12" s="13">
-        <v>6970</v>
+        <v>3508</v>
       </c>
       <c r="AF12" s="13">
-        <v>3508</v>
+        <v>5201</v>
       </c>
       <c r="AG12" s="13">
-        <v>5201</v>
+        <v>2219</v>
       </c>
       <c r="AH12" s="13">
-        <v>2219</v>
+        <v>2061</v>
       </c>
       <c r="AI12" s="13">
-        <v>2061</v>
+        <v>2726</v>
       </c>
       <c r="AJ12" s="13">
-        <v>2726</v>
+        <v>5507</v>
       </c>
       <c r="AK12" s="13">
-        <v>5507</v>
+        <v>4011</v>
       </c>
       <c r="AL12" s="13">
-        <v>4011</v>
+        <v>4579</v>
       </c>
       <c r="AM12" s="13">
-        <v>4579</v>
+        <v>3298</v>
       </c>
       <c r="AN12" s="13">
-        <v>3298</v>
+        <v>2788</v>
       </c>
       <c r="AO12" s="13">
-        <v>2788</v>
+        <v>2869</v>
       </c>
       <c r="AP12" s="13">
-        <v>2869</v>
+        <v>2727</v>
       </c>
       <c r="AQ12" s="13">
-        <v>2727</v>
+        <v>4657</v>
       </c>
       <c r="AR12" s="13">
-        <v>4657</v>
+        <v>3661</v>
       </c>
       <c r="AS12" s="13">
-        <v>3661</v>
+        <v>1798</v>
       </c>
       <c r="AT12" s="13">
-        <v>1798</v>
+        <v>2509</v>
       </c>
       <c r="AU12" s="13">
-        <v>2509</v>
+        <v>4262</v>
       </c>
       <c r="AV12" s="13">
-        <v>4262</v>
+        <v>3811</v>
       </c>
       <c r="AW12" s="13">
-        <v>3811</v>
+        <v>3928</v>
       </c>
       <c r="AX12" s="13">
-        <v>3928</v>
+        <v>4555</v>
       </c>
       <c r="AY12" s="13">
-        <v>4555</v>
+        <v>3266</v>
       </c>
       <c r="AZ12" s="13">
-        <v>3266</v>
+        <v>3588</v>
       </c>
       <c r="BA12" s="13">
-        <v>3588</v>
+        <v>3891</v>
       </c>
       <c r="BB12" s="13">
-        <v>3891</v>
+        <v>3887</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1747,146 +1712,146 @@
       <c r="H13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="11" t="s">
-        <v>57</v>
+      <c r="I13" s="11">
+        <v>2242</v>
       </c>
       <c r="J13" s="11">
-        <v>2242</v>
+        <v>4250</v>
       </c>
       <c r="K13" s="11">
-        <v>4250</v>
+        <v>2863</v>
       </c>
       <c r="L13" s="11">
-        <v>2863</v>
+        <v>4800</v>
       </c>
       <c r="M13" s="11">
-        <v>4800</v>
+        <v>3613</v>
       </c>
       <c r="N13" s="11">
-        <v>3613</v>
+        <v>4665</v>
       </c>
       <c r="O13" s="11">
-        <v>4665</v>
+        <v>3321</v>
       </c>
       <c r="P13" s="11">
-        <v>3321</v>
+        <v>2946</v>
       </c>
       <c r="Q13" s="11">
-        <v>2946</v>
+        <v>3813</v>
       </c>
       <c r="R13" s="11">
-        <v>3813</v>
+        <v>4920</v>
       </c>
       <c r="S13" s="11">
-        <v>4920</v>
+        <v>5229</v>
       </c>
       <c r="T13" s="11">
-        <v>5229</v>
+        <v>4494</v>
       </c>
       <c r="U13" s="11">
-        <v>4494</v>
+        <v>3002</v>
       </c>
       <c r="V13" s="11">
-        <v>3002</v>
+        <v>4738</v>
       </c>
       <c r="W13" s="11">
-        <v>4738</v>
+        <v>3318</v>
       </c>
       <c r="X13" s="11">
-        <v>3318</v>
+        <v>3965</v>
       </c>
       <c r="Y13" s="11">
-        <v>3965</v>
+        <v>2649</v>
       </c>
       <c r="Z13" s="11">
-        <v>2649</v>
+        <v>4152</v>
       </c>
       <c r="AA13" s="11">
-        <v>4152</v>
+        <v>3219</v>
       </c>
       <c r="AB13" s="11">
-        <v>3219</v>
+        <v>4166</v>
       </c>
       <c r="AC13" s="11">
-        <v>4166</v>
+        <v>5144</v>
       </c>
       <c r="AD13" s="11">
-        <v>5144</v>
+        <v>5700</v>
       </c>
       <c r="AE13" s="11">
-        <v>5700</v>
+        <v>3767</v>
       </c>
       <c r="AF13" s="11">
-        <v>3767</v>
+        <v>5500</v>
       </c>
       <c r="AG13" s="11">
-        <v>5500</v>
+        <v>2838</v>
       </c>
       <c r="AH13" s="11">
-        <v>2838</v>
+        <v>885</v>
       </c>
       <c r="AI13" s="11">
-        <v>885</v>
+        <v>3309</v>
       </c>
       <c r="AJ13" s="11">
-        <v>3309</v>
+        <v>5341</v>
       </c>
       <c r="AK13" s="11">
-        <v>5341</v>
+        <v>3657</v>
       </c>
       <c r="AL13" s="11">
-        <v>3657</v>
+        <v>4860</v>
       </c>
       <c r="AM13" s="11">
-        <v>4860</v>
+        <v>3183</v>
       </c>
       <c r="AN13" s="11">
-        <v>3183</v>
+        <v>3651</v>
       </c>
       <c r="AO13" s="11">
-        <v>3651</v>
+        <v>4748</v>
       </c>
       <c r="AP13" s="11">
-        <v>4748</v>
+        <v>4251</v>
       </c>
       <c r="AQ13" s="11">
-        <v>4251</v>
+        <v>5069</v>
       </c>
       <c r="AR13" s="11">
-        <v>5069</v>
+        <v>4555</v>
       </c>
       <c r="AS13" s="11">
-        <v>4555</v>
+        <v>2354</v>
       </c>
       <c r="AT13" s="11">
-        <v>2354</v>
+        <v>3415</v>
       </c>
       <c r="AU13" s="11">
-        <v>3415</v>
+        <v>5170</v>
       </c>
       <c r="AV13" s="11">
-        <v>5170</v>
+        <v>5489</v>
       </c>
       <c r="AW13" s="11">
-        <v>5489</v>
+        <v>5494</v>
       </c>
       <c r="AX13" s="11">
-        <v>5494</v>
+        <v>5571</v>
       </c>
       <c r="AY13" s="11">
-        <v>5571</v>
+        <v>4921</v>
       </c>
       <c r="AZ13" s="11">
-        <v>4921</v>
+        <v>6802</v>
       </c>
       <c r="BA13" s="11">
-        <v>6802</v>
+        <v>6652</v>
       </c>
       <c r="BB13" s="11">
-        <v>6652</v>
+        <v>7428</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1906,146 +1871,146 @@
       <c r="H14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="13" t="s">
-        <v>57</v>
+      <c r="I14" s="13">
+        <v>1838</v>
       </c>
       <c r="J14" s="13">
-        <v>1838</v>
+        <v>3469</v>
       </c>
       <c r="K14" s="13">
-        <v>3469</v>
+        <v>2743</v>
       </c>
       <c r="L14" s="13">
-        <v>2743</v>
+        <v>3519</v>
       </c>
       <c r="M14" s="13">
-        <v>3519</v>
+        <v>2665</v>
       </c>
       <c r="N14" s="13">
-        <v>2665</v>
+        <v>3141</v>
       </c>
       <c r="O14" s="13">
-        <v>3141</v>
+        <v>2877</v>
       </c>
       <c r="P14" s="13">
-        <v>2877</v>
+        <v>2278</v>
       </c>
       <c r="Q14" s="13">
-        <v>2278</v>
+        <v>3015</v>
       </c>
       <c r="R14" s="13">
-        <v>3015</v>
+        <v>4016</v>
       </c>
       <c r="S14" s="13">
-        <v>4016</v>
+        <v>4010</v>
       </c>
       <c r="T14" s="13">
-        <v>4010</v>
+        <v>3544</v>
       </c>
       <c r="U14" s="13">
-        <v>3544</v>
+        <v>1584</v>
       </c>
       <c r="V14" s="13">
-        <v>1584</v>
+        <v>3328</v>
       </c>
       <c r="W14" s="13">
-        <v>3328</v>
+        <v>3107</v>
       </c>
       <c r="X14" s="13">
-        <v>3107</v>
+        <v>4240</v>
       </c>
       <c r="Y14" s="13">
-        <v>4240</v>
+        <v>2713</v>
       </c>
       <c r="Z14" s="13">
-        <v>2713</v>
+        <v>2941</v>
       </c>
       <c r="AA14" s="13">
-        <v>2941</v>
+        <v>2879</v>
       </c>
       <c r="AB14" s="13">
-        <v>2879</v>
+        <v>3392</v>
       </c>
       <c r="AC14" s="13">
-        <v>3392</v>
+        <v>4575</v>
       </c>
       <c r="AD14" s="13">
-        <v>4575</v>
+        <v>5244</v>
       </c>
       <c r="AE14" s="13">
-        <v>5244</v>
+        <v>5692</v>
       </c>
       <c r="AF14" s="13">
-        <v>5692</v>
+        <v>5317</v>
       </c>
       <c r="AG14" s="13">
-        <v>5317</v>
+        <v>2424</v>
       </c>
       <c r="AH14" s="13">
-        <v>2424</v>
+        <v>2852</v>
       </c>
       <c r="AI14" s="13">
-        <v>2852</v>
+        <v>3738</v>
       </c>
       <c r="AJ14" s="13">
-        <v>3738</v>
+        <v>4833</v>
       </c>
       <c r="AK14" s="13">
-        <v>4833</v>
+        <v>4126</v>
       </c>
       <c r="AL14" s="13">
-        <v>4126</v>
+        <v>5335</v>
       </c>
       <c r="AM14" s="13">
-        <v>5335</v>
+        <v>4371</v>
       </c>
       <c r="AN14" s="13">
-        <v>4371</v>
+        <v>4164</v>
       </c>
       <c r="AO14" s="13">
-        <v>4164</v>
+        <v>3631</v>
       </c>
       <c r="AP14" s="13">
-        <v>3631</v>
+        <v>3673</v>
       </c>
       <c r="AQ14" s="13">
-        <v>3673</v>
+        <v>5490</v>
       </c>
       <c r="AR14" s="13">
-        <v>5490</v>
+        <v>4234</v>
       </c>
       <c r="AS14" s="13">
-        <v>4234</v>
+        <v>2384</v>
       </c>
       <c r="AT14" s="13">
-        <v>2384</v>
+        <v>3547</v>
       </c>
       <c r="AU14" s="13">
-        <v>3547</v>
+        <v>4053</v>
       </c>
       <c r="AV14" s="13">
-        <v>4053</v>
+        <v>4193</v>
       </c>
       <c r="AW14" s="13">
-        <v>4193</v>
+        <v>4611</v>
       </c>
       <c r="AX14" s="13">
-        <v>4611</v>
+        <v>4703</v>
       </c>
       <c r="AY14" s="13">
-        <v>4703</v>
+        <v>3902</v>
       </c>
       <c r="AZ14" s="13">
-        <v>3902</v>
+        <v>5535</v>
       </c>
       <c r="BA14" s="13">
-        <v>5535</v>
+        <v>5618</v>
       </c>
       <c r="BB14" s="13">
-        <v>5618</v>
+        <v>5087</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>61</v>
       </c>
@@ -2102,7 +2067,7 @@
       <c r="BA15" s="9"/>
       <c r="BB15" s="9"/>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>62</v>
       </c>
@@ -2233,11 +2198,11 @@
       <c r="AS16" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT16" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU16" s="11">
-        <v>0</v>
+      <c r="AT16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV16" s="11" t="s">
         <v>57</v>
@@ -2245,11 +2210,11 @@
       <c r="AW16" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AX16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="11">
-        <v>0</v>
+      <c r="AX16" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY16" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AZ16" s="11" t="s">
         <v>57</v>
@@ -2261,7 +2226,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>64</v>
       </c>
@@ -2324,8 +2289,8 @@
       <c r="W17" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="X17" s="15" t="s">
-        <v>57</v>
+      <c r="X17" s="15">
+        <v>0</v>
       </c>
       <c r="Y17" s="15">
         <v>0</v>
@@ -2418,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
         <v>65</v>
       </c>
@@ -2437,145 +2402,145 @@
         <v>0</v>
       </c>
       <c r="I18" s="17">
-        <v>0</v>
+        <v>5825</v>
       </c>
       <c r="J18" s="17">
-        <v>5825</v>
+        <v>11217</v>
       </c>
       <c r="K18" s="17">
-        <v>11217</v>
+        <v>8490</v>
       </c>
       <c r="L18" s="17">
-        <v>8490</v>
+        <v>12217</v>
       </c>
       <c r="M18" s="17">
-        <v>12217</v>
+        <v>8730</v>
       </c>
       <c r="N18" s="17">
-        <v>8730</v>
+        <v>10993</v>
       </c>
       <c r="O18" s="17">
-        <v>10993</v>
+        <v>9001</v>
       </c>
       <c r="P18" s="17">
-        <v>9001</v>
+        <v>7738</v>
       </c>
       <c r="Q18" s="17">
-        <v>7738</v>
+        <v>10629</v>
       </c>
       <c r="R18" s="17">
-        <v>10629</v>
+        <v>12765</v>
       </c>
       <c r="S18" s="17">
-        <v>12765</v>
+        <v>13211</v>
       </c>
       <c r="T18" s="17">
-        <v>13211</v>
+        <v>13146</v>
       </c>
       <c r="U18" s="17">
-        <v>13146</v>
+        <v>8215</v>
       </c>
       <c r="V18" s="17">
-        <v>8215</v>
+        <v>13461</v>
       </c>
       <c r="W18" s="17">
-        <v>13461</v>
+        <v>11166</v>
       </c>
       <c r="X18" s="17">
-        <v>11166</v>
+        <v>13208</v>
       </c>
       <c r="Y18" s="17">
-        <v>13208</v>
+        <v>9803</v>
       </c>
       <c r="Z18" s="17">
-        <v>9803</v>
+        <v>10320</v>
       </c>
       <c r="AA18" s="17">
-        <v>10320</v>
+        <v>10136</v>
       </c>
       <c r="AB18" s="17">
-        <v>10136</v>
+        <v>12675</v>
       </c>
       <c r="AC18" s="17">
-        <v>12675</v>
+        <v>16096</v>
       </c>
       <c r="AD18" s="17">
-        <v>16096</v>
+        <v>17914</v>
       </c>
       <c r="AE18" s="17">
-        <v>17914</v>
+        <v>12967</v>
       </c>
       <c r="AF18" s="17">
-        <v>12967</v>
+        <v>16018</v>
       </c>
       <c r="AG18" s="17">
-        <v>16018</v>
+        <v>7481</v>
       </c>
       <c r="AH18" s="17">
-        <v>7481</v>
+        <v>5798</v>
       </c>
       <c r="AI18" s="17">
-        <v>5798</v>
+        <v>9773</v>
       </c>
       <c r="AJ18" s="17">
-        <v>9773</v>
+        <v>15681</v>
       </c>
       <c r="AK18" s="17">
-        <v>15681</v>
+        <v>11794</v>
       </c>
       <c r="AL18" s="17">
-        <v>11794</v>
+        <v>14774</v>
       </c>
       <c r="AM18" s="17">
-        <v>14774</v>
+        <v>10852</v>
       </c>
       <c r="AN18" s="17">
-        <v>10852</v>
+        <v>10603</v>
       </c>
       <c r="AO18" s="17">
-        <v>10603</v>
+        <v>11248</v>
       </c>
       <c r="AP18" s="17">
-        <v>11248</v>
+        <v>10651</v>
       </c>
       <c r="AQ18" s="17">
-        <v>10651</v>
+        <v>15216</v>
       </c>
       <c r="AR18" s="17">
-        <v>15216</v>
+        <v>12450</v>
       </c>
       <c r="AS18" s="17">
-        <v>12450</v>
+        <v>6536</v>
       </c>
       <c r="AT18" s="17">
-        <v>6536</v>
+        <v>9471</v>
       </c>
       <c r="AU18" s="17">
-        <v>9471</v>
+        <v>13485</v>
       </c>
       <c r="AV18" s="17">
-        <v>13485</v>
+        <v>13493</v>
       </c>
       <c r="AW18" s="17">
-        <v>13493</v>
+        <v>14033</v>
       </c>
       <c r="AX18" s="17">
-        <v>14033</v>
+        <v>14829</v>
       </c>
       <c r="AY18" s="17">
-        <v>14829</v>
+        <v>12089</v>
       </c>
       <c r="AZ18" s="17">
-        <v>12089</v>
+        <v>15925</v>
       </c>
       <c r="BA18" s="17">
-        <v>15925</v>
+        <v>16161</v>
       </c>
       <c r="BB18" s="17">
-        <v>16161</v>
+        <v>16402</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2630,7 +2595,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2685,7 +2650,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2740,7 +2705,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>66</v>
       </c>
@@ -2897,7 +2862,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2952,7 +2917,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>66</v>
       </c>
@@ -3009,7 +2974,7 @@
       <c r="BA24" s="9"/>
       <c r="BB24" s="9"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>55</v>
       </c>
@@ -3101,8 +3066,8 @@
       <c r="AF25" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AG25" s="11" t="s">
-        <v>57</v>
+      <c r="AG25" s="11">
+        <v>0</v>
       </c>
       <c r="AH25" s="11">
         <v>0</v>
@@ -3137,8 +3102,8 @@
       <c r="AR25" s="11">
         <v>0</v>
       </c>
-      <c r="AS25" s="11">
-        <v>0</v>
+      <c r="AS25" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT25" s="11" t="s">
         <v>57</v>
@@ -3168,7 +3133,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>58</v>
       </c>
@@ -3188,146 +3153,146 @@
       <c r="H26" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="13" t="s">
-        <v>57</v>
+      <c r="I26" s="13">
+        <v>1716</v>
       </c>
       <c r="J26" s="13">
-        <v>1716</v>
+        <v>3527</v>
       </c>
       <c r="K26" s="13">
-        <v>3527</v>
+        <v>2654</v>
       </c>
       <c r="L26" s="13">
-        <v>2654</v>
+        <v>3608</v>
       </c>
       <c r="M26" s="13">
-        <v>3608</v>
+        <v>2317</v>
       </c>
       <c r="N26" s="13">
-        <v>2317</v>
+        <v>4004</v>
       </c>
       <c r="O26" s="13">
-        <v>4004</v>
+        <v>1796</v>
       </c>
       <c r="P26" s="13">
-        <v>1796</v>
+        <v>2188</v>
       </c>
       <c r="Q26" s="13">
-        <v>2188</v>
+        <v>3762</v>
       </c>
       <c r="R26" s="13">
-        <v>3762</v>
+        <v>3760</v>
       </c>
       <c r="S26" s="13">
-        <v>3760</v>
+        <v>3851</v>
       </c>
       <c r="T26" s="13">
-        <v>3851</v>
+        <v>5171</v>
       </c>
       <c r="U26" s="13">
-        <v>5171</v>
+        <v>3977</v>
       </c>
       <c r="V26" s="13">
-        <v>3977</v>
+        <v>4984</v>
       </c>
       <c r="W26" s="13">
-        <v>4984</v>
+        <v>4224</v>
       </c>
       <c r="X26" s="13">
-        <v>4224</v>
+        <v>5034</v>
       </c>
       <c r="Y26" s="13">
-        <v>5034</v>
+        <v>4877</v>
       </c>
       <c r="Z26" s="13">
-        <v>4877</v>
+        <v>3557</v>
       </c>
       <c r="AA26" s="13">
-        <v>3557</v>
+        <v>4026</v>
       </c>
       <c r="AB26" s="13">
-        <v>4026</v>
+        <v>4801</v>
       </c>
       <c r="AC26" s="13">
-        <v>4801</v>
+        <v>5835</v>
       </c>
       <c r="AD26" s="13">
-        <v>5835</v>
+        <v>6862</v>
       </c>
       <c r="AE26" s="13">
-        <v>6862</v>
+        <v>4729</v>
       </c>
       <c r="AF26" s="13">
-        <v>4729</v>
+        <v>5003</v>
       </c>
       <c r="AG26" s="13">
-        <v>5003</v>
+        <v>1229</v>
       </c>
       <c r="AH26" s="13">
-        <v>1229</v>
+        <v>3209</v>
       </c>
       <c r="AI26" s="13">
-        <v>3209</v>
+        <v>2622</v>
       </c>
       <c r="AJ26" s="13">
-        <v>2622</v>
+        <v>4951</v>
       </c>
       <c r="AK26" s="13">
-        <v>4951</v>
+        <v>4018</v>
       </c>
       <c r="AL26" s="13">
-        <v>4018</v>
+        <v>4622</v>
       </c>
       <c r="AM26" s="13">
-        <v>4622</v>
+        <v>2864</v>
       </c>
       <c r="AN26" s="13">
-        <v>2864</v>
+        <v>3616</v>
       </c>
       <c r="AO26" s="13">
-        <v>3616</v>
+        <v>2417</v>
       </c>
       <c r="AP26" s="13">
-        <v>2417</v>
+        <v>3486</v>
       </c>
       <c r="AQ26" s="13">
-        <v>3486</v>
+        <v>3976</v>
       </c>
       <c r="AR26" s="13">
-        <v>3976</v>
+        <v>4358</v>
       </c>
       <c r="AS26" s="13">
-        <v>4358</v>
+        <v>1443</v>
       </c>
       <c r="AT26" s="13">
-        <v>1443</v>
+        <v>2759</v>
       </c>
       <c r="AU26" s="13">
-        <v>2759</v>
+        <v>3575</v>
       </c>
       <c r="AV26" s="13">
-        <v>3575</v>
+        <v>3514</v>
       </c>
       <c r="AW26" s="13">
-        <v>3514</v>
+        <v>4116</v>
       </c>
       <c r="AX26" s="13">
-        <v>4116</v>
+        <v>4003</v>
       </c>
       <c r="AY26" s="13">
-        <v>4003</v>
+        <v>3202</v>
       </c>
       <c r="AZ26" s="13">
-        <v>3202</v>
+        <v>4035</v>
       </c>
       <c r="BA26" s="13">
-        <v>4035</v>
+        <v>3572</v>
       </c>
       <c r="BB26" s="13">
-        <v>3572</v>
+        <v>4573</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>59</v>
       </c>
@@ -3347,146 +3312,146 @@
       <c r="H27" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I27" s="11" t="s">
-        <v>57</v>
+      <c r="I27" s="11">
+        <v>1980</v>
       </c>
       <c r="J27" s="11">
-        <v>1980</v>
+        <v>3784</v>
       </c>
       <c r="K27" s="11">
-        <v>3784</v>
+        <v>3314</v>
       </c>
       <c r="L27" s="11">
-        <v>3314</v>
+        <v>4337</v>
       </c>
       <c r="M27" s="11">
-        <v>4337</v>
+        <v>3362</v>
       </c>
       <c r="N27" s="11">
-        <v>3362</v>
+        <v>5284</v>
       </c>
       <c r="O27" s="11">
-        <v>5284</v>
+        <v>2702</v>
       </c>
       <c r="P27" s="11">
-        <v>2702</v>
+        <v>2593</v>
       </c>
       <c r="Q27" s="11">
-        <v>2593</v>
+        <v>3706</v>
       </c>
       <c r="R27" s="11">
-        <v>3706</v>
+        <v>3763</v>
       </c>
       <c r="S27" s="11">
-        <v>3763</v>
+        <v>4919</v>
       </c>
       <c r="T27" s="11">
-        <v>4919</v>
+        <v>4952</v>
       </c>
       <c r="U27" s="11">
-        <v>4952</v>
+        <v>2617</v>
       </c>
       <c r="V27" s="11">
-        <v>2617</v>
+        <v>4245</v>
       </c>
       <c r="W27" s="11">
-        <v>4245</v>
+        <v>3978</v>
       </c>
       <c r="X27" s="11">
-        <v>3978</v>
+        <v>3405</v>
       </c>
       <c r="Y27" s="11">
-        <v>3405</v>
+        <v>3243</v>
       </c>
       <c r="Z27" s="11">
-        <v>3243</v>
+        <v>4240</v>
       </c>
       <c r="AA27" s="11">
-        <v>4240</v>
+        <v>3889</v>
       </c>
       <c r="AB27" s="11">
-        <v>3889</v>
+        <v>4270</v>
       </c>
       <c r="AC27" s="11">
-        <v>4270</v>
+        <v>4419</v>
       </c>
       <c r="AD27" s="11">
-        <v>4419</v>
+        <v>5310</v>
       </c>
       <c r="AE27" s="11">
-        <v>5310</v>
+        <v>4881</v>
       </c>
       <c r="AF27" s="11">
-        <v>4881</v>
+        <v>5085</v>
       </c>
       <c r="AG27" s="11">
-        <v>5085</v>
+        <v>1964</v>
       </c>
       <c r="AH27" s="11">
-        <v>1964</v>
+        <v>2387</v>
       </c>
       <c r="AI27" s="11">
-        <v>2387</v>
+        <v>2819</v>
       </c>
       <c r="AJ27" s="11">
-        <v>2819</v>
+        <v>4689</v>
       </c>
       <c r="AK27" s="11">
-        <v>4689</v>
+        <v>4046</v>
       </c>
       <c r="AL27" s="11">
-        <v>4046</v>
+        <v>4119</v>
       </c>
       <c r="AM27" s="11">
-        <v>4119</v>
+        <v>2911</v>
       </c>
       <c r="AN27" s="11">
-        <v>2911</v>
+        <v>4283</v>
       </c>
       <c r="AO27" s="11">
-        <v>4283</v>
+        <v>3815</v>
       </c>
       <c r="AP27" s="11">
-        <v>3815</v>
+        <v>4067</v>
       </c>
       <c r="AQ27" s="11">
-        <v>4067</v>
+        <v>4856</v>
       </c>
       <c r="AR27" s="11">
-        <v>4856</v>
+        <v>5742</v>
       </c>
       <c r="AS27" s="11">
-        <v>5742</v>
+        <v>2260</v>
       </c>
       <c r="AT27" s="11">
-        <v>2260</v>
+        <v>3802</v>
       </c>
       <c r="AU27" s="11">
-        <v>3802</v>
+        <v>4249</v>
       </c>
       <c r="AV27" s="11">
-        <v>4249</v>
+        <v>5729</v>
       </c>
       <c r="AW27" s="11">
-        <v>5729</v>
+        <v>5801</v>
       </c>
       <c r="AX27" s="11">
-        <v>5801</v>
+        <v>5440</v>
       </c>
       <c r="AY27" s="11">
-        <v>5440</v>
+        <v>4767</v>
       </c>
       <c r="AZ27" s="11">
-        <v>4767</v>
+        <v>6226</v>
       </c>
       <c r="BA27" s="11">
-        <v>6226</v>
+        <v>5990</v>
       </c>
       <c r="BB27" s="11">
-        <v>5990</v>
+        <v>7676</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>60</v>
       </c>
@@ -3506,146 +3471,146 @@
       <c r="H28" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I28" s="13" t="s">
-        <v>57</v>
+      <c r="I28" s="13">
+        <v>1586</v>
       </c>
       <c r="J28" s="13">
-        <v>1586</v>
+        <v>3435</v>
       </c>
       <c r="K28" s="13">
-        <v>3435</v>
+        <v>2882</v>
       </c>
       <c r="L28" s="13">
-        <v>2882</v>
+        <v>3183</v>
       </c>
       <c r="M28" s="13">
-        <v>3183</v>
+        <v>2648</v>
       </c>
       <c r="N28" s="13">
-        <v>2648</v>
+        <v>3361</v>
       </c>
       <c r="O28" s="13">
-        <v>3361</v>
+        <v>2641</v>
       </c>
       <c r="P28" s="13">
-        <v>2641</v>
+        <v>2172</v>
       </c>
       <c r="Q28" s="13">
-        <v>2172</v>
+        <v>2861</v>
       </c>
       <c r="R28" s="13">
-        <v>2861</v>
+        <v>3195</v>
       </c>
       <c r="S28" s="13">
-        <v>3195</v>
+        <v>4375</v>
       </c>
       <c r="T28" s="13">
-        <v>4375</v>
+        <v>4291</v>
       </c>
       <c r="U28" s="13">
-        <v>4291</v>
+        <v>1456</v>
       </c>
       <c r="V28" s="13">
-        <v>1456</v>
+        <v>3241</v>
       </c>
       <c r="W28" s="13">
-        <v>3241</v>
+        <v>3053</v>
       </c>
       <c r="X28" s="13">
-        <v>3053</v>
+        <v>4004</v>
       </c>
       <c r="Y28" s="13">
-        <v>4004</v>
+        <v>2870</v>
       </c>
       <c r="Z28" s="13">
-        <v>2870</v>
+        <v>2962</v>
       </c>
       <c r="AA28" s="13">
-        <v>2962</v>
+        <v>3071</v>
       </c>
       <c r="AB28" s="13">
-        <v>3071</v>
+        <v>3060</v>
       </c>
       <c r="AC28" s="13">
-        <v>3060</v>
+        <v>4189</v>
       </c>
       <c r="AD28" s="13">
-        <v>4189</v>
+        <v>4784</v>
       </c>
       <c r="AE28" s="13">
-        <v>4784</v>
+        <v>5942</v>
       </c>
       <c r="AF28" s="13">
-        <v>5942</v>
+        <v>4396</v>
       </c>
       <c r="AG28" s="13">
-        <v>4396</v>
+        <v>2234</v>
       </c>
       <c r="AH28" s="13">
-        <v>2234</v>
+        <v>3022</v>
       </c>
       <c r="AI28" s="13">
-        <v>3022</v>
+        <v>3188</v>
       </c>
       <c r="AJ28" s="13">
-        <v>3188</v>
+        <v>4675</v>
       </c>
       <c r="AK28" s="13">
-        <v>4675</v>
+        <v>3717</v>
       </c>
       <c r="AL28" s="13">
-        <v>3717</v>
+        <v>5361</v>
       </c>
       <c r="AM28" s="13">
-        <v>5361</v>
+        <v>4043</v>
       </c>
       <c r="AN28" s="13">
-        <v>4043</v>
+        <v>4110</v>
       </c>
       <c r="AO28" s="13">
-        <v>4110</v>
+        <v>3353</v>
       </c>
       <c r="AP28" s="13">
-        <v>3353</v>
+        <v>4250</v>
       </c>
       <c r="AQ28" s="13">
-        <v>4250</v>
+        <v>5181</v>
       </c>
       <c r="AR28" s="13">
-        <v>5181</v>
+        <v>5218</v>
       </c>
       <c r="AS28" s="13">
-        <v>5218</v>
+        <v>1848</v>
       </c>
       <c r="AT28" s="13">
-        <v>1848</v>
+        <v>3694</v>
       </c>
       <c r="AU28" s="13">
-        <v>3694</v>
+        <v>3630</v>
       </c>
       <c r="AV28" s="13">
-        <v>3630</v>
+        <v>4206</v>
       </c>
       <c r="AW28" s="13">
-        <v>4206</v>
+        <v>4837</v>
       </c>
       <c r="AX28" s="13">
-        <v>4837</v>
+        <v>4461</v>
       </c>
       <c r="AY28" s="13">
-        <v>4461</v>
+        <v>3932</v>
       </c>
       <c r="AZ28" s="13">
-        <v>3932</v>
+        <v>5276</v>
       </c>
       <c r="BA28" s="13">
-        <v>5276</v>
+        <v>5034</v>
       </c>
       <c r="BB28" s="13">
-        <v>5034</v>
+        <v>5337</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>61</v>
       </c>
@@ -3702,7 +3667,7 @@
       <c r="BA29" s="9"/>
       <c r="BB29" s="9"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>62</v>
       </c>
@@ -3833,11 +3798,11 @@
       <c r="AS30" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT30" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU30" s="11">
-        <v>0</v>
+      <c r="AT30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU30" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV30" s="11" t="s">
         <v>57</v>
@@ -3845,11 +3810,11 @@
       <c r="AW30" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AX30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY30" s="11">
-        <v>0</v>
+      <c r="AX30" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY30" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AZ30" s="11" t="s">
         <v>57</v>
@@ -3861,7 +3826,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>64</v>
       </c>
@@ -3924,8 +3889,8 @@
       <c r="W31" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="X31" s="15" t="s">
-        <v>57</v>
+      <c r="X31" s="15">
+        <v>0</v>
       </c>
       <c r="Y31" s="15">
         <v>0</v>
@@ -4018,7 +3983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="s">
         <v>67</v>
       </c>
@@ -4075,7 +4040,7 @@
       <c r="BA32" s="19"/>
       <c r="BB32" s="19"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
         <v>68</v>
       </c>
@@ -4138,8 +4103,8 @@
       <c r="W33" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="X33" s="17" t="s">
-        <v>57</v>
+      <c r="X33" s="17">
+        <v>0</v>
       </c>
       <c r="Y33" s="17">
         <v>0</v>
@@ -4232,7 +4197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
         <v>65</v>
       </c>
@@ -4251,145 +4216,145 @@
         <v>0</v>
       </c>
       <c r="I34" s="15">
-        <v>0</v>
+        <v>5282</v>
       </c>
       <c r="J34" s="15">
-        <v>5282</v>
+        <v>10746</v>
       </c>
       <c r="K34" s="15">
-        <v>10746</v>
+        <v>8850</v>
       </c>
       <c r="L34" s="15">
-        <v>8850</v>
+        <v>11128</v>
       </c>
       <c r="M34" s="15">
-        <v>11128</v>
+        <v>8327</v>
       </c>
       <c r="N34" s="15">
-        <v>8327</v>
+        <v>12649</v>
       </c>
       <c r="O34" s="15">
-        <v>12649</v>
+        <v>7139</v>
       </c>
       <c r="P34" s="15">
-        <v>7139</v>
+        <v>6953</v>
       </c>
       <c r="Q34" s="15">
-        <v>6953</v>
+        <v>10329</v>
       </c>
       <c r="R34" s="15">
-        <v>10329</v>
+        <v>10718</v>
       </c>
       <c r="S34" s="15">
-        <v>10718</v>
+        <v>13145</v>
       </c>
       <c r="T34" s="15">
-        <v>13145</v>
+        <v>14414</v>
       </c>
       <c r="U34" s="15">
-        <v>14414</v>
+        <v>8050</v>
       </c>
       <c r="V34" s="15">
-        <v>8050</v>
+        <v>12470</v>
       </c>
       <c r="W34" s="15">
-        <v>12470</v>
+        <v>11255</v>
       </c>
       <c r="X34" s="15">
-        <v>11255</v>
+        <v>12443</v>
       </c>
       <c r="Y34" s="15">
-        <v>12443</v>
+        <v>10990</v>
       </c>
       <c r="Z34" s="15">
-        <v>10990</v>
+        <v>10759</v>
       </c>
       <c r="AA34" s="15">
-        <v>10759</v>
+        <v>10986</v>
       </c>
       <c r="AB34" s="15">
-        <v>10986</v>
+        <v>12131</v>
       </c>
       <c r="AC34" s="15">
-        <v>12131</v>
+        <v>14443</v>
       </c>
       <c r="AD34" s="15">
-        <v>14443</v>
+        <v>16956</v>
       </c>
       <c r="AE34" s="15">
-        <v>16956</v>
+        <v>15552</v>
       </c>
       <c r="AF34" s="15">
-        <v>15552</v>
+        <v>14484</v>
       </c>
       <c r="AG34" s="15">
-        <v>14484</v>
+        <v>5427</v>
       </c>
       <c r="AH34" s="15">
-        <v>5427</v>
+        <v>8618</v>
       </c>
       <c r="AI34" s="15">
-        <v>8618</v>
+        <v>8629</v>
       </c>
       <c r="AJ34" s="15">
-        <v>8629</v>
+        <v>14315</v>
       </c>
       <c r="AK34" s="15">
-        <v>14315</v>
+        <v>11781</v>
       </c>
       <c r="AL34" s="15">
-        <v>11781</v>
+        <v>14102</v>
       </c>
       <c r="AM34" s="15">
-        <v>14102</v>
+        <v>9818</v>
       </c>
       <c r="AN34" s="15">
-        <v>9818</v>
+        <v>12009</v>
       </c>
       <c r="AO34" s="15">
-        <v>12009</v>
+        <v>9585</v>
       </c>
       <c r="AP34" s="15">
-        <v>9585</v>
+        <v>11803</v>
       </c>
       <c r="AQ34" s="15">
-        <v>11803</v>
+        <v>14013</v>
       </c>
       <c r="AR34" s="15">
-        <v>14013</v>
+        <v>15318</v>
       </c>
       <c r="AS34" s="15">
-        <v>15318</v>
+        <v>5551</v>
       </c>
       <c r="AT34" s="15">
-        <v>5551</v>
+        <v>10255</v>
       </c>
       <c r="AU34" s="15">
-        <v>10255</v>
+        <v>11454</v>
       </c>
       <c r="AV34" s="15">
-        <v>11454</v>
+        <v>13449</v>
       </c>
       <c r="AW34" s="15">
-        <v>13449</v>
+        <v>14754</v>
       </c>
       <c r="AX34" s="15">
-        <v>14754</v>
+        <v>13904</v>
       </c>
       <c r="AY34" s="15">
-        <v>13904</v>
+        <v>11901</v>
       </c>
       <c r="AZ34" s="15">
-        <v>11901</v>
+        <v>15537</v>
       </c>
       <c r="BA34" s="15">
-        <v>15537</v>
+        <v>14596</v>
       </c>
       <c r="BB34" s="15">
-        <v>14596</v>
+        <v>17586</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4444,7 +4409,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -4499,7 +4464,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -4554,7 +4519,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>69</v>
       </c>
@@ -4711,7 +4676,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -4766,7 +4731,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
         <v>69</v>
       </c>
@@ -4823,7 +4788,7 @@
       <c r="BA40" s="9"/>
       <c r="BB40" s="9"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>55</v>
       </c>
@@ -4915,8 +4880,8 @@
       <c r="AF41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AG41" s="11" t="s">
-        <v>57</v>
+      <c r="AG41" s="11">
+        <v>0</v>
       </c>
       <c r="AH41" s="11">
         <v>0</v>
@@ -4951,8 +4916,8 @@
       <c r="AR41" s="11">
         <v>0</v>
       </c>
-      <c r="AS41" s="11">
-        <v>0</v>
+      <c r="AS41" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT41" s="11" t="s">
         <v>57</v>
@@ -4982,7 +4947,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>58</v>
       </c>
@@ -5002,146 +4967,146 @@
       <c r="H42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I42" s="13" t="s">
-        <v>57</v>
+      <c r="I42" s="13">
+        <v>146301</v>
       </c>
       <c r="J42" s="13">
-        <v>146301</v>
+        <v>306687</v>
       </c>
       <c r="K42" s="13">
-        <v>306687</v>
+        <v>265735</v>
       </c>
       <c r="L42" s="13">
-        <v>265735</v>
+        <v>377182</v>
       </c>
       <c r="M42" s="13">
-        <v>377182</v>
+        <v>272335</v>
       </c>
       <c r="N42" s="13">
-        <v>272335</v>
+        <v>478398</v>
       </c>
       <c r="O42" s="13">
-        <v>478398</v>
+        <v>210428</v>
       </c>
       <c r="P42" s="13">
-        <v>210428</v>
+        <v>240205</v>
       </c>
       <c r="Q42" s="13">
-        <v>240205</v>
+        <v>403712</v>
       </c>
       <c r="R42" s="13">
-        <v>403712</v>
+        <v>382531</v>
       </c>
       <c r="S42" s="13">
-        <v>382531</v>
+        <v>410833</v>
       </c>
       <c r="T42" s="13">
-        <v>410833</v>
+        <v>564386</v>
       </c>
       <c r="U42" s="13">
-        <v>564386</v>
+        <v>437522</v>
       </c>
       <c r="V42" s="13">
-        <v>437522</v>
+        <v>550411</v>
       </c>
       <c r="W42" s="13">
-        <v>550411</v>
+        <v>444026</v>
       </c>
       <c r="X42" s="13">
-        <v>444026</v>
+        <v>618197</v>
       </c>
       <c r="Y42" s="13">
-        <v>618197</v>
+        <v>599851</v>
       </c>
       <c r="Z42" s="13">
-        <v>599851</v>
+        <v>539514</v>
       </c>
       <c r="AA42" s="13">
-        <v>539514</v>
+        <v>535115</v>
       </c>
       <c r="AB42" s="13">
-        <v>535115</v>
+        <v>762474</v>
       </c>
       <c r="AC42" s="13">
-        <v>762474</v>
+        <v>934493</v>
       </c>
       <c r="AD42" s="13">
-        <v>934493</v>
+        <v>1210523</v>
       </c>
       <c r="AE42" s="13">
-        <v>1210523</v>
+        <v>792902</v>
       </c>
       <c r="AF42" s="13">
-        <v>792902</v>
+        <v>862481</v>
       </c>
       <c r="AG42" s="13">
-        <v>862481</v>
+        <v>233832</v>
       </c>
       <c r="AH42" s="13">
-        <v>233832</v>
+        <v>638333</v>
       </c>
       <c r="AI42" s="13">
-        <v>638333</v>
+        <v>600740</v>
       </c>
       <c r="AJ42" s="13">
-        <v>600740</v>
+        <v>1088330</v>
       </c>
       <c r="AK42" s="13">
-        <v>1088330</v>
+        <v>965245</v>
       </c>
       <c r="AL42" s="13">
-        <v>965245</v>
+        <v>1193147</v>
       </c>
       <c r="AM42" s="13">
-        <v>1193147</v>
+        <v>695002</v>
       </c>
       <c r="AN42" s="13">
-        <v>695002</v>
+        <v>879595</v>
       </c>
       <c r="AO42" s="13">
-        <v>879595</v>
+        <v>629709</v>
       </c>
       <c r="AP42" s="13">
-        <v>629709</v>
+        <v>860015</v>
       </c>
       <c r="AQ42" s="13">
-        <v>860015</v>
+        <v>883686</v>
       </c>
       <c r="AR42" s="13">
-        <v>883686</v>
+        <v>1015387</v>
       </c>
       <c r="AS42" s="13">
-        <v>1015387</v>
+        <v>400503</v>
       </c>
       <c r="AT42" s="13">
-        <v>400503</v>
+        <v>746962</v>
       </c>
       <c r="AU42" s="13">
-        <v>746962</v>
+        <v>1104795</v>
       </c>
       <c r="AV42" s="13">
-        <v>1104795</v>
+        <v>1190930</v>
       </c>
       <c r="AW42" s="13">
-        <v>1190930</v>
+        <v>1300616</v>
       </c>
       <c r="AX42" s="13">
-        <v>1150708</v>
+        <v>1225846</v>
       </c>
       <c r="AY42" s="13">
-        <v>1225846</v>
+        <v>1085885</v>
       </c>
       <c r="AZ42" s="13">
-        <v>1085885</v>
+        <v>1434059</v>
       </c>
       <c r="BA42" s="13">
-        <v>1434059</v>
+        <v>1293919</v>
       </c>
       <c r="BB42" s="13">
-        <v>1293919</v>
+        <v>1516770</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>59</v>
       </c>
@@ -5161,146 +5126,146 @@
       <c r="H43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I43" s="11" t="s">
-        <v>57</v>
+      <c r="I43" s="11">
+        <v>149761</v>
       </c>
       <c r="J43" s="11">
-        <v>149761</v>
+        <v>293977</v>
       </c>
       <c r="K43" s="11">
-        <v>293977</v>
+        <v>263037</v>
       </c>
       <c r="L43" s="11">
-        <v>263037</v>
+        <v>399846</v>
       </c>
       <c r="M43" s="11">
-        <v>399846</v>
+        <v>321643</v>
       </c>
       <c r="N43" s="11">
-        <v>321643</v>
+        <v>508286</v>
       </c>
       <c r="O43" s="11">
-        <v>508286</v>
+        <v>241088</v>
       </c>
       <c r="P43" s="11">
-        <v>241088</v>
+        <v>239413</v>
       </c>
       <c r="Q43" s="11">
-        <v>239413</v>
+        <v>350196</v>
       </c>
       <c r="R43" s="11">
-        <v>350196</v>
+        <v>354984</v>
       </c>
       <c r="S43" s="11">
-        <v>354984</v>
+        <v>438597</v>
       </c>
       <c r="T43" s="11">
-        <v>438597</v>
+        <v>426526</v>
       </c>
       <c r="U43" s="11">
-        <v>426526</v>
+        <v>241638</v>
       </c>
       <c r="V43" s="11">
-        <v>241638</v>
+        <v>416145</v>
       </c>
       <c r="W43" s="11">
-        <v>416145</v>
+        <v>373148</v>
       </c>
       <c r="X43" s="11">
-        <v>373148</v>
+        <v>392987</v>
       </c>
       <c r="Y43" s="11">
-        <v>392987</v>
+        <v>369450</v>
       </c>
       <c r="Z43" s="11">
-        <v>369450</v>
+        <v>517319</v>
       </c>
       <c r="AA43" s="11">
-        <v>517319</v>
+        <v>489695</v>
       </c>
       <c r="AB43" s="11">
-        <v>489695</v>
+        <v>676661</v>
       </c>
       <c r="AC43" s="11">
-        <v>676661</v>
+        <v>701829</v>
       </c>
       <c r="AD43" s="11">
-        <v>701829</v>
+        <v>837746</v>
       </c>
       <c r="AE43" s="11">
-        <v>837746</v>
+        <v>760151</v>
       </c>
       <c r="AF43" s="11">
-        <v>760151</v>
+        <v>817967</v>
       </c>
       <c r="AG43" s="11">
-        <v>817967</v>
+        <v>311846</v>
       </c>
       <c r="AH43" s="11">
-        <v>311846</v>
+        <v>359496</v>
       </c>
       <c r="AI43" s="11">
-        <v>359496</v>
+        <v>428859</v>
       </c>
       <c r="AJ43" s="11">
-        <v>428859</v>
+        <v>851629</v>
       </c>
       <c r="AK43" s="11">
-        <v>851629</v>
+        <v>799234</v>
       </c>
       <c r="AL43" s="11">
-        <v>799234</v>
+        <v>822584</v>
       </c>
       <c r="AM43" s="11">
-        <v>822584</v>
+        <v>558241</v>
       </c>
       <c r="AN43" s="11">
-        <v>558241</v>
+        <v>826681</v>
       </c>
       <c r="AO43" s="11">
-        <v>826681</v>
+        <v>708201</v>
       </c>
       <c r="AP43" s="11">
-        <v>708201</v>
+        <v>708790</v>
       </c>
       <c r="AQ43" s="11">
-        <v>708790</v>
+        <v>887055</v>
       </c>
       <c r="AR43" s="11">
-        <v>887055</v>
+        <v>1019647</v>
       </c>
       <c r="AS43" s="11">
-        <v>1019647</v>
+        <v>448159</v>
       </c>
       <c r="AT43" s="11">
-        <v>448159</v>
+        <v>800241</v>
       </c>
       <c r="AU43" s="11">
-        <v>800241</v>
+        <v>953625</v>
       </c>
       <c r="AV43" s="11">
-        <v>953625</v>
+        <v>1425697</v>
       </c>
       <c r="AW43" s="11">
-        <v>1425697</v>
+        <v>1482757</v>
       </c>
       <c r="AX43" s="11">
-        <v>1313071</v>
+        <v>1189388</v>
       </c>
       <c r="AY43" s="11">
-        <v>1189388</v>
+        <v>1176802</v>
       </c>
       <c r="AZ43" s="11">
-        <v>1176802</v>
+        <v>1664118</v>
       </c>
       <c r="BA43" s="11">
-        <v>1664118</v>
+        <v>1524083</v>
       </c>
       <c r="BB43" s="11">
-        <v>1524083</v>
+        <v>1873510</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>60</v>
       </c>
@@ -5320,146 +5285,146 @@
       <c r="H44" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I44" s="13" t="s">
-        <v>57</v>
+      <c r="I44" s="13">
+        <v>83676</v>
       </c>
       <c r="J44" s="13">
-        <v>83676</v>
+        <v>164484</v>
       </c>
       <c r="K44" s="13">
-        <v>164484</v>
+        <v>143029</v>
       </c>
       <c r="L44" s="13">
-        <v>143029</v>
+        <v>180653</v>
       </c>
       <c r="M44" s="13">
-        <v>180653</v>
+        <v>156385</v>
       </c>
       <c r="N44" s="13">
-        <v>156385</v>
+        <v>230991</v>
       </c>
       <c r="O44" s="13">
-        <v>230991</v>
+        <v>141829</v>
       </c>
       <c r="P44" s="13">
-        <v>141829</v>
+        <v>109262</v>
       </c>
       <c r="Q44" s="13">
-        <v>109262</v>
+        <v>170593</v>
       </c>
       <c r="R44" s="13">
-        <v>170593</v>
+        <v>185831</v>
       </c>
       <c r="S44" s="13">
-        <v>185831</v>
+        <v>256287</v>
       </c>
       <c r="T44" s="13">
-        <v>256287</v>
+        <v>261151</v>
       </c>
       <c r="U44" s="13">
-        <v>261151</v>
+        <v>81195</v>
       </c>
       <c r="V44" s="13">
-        <v>81195</v>
+        <v>196733</v>
       </c>
       <c r="W44" s="13">
-        <v>196733</v>
+        <v>182428</v>
       </c>
       <c r="X44" s="13">
-        <v>182428</v>
+        <v>310867</v>
       </c>
       <c r="Y44" s="13">
-        <v>310867</v>
+        <v>190654</v>
       </c>
       <c r="Z44" s="13">
-        <v>190654</v>
+        <v>200646</v>
       </c>
       <c r="AA44" s="13">
-        <v>200646</v>
+        <v>216550</v>
       </c>
       <c r="AB44" s="13">
-        <v>216550</v>
+        <v>272077</v>
       </c>
       <c r="AC44" s="13">
-        <v>272077</v>
+        <v>398527</v>
       </c>
       <c r="AD44" s="13">
-        <v>398527</v>
+        <v>471571</v>
       </c>
       <c r="AE44" s="13">
-        <v>471571</v>
+        <v>581794</v>
       </c>
       <c r="AF44" s="13">
-        <v>581794</v>
+        <v>474679</v>
       </c>
       <c r="AG44" s="13">
-        <v>474679</v>
+        <v>225385</v>
       </c>
       <c r="AH44" s="13">
-        <v>225385</v>
+        <v>304049</v>
       </c>
       <c r="AI44" s="13">
-        <v>304049</v>
+        <v>321980</v>
       </c>
       <c r="AJ44" s="13">
-        <v>321980</v>
+        <v>511042</v>
       </c>
       <c r="AK44" s="13">
-        <v>511042</v>
+        <v>471275</v>
       </c>
       <c r="AL44" s="13">
-        <v>471275</v>
+        <v>721353</v>
       </c>
       <c r="AM44" s="13">
-        <v>721353</v>
+        <v>434703</v>
       </c>
       <c r="AN44" s="13">
-        <v>434703</v>
+        <v>444102</v>
       </c>
       <c r="AO44" s="13">
-        <v>444102</v>
+        <v>364693</v>
       </c>
       <c r="AP44" s="13">
-        <v>364693</v>
+        <v>450219</v>
       </c>
       <c r="AQ44" s="13">
-        <v>450219</v>
+        <v>555600</v>
       </c>
       <c r="AR44" s="13">
-        <v>555600</v>
+        <v>590428</v>
       </c>
       <c r="AS44" s="13">
-        <v>590428</v>
+        <v>241042</v>
       </c>
       <c r="AT44" s="13">
-        <v>241042</v>
+        <v>463723</v>
       </c>
       <c r="AU44" s="13">
-        <v>463723</v>
+        <v>556739</v>
       </c>
       <c r="AV44" s="13">
-        <v>556739</v>
+        <v>604086</v>
       </c>
       <c r="AW44" s="13">
-        <v>604086</v>
+        <v>780986</v>
       </c>
       <c r="AX44" s="13">
-        <v>700364</v>
+        <v>613950</v>
       </c>
       <c r="AY44" s="13">
-        <v>613950</v>
+        <v>552269</v>
       </c>
       <c r="AZ44" s="13">
-        <v>552269</v>
+        <v>779107</v>
       </c>
       <c r="BA44" s="13">
-        <v>779107</v>
+        <v>763016</v>
       </c>
       <c r="BB44" s="13">
-        <v>763016</v>
+        <v>866046</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
         <v>71</v>
       </c>
@@ -5516,7 +5481,7 @@
       <c r="BA45" s="9"/>
       <c r="BB45" s="9"/>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>62</v>
       </c>
@@ -5614,68 +5579,68 @@
       <c r="AH46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI46" s="11" t="s">
-        <v>57</v>
+      <c r="AI46" s="11">
+        <v>6789</v>
       </c>
       <c r="AJ46" s="11">
-        <v>6789</v>
+        <v>0</v>
       </c>
       <c r="AK46" s="11">
         <v>0</v>
       </c>
       <c r="AL46" s="11">
-        <v>0</v>
+        <v>5565</v>
       </c>
       <c r="AM46" s="11">
-        <v>5565</v>
+        <v>2306</v>
       </c>
       <c r="AN46" s="11">
-        <v>2306</v>
+        <v>1518</v>
       </c>
       <c r="AO46" s="11">
-        <v>1518</v>
+        <v>19527</v>
       </c>
       <c r="AP46" s="11">
-        <v>19527</v>
+        <v>5089</v>
       </c>
       <c r="AQ46" s="11">
-        <v>5089</v>
+        <v>1558</v>
       </c>
       <c r="AR46" s="11">
-        <v>1558</v>
+        <v>1839</v>
       </c>
       <c r="AS46" s="11">
-        <v>1839</v>
+        <v>1485</v>
       </c>
       <c r="AT46" s="11">
-        <v>1485</v>
+        <v>8779</v>
       </c>
       <c r="AU46" s="11">
-        <v>8779</v>
+        <v>4375</v>
       </c>
       <c r="AV46" s="11">
-        <v>4375</v>
+        <v>9332</v>
       </c>
       <c r="AW46" s="11">
-        <v>9332</v>
+        <v>8864</v>
       </c>
       <c r="AX46" s="11">
-        <v>8864</v>
+        <v>7404</v>
       </c>
       <c r="AY46" s="11">
-        <v>7414</v>
+        <v>7218</v>
       </c>
       <c r="AZ46" s="11">
-        <v>7218</v>
+        <v>966</v>
       </c>
       <c r="BA46" s="11">
-        <v>966</v>
+        <v>3723</v>
       </c>
       <c r="BB46" s="11">
-        <v>3723</v>
+        <v>4371</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
         <v>64</v>
       </c>
@@ -5740,8 +5705,8 @@
       <c r="W47" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="X47" s="15" t="s">
-        <v>57</v>
+      <c r="X47" s="15">
+        <v>0</v>
       </c>
       <c r="Y47" s="15">
         <v>0</v>
@@ -5774,67 +5739,67 @@
         <v>0</v>
       </c>
       <c r="AI47" s="15">
-        <v>0</v>
+        <v>6789</v>
       </c>
       <c r="AJ47" s="15">
-        <v>6789</v>
+        <v>0</v>
       </c>
       <c r="AK47" s="15">
         <v>0</v>
       </c>
       <c r="AL47" s="15">
-        <v>0</v>
+        <v>5565</v>
       </c>
       <c r="AM47" s="15">
-        <v>5565</v>
+        <v>2306</v>
       </c>
       <c r="AN47" s="15">
-        <v>2306</v>
+        <v>1518</v>
       </c>
       <c r="AO47" s="15">
-        <v>1518</v>
+        <v>19527</v>
       </c>
       <c r="AP47" s="15">
-        <v>19527</v>
+        <v>5089</v>
       </c>
       <c r="AQ47" s="15">
-        <v>5089</v>
+        <v>1558</v>
       </c>
       <c r="AR47" s="15">
-        <v>1558</v>
+        <v>1839</v>
       </c>
       <c r="AS47" s="15">
-        <v>1839</v>
+        <v>1485</v>
       </c>
       <c r="AT47" s="15">
-        <v>1485</v>
+        <v>8779</v>
       </c>
       <c r="AU47" s="15">
-        <v>8779</v>
+        <v>4375</v>
       </c>
       <c r="AV47" s="15">
-        <v>4375</v>
+        <v>9332</v>
       </c>
       <c r="AW47" s="15">
-        <v>9332</v>
+        <v>8864</v>
       </c>
       <c r="AX47" s="15">
-        <v>8864</v>
+        <v>7404</v>
       </c>
       <c r="AY47" s="15">
-        <v>7414</v>
+        <v>7218</v>
       </c>
       <c r="AZ47" s="15">
-        <v>7218</v>
+        <v>966</v>
       </c>
       <c r="BA47" s="15">
-        <v>966</v>
+        <v>3723</v>
       </c>
       <c r="BB47" s="15">
-        <v>3723</v>
+        <v>4371</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="s">
         <v>72</v>
       </c>
@@ -5891,7 +5856,7 @@
       <c r="BA48" s="19"/>
       <c r="BB48" s="19"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="16" t="s">
         <v>68</v>
       </c>
@@ -5956,8 +5921,8 @@
       <c r="W49" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="X49" s="17" t="s">
-        <v>57</v>
+      <c r="X49" s="17">
+        <v>0</v>
       </c>
       <c r="Y49" s="17">
         <v>0</v>
@@ -6050,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
         <v>73</v>
       </c>
@@ -6107,7 +6072,7 @@
       <c r="BA50" s="9"/>
       <c r="BB50" s="9"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>74</v>
       </c>
@@ -6172,8 +6137,8 @@
       <c r="W51" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="X51" s="11" t="s">
-        <v>57</v>
+      <c r="X51" s="11">
+        <v>0</v>
       </c>
       <c r="Y51" s="11">
         <v>0</v>
@@ -6266,7 +6231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="14" t="s">
         <v>65</v>
       </c>
@@ -6285,145 +6250,145 @@
         <v>0</v>
       </c>
       <c r="I52" s="15">
-        <v>0</v>
+        <v>379738</v>
       </c>
       <c r="J52" s="15">
-        <v>379738</v>
+        <v>765148</v>
       </c>
       <c r="K52" s="15">
-        <v>765148</v>
+        <v>671801</v>
       </c>
       <c r="L52" s="15">
-        <v>671801</v>
+        <v>957681</v>
       </c>
       <c r="M52" s="15">
-        <v>957681</v>
+        <v>750363</v>
       </c>
       <c r="N52" s="15">
-        <v>750363</v>
+        <v>1217675</v>
       </c>
       <c r="O52" s="15">
-        <v>1217675</v>
+        <v>593345</v>
       </c>
       <c r="P52" s="15">
-        <v>593345</v>
+        <v>588880</v>
       </c>
       <c r="Q52" s="15">
-        <v>588880</v>
+        <v>924501</v>
       </c>
       <c r="R52" s="15">
-        <v>924501</v>
+        <v>923346</v>
       </c>
       <c r="S52" s="15">
-        <v>923346</v>
+        <v>1105717</v>
       </c>
       <c r="T52" s="15">
-        <v>1105717</v>
+        <v>1252063</v>
       </c>
       <c r="U52" s="15">
-        <v>1252063</v>
+        <v>760355</v>
       </c>
       <c r="V52" s="15">
-        <v>760355</v>
+        <v>1163289</v>
       </c>
       <c r="W52" s="15">
-        <v>1163289</v>
+        <v>999602</v>
       </c>
       <c r="X52" s="15">
-        <v>999602</v>
+        <v>1322051</v>
       </c>
       <c r="Y52" s="15">
-        <v>1322051</v>
+        <v>1159955</v>
       </c>
       <c r="Z52" s="15">
-        <v>1159955</v>
+        <v>1257479</v>
       </c>
       <c r="AA52" s="15">
-        <v>1257479</v>
+        <v>1241360</v>
       </c>
       <c r="AB52" s="15">
-        <v>1241360</v>
+        <v>1711212</v>
       </c>
       <c r="AC52" s="15">
-        <v>1711212</v>
+        <v>2034849</v>
       </c>
       <c r="AD52" s="15">
-        <v>2034849</v>
+        <v>2519840</v>
       </c>
       <c r="AE52" s="15">
-        <v>2519840</v>
+        <v>2134847</v>
       </c>
       <c r="AF52" s="15">
-        <v>2134847</v>
+        <v>2155127</v>
       </c>
       <c r="AG52" s="15">
-        <v>2155127</v>
+        <v>771063</v>
       </c>
       <c r="AH52" s="15">
-        <v>771063</v>
+        <v>1301878</v>
       </c>
       <c r="AI52" s="15">
-        <v>1301878</v>
+        <v>1358368</v>
       </c>
       <c r="AJ52" s="15">
-        <v>1358368</v>
+        <v>2451001</v>
       </c>
       <c r="AK52" s="15">
-        <v>2451001</v>
+        <v>2235754</v>
       </c>
       <c r="AL52" s="15">
-        <v>2235754</v>
+        <v>2742649</v>
       </c>
       <c r="AM52" s="15">
-        <v>2742649</v>
+        <v>1690252</v>
       </c>
       <c r="AN52" s="15">
-        <v>1690252</v>
+        <v>2151896</v>
       </c>
       <c r="AO52" s="15">
-        <v>2151896</v>
+        <v>1722130</v>
       </c>
       <c r="AP52" s="15">
-        <v>1722130</v>
+        <v>2024113</v>
       </c>
       <c r="AQ52" s="15">
-        <v>2024113</v>
+        <v>2327899</v>
       </c>
       <c r="AR52" s="15">
-        <v>2327899</v>
+        <v>2627301</v>
       </c>
       <c r="AS52" s="15">
-        <v>2627301</v>
+        <v>1091189</v>
       </c>
       <c r="AT52" s="15">
-        <v>1091189</v>
+        <v>2019705</v>
       </c>
       <c r="AU52" s="15">
-        <v>2019705</v>
+        <v>2619534</v>
       </c>
       <c r="AV52" s="15">
-        <v>2619534</v>
+        <v>3230045</v>
       </c>
       <c r="AW52" s="15">
-        <v>3230045</v>
+        <v>3573223</v>
       </c>
       <c r="AX52" s="15">
-        <v>3173007</v>
+        <v>3036588</v>
       </c>
       <c r="AY52" s="15">
-        <v>3036598</v>
+        <v>2822174</v>
       </c>
       <c r="AZ52" s="15">
-        <v>2822174</v>
+        <v>3878250</v>
       </c>
       <c r="BA52" s="15">
-        <v>3878250</v>
+        <v>3584741</v>
       </c>
       <c r="BB52" s="15">
-        <v>3584741</v>
+        <v>4260697</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6478,7 +6443,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -6533,7 +6498,7 @@
       <c r="BA54" s="1"/>
       <c r="BB54" s="1"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -6588,7 +6553,7 @@
       <c r="BA55" s="1"/>
       <c r="BB55" s="1"/>
     </row>
-    <row r="56" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
         <v>75</v>
       </c>
@@ -6745,7 +6710,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -6800,7 +6765,7 @@
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
         <v>76</v>
       </c>
@@ -6857,7 +6822,7 @@
       <c r="BA58" s="9"/>
       <c r="BB58" s="9"/>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>58</v>
       </c>
@@ -6877,146 +6842,146 @@
       <c r="H59" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I59" s="11" t="s">
-        <v>57</v>
+      <c r="I59" s="11">
+        <v>85256993</v>
       </c>
       <c r="J59" s="11">
-        <v>85256993</v>
+        <v>86954069</v>
       </c>
       <c r="K59" s="11">
-        <v>86954069</v>
+        <v>100126225</v>
       </c>
       <c r="L59" s="11">
-        <v>100126225</v>
+        <v>104540466</v>
       </c>
       <c r="M59" s="11">
-        <v>104540466</v>
+        <v>117537764</v>
       </c>
       <c r="N59" s="11">
-        <v>117537764</v>
+        <v>119480020</v>
       </c>
       <c r="O59" s="11">
-        <v>119480020</v>
+        <v>117164811</v>
       </c>
       <c r="P59" s="11">
-        <v>117164811</v>
+        <v>109782907</v>
       </c>
       <c r="Q59" s="11">
-        <v>109782907</v>
+        <v>107313131</v>
       </c>
       <c r="R59" s="11">
-        <v>107313131</v>
+        <v>101736968</v>
       </c>
       <c r="S59" s="11">
-        <v>101736968</v>
+        <v>106682160</v>
       </c>
       <c r="T59" s="11">
-        <v>106682160</v>
+        <v>109144459</v>
       </c>
       <c r="U59" s="11">
-        <v>109144459</v>
+        <v>110013075</v>
       </c>
       <c r="V59" s="11">
-        <v>110013075</v>
+        <v>110435594</v>
       </c>
       <c r="W59" s="11">
-        <v>110435594</v>
+        <v>105119792</v>
       </c>
       <c r="X59" s="11">
-        <v>105119792</v>
+        <v>122804331</v>
       </c>
       <c r="Y59" s="11">
-        <v>122804331</v>
+        <v>122995899</v>
       </c>
       <c r="Z59" s="11">
-        <v>122995899</v>
+        <v>151676694</v>
       </c>
       <c r="AA59" s="11">
-        <v>151676694</v>
+        <v>132914804</v>
       </c>
       <c r="AB59" s="11">
-        <v>132914804</v>
+        <v>158815663</v>
       </c>
       <c r="AC59" s="11">
-        <v>158815663</v>
+        <v>160153042</v>
       </c>
       <c r="AD59" s="11">
-        <v>160153042</v>
+        <v>176409647</v>
       </c>
       <c r="AE59" s="11">
-        <v>176409647</v>
+        <v>167668006</v>
       </c>
       <c r="AF59" s="11">
-        <v>167668006</v>
+        <v>172392764</v>
       </c>
       <c r="AG59" s="11">
-        <v>172392764</v>
+        <v>190262002</v>
       </c>
       <c r="AH59" s="11">
-        <v>190262002</v>
+        <v>198919601</v>
       </c>
       <c r="AI59" s="11">
-        <v>198919601</v>
+        <v>229115179</v>
       </c>
       <c r="AJ59" s="11">
-        <v>229115179</v>
+        <v>219820238</v>
       </c>
       <c r="AK59" s="11">
-        <v>219820238</v>
+        <v>240230214</v>
       </c>
       <c r="AL59" s="11">
-        <v>240230214</v>
+        <v>258145175</v>
       </c>
       <c r="AM59" s="11">
-        <v>258145175</v>
+        <v>242668296</v>
       </c>
       <c r="AN59" s="11">
-        <v>242668296</v>
+        <v>243250830</v>
       </c>
       <c r="AO59" s="11">
-        <v>243250830</v>
+        <v>260533306</v>
       </c>
       <c r="AP59" s="11">
-        <v>260533306</v>
+        <v>246705393</v>
       </c>
       <c r="AQ59" s="11">
-        <v>246705393</v>
+        <v>222255030</v>
       </c>
       <c r="AR59" s="11">
-        <v>222255030</v>
+        <v>232993805</v>
       </c>
       <c r="AS59" s="11">
-        <v>232993805</v>
+        <v>277548857</v>
       </c>
       <c r="AT59" s="11">
-        <v>277548857</v>
+        <v>270736499</v>
       </c>
       <c r="AU59" s="11">
-        <v>270736499</v>
+        <v>309033566</v>
       </c>
       <c r="AV59" s="11">
-        <v>309033566</v>
+        <v>338910074</v>
       </c>
       <c r="AW59" s="11">
-        <v>338910074</v>
+        <v>315990282</v>
       </c>
       <c r="AX59" s="11">
-        <v>306260419</v>
+        <v>306231826</v>
       </c>
       <c r="AY59" s="11">
-        <v>306231826</v>
+        <v>339127108</v>
       </c>
       <c r="AZ59" s="11">
-        <v>339127108</v>
+        <v>355404957</v>
       </c>
       <c r="BA59" s="11">
-        <v>355404957</v>
+        <v>362239362</v>
       </c>
       <c r="BB59" s="11">
-        <v>362239362</v>
+        <v>331679423</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>59</v>
       </c>
@@ -7036,146 +7001,146 @@
       <c r="H60" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I60" s="13" t="s">
-        <v>57</v>
+      <c r="I60" s="13">
+        <v>75636869</v>
       </c>
       <c r="J60" s="13">
-        <v>75636869</v>
+        <v>77689482</v>
       </c>
       <c r="K60" s="13">
-        <v>77689482</v>
+        <v>79371454</v>
       </c>
       <c r="L60" s="13">
-        <v>79371454</v>
+        <v>92194143</v>
       </c>
       <c r="M60" s="13">
-        <v>92194143</v>
+        <v>95670137</v>
       </c>
       <c r="N60" s="13">
-        <v>95670137</v>
+        <v>96193414</v>
       </c>
       <c r="O60" s="13">
-        <v>96193414</v>
+        <v>89225759</v>
       </c>
       <c r="P60" s="13">
-        <v>89225759</v>
+        <v>92330505</v>
       </c>
       <c r="Q60" s="13">
-        <v>92330505</v>
+        <v>94494334</v>
       </c>
       <c r="R60" s="13">
-        <v>94494334</v>
+        <v>94335371</v>
       </c>
       <c r="S60" s="13">
-        <v>94335371</v>
+        <v>89163854</v>
       </c>
       <c r="T60" s="13">
-        <v>89163854</v>
+        <v>86132068</v>
       </c>
       <c r="U60" s="13">
-        <v>86132068</v>
+        <v>92333970</v>
       </c>
       <c r="V60" s="13">
-        <v>92333970</v>
+        <v>98031802</v>
       </c>
       <c r="W60" s="13">
-        <v>98031802</v>
+        <v>93802916</v>
       </c>
       <c r="X60" s="13">
-        <v>93802916</v>
+        <v>115414684</v>
       </c>
       <c r="Y60" s="13">
-        <v>115414684</v>
+        <v>113922294</v>
       </c>
       <c r="Z60" s="13">
-        <v>113922294</v>
+        <v>122009198</v>
       </c>
       <c r="AA60" s="13">
-        <v>122009198</v>
+        <v>125917974</v>
       </c>
       <c r="AB60" s="13">
-        <v>125917974</v>
+        <v>158468618</v>
       </c>
       <c r="AC60" s="13">
-        <v>158468618</v>
+        <v>158820774</v>
       </c>
       <c r="AD60" s="13">
-        <v>158820774</v>
+        <v>157767608</v>
       </c>
       <c r="AE60" s="13">
-        <v>157767608</v>
+        <v>155736734</v>
       </c>
       <c r="AF60" s="13">
-        <v>155736734</v>
+        <v>160858800</v>
       </c>
       <c r="AG60" s="13">
-        <v>160858800</v>
+        <v>158781059</v>
       </c>
       <c r="AH60" s="13">
-        <v>158781059</v>
+        <v>150605781</v>
       </c>
       <c r="AI60" s="13">
-        <v>150605781</v>
+        <v>152131607</v>
       </c>
       <c r="AJ60" s="13">
-        <v>152131607</v>
+        <v>181622734</v>
       </c>
       <c r="AK60" s="13">
-        <v>181622734</v>
+        <v>197536827</v>
       </c>
       <c r="AL60" s="13">
-        <v>197536827</v>
+        <v>199704783</v>
       </c>
       <c r="AM60" s="13">
-        <v>199704783</v>
+        <v>191769495</v>
       </c>
       <c r="AN60" s="13">
-        <v>191769495</v>
+        <v>193014476</v>
       </c>
       <c r="AO60" s="13">
-        <v>193014476</v>
+        <v>185635911</v>
       </c>
       <c r="AP60" s="13">
-        <v>185635911</v>
+        <v>174278338</v>
       </c>
       <c r="AQ60" s="13">
-        <v>174278338</v>
+        <v>182671952</v>
       </c>
       <c r="AR60" s="13">
-        <v>182671952</v>
+        <v>177576977</v>
       </c>
       <c r="AS60" s="13">
-        <v>177576977</v>
+        <v>198300442</v>
       </c>
       <c r="AT60" s="13">
-        <v>198300442</v>
+        <v>210478958</v>
       </c>
       <c r="AU60" s="13">
-        <v>210478958</v>
+        <v>224435161</v>
       </c>
       <c r="AV60" s="13">
-        <v>224435161</v>
+        <v>248856170</v>
       </c>
       <c r="AW60" s="13">
-        <v>248856170</v>
+        <v>255603689</v>
       </c>
       <c r="AX60" s="13">
-        <v>247834539</v>
+        <v>218637500</v>
       </c>
       <c r="AY60" s="13">
-        <v>218637500</v>
+        <v>246864275</v>
       </c>
       <c r="AZ60" s="13">
-        <v>246864275</v>
+        <v>267285255</v>
       </c>
       <c r="BA60" s="13">
-        <v>267285255</v>
+        <v>254437896</v>
       </c>
       <c r="BB60" s="13">
-        <v>254437896</v>
+        <v>244073736</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>60</v>
       </c>
@@ -7195,146 +7160,146 @@
       <c r="H61" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I61" s="11" t="s">
-        <v>57</v>
+      <c r="I61" s="11">
+        <v>52759142</v>
       </c>
       <c r="J61" s="11">
-        <v>52759142</v>
+        <v>47884716</v>
       </c>
       <c r="K61" s="11">
-        <v>47884716</v>
+        <v>49628383</v>
       </c>
       <c r="L61" s="11">
-        <v>49628383</v>
+        <v>56755577</v>
       </c>
       <c r="M61" s="11">
-        <v>56755577</v>
+        <v>59057779</v>
       </c>
       <c r="N61" s="11">
-        <v>59057779</v>
+        <v>68726867</v>
       </c>
       <c r="O61" s="11">
-        <v>68726867</v>
+        <v>53702764</v>
       </c>
       <c r="P61" s="11">
-        <v>53702764</v>
+        <v>50304788</v>
       </c>
       <c r="Q61" s="11">
-        <v>50304788</v>
+        <v>59627053</v>
       </c>
       <c r="R61" s="11">
-        <v>59627053</v>
+        <v>58163067</v>
       </c>
       <c r="S61" s="11">
-        <v>58163067</v>
+        <v>58579886</v>
       </c>
       <c r="T61" s="11">
-        <v>58579886</v>
+        <v>60860172</v>
       </c>
       <c r="U61" s="11">
-        <v>60860172</v>
+        <v>55765797</v>
       </c>
       <c r="V61" s="11">
-        <v>55765797</v>
+        <v>60701327</v>
       </c>
       <c r="W61" s="11">
-        <v>60701327</v>
+        <v>59753685</v>
       </c>
       <c r="X61" s="11">
-        <v>59753685</v>
+        <v>77639111</v>
       </c>
       <c r="Y61" s="11">
-        <v>77639111</v>
+        <v>66429965</v>
       </c>
       <c r="Z61" s="11">
-        <v>66429965</v>
+        <v>67740041</v>
       </c>
       <c r="AA61" s="11">
-        <v>67740041</v>
+        <v>70514490</v>
       </c>
       <c r="AB61" s="11">
-        <v>70514490</v>
+        <v>88914052</v>
       </c>
       <c r="AC61" s="11">
-        <v>88914052</v>
+        <v>95136548</v>
       </c>
       <c r="AD61" s="11">
-        <v>95136548</v>
+        <v>98572533</v>
       </c>
       <c r="AE61" s="11">
-        <v>98572533</v>
+        <v>97912151</v>
       </c>
       <c r="AF61" s="11">
-        <v>97912151</v>
+        <v>107979754</v>
       </c>
       <c r="AG61" s="11">
-        <v>107979754</v>
+        <v>100888541</v>
       </c>
       <c r="AH61" s="11">
-        <v>100888541</v>
+        <v>100611846</v>
       </c>
       <c r="AI61" s="11">
-        <v>100611846</v>
+        <v>100997491</v>
       </c>
       <c r="AJ61" s="11">
-        <v>100997491</v>
+        <v>109313797</v>
       </c>
       <c r="AK61" s="11">
-        <v>109313797</v>
+        <v>126789077</v>
       </c>
       <c r="AL61" s="11">
-        <v>126789077</v>
+        <v>134555680</v>
       </c>
       <c r="AM61" s="11">
-        <v>134555680</v>
+        <v>107519911</v>
       </c>
       <c r="AN61" s="11">
-        <v>107519911</v>
+        <v>108054015</v>
       </c>
       <c r="AO61" s="11">
-        <v>108054015</v>
+        <v>108766180</v>
       </c>
       <c r="AP61" s="11">
-        <v>108766180</v>
+        <v>105933882</v>
       </c>
       <c r="AQ61" s="11">
-        <v>105933882</v>
+        <v>107237985</v>
       </c>
       <c r="AR61" s="11">
-        <v>107237985</v>
+        <v>113152166</v>
       </c>
       <c r="AS61" s="11">
-        <v>113152166</v>
+        <v>130433983</v>
       </c>
       <c r="AT61" s="11">
-        <v>130433983</v>
+        <v>125534109</v>
       </c>
       <c r="AU61" s="11">
-        <v>125534109</v>
+        <v>153371625</v>
       </c>
       <c r="AV61" s="11">
-        <v>153371625</v>
+        <v>143624822</v>
       </c>
       <c r="AW61" s="11">
-        <v>143624822</v>
+        <v>161460823</v>
       </c>
       <c r="AX61" s="11">
-        <v>157034691</v>
+        <v>137626093</v>
       </c>
       <c r="AY61" s="11">
-        <v>137626093</v>
+        <v>140454985</v>
       </c>
       <c r="AZ61" s="11">
-        <v>140454985</v>
+        <v>147670015</v>
       </c>
       <c r="BA61" s="11">
-        <v>147670015</v>
+        <v>151572507</v>
       </c>
       <c r="BB61" s="11">
-        <v>151572507</v>
+        <v>162272063</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
         <v>78</v>
       </c>
@@ -7391,7 +7356,7 @@
       <c r="BA62" s="9"/>
       <c r="BB62" s="9"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>62</v>
       </c>
@@ -7489,8 +7454,8 @@
       <c r="AH63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI63" s="11" t="s">
-        <v>57</v>
+      <c r="AI63" s="11">
+        <v>0</v>
       </c>
       <c r="AJ63" s="11">
         <v>0</v>

--- a/database/industries/shoyande/gharn/product/monthly.xlsx
+++ b/database/industries/shoyande/gharn/product/monthly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\gharn\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\gharn\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EFF318-D04E-4B85-914F-33E876DF5B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="9450"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="80">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -36,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 9 منتهی به 1397/09</t>
-  </si>
-  <si>
     <t>ماه 10 منتهی به 1397/10</t>
   </si>
   <si>
@@ -184,6 +182,9 @@
   </si>
   <si>
     <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>سایر</t>
@@ -264,7 +265,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -457,7 +458,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -469,7 +470,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -516,6 +517,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -551,6 +569,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -702,7 +737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1463,8 +1498,8 @@
       <c r="AE11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF11" s="11" t="s">
-        <v>57</v>
+      <c r="AF11" s="11">
+        <v>0</v>
       </c>
       <c r="AG11" s="11">
         <v>0</v>
@@ -1499,8 +1534,8 @@
       <c r="AQ11" s="11">
         <v>0</v>
       </c>
-      <c r="AR11" s="11">
-        <v>0</v>
+      <c r="AR11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS11" s="11" t="s">
         <v>57</v>
@@ -1550,146 +1585,146 @@
       <c r="G12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>57</v>
+      <c r="H12" s="13">
+        <v>1745</v>
       </c>
       <c r="I12" s="13">
-        <v>1745</v>
+        <v>3498</v>
       </c>
       <c r="J12" s="13">
-        <v>3498</v>
+        <v>2884</v>
       </c>
       <c r="K12" s="13">
-        <v>2884</v>
+        <v>3898</v>
       </c>
       <c r="L12" s="13">
-        <v>3898</v>
+        <v>2452</v>
       </c>
       <c r="M12" s="13">
-        <v>2452</v>
+        <v>3187</v>
       </c>
       <c r="N12" s="13">
-        <v>3187</v>
+        <v>2803</v>
       </c>
       <c r="O12" s="13">
-        <v>2803</v>
+        <v>2514</v>
       </c>
       <c r="P12" s="13">
-        <v>2514</v>
+        <v>3801</v>
       </c>
       <c r="Q12" s="13">
-        <v>3801</v>
+        <v>3829</v>
       </c>
       <c r="R12" s="13">
-        <v>3829</v>
+        <v>3972</v>
       </c>
       <c r="S12" s="13">
-        <v>3972</v>
+        <v>5108</v>
       </c>
       <c r="T12" s="13">
-        <v>5108</v>
+        <v>3629</v>
       </c>
       <c r="U12" s="13">
-        <v>3629</v>
+        <v>5395</v>
       </c>
       <c r="V12" s="13">
-        <v>5395</v>
+        <v>4741</v>
       </c>
       <c r="W12" s="13">
-        <v>4741</v>
+        <v>5003</v>
       </c>
       <c r="X12" s="13">
-        <v>5003</v>
+        <v>4441</v>
       </c>
       <c r="Y12" s="13">
-        <v>4441</v>
+        <v>3227</v>
       </c>
       <c r="Z12" s="13">
-        <v>3227</v>
+        <v>4038</v>
       </c>
       <c r="AA12" s="13">
-        <v>4038</v>
+        <v>5117</v>
       </c>
       <c r="AB12" s="13">
-        <v>5117</v>
+        <v>6377</v>
       </c>
       <c r="AC12" s="13">
-        <v>6377</v>
+        <v>6970</v>
       </c>
       <c r="AD12" s="13">
-        <v>6970</v>
+        <v>3508</v>
       </c>
       <c r="AE12" s="13">
-        <v>3508</v>
+        <v>5201</v>
       </c>
       <c r="AF12" s="13">
-        <v>5201</v>
+        <v>2219</v>
       </c>
       <c r="AG12" s="13">
-        <v>2219</v>
+        <v>2061</v>
       </c>
       <c r="AH12" s="13">
-        <v>2061</v>
+        <v>2726</v>
       </c>
       <c r="AI12" s="13">
-        <v>2726</v>
+        <v>5507</v>
       </c>
       <c r="AJ12" s="13">
-        <v>5507</v>
+        <v>4011</v>
       </c>
       <c r="AK12" s="13">
-        <v>4011</v>
+        <v>4579</v>
       </c>
       <c r="AL12" s="13">
-        <v>4579</v>
+        <v>3298</v>
       </c>
       <c r="AM12" s="13">
-        <v>3298</v>
+        <v>2788</v>
       </c>
       <c r="AN12" s="13">
-        <v>2788</v>
+        <v>2869</v>
       </c>
       <c r="AO12" s="13">
-        <v>2869</v>
+        <v>2727</v>
       </c>
       <c r="AP12" s="13">
-        <v>2727</v>
+        <v>4657</v>
       </c>
       <c r="AQ12" s="13">
-        <v>4657</v>
+        <v>3661</v>
       </c>
       <c r="AR12" s="13">
-        <v>3661</v>
+        <v>1798</v>
       </c>
       <c r="AS12" s="13">
-        <v>1798</v>
+        <v>2509</v>
       </c>
       <c r="AT12" s="13">
-        <v>2509</v>
+        <v>4262</v>
       </c>
       <c r="AU12" s="13">
-        <v>4262</v>
+        <v>3811</v>
       </c>
       <c r="AV12" s="13">
-        <v>3811</v>
+        <v>3928</v>
       </c>
       <c r="AW12" s="13">
-        <v>3928</v>
+        <v>4555</v>
       </c>
       <c r="AX12" s="13">
-        <v>4555</v>
+        <v>3266</v>
       </c>
       <c r="AY12" s="13">
-        <v>3266</v>
+        <v>3588</v>
       </c>
       <c r="AZ12" s="13">
-        <v>3588</v>
+        <v>3891</v>
       </c>
       <c r="BA12" s="13">
-        <v>3891</v>
+        <v>3887</v>
       </c>
       <c r="BB12" s="13">
-        <v>3887</v>
+        <v>5669</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.25">
@@ -1709,146 +1744,146 @@
       <c r="G13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>57</v>
+      <c r="H13" s="11">
+        <v>2242</v>
       </c>
       <c r="I13" s="11">
-        <v>2242</v>
+        <v>4250</v>
       </c>
       <c r="J13" s="11">
-        <v>4250</v>
+        <v>2863</v>
       </c>
       <c r="K13" s="11">
-        <v>2863</v>
+        <v>4800</v>
       </c>
       <c r="L13" s="11">
-        <v>4800</v>
+        <v>3613</v>
       </c>
       <c r="M13" s="11">
-        <v>3613</v>
+        <v>4665</v>
       </c>
       <c r="N13" s="11">
-        <v>4665</v>
+        <v>3321</v>
       </c>
       <c r="O13" s="11">
-        <v>3321</v>
+        <v>2946</v>
       </c>
       <c r="P13" s="11">
-        <v>2946</v>
+        <v>3813</v>
       </c>
       <c r="Q13" s="11">
-        <v>3813</v>
+        <v>4920</v>
       </c>
       <c r="R13" s="11">
-        <v>4920</v>
+        <v>5229</v>
       </c>
       <c r="S13" s="11">
-        <v>5229</v>
+        <v>4494</v>
       </c>
       <c r="T13" s="11">
-        <v>4494</v>
+        <v>3002</v>
       </c>
       <c r="U13" s="11">
-        <v>3002</v>
+        <v>4738</v>
       </c>
       <c r="V13" s="11">
-        <v>4738</v>
+        <v>3318</v>
       </c>
       <c r="W13" s="11">
-        <v>3318</v>
+        <v>3965</v>
       </c>
       <c r="X13" s="11">
-        <v>3965</v>
+        <v>2649</v>
       </c>
       <c r="Y13" s="11">
-        <v>2649</v>
+        <v>4152</v>
       </c>
       <c r="Z13" s="11">
-        <v>4152</v>
+        <v>3219</v>
       </c>
       <c r="AA13" s="11">
-        <v>3219</v>
+        <v>4166</v>
       </c>
       <c r="AB13" s="11">
-        <v>4166</v>
+        <v>5144</v>
       </c>
       <c r="AC13" s="11">
-        <v>5144</v>
+        <v>5700</v>
       </c>
       <c r="AD13" s="11">
-        <v>5700</v>
+        <v>3767</v>
       </c>
       <c r="AE13" s="11">
-        <v>3767</v>
+        <v>5500</v>
       </c>
       <c r="AF13" s="11">
-        <v>5500</v>
+        <v>2838</v>
       </c>
       <c r="AG13" s="11">
-        <v>2838</v>
+        <v>885</v>
       </c>
       <c r="AH13" s="11">
-        <v>885</v>
+        <v>3309</v>
       </c>
       <c r="AI13" s="11">
-        <v>3309</v>
+        <v>5341</v>
       </c>
       <c r="AJ13" s="11">
-        <v>5341</v>
+        <v>3657</v>
       </c>
       <c r="AK13" s="11">
-        <v>3657</v>
+        <v>4860</v>
       </c>
       <c r="AL13" s="11">
-        <v>4860</v>
+        <v>3183</v>
       </c>
       <c r="AM13" s="11">
-        <v>3183</v>
+        <v>3651</v>
       </c>
       <c r="AN13" s="11">
-        <v>3651</v>
+        <v>4748</v>
       </c>
       <c r="AO13" s="11">
-        <v>4748</v>
+        <v>4251</v>
       </c>
       <c r="AP13" s="11">
-        <v>4251</v>
+        <v>5069</v>
       </c>
       <c r="AQ13" s="11">
-        <v>5069</v>
+        <v>4555</v>
       </c>
       <c r="AR13" s="11">
-        <v>4555</v>
+        <v>2354</v>
       </c>
       <c r="AS13" s="11">
-        <v>2354</v>
+        <v>3415</v>
       </c>
       <c r="AT13" s="11">
-        <v>3415</v>
+        <v>5170</v>
       </c>
       <c r="AU13" s="11">
-        <v>5170</v>
+        <v>5489</v>
       </c>
       <c r="AV13" s="11">
-        <v>5489</v>
+        <v>5494</v>
       </c>
       <c r="AW13" s="11">
-        <v>5494</v>
+        <v>5571</v>
       </c>
       <c r="AX13" s="11">
-        <v>5571</v>
+        <v>4921</v>
       </c>
       <c r="AY13" s="11">
-        <v>4921</v>
+        <v>6802</v>
       </c>
       <c r="AZ13" s="11">
-        <v>6802</v>
+        <v>6652</v>
       </c>
       <c r="BA13" s="11">
-        <v>6652</v>
+        <v>7428</v>
       </c>
       <c r="BB13" s="11">
-        <v>7428</v>
+        <v>8904</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.25">
@@ -1868,146 +1903,146 @@
       <c r="G14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>57</v>
+      <c r="H14" s="13">
+        <v>1838</v>
       </c>
       <c r="I14" s="13">
-        <v>1838</v>
+        <v>3469</v>
       </c>
       <c r="J14" s="13">
-        <v>3469</v>
+        <v>2743</v>
       </c>
       <c r="K14" s="13">
-        <v>2743</v>
+        <v>3519</v>
       </c>
       <c r="L14" s="13">
-        <v>3519</v>
+        <v>2665</v>
       </c>
       <c r="M14" s="13">
-        <v>2665</v>
+        <v>3141</v>
       </c>
       <c r="N14" s="13">
-        <v>3141</v>
+        <v>2877</v>
       </c>
       <c r="O14" s="13">
-        <v>2877</v>
+        <v>2278</v>
       </c>
       <c r="P14" s="13">
-        <v>2278</v>
+        <v>3015</v>
       </c>
       <c r="Q14" s="13">
-        <v>3015</v>
+        <v>4016</v>
       </c>
       <c r="R14" s="13">
-        <v>4016</v>
+        <v>4010</v>
       </c>
       <c r="S14" s="13">
-        <v>4010</v>
+        <v>3544</v>
       </c>
       <c r="T14" s="13">
-        <v>3544</v>
+        <v>1584</v>
       </c>
       <c r="U14" s="13">
-        <v>1584</v>
+        <v>3328</v>
       </c>
       <c r="V14" s="13">
-        <v>3328</v>
+        <v>3107</v>
       </c>
       <c r="W14" s="13">
-        <v>3107</v>
+        <v>4240</v>
       </c>
       <c r="X14" s="13">
-        <v>4240</v>
+        <v>2713</v>
       </c>
       <c r="Y14" s="13">
-        <v>2713</v>
+        <v>2941</v>
       </c>
       <c r="Z14" s="13">
-        <v>2941</v>
+        <v>2879</v>
       </c>
       <c r="AA14" s="13">
-        <v>2879</v>
+        <v>3392</v>
       </c>
       <c r="AB14" s="13">
-        <v>3392</v>
+        <v>4575</v>
       </c>
       <c r="AC14" s="13">
-        <v>4575</v>
+        <v>5244</v>
       </c>
       <c r="AD14" s="13">
-        <v>5244</v>
+        <v>5692</v>
       </c>
       <c r="AE14" s="13">
-        <v>5692</v>
+        <v>5317</v>
       </c>
       <c r="AF14" s="13">
-        <v>5317</v>
+        <v>2424</v>
       </c>
       <c r="AG14" s="13">
-        <v>2424</v>
+        <v>2852</v>
       </c>
       <c r="AH14" s="13">
-        <v>2852</v>
+        <v>3738</v>
       </c>
       <c r="AI14" s="13">
-        <v>3738</v>
+        <v>4833</v>
       </c>
       <c r="AJ14" s="13">
-        <v>4833</v>
+        <v>4126</v>
       </c>
       <c r="AK14" s="13">
-        <v>4126</v>
+        <v>5335</v>
       </c>
       <c r="AL14" s="13">
-        <v>5335</v>
+        <v>4371</v>
       </c>
       <c r="AM14" s="13">
-        <v>4371</v>
+        <v>4164</v>
       </c>
       <c r="AN14" s="13">
-        <v>4164</v>
+        <v>3631</v>
       </c>
       <c r="AO14" s="13">
-        <v>3631</v>
+        <v>3673</v>
       </c>
       <c r="AP14" s="13">
-        <v>3673</v>
+        <v>5490</v>
       </c>
       <c r="AQ14" s="13">
-        <v>5490</v>
+        <v>4234</v>
       </c>
       <c r="AR14" s="13">
-        <v>4234</v>
+        <v>2384</v>
       </c>
       <c r="AS14" s="13">
-        <v>2384</v>
+        <v>3547</v>
       </c>
       <c r="AT14" s="13">
-        <v>3547</v>
+        <v>4053</v>
       </c>
       <c r="AU14" s="13">
-        <v>4053</v>
+        <v>4193</v>
       </c>
       <c r="AV14" s="13">
-        <v>4193</v>
+        <v>4611</v>
       </c>
       <c r="AW14" s="13">
-        <v>4611</v>
+        <v>4703</v>
       </c>
       <c r="AX14" s="13">
-        <v>4703</v>
+        <v>3902</v>
       </c>
       <c r="AY14" s="13">
-        <v>3902</v>
+        <v>5535</v>
       </c>
       <c r="AZ14" s="13">
-        <v>5535</v>
+        <v>5618</v>
       </c>
       <c r="BA14" s="13">
-        <v>5618</v>
+        <v>5087</v>
       </c>
       <c r="BB14" s="13">
-        <v>5087</v>
+        <v>6711</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.25">
@@ -2195,11 +2230,11 @@
       <c r="AR16" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AS16" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT16" s="11">
-        <v>0</v>
+      <c r="AS16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU16" s="11" t="s">
         <v>57</v>
@@ -2286,8 +2321,8 @@
       <c r="V17" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W17" s="15" t="s">
-        <v>57</v>
+      <c r="W17" s="15">
+        <v>0</v>
       </c>
       <c r="X17" s="15">
         <v>0</v>
@@ -2399,145 +2434,145 @@
         <v>0</v>
       </c>
       <c r="H18" s="17">
-        <v>0</v>
+        <v>5825</v>
       </c>
       <c r="I18" s="17">
-        <v>5825</v>
+        <v>11217</v>
       </c>
       <c r="J18" s="17">
-        <v>11217</v>
+        <v>8490</v>
       </c>
       <c r="K18" s="17">
-        <v>8490</v>
+        <v>12217</v>
       </c>
       <c r="L18" s="17">
-        <v>12217</v>
+        <v>8730</v>
       </c>
       <c r="M18" s="17">
-        <v>8730</v>
+        <v>10993</v>
       </c>
       <c r="N18" s="17">
-        <v>10993</v>
+        <v>9001</v>
       </c>
       <c r="O18" s="17">
-        <v>9001</v>
+        <v>7738</v>
       </c>
       <c r="P18" s="17">
-        <v>7738</v>
+        <v>10629</v>
       </c>
       <c r="Q18" s="17">
-        <v>10629</v>
+        <v>12765</v>
       </c>
       <c r="R18" s="17">
-        <v>12765</v>
+        <v>13211</v>
       </c>
       <c r="S18" s="17">
-        <v>13211</v>
+        <v>13146</v>
       </c>
       <c r="T18" s="17">
-        <v>13146</v>
+        <v>8215</v>
       </c>
       <c r="U18" s="17">
-        <v>8215</v>
+        <v>13461</v>
       </c>
       <c r="V18" s="17">
-        <v>13461</v>
+        <v>11166</v>
       </c>
       <c r="W18" s="17">
-        <v>11166</v>
+        <v>13208</v>
       </c>
       <c r="X18" s="17">
-        <v>13208</v>
+        <v>9803</v>
       </c>
       <c r="Y18" s="17">
-        <v>9803</v>
+        <v>10320</v>
       </c>
       <c r="Z18" s="17">
-        <v>10320</v>
+        <v>10136</v>
       </c>
       <c r="AA18" s="17">
-        <v>10136</v>
+        <v>12675</v>
       </c>
       <c r="AB18" s="17">
-        <v>12675</v>
+        <v>16096</v>
       </c>
       <c r="AC18" s="17">
-        <v>16096</v>
+        <v>17914</v>
       </c>
       <c r="AD18" s="17">
-        <v>17914</v>
+        <v>12967</v>
       </c>
       <c r="AE18" s="17">
-        <v>12967</v>
+        <v>16018</v>
       </c>
       <c r="AF18" s="17">
-        <v>16018</v>
+        <v>7481</v>
       </c>
       <c r="AG18" s="17">
-        <v>7481</v>
+        <v>5798</v>
       </c>
       <c r="AH18" s="17">
-        <v>5798</v>
+        <v>9773</v>
       </c>
       <c r="AI18" s="17">
-        <v>9773</v>
+        <v>15681</v>
       </c>
       <c r="AJ18" s="17">
-        <v>15681</v>
+        <v>11794</v>
       </c>
       <c r="AK18" s="17">
-        <v>11794</v>
+        <v>14774</v>
       </c>
       <c r="AL18" s="17">
-        <v>14774</v>
+        <v>10852</v>
       </c>
       <c r="AM18" s="17">
-        <v>10852</v>
+        <v>10603</v>
       </c>
       <c r="AN18" s="17">
-        <v>10603</v>
+        <v>11248</v>
       </c>
       <c r="AO18" s="17">
-        <v>11248</v>
+        <v>10651</v>
       </c>
       <c r="AP18" s="17">
-        <v>10651</v>
+        <v>15216</v>
       </c>
       <c r="AQ18" s="17">
-        <v>15216</v>
+        <v>12450</v>
       </c>
       <c r="AR18" s="17">
-        <v>12450</v>
+        <v>6536</v>
       </c>
       <c r="AS18" s="17">
-        <v>6536</v>
+        <v>9471</v>
       </c>
       <c r="AT18" s="17">
-        <v>9471</v>
+        <v>13485</v>
       </c>
       <c r="AU18" s="17">
-        <v>13485</v>
+        <v>13493</v>
       </c>
       <c r="AV18" s="17">
-        <v>13493</v>
+        <v>14033</v>
       </c>
       <c r="AW18" s="17">
-        <v>14033</v>
+        <v>14829</v>
       </c>
       <c r="AX18" s="17">
-        <v>14829</v>
+        <v>12089</v>
       </c>
       <c r="AY18" s="17">
-        <v>12089</v>
+        <v>15925</v>
       </c>
       <c r="AZ18" s="17">
-        <v>15925</v>
+        <v>16161</v>
       </c>
       <c r="BA18" s="17">
-        <v>16161</v>
+        <v>16402</v>
       </c>
       <c r="BB18" s="17">
-        <v>16402</v>
+        <v>21284</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.25">
@@ -3063,8 +3098,8 @@
       <c r="AE25" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF25" s="11" t="s">
-        <v>57</v>
+      <c r="AF25" s="11">
+        <v>0</v>
       </c>
       <c r="AG25" s="11">
         <v>0</v>
@@ -3099,8 +3134,8 @@
       <c r="AQ25" s="11">
         <v>0</v>
       </c>
-      <c r="AR25" s="11">
-        <v>0</v>
+      <c r="AR25" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS25" s="11" t="s">
         <v>57</v>
@@ -3150,146 +3185,146 @@
       <c r="G26" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="13" t="s">
-        <v>57</v>
+      <c r="H26" s="13">
+        <v>1716</v>
       </c>
       <c r="I26" s="13">
-        <v>1716</v>
+        <v>3527</v>
       </c>
       <c r="J26" s="13">
-        <v>3527</v>
+        <v>2654</v>
       </c>
       <c r="K26" s="13">
-        <v>2654</v>
+        <v>3608</v>
       </c>
       <c r="L26" s="13">
-        <v>3608</v>
+        <v>2317</v>
       </c>
       <c r="M26" s="13">
-        <v>2317</v>
+        <v>4004</v>
       </c>
       <c r="N26" s="13">
-        <v>4004</v>
+        <v>1796</v>
       </c>
       <c r="O26" s="13">
-        <v>1796</v>
+        <v>2188</v>
       </c>
       <c r="P26" s="13">
-        <v>2188</v>
+        <v>3762</v>
       </c>
       <c r="Q26" s="13">
-        <v>3762</v>
+        <v>3760</v>
       </c>
       <c r="R26" s="13">
-        <v>3760</v>
+        <v>3851</v>
       </c>
       <c r="S26" s="13">
-        <v>3851</v>
+        <v>5171</v>
       </c>
       <c r="T26" s="13">
-        <v>5171</v>
+        <v>3977</v>
       </c>
       <c r="U26" s="13">
-        <v>3977</v>
+        <v>4984</v>
       </c>
       <c r="V26" s="13">
-        <v>4984</v>
+        <v>4224</v>
       </c>
       <c r="W26" s="13">
-        <v>4224</v>
+        <v>5034</v>
       </c>
       <c r="X26" s="13">
-        <v>5034</v>
+        <v>4877</v>
       </c>
       <c r="Y26" s="13">
-        <v>4877</v>
+        <v>3557</v>
       </c>
       <c r="Z26" s="13">
-        <v>3557</v>
+        <v>4026</v>
       </c>
       <c r="AA26" s="13">
-        <v>4026</v>
+        <v>4801</v>
       </c>
       <c r="AB26" s="13">
-        <v>4801</v>
+        <v>5835</v>
       </c>
       <c r="AC26" s="13">
-        <v>5835</v>
+        <v>6862</v>
       </c>
       <c r="AD26" s="13">
-        <v>6862</v>
+        <v>4729</v>
       </c>
       <c r="AE26" s="13">
-        <v>4729</v>
+        <v>5003</v>
       </c>
       <c r="AF26" s="13">
-        <v>5003</v>
+        <v>1229</v>
       </c>
       <c r="AG26" s="13">
-        <v>1229</v>
+        <v>3209</v>
       </c>
       <c r="AH26" s="13">
-        <v>3209</v>
+        <v>2622</v>
       </c>
       <c r="AI26" s="13">
-        <v>2622</v>
+        <v>4951</v>
       </c>
       <c r="AJ26" s="13">
-        <v>4951</v>
+        <v>4018</v>
       </c>
       <c r="AK26" s="13">
-        <v>4018</v>
+        <v>4622</v>
       </c>
       <c r="AL26" s="13">
-        <v>4622</v>
+        <v>2864</v>
       </c>
       <c r="AM26" s="13">
-        <v>2864</v>
+        <v>3616</v>
       </c>
       <c r="AN26" s="13">
-        <v>3616</v>
+        <v>2417</v>
       </c>
       <c r="AO26" s="13">
-        <v>2417</v>
+        <v>3486</v>
       </c>
       <c r="AP26" s="13">
-        <v>3486</v>
+        <v>3976</v>
       </c>
       <c r="AQ26" s="13">
-        <v>3976</v>
+        <v>4358</v>
       </c>
       <c r="AR26" s="13">
-        <v>4358</v>
+        <v>1443</v>
       </c>
       <c r="AS26" s="13">
-        <v>1443</v>
+        <v>2759</v>
       </c>
       <c r="AT26" s="13">
-        <v>2759</v>
+        <v>3575</v>
       </c>
       <c r="AU26" s="13">
-        <v>3575</v>
+        <v>3514</v>
       </c>
       <c r="AV26" s="13">
-        <v>3514</v>
+        <v>4116</v>
       </c>
       <c r="AW26" s="13">
-        <v>4116</v>
+        <v>4003</v>
       </c>
       <c r="AX26" s="13">
-        <v>4003</v>
+        <v>3202</v>
       </c>
       <c r="AY26" s="13">
-        <v>3202</v>
+        <v>4035</v>
       </c>
       <c r="AZ26" s="13">
-        <v>4035</v>
+        <v>3572</v>
       </c>
       <c r="BA26" s="13">
-        <v>3572</v>
+        <v>4573</v>
       </c>
       <c r="BB26" s="13">
-        <v>4573</v>
+        <v>5694</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.25">
@@ -3309,146 +3344,146 @@
       <c r="G27" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="11" t="s">
-        <v>57</v>
+      <c r="H27" s="11">
+        <v>1980</v>
       </c>
       <c r="I27" s="11">
-        <v>1980</v>
+        <v>3784</v>
       </c>
       <c r="J27" s="11">
-        <v>3784</v>
+        <v>3314</v>
       </c>
       <c r="K27" s="11">
-        <v>3314</v>
+        <v>4337</v>
       </c>
       <c r="L27" s="11">
-        <v>4337</v>
+        <v>3362</v>
       </c>
       <c r="M27" s="11">
-        <v>3362</v>
+        <v>5284</v>
       </c>
       <c r="N27" s="11">
-        <v>5284</v>
+        <v>2702</v>
       </c>
       <c r="O27" s="11">
-        <v>2702</v>
+        <v>2593</v>
       </c>
       <c r="P27" s="11">
-        <v>2593</v>
+        <v>3706</v>
       </c>
       <c r="Q27" s="11">
-        <v>3706</v>
+        <v>3763</v>
       </c>
       <c r="R27" s="11">
-        <v>3763</v>
+        <v>4919</v>
       </c>
       <c r="S27" s="11">
-        <v>4919</v>
+        <v>4952</v>
       </c>
       <c r="T27" s="11">
-        <v>4952</v>
+        <v>2617</v>
       </c>
       <c r="U27" s="11">
-        <v>2617</v>
+        <v>4245</v>
       </c>
       <c r="V27" s="11">
-        <v>4245</v>
+        <v>3978</v>
       </c>
       <c r="W27" s="11">
-        <v>3978</v>
+        <v>3405</v>
       </c>
       <c r="X27" s="11">
-        <v>3405</v>
+        <v>3243</v>
       </c>
       <c r="Y27" s="11">
-        <v>3243</v>
+        <v>4240</v>
       </c>
       <c r="Z27" s="11">
-        <v>4240</v>
+        <v>3889</v>
       </c>
       <c r="AA27" s="11">
-        <v>3889</v>
+        <v>4270</v>
       </c>
       <c r="AB27" s="11">
-        <v>4270</v>
+        <v>4419</v>
       </c>
       <c r="AC27" s="11">
-        <v>4419</v>
+        <v>5310</v>
       </c>
       <c r="AD27" s="11">
-        <v>5310</v>
+        <v>4881</v>
       </c>
       <c r="AE27" s="11">
-        <v>4881</v>
+        <v>5085</v>
       </c>
       <c r="AF27" s="11">
-        <v>5085</v>
+        <v>1964</v>
       </c>
       <c r="AG27" s="11">
-        <v>1964</v>
+        <v>2387</v>
       </c>
       <c r="AH27" s="11">
-        <v>2387</v>
+        <v>2819</v>
       </c>
       <c r="AI27" s="11">
-        <v>2819</v>
+        <v>4689</v>
       </c>
       <c r="AJ27" s="11">
-        <v>4689</v>
+        <v>4046</v>
       </c>
       <c r="AK27" s="11">
-        <v>4046</v>
+        <v>4119</v>
       </c>
       <c r="AL27" s="11">
-        <v>4119</v>
+        <v>2911</v>
       </c>
       <c r="AM27" s="11">
-        <v>2911</v>
+        <v>4283</v>
       </c>
       <c r="AN27" s="11">
-        <v>4283</v>
+        <v>3815</v>
       </c>
       <c r="AO27" s="11">
-        <v>3815</v>
+        <v>4067</v>
       </c>
       <c r="AP27" s="11">
-        <v>4067</v>
+        <v>4856</v>
       </c>
       <c r="AQ27" s="11">
-        <v>4856</v>
+        <v>5742</v>
       </c>
       <c r="AR27" s="11">
-        <v>5742</v>
+        <v>2260</v>
       </c>
       <c r="AS27" s="11">
-        <v>2260</v>
+        <v>3802</v>
       </c>
       <c r="AT27" s="11">
-        <v>3802</v>
+        <v>4249</v>
       </c>
       <c r="AU27" s="11">
-        <v>4249</v>
+        <v>5729</v>
       </c>
       <c r="AV27" s="11">
-        <v>5729</v>
+        <v>5801</v>
       </c>
       <c r="AW27" s="11">
-        <v>5801</v>
+        <v>5440</v>
       </c>
       <c r="AX27" s="11">
-        <v>5440</v>
+        <v>4767</v>
       </c>
       <c r="AY27" s="11">
-        <v>4767</v>
+        <v>6226</v>
       </c>
       <c r="AZ27" s="11">
-        <v>6226</v>
+        <v>5990</v>
       </c>
       <c r="BA27" s="11">
-        <v>5990</v>
+        <v>7676</v>
       </c>
       <c r="BB27" s="11">
-        <v>7676</v>
+        <v>9237</v>
       </c>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.25">
@@ -3468,146 +3503,146 @@
       <c r="G28" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>57</v>
+      <c r="H28" s="13">
+        <v>1586</v>
       </c>
       <c r="I28" s="13">
-        <v>1586</v>
+        <v>3435</v>
       </c>
       <c r="J28" s="13">
-        <v>3435</v>
+        <v>2882</v>
       </c>
       <c r="K28" s="13">
-        <v>2882</v>
+        <v>3183</v>
       </c>
       <c r="L28" s="13">
-        <v>3183</v>
+        <v>2648</v>
       </c>
       <c r="M28" s="13">
-        <v>2648</v>
+        <v>3361</v>
       </c>
       <c r="N28" s="13">
-        <v>3361</v>
+        <v>2641</v>
       </c>
       <c r="O28" s="13">
-        <v>2641</v>
+        <v>2172</v>
       </c>
       <c r="P28" s="13">
-        <v>2172</v>
+        <v>2861</v>
       </c>
       <c r="Q28" s="13">
-        <v>2861</v>
+        <v>3195</v>
       </c>
       <c r="R28" s="13">
-        <v>3195</v>
+        <v>4375</v>
       </c>
       <c r="S28" s="13">
-        <v>4375</v>
+        <v>4291</v>
       </c>
       <c r="T28" s="13">
-        <v>4291</v>
+        <v>1456</v>
       </c>
       <c r="U28" s="13">
-        <v>1456</v>
+        <v>3241</v>
       </c>
       <c r="V28" s="13">
-        <v>3241</v>
+        <v>3053</v>
       </c>
       <c r="W28" s="13">
-        <v>3053</v>
+        <v>4004</v>
       </c>
       <c r="X28" s="13">
-        <v>4004</v>
+        <v>2870</v>
       </c>
       <c r="Y28" s="13">
-        <v>2870</v>
+        <v>2962</v>
       </c>
       <c r="Z28" s="13">
-        <v>2962</v>
+        <v>3071</v>
       </c>
       <c r="AA28" s="13">
-        <v>3071</v>
+        <v>3060</v>
       </c>
       <c r="AB28" s="13">
-        <v>3060</v>
+        <v>4189</v>
       </c>
       <c r="AC28" s="13">
-        <v>4189</v>
+        <v>4784</v>
       </c>
       <c r="AD28" s="13">
-        <v>4784</v>
+        <v>5942</v>
       </c>
       <c r="AE28" s="13">
-        <v>5942</v>
+        <v>4396</v>
       </c>
       <c r="AF28" s="13">
-        <v>4396</v>
+        <v>2234</v>
       </c>
       <c r="AG28" s="13">
-        <v>2234</v>
+        <v>3022</v>
       </c>
       <c r="AH28" s="13">
-        <v>3022</v>
+        <v>3188</v>
       </c>
       <c r="AI28" s="13">
-        <v>3188</v>
+        <v>4675</v>
       </c>
       <c r="AJ28" s="13">
-        <v>4675</v>
+        <v>3717</v>
       </c>
       <c r="AK28" s="13">
-        <v>3717</v>
+        <v>5361</v>
       </c>
       <c r="AL28" s="13">
-        <v>5361</v>
+        <v>4043</v>
       </c>
       <c r="AM28" s="13">
-        <v>4043</v>
+        <v>4110</v>
       </c>
       <c r="AN28" s="13">
-        <v>4110</v>
+        <v>3353</v>
       </c>
       <c r="AO28" s="13">
-        <v>3353</v>
+        <v>4250</v>
       </c>
       <c r="AP28" s="13">
-        <v>4250</v>
+        <v>5181</v>
       </c>
       <c r="AQ28" s="13">
-        <v>5181</v>
+        <v>5218</v>
       </c>
       <c r="AR28" s="13">
-        <v>5218</v>
+        <v>1848</v>
       </c>
       <c r="AS28" s="13">
-        <v>1848</v>
+        <v>3694</v>
       </c>
       <c r="AT28" s="13">
-        <v>3694</v>
+        <v>3630</v>
       </c>
       <c r="AU28" s="13">
-        <v>3630</v>
+        <v>4206</v>
       </c>
       <c r="AV28" s="13">
-        <v>4206</v>
+        <v>4837</v>
       </c>
       <c r="AW28" s="13">
-        <v>4837</v>
+        <v>4461</v>
       </c>
       <c r="AX28" s="13">
-        <v>4461</v>
+        <v>3932</v>
       </c>
       <c r="AY28" s="13">
-        <v>3932</v>
+        <v>5276</v>
       </c>
       <c r="AZ28" s="13">
-        <v>5276</v>
+        <v>5034</v>
       </c>
       <c r="BA28" s="13">
-        <v>5034</v>
+        <v>5337</v>
       </c>
       <c r="BB28" s="13">
-        <v>5337</v>
+        <v>7521</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.25">
@@ -3795,11 +3830,11 @@
       <c r="AR30" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AS30" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT30" s="11">
-        <v>0</v>
+      <c r="AS30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU30" s="11" t="s">
         <v>57</v>
@@ -3886,8 +3921,8 @@
       <c r="V31" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W31" s="15" t="s">
-        <v>57</v>
+      <c r="W31" s="15">
+        <v>0</v>
       </c>
       <c r="X31" s="15">
         <v>0</v>
@@ -4100,8 +4135,8 @@
       <c r="V33" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W33" s="17" t="s">
-        <v>57</v>
+      <c r="W33" s="17">
+        <v>0</v>
       </c>
       <c r="X33" s="17">
         <v>0</v>
@@ -4213,145 +4248,145 @@
         <v>0</v>
       </c>
       <c r="H34" s="15">
-        <v>0</v>
+        <v>5282</v>
       </c>
       <c r="I34" s="15">
-        <v>5282</v>
+        <v>10746</v>
       </c>
       <c r="J34" s="15">
-        <v>10746</v>
+        <v>8850</v>
       </c>
       <c r="K34" s="15">
-        <v>8850</v>
+        <v>11128</v>
       </c>
       <c r="L34" s="15">
-        <v>11128</v>
+        <v>8327</v>
       </c>
       <c r="M34" s="15">
-        <v>8327</v>
+        <v>12649</v>
       </c>
       <c r="N34" s="15">
-        <v>12649</v>
+        <v>7139</v>
       </c>
       <c r="O34" s="15">
-        <v>7139</v>
+        <v>6953</v>
       </c>
       <c r="P34" s="15">
-        <v>6953</v>
+        <v>10329</v>
       </c>
       <c r="Q34" s="15">
-        <v>10329</v>
+        <v>10718</v>
       </c>
       <c r="R34" s="15">
-        <v>10718</v>
+        <v>13145</v>
       </c>
       <c r="S34" s="15">
-        <v>13145</v>
+        <v>14414</v>
       </c>
       <c r="T34" s="15">
-        <v>14414</v>
+        <v>8050</v>
       </c>
       <c r="U34" s="15">
-        <v>8050</v>
+        <v>12470</v>
       </c>
       <c r="V34" s="15">
-        <v>12470</v>
+        <v>11255</v>
       </c>
       <c r="W34" s="15">
-        <v>11255</v>
+        <v>12443</v>
       </c>
       <c r="X34" s="15">
-        <v>12443</v>
+        <v>10990</v>
       </c>
       <c r="Y34" s="15">
-        <v>10990</v>
+        <v>10759</v>
       </c>
       <c r="Z34" s="15">
-        <v>10759</v>
+        <v>10986</v>
       </c>
       <c r="AA34" s="15">
-        <v>10986</v>
+        <v>12131</v>
       </c>
       <c r="AB34" s="15">
-        <v>12131</v>
+        <v>14443</v>
       </c>
       <c r="AC34" s="15">
-        <v>14443</v>
+        <v>16956</v>
       </c>
       <c r="AD34" s="15">
-        <v>16956</v>
+        <v>15552</v>
       </c>
       <c r="AE34" s="15">
-        <v>15552</v>
+        <v>14484</v>
       </c>
       <c r="AF34" s="15">
-        <v>14484</v>
+        <v>5427</v>
       </c>
       <c r="AG34" s="15">
-        <v>5427</v>
+        <v>8618</v>
       </c>
       <c r="AH34" s="15">
-        <v>8618</v>
+        <v>8629</v>
       </c>
       <c r="AI34" s="15">
-        <v>8629</v>
+        <v>14315</v>
       </c>
       <c r="AJ34" s="15">
-        <v>14315</v>
+        <v>11781</v>
       </c>
       <c r="AK34" s="15">
-        <v>11781</v>
+        <v>14102</v>
       </c>
       <c r="AL34" s="15">
-        <v>14102</v>
+        <v>9818</v>
       </c>
       <c r="AM34" s="15">
-        <v>9818</v>
+        <v>12009</v>
       </c>
       <c r="AN34" s="15">
-        <v>12009</v>
+        <v>9585</v>
       </c>
       <c r="AO34" s="15">
-        <v>9585</v>
+        <v>11803</v>
       </c>
       <c r="AP34" s="15">
-        <v>11803</v>
+        <v>14013</v>
       </c>
       <c r="AQ34" s="15">
-        <v>14013</v>
+        <v>15318</v>
       </c>
       <c r="AR34" s="15">
-        <v>15318</v>
+        <v>5551</v>
       </c>
       <c r="AS34" s="15">
-        <v>5551</v>
+        <v>10255</v>
       </c>
       <c r="AT34" s="15">
-        <v>10255</v>
+        <v>11454</v>
       </c>
       <c r="AU34" s="15">
-        <v>11454</v>
+        <v>13449</v>
       </c>
       <c r="AV34" s="15">
-        <v>13449</v>
+        <v>14754</v>
       </c>
       <c r="AW34" s="15">
-        <v>14754</v>
+        <v>13904</v>
       </c>
       <c r="AX34" s="15">
-        <v>13904</v>
+        <v>11901</v>
       </c>
       <c r="AY34" s="15">
-        <v>11901</v>
+        <v>15537</v>
       </c>
       <c r="AZ34" s="15">
-        <v>15537</v>
+        <v>14596</v>
       </c>
       <c r="BA34" s="15">
-        <v>14596</v>
+        <v>17586</v>
       </c>
       <c r="BB34" s="15">
-        <v>17586</v>
+        <v>22452</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.25">
@@ -4877,8 +4912,8 @@
       <c r="AE41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF41" s="11" t="s">
-        <v>57</v>
+      <c r="AF41" s="11">
+        <v>0</v>
       </c>
       <c r="AG41" s="11">
         <v>0</v>
@@ -4913,8 +4948,8 @@
       <c r="AQ41" s="11">
         <v>0</v>
       </c>
-      <c r="AR41" s="11">
-        <v>0</v>
+      <c r="AR41" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS41" s="11" t="s">
         <v>57</v>
@@ -4964,146 +4999,146 @@
       <c r="G42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H42" s="13" t="s">
-        <v>57</v>
+      <c r="H42" s="13">
+        <v>146301</v>
       </c>
       <c r="I42" s="13">
-        <v>146301</v>
+        <v>306687</v>
       </c>
       <c r="J42" s="13">
-        <v>306687</v>
+        <v>265735</v>
       </c>
       <c r="K42" s="13">
-        <v>265735</v>
+        <v>377182</v>
       </c>
       <c r="L42" s="13">
-        <v>377182</v>
+        <v>272335</v>
       </c>
       <c r="M42" s="13">
-        <v>272335</v>
+        <v>478398</v>
       </c>
       <c r="N42" s="13">
-        <v>478398</v>
+        <v>210428</v>
       </c>
       <c r="O42" s="13">
-        <v>210428</v>
+        <v>240205</v>
       </c>
       <c r="P42" s="13">
-        <v>240205</v>
+        <v>403712</v>
       </c>
       <c r="Q42" s="13">
-        <v>403712</v>
+        <v>382531</v>
       </c>
       <c r="R42" s="13">
-        <v>382531</v>
+        <v>410833</v>
       </c>
       <c r="S42" s="13">
-        <v>410833</v>
+        <v>564386</v>
       </c>
       <c r="T42" s="13">
-        <v>564386</v>
+        <v>437522</v>
       </c>
       <c r="U42" s="13">
-        <v>437522</v>
+        <v>550411</v>
       </c>
       <c r="V42" s="13">
-        <v>550411</v>
+        <v>444026</v>
       </c>
       <c r="W42" s="13">
-        <v>444026</v>
+        <v>618197</v>
       </c>
       <c r="X42" s="13">
-        <v>618197</v>
+        <v>599851</v>
       </c>
       <c r="Y42" s="13">
-        <v>599851</v>
+        <v>539514</v>
       </c>
       <c r="Z42" s="13">
-        <v>539514</v>
+        <v>535115</v>
       </c>
       <c r="AA42" s="13">
-        <v>535115</v>
+        <v>762474</v>
       </c>
       <c r="AB42" s="13">
-        <v>762474</v>
+        <v>934493</v>
       </c>
       <c r="AC42" s="13">
-        <v>934493</v>
+        <v>1210523</v>
       </c>
       <c r="AD42" s="13">
-        <v>1210523</v>
+        <v>792902</v>
       </c>
       <c r="AE42" s="13">
-        <v>792902</v>
+        <v>862481</v>
       </c>
       <c r="AF42" s="13">
-        <v>862481</v>
+        <v>233832</v>
       </c>
       <c r="AG42" s="13">
-        <v>233832</v>
+        <v>638333</v>
       </c>
       <c r="AH42" s="13">
-        <v>638333</v>
+        <v>600740</v>
       </c>
       <c r="AI42" s="13">
-        <v>600740</v>
+        <v>1088330</v>
       </c>
       <c r="AJ42" s="13">
-        <v>1088330</v>
+        <v>965245</v>
       </c>
       <c r="AK42" s="13">
-        <v>965245</v>
+        <v>1193147</v>
       </c>
       <c r="AL42" s="13">
-        <v>1193147</v>
+        <v>695002</v>
       </c>
       <c r="AM42" s="13">
-        <v>695002</v>
+        <v>879595</v>
       </c>
       <c r="AN42" s="13">
-        <v>879595</v>
+        <v>629709</v>
       </c>
       <c r="AO42" s="13">
-        <v>629709</v>
+        <v>860015</v>
       </c>
       <c r="AP42" s="13">
-        <v>860015</v>
+        <v>883686</v>
       </c>
       <c r="AQ42" s="13">
-        <v>883686</v>
+        <v>1015387</v>
       </c>
       <c r="AR42" s="13">
-        <v>1015387</v>
+        <v>400503</v>
       </c>
       <c r="AS42" s="13">
-        <v>400503</v>
+        <v>746962</v>
       </c>
       <c r="AT42" s="13">
-        <v>746962</v>
+        <v>1104795</v>
       </c>
       <c r="AU42" s="13">
-        <v>1104795</v>
+        <v>1190930</v>
       </c>
       <c r="AV42" s="13">
-        <v>1190930</v>
+        <v>1300616</v>
       </c>
       <c r="AW42" s="13">
-        <v>1300616</v>
+        <v>1225846</v>
       </c>
       <c r="AX42" s="13">
-        <v>1225846</v>
+        <v>1085885</v>
       </c>
       <c r="AY42" s="13">
-        <v>1085885</v>
+        <v>1434059</v>
       </c>
       <c r="AZ42" s="13">
-        <v>1434059</v>
+        <v>1293919</v>
       </c>
       <c r="BA42" s="13">
-        <v>1293919</v>
+        <v>1516770</v>
       </c>
       <c r="BB42" s="13">
-        <v>1516770</v>
+        <v>1837564</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.25">
@@ -5123,146 +5158,146 @@
       <c r="G43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H43" s="11" t="s">
-        <v>57</v>
+      <c r="H43" s="11">
+        <v>149761</v>
       </c>
       <c r="I43" s="11">
-        <v>149761</v>
+        <v>293977</v>
       </c>
       <c r="J43" s="11">
-        <v>293977</v>
+        <v>263037</v>
       </c>
       <c r="K43" s="11">
-        <v>263037</v>
+        <v>399846</v>
       </c>
       <c r="L43" s="11">
-        <v>399846</v>
+        <v>321643</v>
       </c>
       <c r="M43" s="11">
-        <v>321643</v>
+        <v>508286</v>
       </c>
       <c r="N43" s="11">
-        <v>508286</v>
+        <v>241088</v>
       </c>
       <c r="O43" s="11">
-        <v>241088</v>
+        <v>239413</v>
       </c>
       <c r="P43" s="11">
-        <v>239413</v>
+        <v>350196</v>
       </c>
       <c r="Q43" s="11">
-        <v>350196</v>
+        <v>354984</v>
       </c>
       <c r="R43" s="11">
-        <v>354984</v>
+        <v>438597</v>
       </c>
       <c r="S43" s="11">
-        <v>438597</v>
+        <v>426526</v>
       </c>
       <c r="T43" s="11">
-        <v>426526</v>
+        <v>241638</v>
       </c>
       <c r="U43" s="11">
-        <v>241638</v>
+        <v>416145</v>
       </c>
       <c r="V43" s="11">
-        <v>416145</v>
+        <v>373148</v>
       </c>
       <c r="W43" s="11">
-        <v>373148</v>
+        <v>392987</v>
       </c>
       <c r="X43" s="11">
-        <v>392987</v>
+        <v>369450</v>
       </c>
       <c r="Y43" s="11">
-        <v>369450</v>
+        <v>517319</v>
       </c>
       <c r="Z43" s="11">
-        <v>517319</v>
+        <v>489695</v>
       </c>
       <c r="AA43" s="11">
-        <v>489695</v>
+        <v>676661</v>
       </c>
       <c r="AB43" s="11">
-        <v>676661</v>
+        <v>701829</v>
       </c>
       <c r="AC43" s="11">
-        <v>701829</v>
+        <v>837746</v>
       </c>
       <c r="AD43" s="11">
-        <v>837746</v>
+        <v>760151</v>
       </c>
       <c r="AE43" s="11">
-        <v>760151</v>
+        <v>817967</v>
       </c>
       <c r="AF43" s="11">
-        <v>817967</v>
+        <v>311846</v>
       </c>
       <c r="AG43" s="11">
-        <v>311846</v>
+        <v>359496</v>
       </c>
       <c r="AH43" s="11">
-        <v>359496</v>
+        <v>428859</v>
       </c>
       <c r="AI43" s="11">
-        <v>428859</v>
+        <v>851629</v>
       </c>
       <c r="AJ43" s="11">
-        <v>851629</v>
+        <v>799234</v>
       </c>
       <c r="AK43" s="11">
-        <v>799234</v>
+        <v>822584</v>
       </c>
       <c r="AL43" s="11">
-        <v>822584</v>
+        <v>558241</v>
       </c>
       <c r="AM43" s="11">
-        <v>558241</v>
+        <v>826681</v>
       </c>
       <c r="AN43" s="11">
-        <v>826681</v>
+        <v>708201</v>
       </c>
       <c r="AO43" s="11">
-        <v>708201</v>
+        <v>708790</v>
       </c>
       <c r="AP43" s="11">
-        <v>708790</v>
+        <v>887055</v>
       </c>
       <c r="AQ43" s="11">
-        <v>887055</v>
+        <v>1019647</v>
       </c>
       <c r="AR43" s="11">
-        <v>1019647</v>
+        <v>448159</v>
       </c>
       <c r="AS43" s="11">
-        <v>448159</v>
+        <v>800241</v>
       </c>
       <c r="AT43" s="11">
-        <v>800241</v>
+        <v>953625</v>
       </c>
       <c r="AU43" s="11">
-        <v>953625</v>
+        <v>1425697</v>
       </c>
       <c r="AV43" s="11">
-        <v>1425697</v>
+        <v>1482757</v>
       </c>
       <c r="AW43" s="11">
-        <v>1482757</v>
+        <v>1189388</v>
       </c>
       <c r="AX43" s="11">
-        <v>1189388</v>
+        <v>1176802</v>
       </c>
       <c r="AY43" s="11">
-        <v>1176802</v>
+        <v>1664118</v>
       </c>
       <c r="AZ43" s="11">
-        <v>1664118</v>
+        <v>1524083</v>
       </c>
       <c r="BA43" s="11">
-        <v>1524083</v>
+        <v>1873510</v>
       </c>
       <c r="BB43" s="11">
-        <v>1873510</v>
+        <v>2111175</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.25">
@@ -5282,146 +5317,146 @@
       <c r="G44" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H44" s="13" t="s">
-        <v>57</v>
+      <c r="H44" s="13">
+        <v>83676</v>
       </c>
       <c r="I44" s="13">
-        <v>83676</v>
+        <v>164484</v>
       </c>
       <c r="J44" s="13">
-        <v>164484</v>
+        <v>143029</v>
       </c>
       <c r="K44" s="13">
-        <v>143029</v>
+        <v>180653</v>
       </c>
       <c r="L44" s="13">
-        <v>180653</v>
+        <v>156385</v>
       </c>
       <c r="M44" s="13">
-        <v>156385</v>
+        <v>230991</v>
       </c>
       <c r="N44" s="13">
-        <v>230991</v>
+        <v>141829</v>
       </c>
       <c r="O44" s="13">
-        <v>141829</v>
+        <v>109262</v>
       </c>
       <c r="P44" s="13">
-        <v>109262</v>
+        <v>170593</v>
       </c>
       <c r="Q44" s="13">
-        <v>170593</v>
+        <v>185831</v>
       </c>
       <c r="R44" s="13">
-        <v>185831</v>
+        <v>256287</v>
       </c>
       <c r="S44" s="13">
-        <v>256287</v>
+        <v>261151</v>
       </c>
       <c r="T44" s="13">
-        <v>261151</v>
+        <v>81195</v>
       </c>
       <c r="U44" s="13">
-        <v>81195</v>
+        <v>196733</v>
       </c>
       <c r="V44" s="13">
-        <v>196733</v>
+        <v>182428</v>
       </c>
       <c r="W44" s="13">
-        <v>182428</v>
+        <v>310867</v>
       </c>
       <c r="X44" s="13">
-        <v>310867</v>
+        <v>190654</v>
       </c>
       <c r="Y44" s="13">
-        <v>190654</v>
+        <v>200646</v>
       </c>
       <c r="Z44" s="13">
-        <v>200646</v>
+        <v>216550</v>
       </c>
       <c r="AA44" s="13">
-        <v>216550</v>
+        <v>272077</v>
       </c>
       <c r="AB44" s="13">
-        <v>272077</v>
+        <v>398527</v>
       </c>
       <c r="AC44" s="13">
-        <v>398527</v>
+        <v>471571</v>
       </c>
       <c r="AD44" s="13">
-        <v>471571</v>
+        <v>581794</v>
       </c>
       <c r="AE44" s="13">
-        <v>581794</v>
+        <v>474679</v>
       </c>
       <c r="AF44" s="13">
-        <v>474679</v>
+        <v>225385</v>
       </c>
       <c r="AG44" s="13">
-        <v>225385</v>
+        <v>304049</v>
       </c>
       <c r="AH44" s="13">
-        <v>304049</v>
+        <v>321980</v>
       </c>
       <c r="AI44" s="13">
-        <v>321980</v>
+        <v>511042</v>
       </c>
       <c r="AJ44" s="13">
-        <v>511042</v>
+        <v>471275</v>
       </c>
       <c r="AK44" s="13">
-        <v>471275</v>
+        <v>721353</v>
       </c>
       <c r="AL44" s="13">
-        <v>721353</v>
+        <v>434703</v>
       </c>
       <c r="AM44" s="13">
-        <v>434703</v>
+        <v>444102</v>
       </c>
       <c r="AN44" s="13">
-        <v>444102</v>
+        <v>364693</v>
       </c>
       <c r="AO44" s="13">
-        <v>364693</v>
+        <v>450219</v>
       </c>
       <c r="AP44" s="13">
-        <v>450219</v>
+        <v>555600</v>
       </c>
       <c r="AQ44" s="13">
-        <v>555600</v>
+        <v>590428</v>
       </c>
       <c r="AR44" s="13">
-        <v>590428</v>
+        <v>241042</v>
       </c>
       <c r="AS44" s="13">
-        <v>241042</v>
+        <v>463723</v>
       </c>
       <c r="AT44" s="13">
-        <v>463723</v>
+        <v>556739</v>
       </c>
       <c r="AU44" s="13">
-        <v>556739</v>
+        <v>604086</v>
       </c>
       <c r="AV44" s="13">
-        <v>604086</v>
+        <v>780986</v>
       </c>
       <c r="AW44" s="13">
-        <v>780986</v>
+        <v>613950</v>
       </c>
       <c r="AX44" s="13">
-        <v>613950</v>
+        <v>552269</v>
       </c>
       <c r="AY44" s="13">
-        <v>552269</v>
+        <v>779107</v>
       </c>
       <c r="AZ44" s="13">
-        <v>779107</v>
+        <v>763016</v>
       </c>
       <c r="BA44" s="13">
-        <v>763016</v>
+        <v>866046</v>
       </c>
       <c r="BB44" s="13">
-        <v>866046</v>
+        <v>1195813</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.25">
@@ -5576,68 +5611,68 @@
       <c r="AG46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH46" s="11" t="s">
-        <v>57</v>
+      <c r="AH46" s="11">
+        <v>6789</v>
       </c>
       <c r="AI46" s="11">
-        <v>6789</v>
+        <v>0</v>
       </c>
       <c r="AJ46" s="11">
         <v>0</v>
       </c>
       <c r="AK46" s="11">
-        <v>0</v>
+        <v>5565</v>
       </c>
       <c r="AL46" s="11">
-        <v>5565</v>
+        <v>2306</v>
       </c>
       <c r="AM46" s="11">
-        <v>2306</v>
+        <v>1518</v>
       </c>
       <c r="AN46" s="11">
-        <v>1518</v>
+        <v>19527</v>
       </c>
       <c r="AO46" s="11">
-        <v>19527</v>
+        <v>5089</v>
       </c>
       <c r="AP46" s="11">
-        <v>5089</v>
+        <v>1558</v>
       </c>
       <c r="AQ46" s="11">
-        <v>1558</v>
+        <v>1839</v>
       </c>
       <c r="AR46" s="11">
-        <v>1839</v>
+        <v>1485</v>
       </c>
       <c r="AS46" s="11">
-        <v>1485</v>
+        <v>8779</v>
       </c>
       <c r="AT46" s="11">
-        <v>8779</v>
+        <v>4375</v>
       </c>
       <c r="AU46" s="11">
-        <v>4375</v>
+        <v>9332</v>
       </c>
       <c r="AV46" s="11">
-        <v>9332</v>
+        <v>8864</v>
       </c>
       <c r="AW46" s="11">
-        <v>8864</v>
+        <v>7404</v>
       </c>
       <c r="AX46" s="11">
-        <v>7404</v>
+        <v>7218</v>
       </c>
       <c r="AY46" s="11">
-        <v>7218</v>
+        <v>966</v>
       </c>
       <c r="AZ46" s="11">
-        <v>966</v>
+        <v>3723</v>
       </c>
       <c r="BA46" s="11">
-        <v>3723</v>
+        <v>4371</v>
       </c>
       <c r="BB46" s="11">
-        <v>4371</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.25">
@@ -5702,8 +5737,8 @@
       <c r="V47" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W47" s="15" t="s">
-        <v>57</v>
+      <c r="W47" s="15">
+        <v>0</v>
       </c>
       <c r="X47" s="15">
         <v>0</v>
@@ -5736,67 +5771,67 @@
         <v>0</v>
       </c>
       <c r="AH47" s="15">
-        <v>0</v>
+        <v>6789</v>
       </c>
       <c r="AI47" s="15">
-        <v>6789</v>
+        <v>0</v>
       </c>
       <c r="AJ47" s="15">
         <v>0</v>
       </c>
       <c r="AK47" s="15">
-        <v>0</v>
+        <v>5565</v>
       </c>
       <c r="AL47" s="15">
-        <v>5565</v>
+        <v>2306</v>
       </c>
       <c r="AM47" s="15">
-        <v>2306</v>
+        <v>1518</v>
       </c>
       <c r="AN47" s="15">
-        <v>1518</v>
+        <v>19527</v>
       </c>
       <c r="AO47" s="15">
-        <v>19527</v>
+        <v>5089</v>
       </c>
       <c r="AP47" s="15">
-        <v>5089</v>
+        <v>1558</v>
       </c>
       <c r="AQ47" s="15">
-        <v>1558</v>
+        <v>1839</v>
       </c>
       <c r="AR47" s="15">
-        <v>1839</v>
+        <v>1485</v>
       </c>
       <c r="AS47" s="15">
-        <v>1485</v>
+        <v>8779</v>
       </c>
       <c r="AT47" s="15">
-        <v>8779</v>
+        <v>4375</v>
       </c>
       <c r="AU47" s="15">
-        <v>4375</v>
+        <v>9332</v>
       </c>
       <c r="AV47" s="15">
-        <v>9332</v>
+        <v>8864</v>
       </c>
       <c r="AW47" s="15">
-        <v>8864</v>
+        <v>7404</v>
       </c>
       <c r="AX47" s="15">
-        <v>7404</v>
+        <v>7218</v>
       </c>
       <c r="AY47" s="15">
-        <v>7218</v>
+        <v>966</v>
       </c>
       <c r="AZ47" s="15">
-        <v>966</v>
+        <v>3723</v>
       </c>
       <c r="BA47" s="15">
-        <v>3723</v>
+        <v>4371</v>
       </c>
       <c r="BB47" s="15">
-        <v>4371</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.25">
@@ -5918,8 +5953,8 @@
       <c r="V49" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W49" s="17" t="s">
-        <v>57</v>
+      <c r="W49" s="17">
+        <v>0</v>
       </c>
       <c r="X49" s="17">
         <v>0</v>
@@ -6134,8 +6169,8 @@
       <c r="V51" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W51" s="11" t="s">
-        <v>57</v>
+      <c r="W51" s="11">
+        <v>0</v>
       </c>
       <c r="X51" s="11">
         <v>0</v>
@@ -6247,145 +6282,145 @@
         <v>0</v>
       </c>
       <c r="H52" s="15">
-        <v>0</v>
+        <v>379738</v>
       </c>
       <c r="I52" s="15">
-        <v>379738</v>
+        <v>765148</v>
       </c>
       <c r="J52" s="15">
-        <v>765148</v>
+        <v>671801</v>
       </c>
       <c r="K52" s="15">
-        <v>671801</v>
+        <v>957681</v>
       </c>
       <c r="L52" s="15">
-        <v>957681</v>
+        <v>750363</v>
       </c>
       <c r="M52" s="15">
-        <v>750363</v>
+        <v>1217675</v>
       </c>
       <c r="N52" s="15">
-        <v>1217675</v>
+        <v>593345</v>
       </c>
       <c r="O52" s="15">
-        <v>593345</v>
+        <v>588880</v>
       </c>
       <c r="P52" s="15">
-        <v>588880</v>
+        <v>924501</v>
       </c>
       <c r="Q52" s="15">
-        <v>924501</v>
+        <v>923346</v>
       </c>
       <c r="R52" s="15">
-        <v>923346</v>
+        <v>1105717</v>
       </c>
       <c r="S52" s="15">
-        <v>1105717</v>
+        <v>1252063</v>
       </c>
       <c r="T52" s="15">
-        <v>1252063</v>
+        <v>760355</v>
       </c>
       <c r="U52" s="15">
-        <v>760355</v>
+        <v>1163289</v>
       </c>
       <c r="V52" s="15">
-        <v>1163289</v>
+        <v>999602</v>
       </c>
       <c r="W52" s="15">
-        <v>999602</v>
+        <v>1322051</v>
       </c>
       <c r="X52" s="15">
-        <v>1322051</v>
+        <v>1159955</v>
       </c>
       <c r="Y52" s="15">
-        <v>1159955</v>
+        <v>1257479</v>
       </c>
       <c r="Z52" s="15">
-        <v>1257479</v>
+        <v>1241360</v>
       </c>
       <c r="AA52" s="15">
-        <v>1241360</v>
+        <v>1711212</v>
       </c>
       <c r="AB52" s="15">
-        <v>1711212</v>
+        <v>2034849</v>
       </c>
       <c r="AC52" s="15">
-        <v>2034849</v>
+        <v>2519840</v>
       </c>
       <c r="AD52" s="15">
-        <v>2519840</v>
+        <v>2134847</v>
       </c>
       <c r="AE52" s="15">
-        <v>2134847</v>
+        <v>2155127</v>
       </c>
       <c r="AF52" s="15">
-        <v>2155127</v>
+        <v>771063</v>
       </c>
       <c r="AG52" s="15">
-        <v>771063</v>
+        <v>1301878</v>
       </c>
       <c r="AH52" s="15">
-        <v>1301878</v>
+        <v>1358368</v>
       </c>
       <c r="AI52" s="15">
-        <v>1358368</v>
+        <v>2451001</v>
       </c>
       <c r="AJ52" s="15">
-        <v>2451001</v>
+        <v>2235754</v>
       </c>
       <c r="AK52" s="15">
-        <v>2235754</v>
+        <v>2742649</v>
       </c>
       <c r="AL52" s="15">
-        <v>2742649</v>
+        <v>1690252</v>
       </c>
       <c r="AM52" s="15">
-        <v>1690252</v>
+        <v>2151896</v>
       </c>
       <c r="AN52" s="15">
-        <v>2151896</v>
+        <v>1722130</v>
       </c>
       <c r="AO52" s="15">
-        <v>1722130</v>
+        <v>2024113</v>
       </c>
       <c r="AP52" s="15">
-        <v>2024113</v>
+        <v>2327899</v>
       </c>
       <c r="AQ52" s="15">
-        <v>2327899</v>
+        <v>2627301</v>
       </c>
       <c r="AR52" s="15">
-        <v>2627301</v>
+        <v>1091189</v>
       </c>
       <c r="AS52" s="15">
-        <v>1091189</v>
+        <v>2019705</v>
       </c>
       <c r="AT52" s="15">
-        <v>2019705</v>
+        <v>2619534</v>
       </c>
       <c r="AU52" s="15">
-        <v>2619534</v>
+        <v>3230045</v>
       </c>
       <c r="AV52" s="15">
-        <v>3230045</v>
+        <v>3573223</v>
       </c>
       <c r="AW52" s="15">
-        <v>3573223</v>
+        <v>3036588</v>
       </c>
       <c r="AX52" s="15">
-        <v>3036588</v>
+        <v>2822174</v>
       </c>
       <c r="AY52" s="15">
-        <v>2822174</v>
+        <v>3878250</v>
       </c>
       <c r="AZ52" s="15">
-        <v>3878250</v>
+        <v>3584741</v>
       </c>
       <c r="BA52" s="15">
-        <v>3584741</v>
+        <v>4260697</v>
       </c>
       <c r="BB52" s="15">
-        <v>4260697</v>
+        <v>5146420</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.25">
@@ -6839,146 +6874,146 @@
       <c r="G59" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H59" s="11" t="s">
-        <v>57</v>
+      <c r="H59" s="11">
+        <v>85256993</v>
       </c>
       <c r="I59" s="11">
-        <v>85256993</v>
+        <v>86954069</v>
       </c>
       <c r="J59" s="11">
-        <v>86954069</v>
+        <v>100126225</v>
       </c>
       <c r="K59" s="11">
-        <v>100126225</v>
+        <v>104540466</v>
       </c>
       <c r="L59" s="11">
-        <v>104540466</v>
+        <v>117537764</v>
       </c>
       <c r="M59" s="11">
-        <v>117537764</v>
+        <v>119480020</v>
       </c>
       <c r="N59" s="11">
-        <v>119480020</v>
+        <v>117164811</v>
       </c>
       <c r="O59" s="11">
-        <v>117164811</v>
+        <v>109782907</v>
       </c>
       <c r="P59" s="11">
-        <v>109782907</v>
+        <v>107313131</v>
       </c>
       <c r="Q59" s="11">
-        <v>107313131</v>
+        <v>101736968</v>
       </c>
       <c r="R59" s="11">
-        <v>101736968</v>
+        <v>106682160</v>
       </c>
       <c r="S59" s="11">
-        <v>106682160</v>
+        <v>109144459</v>
       </c>
       <c r="T59" s="11">
-        <v>109144459</v>
+        <v>110013075</v>
       </c>
       <c r="U59" s="11">
-        <v>110013075</v>
+        <v>110435594</v>
       </c>
       <c r="V59" s="11">
-        <v>110435594</v>
+        <v>105119792</v>
       </c>
       <c r="W59" s="11">
-        <v>105119792</v>
+        <v>122804331</v>
       </c>
       <c r="X59" s="11">
-        <v>122804331</v>
+        <v>122995899</v>
       </c>
       <c r="Y59" s="11">
-        <v>122995899</v>
+        <v>151676694</v>
       </c>
       <c r="Z59" s="11">
-        <v>151676694</v>
+        <v>132914804</v>
       </c>
       <c r="AA59" s="11">
-        <v>132914804</v>
+        <v>158815663</v>
       </c>
       <c r="AB59" s="11">
-        <v>158815663</v>
+        <v>160153042</v>
       </c>
       <c r="AC59" s="11">
-        <v>160153042</v>
+        <v>176409647</v>
       </c>
       <c r="AD59" s="11">
-        <v>176409647</v>
+        <v>167668006</v>
       </c>
       <c r="AE59" s="11">
-        <v>167668006</v>
+        <v>172392764</v>
       </c>
       <c r="AF59" s="11">
-        <v>172392764</v>
+        <v>190262002</v>
       </c>
       <c r="AG59" s="11">
-        <v>190262002</v>
+        <v>198919601</v>
       </c>
       <c r="AH59" s="11">
-        <v>198919601</v>
+        <v>229115179</v>
       </c>
       <c r="AI59" s="11">
-        <v>229115179</v>
+        <v>219820238</v>
       </c>
       <c r="AJ59" s="11">
-        <v>219820238</v>
+        <v>240230214</v>
       </c>
       <c r="AK59" s="11">
-        <v>240230214</v>
+        <v>258145175</v>
       </c>
       <c r="AL59" s="11">
-        <v>258145175</v>
+        <v>242668296</v>
       </c>
       <c r="AM59" s="11">
-        <v>242668296</v>
+        <v>243250830</v>
       </c>
       <c r="AN59" s="11">
-        <v>243250830</v>
+        <v>260533306</v>
       </c>
       <c r="AO59" s="11">
-        <v>260533306</v>
+        <v>246705393</v>
       </c>
       <c r="AP59" s="11">
-        <v>246705393</v>
+        <v>222255030</v>
       </c>
       <c r="AQ59" s="11">
-        <v>222255030</v>
+        <v>232993805</v>
       </c>
       <c r="AR59" s="11">
-        <v>232993805</v>
+        <v>277548857</v>
       </c>
       <c r="AS59" s="11">
-        <v>277548857</v>
+        <v>270736499</v>
       </c>
       <c r="AT59" s="11">
-        <v>270736499</v>
+        <v>309033566</v>
       </c>
       <c r="AU59" s="11">
-        <v>309033566</v>
+        <v>338910074</v>
       </c>
       <c r="AV59" s="11">
-        <v>338910074</v>
+        <v>315990282</v>
       </c>
       <c r="AW59" s="11">
-        <v>315990282</v>
+        <v>306231826</v>
       </c>
       <c r="AX59" s="11">
-        <v>306231826</v>
+        <v>339127108</v>
       </c>
       <c r="AY59" s="11">
-        <v>339127108</v>
+        <v>355404957</v>
       </c>
       <c r="AZ59" s="11">
-        <v>355404957</v>
+        <v>362239362</v>
       </c>
       <c r="BA59" s="11">
-        <v>362239362</v>
+        <v>331679423</v>
       </c>
       <c r="BB59" s="11">
-        <v>331679423</v>
+        <v>322719354</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.25">
@@ -6998,146 +7033,146 @@
       <c r="G60" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H60" s="13" t="s">
-        <v>57</v>
+      <c r="H60" s="13">
+        <v>75636869</v>
       </c>
       <c r="I60" s="13">
-        <v>75636869</v>
+        <v>77689482</v>
       </c>
       <c r="J60" s="13">
-        <v>77689482</v>
+        <v>79371454</v>
       </c>
       <c r="K60" s="13">
-        <v>79371454</v>
+        <v>92194143</v>
       </c>
       <c r="L60" s="13">
-        <v>92194143</v>
+        <v>95670137</v>
       </c>
       <c r="M60" s="13">
-        <v>95670137</v>
+        <v>96193414</v>
       </c>
       <c r="N60" s="13">
-        <v>96193414</v>
+        <v>89225759</v>
       </c>
       <c r="O60" s="13">
-        <v>89225759</v>
+        <v>92330505</v>
       </c>
       <c r="P60" s="13">
-        <v>92330505</v>
+        <v>94494334</v>
       </c>
       <c r="Q60" s="13">
-        <v>94494334</v>
+        <v>94335371</v>
       </c>
       <c r="R60" s="13">
-        <v>94335371</v>
+        <v>89163854</v>
       </c>
       <c r="S60" s="13">
-        <v>89163854</v>
+        <v>86132068</v>
       </c>
       <c r="T60" s="13">
-        <v>86132068</v>
+        <v>92333970</v>
       </c>
       <c r="U60" s="13">
-        <v>92333970</v>
+        <v>98031802</v>
       </c>
       <c r="V60" s="13">
-        <v>98031802</v>
+        <v>93802916</v>
       </c>
       <c r="W60" s="13">
-        <v>93802916</v>
+        <v>115414684</v>
       </c>
       <c r="X60" s="13">
-        <v>115414684</v>
+        <v>113922294</v>
       </c>
       <c r="Y60" s="13">
-        <v>113922294</v>
+        <v>122009198</v>
       </c>
       <c r="Z60" s="13">
-        <v>122009198</v>
+        <v>125917974</v>
       </c>
       <c r="AA60" s="13">
-        <v>125917974</v>
+        <v>158468618</v>
       </c>
       <c r="AB60" s="13">
-        <v>158468618</v>
+        <v>158820774</v>
       </c>
       <c r="AC60" s="13">
-        <v>158820774</v>
+        <v>157767608</v>
       </c>
       <c r="AD60" s="13">
-        <v>157767608</v>
+        <v>155736734</v>
       </c>
       <c r="AE60" s="13">
-        <v>155736734</v>
+        <v>160858800</v>
       </c>
       <c r="AF60" s="13">
-        <v>160858800</v>
+        <v>158781059</v>
       </c>
       <c r="AG60" s="13">
-        <v>158781059</v>
+        <v>150605781</v>
       </c>
       <c r="AH60" s="13">
-        <v>150605781</v>
+        <v>152131607</v>
       </c>
       <c r="AI60" s="13">
-        <v>152131607</v>
+        <v>181622734</v>
       </c>
       <c r="AJ60" s="13">
-        <v>181622734</v>
+        <v>197536827</v>
       </c>
       <c r="AK60" s="13">
-        <v>197536827</v>
+        <v>199704783</v>
       </c>
       <c r="AL60" s="13">
-        <v>199704783</v>
+        <v>191769495</v>
       </c>
       <c r="AM60" s="13">
-        <v>191769495</v>
+        <v>193014476</v>
       </c>
       <c r="AN60" s="13">
-        <v>193014476</v>
+        <v>185635911</v>
       </c>
       <c r="AO60" s="13">
-        <v>185635911</v>
+        <v>174278338</v>
       </c>
       <c r="AP60" s="13">
-        <v>174278338</v>
+        <v>182671952</v>
       </c>
       <c r="AQ60" s="13">
-        <v>182671952</v>
+        <v>177576977</v>
       </c>
       <c r="AR60" s="13">
-        <v>177576977</v>
+        <v>198300442</v>
       </c>
       <c r="AS60" s="13">
-        <v>198300442</v>
+        <v>210478958</v>
       </c>
       <c r="AT60" s="13">
-        <v>210478958</v>
+        <v>224435161</v>
       </c>
       <c r="AU60" s="13">
-        <v>224435161</v>
+        <v>248856170</v>
       </c>
       <c r="AV60" s="13">
-        <v>248856170</v>
+        <v>255603689</v>
       </c>
       <c r="AW60" s="13">
-        <v>255603689</v>
+        <v>218637500</v>
       </c>
       <c r="AX60" s="13">
-        <v>218637500</v>
+        <v>246864275</v>
       </c>
       <c r="AY60" s="13">
-        <v>246864275</v>
+        <v>267285255</v>
       </c>
       <c r="AZ60" s="13">
-        <v>267285255</v>
+        <v>254437896</v>
       </c>
       <c r="BA60" s="13">
-        <v>254437896</v>
+        <v>244073736</v>
       </c>
       <c r="BB60" s="13">
-        <v>244073736</v>
+        <v>228556349</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.25">
@@ -7157,146 +7192,146 @@
       <c r="G61" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H61" s="11" t="s">
-        <v>57</v>
+      <c r="H61" s="11">
+        <v>52759142</v>
       </c>
       <c r="I61" s="11">
-        <v>52759142</v>
+        <v>47884716</v>
       </c>
       <c r="J61" s="11">
-        <v>47884716</v>
+        <v>49628383</v>
       </c>
       <c r="K61" s="11">
-        <v>49628383</v>
+        <v>56755577</v>
       </c>
       <c r="L61" s="11">
-        <v>56755577</v>
+        <v>59057779</v>
       </c>
       <c r="M61" s="11">
-        <v>59057779</v>
+        <v>68726867</v>
       </c>
       <c r="N61" s="11">
-        <v>68726867</v>
+        <v>53702764</v>
       </c>
       <c r="O61" s="11">
-        <v>53702764</v>
+        <v>50304788</v>
       </c>
       <c r="P61" s="11">
-        <v>50304788</v>
+        <v>59627053</v>
       </c>
       <c r="Q61" s="11">
-        <v>59627053</v>
+        <v>58163067</v>
       </c>
       <c r="R61" s="11">
-        <v>58163067</v>
+        <v>58579886</v>
       </c>
       <c r="S61" s="11">
-        <v>58579886</v>
+        <v>60860172</v>
       </c>
       <c r="T61" s="11">
-        <v>60860172</v>
+        <v>55765797</v>
       </c>
       <c r="U61" s="11">
-        <v>55765797</v>
+        <v>60701327</v>
       </c>
       <c r="V61" s="11">
-        <v>60701327</v>
+        <v>59753685</v>
       </c>
       <c r="W61" s="11">
-        <v>59753685</v>
+        <v>77639111</v>
       </c>
       <c r="X61" s="11">
-        <v>77639111</v>
+        <v>66429965</v>
       </c>
       <c r="Y61" s="11">
-        <v>66429965</v>
+        <v>67740041</v>
       </c>
       <c r="Z61" s="11">
-        <v>67740041</v>
+        <v>70514490</v>
       </c>
       <c r="AA61" s="11">
-        <v>70514490</v>
+        <v>88914052</v>
       </c>
       <c r="AB61" s="11">
-        <v>88914052</v>
+        <v>95136548</v>
       </c>
       <c r="AC61" s="11">
-        <v>95136548</v>
+        <v>98572533</v>
       </c>
       <c r="AD61" s="11">
-        <v>98572533</v>
+        <v>97912151</v>
       </c>
       <c r="AE61" s="11">
-        <v>97912151</v>
+        <v>107979754</v>
       </c>
       <c r="AF61" s="11">
-        <v>107979754</v>
+        <v>100888541</v>
       </c>
       <c r="AG61" s="11">
-        <v>100888541</v>
+        <v>100611846</v>
       </c>
       <c r="AH61" s="11">
-        <v>100611846</v>
+        <v>100997491</v>
       </c>
       <c r="AI61" s="11">
-        <v>100997491</v>
+        <v>109313797</v>
       </c>
       <c r="AJ61" s="11">
-        <v>109313797</v>
+        <v>126789077</v>
       </c>
       <c r="AK61" s="11">
-        <v>126789077</v>
+        <v>134555680</v>
       </c>
       <c r="AL61" s="11">
-        <v>134555680</v>
+        <v>107519911</v>
       </c>
       <c r="AM61" s="11">
-        <v>107519911</v>
+        <v>108054015</v>
       </c>
       <c r="AN61" s="11">
-        <v>108054015</v>
+        <v>108766180</v>
       </c>
       <c r="AO61" s="11">
-        <v>108766180</v>
+        <v>105933882</v>
       </c>
       <c r="AP61" s="11">
-        <v>105933882</v>
+        <v>107237985</v>
       </c>
       <c r="AQ61" s="11">
-        <v>107237985</v>
+        <v>113152166</v>
       </c>
       <c r="AR61" s="11">
-        <v>113152166</v>
+        <v>130433983</v>
       </c>
       <c r="AS61" s="11">
-        <v>130433983</v>
+        <v>125534109</v>
       </c>
       <c r="AT61" s="11">
-        <v>125534109</v>
+        <v>153371625</v>
       </c>
       <c r="AU61" s="11">
-        <v>153371625</v>
+        <v>143624822</v>
       </c>
       <c r="AV61" s="11">
-        <v>143624822</v>
+        <v>161460823</v>
       </c>
       <c r="AW61" s="11">
-        <v>161460823</v>
+        <v>137626093</v>
       </c>
       <c r="AX61" s="11">
-        <v>137626093</v>
+        <v>140454985</v>
       </c>
       <c r="AY61" s="11">
-        <v>140454985</v>
+        <v>147670015</v>
       </c>
       <c r="AZ61" s="11">
-        <v>147670015</v>
+        <v>151572507</v>
       </c>
       <c r="BA61" s="11">
-        <v>151572507</v>
+        <v>162272063</v>
       </c>
       <c r="BB61" s="11">
-        <v>162272063</v>
+        <v>158996543</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.25">
@@ -7451,8 +7486,8 @@
       <c r="AG63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH63" s="11" t="s">
-        <v>57</v>
+      <c r="AH63" s="11">
+        <v>0</v>
       </c>
       <c r="AI63" s="11">
         <v>0</v>

--- a/database/industries/shoyande/gharn/product/monthly.xlsx
+++ b/database/industries/shoyande/gharn/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="91">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3363,11 +3363,11 @@
       <c r="AC11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD11" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE11" s="13" t="n">
-        <v>0</v>
+      <c r="AD11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF11" s="13" t="s">
         <v>58</v>
@@ -3396,11 +3396,11 @@
       <c r="AN11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO11" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP11" s="13" t="n">
-        <v>0</v>
+      <c r="AO11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ11" s="13" t="s">
         <v>58</v>
@@ -3495,107 +3495,107 @@
       <c r="T12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U12" s="16" t="s">
-        <v>58</v>
+      <c r="U12" s="16" t="n">
+        <v>4997</v>
       </c>
       <c r="V12" s="16" t="n">
-        <v>4997</v>
+        <v>4441</v>
       </c>
       <c r="W12" s="16" t="n">
-        <v>4441</v>
+        <v>3227</v>
       </c>
       <c r="X12" s="16" t="n">
-        <v>3227</v>
+        <v>4038</v>
       </c>
       <c r="Y12" s="16" t="n">
-        <v>4038</v>
+        <v>5117</v>
       </c>
       <c r="Z12" s="16" t="n">
-        <v>5117</v>
+        <v>6366</v>
       </c>
       <c r="AA12" s="16" t="n">
-        <v>6366</v>
+        <v>6970</v>
       </c>
       <c r="AB12" s="16" t="n">
-        <v>6970</v>
+        <v>3508</v>
       </c>
       <c r="AC12" s="16" t="n">
-        <v>3508</v>
+        <v>5188</v>
       </c>
       <c r="AD12" s="16" t="n">
-        <v>5188</v>
+        <v>2215</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>2215</v>
+        <v>2061</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>2061</v>
+        <v>2723</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>2723</v>
+        <v>5501</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>5501</v>
+        <v>4003</v>
       </c>
       <c r="AI12" s="16" t="n">
-        <v>4003</v>
+        <v>4551</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>4551</v>
+        <v>3295</v>
       </c>
       <c r="AK12" s="16" t="n">
-        <v>3295</v>
+        <v>2765</v>
       </c>
       <c r="AL12" s="16" t="n">
-        <v>2765</v>
+        <v>2834</v>
       </c>
       <c r="AM12" s="16" t="n">
-        <v>2834</v>
+        <v>2715</v>
       </c>
       <c r="AN12" s="16" t="n">
-        <v>2715</v>
+        <v>4639</v>
       </c>
       <c r="AO12" s="16" t="n">
-        <v>4639</v>
+        <v>3613</v>
       </c>
       <c r="AP12" s="16" t="n">
-        <v>3613</v>
+        <v>1794</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>1794</v>
+        <v>2501</v>
       </c>
       <c r="AR12" s="16" t="n">
-        <v>2501</v>
+        <v>4251</v>
       </c>
       <c r="AS12" s="16" t="n">
-        <v>4251</v>
+        <v>3746</v>
       </c>
       <c r="AT12" s="16" t="n">
-        <v>3746</v>
+        <v>3859</v>
       </c>
       <c r="AU12" s="16" t="n">
-        <v>3859</v>
+        <v>4508</v>
       </c>
       <c r="AV12" s="16" t="n">
-        <v>4508</v>
+        <v>3251</v>
       </c>
       <c r="AW12" s="16" t="n">
-        <v>3251</v>
+        <v>3575</v>
       </c>
       <c r="AX12" s="16" t="n">
-        <v>3575</v>
+        <v>3828</v>
       </c>
       <c r="AY12" s="16" t="n">
-        <v>3828</v>
+        <v>3884</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>3884</v>
+        <v>5609</v>
       </c>
       <c r="BA12" s="16" t="n">
-        <v>5609</v>
+        <v>4095</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>4095</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3654,107 +3654,107 @@
       <c r="T13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U13" s="13" t="s">
-        <v>58</v>
+      <c r="U13" s="13" t="n">
+        <v>3960</v>
       </c>
       <c r="V13" s="13" t="n">
-        <v>3960</v>
+        <v>2649</v>
       </c>
       <c r="W13" s="13" t="n">
-        <v>2649</v>
+        <v>4152</v>
       </c>
       <c r="X13" s="13" t="n">
-        <v>4152</v>
+        <v>3219</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>3219</v>
+        <v>4166</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>4166</v>
+        <v>5116</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>5116</v>
+        <v>5700</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>5700</v>
+        <v>3767</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>3767</v>
+        <v>5489</v>
       </c>
       <c r="AD13" s="13" t="n">
-        <v>5489</v>
+        <v>2828</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>2828</v>
+        <v>885</v>
       </c>
       <c r="AF13" s="13" t="n">
-        <v>885</v>
+        <v>3298</v>
       </c>
       <c r="AG13" s="13" t="n">
-        <v>3298</v>
+        <v>5308</v>
       </c>
       <c r="AH13" s="13" t="n">
-        <v>5308</v>
+        <v>3649</v>
       </c>
       <c r="AI13" s="13" t="n">
-        <v>3649</v>
+        <v>4833</v>
       </c>
       <c r="AJ13" s="13" t="n">
-        <v>4833</v>
+        <v>3167</v>
       </c>
       <c r="AK13" s="13" t="n">
-        <v>3167</v>
+        <v>3605</v>
       </c>
       <c r="AL13" s="13" t="n">
-        <v>3605</v>
+        <v>4516</v>
       </c>
       <c r="AM13" s="13" t="n">
-        <v>4516</v>
+        <v>4017</v>
       </c>
       <c r="AN13" s="13" t="n">
-        <v>4017</v>
+        <v>4980</v>
       </c>
       <c r="AO13" s="13" t="n">
-        <v>4980</v>
+        <v>4203</v>
       </c>
       <c r="AP13" s="13" t="n">
-        <v>4203</v>
+        <v>2345</v>
       </c>
       <c r="AQ13" s="13" t="n">
-        <v>2345</v>
+        <v>3369</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>3369</v>
+        <v>4648</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>4648</v>
+        <v>5280</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>5280</v>
+        <v>5422</v>
       </c>
       <c r="AU13" s="13" t="n">
-        <v>5422</v>
+        <v>5367</v>
       </c>
       <c r="AV13" s="13" t="n">
-        <v>5367</v>
+        <v>4848</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>4848</v>
+        <v>6590</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>6590</v>
+        <v>6571</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>6571</v>
+        <v>6871</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>6871</v>
+        <v>6611</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>6611</v>
+        <v>4934</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>4934</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3813,107 +3813,107 @@
       <c r="T14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U14" s="16" t="s">
-        <v>58</v>
+      <c r="U14" s="16" t="n">
+        <v>4231</v>
       </c>
       <c r="V14" s="16" t="n">
-        <v>4231</v>
+        <v>2713</v>
       </c>
       <c r="W14" s="16" t="n">
-        <v>2713</v>
+        <v>2941</v>
       </c>
       <c r="X14" s="16" t="n">
-        <v>2941</v>
+        <v>2879</v>
       </c>
       <c r="Y14" s="16" t="n">
-        <v>2879</v>
+        <v>3392</v>
       </c>
       <c r="Z14" s="16" t="n">
-        <v>3392</v>
+        <v>4538</v>
       </c>
       <c r="AA14" s="16" t="n">
-        <v>4538</v>
+        <v>5244</v>
       </c>
       <c r="AB14" s="16" t="n">
-        <v>5244</v>
+        <v>5692</v>
       </c>
       <c r="AC14" s="16" t="n">
-        <v>5692</v>
+        <v>5304</v>
       </c>
       <c r="AD14" s="16" t="n">
-        <v>5304</v>
+        <v>2420</v>
       </c>
       <c r="AE14" s="16" t="n">
-        <v>2420</v>
+        <v>2852</v>
       </c>
       <c r="AF14" s="16" t="n">
-        <v>2852</v>
+        <v>3732</v>
       </c>
       <c r="AG14" s="16" t="n">
-        <v>3732</v>
+        <v>4830</v>
       </c>
       <c r="AH14" s="16" t="n">
-        <v>4830</v>
+        <v>4123</v>
       </c>
       <c r="AI14" s="16" t="n">
-        <v>4123</v>
+        <v>5325</v>
       </c>
       <c r="AJ14" s="16" t="n">
-        <v>5325</v>
+        <v>4369</v>
       </c>
       <c r="AK14" s="16" t="n">
-        <v>4369</v>
+        <v>4139</v>
       </c>
       <c r="AL14" s="16" t="n">
-        <v>4139</v>
+        <v>3623</v>
       </c>
       <c r="AM14" s="16" t="n">
-        <v>3623</v>
+        <v>3654</v>
       </c>
       <c r="AN14" s="16" t="n">
-        <v>3654</v>
+        <v>5474</v>
       </c>
       <c r="AO14" s="16" t="n">
-        <v>5474</v>
+        <v>4187</v>
       </c>
       <c r="AP14" s="16" t="n">
-        <v>4187</v>
+        <v>2374</v>
       </c>
       <c r="AQ14" s="16" t="n">
-        <v>2374</v>
+        <v>3537</v>
       </c>
       <c r="AR14" s="16" t="n">
-        <v>3537</v>
+        <v>4053</v>
       </c>
       <c r="AS14" s="16" t="n">
-        <v>4053</v>
+        <v>4099</v>
       </c>
       <c r="AT14" s="16" t="n">
-        <v>4099</v>
+        <v>4562</v>
       </c>
       <c r="AU14" s="16" t="n">
-        <v>4562</v>
+        <v>4648</v>
       </c>
       <c r="AV14" s="16" t="n">
-        <v>4648</v>
+        <v>3860</v>
       </c>
       <c r="AW14" s="16" t="n">
-        <v>3860</v>
+        <v>5434</v>
       </c>
       <c r="AX14" s="16" t="n">
-        <v>5434</v>
+        <v>5586</v>
       </c>
       <c r="AY14" s="16" t="n">
-        <v>5586</v>
+        <v>5071</v>
       </c>
       <c r="AZ14" s="16" t="n">
-        <v>5071</v>
+        <v>6661</v>
       </c>
       <c r="BA14" s="16" t="n">
-        <v>6661</v>
+        <v>4695</v>
       </c>
       <c r="BB14" s="16" t="n">
-        <v>4695</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3971,106 +3971,106 @@
         <v>0</v>
       </c>
       <c r="U15" s="18" t="n">
-        <v>0</v>
+        <v>13188</v>
       </c>
       <c r="V15" s="18" t="n">
-        <v>13188</v>
+        <v>9803</v>
       </c>
       <c r="W15" s="18" t="n">
-        <v>9803</v>
+        <v>10320</v>
       </c>
       <c r="X15" s="18" t="n">
-        <v>10320</v>
+        <v>10136</v>
       </c>
       <c r="Y15" s="18" t="n">
-        <v>10136</v>
+        <v>12675</v>
       </c>
       <c r="Z15" s="18" t="n">
-        <v>12675</v>
+        <v>16020</v>
       </c>
       <c r="AA15" s="18" t="n">
-        <v>16020</v>
+        <v>17914</v>
       </c>
       <c r="AB15" s="18" t="n">
-        <v>17914</v>
+        <v>12967</v>
       </c>
       <c r="AC15" s="18" t="n">
-        <v>12967</v>
+        <v>15981</v>
       </c>
       <c r="AD15" s="18" t="n">
-        <v>15981</v>
+        <v>7463</v>
       </c>
       <c r="AE15" s="18" t="n">
-        <v>7463</v>
+        <v>5798</v>
       </c>
       <c r="AF15" s="18" t="n">
-        <v>5798</v>
+        <v>9753</v>
       </c>
       <c r="AG15" s="18" t="n">
-        <v>9753</v>
+        <v>15639</v>
       </c>
       <c r="AH15" s="18" t="n">
-        <v>15639</v>
+        <v>11775</v>
       </c>
       <c r="AI15" s="18" t="n">
-        <v>11775</v>
+        <v>14709</v>
       </c>
       <c r="AJ15" s="18" t="n">
-        <v>14709</v>
+        <v>10831</v>
       </c>
       <c r="AK15" s="18" t="n">
-        <v>10831</v>
+        <v>10509</v>
       </c>
       <c r="AL15" s="18" t="n">
-        <v>10509</v>
+        <v>10973</v>
       </c>
       <c r="AM15" s="18" t="n">
-        <v>10973</v>
+        <v>10386</v>
       </c>
       <c r="AN15" s="18" t="n">
-        <v>10386</v>
+        <v>15093</v>
       </c>
       <c r="AO15" s="18" t="n">
-        <v>15093</v>
+        <v>12003</v>
       </c>
       <c r="AP15" s="18" t="n">
-        <v>12003</v>
+        <v>6513</v>
       </c>
       <c r="AQ15" s="18" t="n">
-        <v>6513</v>
+        <v>9407</v>
       </c>
       <c r="AR15" s="18" t="n">
-        <v>9407</v>
+        <v>12952</v>
       </c>
       <c r="AS15" s="18" t="n">
-        <v>12952</v>
+        <v>13125</v>
       </c>
       <c r="AT15" s="18" t="n">
-        <v>13125</v>
+        <v>13843</v>
       </c>
       <c r="AU15" s="18" t="n">
-        <v>13843</v>
+        <v>14523</v>
       </c>
       <c r="AV15" s="18" t="n">
-        <v>14523</v>
+        <v>11959</v>
       </c>
       <c r="AW15" s="18" t="n">
-        <v>11959</v>
+        <v>15599</v>
       </c>
       <c r="AX15" s="18" t="n">
-        <v>15599</v>
+        <v>15985</v>
       </c>
       <c r="AY15" s="18" t="n">
-        <v>15985</v>
+        <v>15826</v>
       </c>
       <c r="AZ15" s="18" t="n">
-        <v>15826</v>
+        <v>18881</v>
       </c>
       <c r="BA15" s="18" t="n">
-        <v>18881</v>
+        <v>13724</v>
       </c>
       <c r="BB15" s="18" t="n">
-        <v>13724</v>
+        <v>9892</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4213,11 +4213,11 @@
       <c r="AC17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE17" s="13" t="n">
-        <v>0</v>
+      <c r="AD17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF17" s="13" t="s">
         <v>58</v>
@@ -4246,11 +4246,11 @@
       <c r="AN17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP17" s="13" t="n">
-        <v>0</v>
+      <c r="AO17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ17" s="13" t="s">
         <v>58</v>
@@ -4345,107 +4345,107 @@
       <c r="T18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U18" s="16" t="s">
-        <v>58</v>
+      <c r="U18" s="16" t="n">
+        <v>6</v>
       </c>
       <c r="V18" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA18" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD18" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE18" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF18" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG18" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="W18" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="16" t="n">
+      <c r="AH18" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI18" s="16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ18" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK18" s="16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL18" s="16" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM18" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN18" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO18" s="16" t="n">
+        <v>48</v>
+      </c>
+      <c r="AP18" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ18" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR18" s="16" t="n">
         <v>11</v>
       </c>
-      <c r="AB18" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="16" t="n">
+      <c r="AS18" s="16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AT18" s="16" t="n">
+        <v>69</v>
+      </c>
+      <c r="AU18" s="16" t="n">
+        <v>47</v>
+      </c>
+      <c r="AV18" s="16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AW18" s="16" t="n">
         <v>13</v>
       </c>
-      <c r="AE18" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF18" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG18" s="16" t="n">
+      <c r="AX18" s="16" t="n">
+        <v>63</v>
+      </c>
+      <c r="AY18" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="AH18" s="16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI18" s="16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ18" s="16" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK18" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL18" s="16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM18" s="16" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN18" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO18" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="AP18" s="16" t="n">
-        <v>48</v>
-      </c>
-      <c r="AQ18" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AR18" s="16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AS18" s="16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AT18" s="16" t="n">
-        <v>65</v>
-      </c>
-      <c r="AU18" s="16" t="n">
-        <v>69</v>
-      </c>
-      <c r="AV18" s="16" t="n">
-        <v>47</v>
-      </c>
-      <c r="AW18" s="16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AX18" s="16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY18" s="16" t="n">
-        <v>63</v>
-      </c>
       <c r="AZ18" s="16" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="BA18" s="16" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="BB18" s="16" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4504,11 +4504,11 @@
       <c r="T19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U19" s="13" t="s">
-        <v>58</v>
+      <c r="U19" s="13" t="n">
+        <v>5</v>
       </c>
       <c r="V19" s="13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W19" s="13" t="n">
         <v>0</v>
@@ -4520,91 +4520,91 @@
         <v>0</v>
       </c>
       <c r="Z19" s="13" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA19" s="13" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AC19" s="13" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD19" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF19" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="AE19" s="13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF19" s="13" t="s">
-        <v>58</v>
-      </c>
       <c r="AG19" s="13" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="AH19" s="13" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="AI19" s="13" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="AJ19" s="13" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="AK19" s="13" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="AL19" s="13" t="n">
+        <v>232</v>
+      </c>
+      <c r="AM19" s="13" t="n">
+        <v>234</v>
+      </c>
+      <c r="AN19" s="13" t="n">
+        <v>89</v>
+      </c>
+      <c r="AO19" s="13" t="n">
+        <v>352</v>
+      </c>
+      <c r="AP19" s="13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ19" s="13" t="n">
         <v>46</v>
       </c>
-      <c r="AM19" s="13" t="n">
-        <v>232</v>
-      </c>
-      <c r="AN19" s="13" t="n">
-        <v>234</v>
-      </c>
-      <c r="AO19" s="13" t="n">
-        <v>89</v>
-      </c>
-      <c r="AP19" s="13" t="n">
-        <v>352</v>
-      </c>
-      <c r="AQ19" s="13" t="n">
-        <v>9</v>
-      </c>
       <c r="AR19" s="13" t="n">
-        <v>46</v>
+        <v>522</v>
       </c>
       <c r="AS19" s="13" t="n">
-        <v>522</v>
+        <v>209</v>
       </c>
       <c r="AT19" s="13" t="n">
-        <v>209</v>
+        <v>72</v>
       </c>
       <c r="AU19" s="13" t="n">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="AV19" s="13" t="n">
-        <v>204</v>
+        <v>73</v>
       </c>
       <c r="AW19" s="13" t="n">
-        <v>73</v>
+        <v>212</v>
       </c>
       <c r="AX19" s="13" t="n">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="AY19" s="13" t="n">
-        <v>81</v>
+        <v>557</v>
       </c>
       <c r="AZ19" s="13" t="n">
-        <v>557</v>
+        <v>2293</v>
       </c>
       <c r="BA19" s="13" t="n">
-        <v>2293</v>
+        <v>1597</v>
       </c>
       <c r="BB19" s="13" t="n">
-        <v>1597</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4663,11 +4663,11 @@
       <c r="T20" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U20" s="16" t="s">
-        <v>58</v>
+      <c r="U20" s="16" t="n">
+        <v>9</v>
       </c>
       <c r="V20" s="16" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="W20" s="16" t="n">
         <v>0</v>
@@ -4679,91 +4679,91 @@
         <v>0</v>
       </c>
       <c r="Z20" s="16" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AA20" s="16" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AC20" s="16" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD20" s="16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE20" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="AF20" s="16" t="s">
-        <v>58</v>
+      <c r="AE20" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF20" s="16" t="n">
+        <v>6</v>
       </c>
       <c r="AG20" s="16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AH20" s="16" t="n">
         <v>3</v>
       </c>
       <c r="AI20" s="16" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AJ20" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK20" s="16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL20" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM20" s="16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN20" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO20" s="16" t="n">
+        <v>47</v>
+      </c>
+      <c r="AP20" s="16" t="n">
         <v>10</v>
-      </c>
-      <c r="AK20" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL20" s="16" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM20" s="16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AN20" s="16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO20" s="16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AP20" s="16" t="n">
-        <v>47</v>
       </c>
       <c r="AQ20" s="16" t="n">
         <v>10</v>
       </c>
       <c r="AR20" s="16" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AS20" s="16" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AT20" s="16" t="n">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="AU20" s="16" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="AV20" s="16" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AW20" s="16" t="n">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="AX20" s="16" t="n">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="AY20" s="16" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AZ20" s="16" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="BA20" s="16" t="n">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="BB20" s="16" t="n">
-        <v>166</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4821,106 +4821,106 @@
         <v>0</v>
       </c>
       <c r="U21" s="18" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V21" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="18" t="n">
+        <v>76</v>
+      </c>
+      <c r="AA21" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="18" t="n">
+        <v>37</v>
+      </c>
+      <c r="AD21" s="18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE21" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="18" t="n">
         <v>20</v>
       </c>
-      <c r="W21" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="18" t="n">
-        <v>76</v>
-      </c>
-      <c r="AB21" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="18" t="n">
-        <v>37</v>
-      </c>
-      <c r="AE21" s="18" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF21" s="18" t="n">
-        <v>0</v>
-      </c>
       <c r="AG21" s="18" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="AH21" s="18" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="AI21" s="18" t="n">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="AJ21" s="18" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="AK21" s="18" t="n">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="AL21" s="18" t="n">
-        <v>94</v>
+        <v>275</v>
       </c>
       <c r="AM21" s="18" t="n">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="AN21" s="18" t="n">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c r="AO21" s="18" t="n">
-        <v>123</v>
+        <v>447</v>
       </c>
       <c r="AP21" s="18" t="n">
-        <v>447</v>
+        <v>23</v>
       </c>
       <c r="AQ21" s="18" t="n">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="AR21" s="18" t="n">
-        <v>64</v>
+        <v>533</v>
       </c>
       <c r="AS21" s="18" t="n">
-        <v>533</v>
+        <v>368</v>
       </c>
       <c r="AT21" s="18" t="n">
-        <v>368</v>
+        <v>190</v>
       </c>
       <c r="AU21" s="18" t="n">
-        <v>190</v>
+        <v>306</v>
       </c>
       <c r="AV21" s="18" t="n">
-        <v>306</v>
+        <v>130</v>
       </c>
       <c r="AW21" s="18" t="n">
-        <v>130</v>
+        <v>326</v>
       </c>
       <c r="AX21" s="18" t="n">
+        <v>176</v>
+      </c>
+      <c r="AY21" s="18" t="n">
+        <v>576</v>
+      </c>
+      <c r="AZ21" s="18" t="n">
+        <v>2403</v>
+      </c>
+      <c r="BA21" s="18" t="n">
+        <v>1863</v>
+      </c>
+      <c r="BB21" s="18" t="n">
         <v>326</v>
-      </c>
-      <c r="AY21" s="18" t="n">
-        <v>176</v>
-      </c>
-      <c r="AZ21" s="18" t="n">
-        <v>576</v>
-      </c>
-      <c r="BA21" s="18" t="n">
-        <v>2403</v>
-      </c>
-      <c r="BB21" s="18" t="n">
-        <v>1863</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5102,11 +5102,11 @@
       <c r="AP23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ23" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR23" s="13" t="n">
-        <v>0</v>
+      <c r="AQ23" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS23" s="13" t="s">
         <v>58</v>
@@ -5193,8 +5193,8 @@
       <c r="T24" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U24" s="20" t="s">
-        <v>58</v>
+      <c r="U24" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V24" s="20" t="n">
         <v>0</v>
@@ -5351,106 +5351,106 @@
         <v>0</v>
       </c>
       <c r="U25" s="18" t="n">
-        <v>0</v>
+        <v>13208</v>
       </c>
       <c r="V25" s="18" t="n">
-        <v>13208</v>
+        <v>9803</v>
       </c>
       <c r="W25" s="18" t="n">
-        <v>9803</v>
+        <v>10320</v>
       </c>
       <c r="X25" s="18" t="n">
-        <v>10320</v>
+        <v>10136</v>
       </c>
       <c r="Y25" s="18" t="n">
-        <v>10136</v>
+        <v>12675</v>
       </c>
       <c r="Z25" s="18" t="n">
-        <v>12675</v>
+        <v>16096</v>
       </c>
       <c r="AA25" s="18" t="n">
-        <v>16096</v>
+        <v>17914</v>
       </c>
       <c r="AB25" s="18" t="n">
-        <v>17914</v>
+        <v>12967</v>
       </c>
       <c r="AC25" s="18" t="n">
-        <v>12967</v>
+        <v>16018</v>
       </c>
       <c r="AD25" s="18" t="n">
-        <v>16018</v>
+        <v>7481</v>
       </c>
       <c r="AE25" s="18" t="n">
-        <v>7481</v>
+        <v>5798</v>
       </c>
       <c r="AF25" s="18" t="n">
-        <v>5798</v>
+        <v>9773</v>
       </c>
       <c r="AG25" s="18" t="n">
-        <v>9773</v>
+        <v>15681</v>
       </c>
       <c r="AH25" s="18" t="n">
-        <v>15681</v>
+        <v>11794</v>
       </c>
       <c r="AI25" s="18" t="n">
-        <v>11794</v>
+        <v>14774</v>
       </c>
       <c r="AJ25" s="18" t="n">
-        <v>14774</v>
+        <v>10852</v>
       </c>
       <c r="AK25" s="18" t="n">
-        <v>10852</v>
+        <v>10603</v>
       </c>
       <c r="AL25" s="18" t="n">
-        <v>10603</v>
+        <v>11248</v>
       </c>
       <c r="AM25" s="18" t="n">
-        <v>11248</v>
+        <v>10651</v>
       </c>
       <c r="AN25" s="18" t="n">
-        <v>10651</v>
+        <v>15216</v>
       </c>
       <c r="AO25" s="18" t="n">
-        <v>15216</v>
+        <v>12450</v>
       </c>
       <c r="AP25" s="18" t="n">
-        <v>12450</v>
+        <v>6536</v>
       </c>
       <c r="AQ25" s="18" t="n">
-        <v>6536</v>
+        <v>9471</v>
       </c>
       <c r="AR25" s="18" t="n">
-        <v>9471</v>
+        <v>13485</v>
       </c>
       <c r="AS25" s="18" t="n">
-        <v>13485</v>
+        <v>13493</v>
       </c>
       <c r="AT25" s="18" t="n">
-        <v>13493</v>
+        <v>14033</v>
       </c>
       <c r="AU25" s="18" t="n">
-        <v>14033</v>
+        <v>14829</v>
       </c>
       <c r="AV25" s="18" t="n">
-        <v>14829</v>
+        <v>12089</v>
       </c>
       <c r="AW25" s="18" t="n">
-        <v>12089</v>
+        <v>15925</v>
       </c>
       <c r="AX25" s="18" t="n">
-        <v>15925</v>
+        <v>16161</v>
       </c>
       <c r="AY25" s="18" t="n">
-        <v>16161</v>
+        <v>16402</v>
       </c>
       <c r="AZ25" s="18" t="n">
-        <v>16402</v>
+        <v>21284</v>
       </c>
       <c r="BA25" s="18" t="n">
-        <v>21284</v>
+        <v>15587</v>
       </c>
       <c r="BB25" s="18" t="n">
-        <v>15587</v>
+        <v>10218</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5970,11 +5970,11 @@
       <c r="AC32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE32" s="13" t="n">
-        <v>0</v>
+      <c r="AD32" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF32" s="13" t="s">
         <v>58</v>
@@ -6003,11 +6003,11 @@
       <c r="AN32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP32" s="13" t="n">
-        <v>0</v>
+      <c r="AO32" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ32" s="13" t="s">
         <v>58</v>
@@ -6102,107 +6102,107 @@
       <c r="T33" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U33" s="16" t="s">
-        <v>58</v>
+      <c r="U33" s="16" t="n">
+        <v>5028</v>
       </c>
       <c r="V33" s="16" t="n">
-        <v>5028</v>
+        <v>4877</v>
       </c>
       <c r="W33" s="16" t="n">
-        <v>4877</v>
+        <v>3557</v>
       </c>
       <c r="X33" s="16" t="n">
-        <v>3557</v>
+        <v>4026</v>
       </c>
       <c r="Y33" s="16" t="n">
-        <v>4026</v>
+        <v>4801</v>
       </c>
       <c r="Z33" s="16" t="n">
-        <v>4801</v>
+        <v>5824</v>
       </c>
       <c r="AA33" s="16" t="n">
-        <v>5824</v>
+        <v>6862</v>
       </c>
       <c r="AB33" s="16" t="n">
-        <v>6862</v>
+        <v>4729</v>
       </c>
       <c r="AC33" s="16" t="n">
-        <v>4729</v>
+        <v>4990</v>
       </c>
       <c r="AD33" s="16" t="n">
-        <v>4990</v>
+        <v>1225</v>
       </c>
       <c r="AE33" s="16" t="n">
-        <v>1225</v>
+        <v>3209</v>
       </c>
       <c r="AF33" s="16" t="n">
-        <v>3209</v>
+        <v>2619</v>
       </c>
       <c r="AG33" s="16" t="n">
-        <v>2619</v>
+        <v>4945</v>
       </c>
       <c r="AH33" s="16" t="n">
-        <v>4945</v>
+        <v>4010</v>
       </c>
       <c r="AI33" s="16" t="n">
-        <v>4010</v>
+        <v>4594</v>
       </c>
       <c r="AJ33" s="16" t="n">
-        <v>4594</v>
+        <v>2861</v>
       </c>
       <c r="AK33" s="16" t="n">
-        <v>2861</v>
+        <v>3593</v>
       </c>
       <c r="AL33" s="16" t="n">
-        <v>3593</v>
+        <v>2382</v>
       </c>
       <c r="AM33" s="16" t="n">
-        <v>2382</v>
+        <v>3474</v>
       </c>
       <c r="AN33" s="16" t="n">
-        <v>3474</v>
+        <v>3958</v>
       </c>
       <c r="AO33" s="16" t="n">
-        <v>3958</v>
+        <v>4310</v>
       </c>
       <c r="AP33" s="16" t="n">
-        <v>4310</v>
+        <v>1439</v>
       </c>
       <c r="AQ33" s="16" t="n">
-        <v>1439</v>
+        <v>2751</v>
       </c>
       <c r="AR33" s="16" t="n">
-        <v>2751</v>
+        <v>3564</v>
       </c>
       <c r="AS33" s="16" t="n">
-        <v>3564</v>
+        <v>3449</v>
       </c>
       <c r="AT33" s="16" t="n">
-        <v>3449</v>
+        <v>4047</v>
       </c>
       <c r="AU33" s="16" t="n">
-        <v>4047</v>
+        <v>3956</v>
       </c>
       <c r="AV33" s="16" t="n">
-        <v>3956</v>
+        <v>3187</v>
       </c>
       <c r="AW33" s="16" t="n">
-        <v>3187</v>
+        <v>4022</v>
       </c>
       <c r="AX33" s="16" t="n">
-        <v>4022</v>
+        <v>3509</v>
       </c>
       <c r="AY33" s="16" t="n">
-        <v>3509</v>
+        <v>4570</v>
       </c>
       <c r="AZ33" s="16" t="n">
-        <v>4570</v>
+        <v>5634</v>
       </c>
       <c r="BA33" s="16" t="n">
-        <v>5634</v>
+        <v>4241</v>
       </c>
       <c r="BB33" s="16" t="n">
-        <v>4241</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6261,107 +6261,107 @@
       <c r="T34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U34" s="13" t="s">
-        <v>58</v>
+      <c r="U34" s="13" t="n">
+        <v>3400</v>
       </c>
       <c r="V34" s="13" t="n">
-        <v>3400</v>
+        <v>3243</v>
       </c>
       <c r="W34" s="13" t="n">
-        <v>3243</v>
+        <v>4240</v>
       </c>
       <c r="X34" s="13" t="n">
-        <v>4240</v>
+        <v>3889</v>
       </c>
       <c r="Y34" s="13" t="n">
-        <v>3889</v>
+        <v>4270</v>
       </c>
       <c r="Z34" s="13" t="n">
-        <v>4270</v>
+        <v>4391</v>
       </c>
       <c r="AA34" s="13" t="n">
-        <v>4391</v>
+        <v>5310</v>
       </c>
       <c r="AB34" s="13" t="n">
-        <v>5310</v>
+        <v>4881</v>
       </c>
       <c r="AC34" s="13" t="n">
-        <v>4881</v>
+        <v>5074</v>
       </c>
       <c r="AD34" s="13" t="n">
-        <v>5074</v>
+        <v>1954</v>
       </c>
       <c r="AE34" s="13" t="n">
-        <v>1954</v>
+        <v>2387</v>
       </c>
       <c r="AF34" s="13" t="n">
-        <v>2387</v>
+        <v>2808</v>
       </c>
       <c r="AG34" s="13" t="n">
-        <v>2808</v>
+        <v>4656</v>
       </c>
       <c r="AH34" s="13" t="n">
-        <v>4656</v>
+        <v>4038</v>
       </c>
       <c r="AI34" s="13" t="n">
-        <v>4038</v>
+        <v>4092</v>
       </c>
       <c r="AJ34" s="13" t="n">
-        <v>4092</v>
+        <v>2895</v>
       </c>
       <c r="AK34" s="13" t="n">
-        <v>2895</v>
+        <v>4237</v>
       </c>
       <c r="AL34" s="13" t="n">
-        <v>4237</v>
+        <v>3583</v>
       </c>
       <c r="AM34" s="13" t="n">
-        <v>3583</v>
+        <v>3833</v>
       </c>
       <c r="AN34" s="13" t="n">
-        <v>3833</v>
+        <v>4767</v>
       </c>
       <c r="AO34" s="13" t="n">
-        <v>4767</v>
+        <v>5390</v>
       </c>
       <c r="AP34" s="13" t="n">
-        <v>5390</v>
+        <v>2251</v>
       </c>
       <c r="AQ34" s="13" t="n">
-        <v>2251</v>
+        <v>3756</v>
       </c>
       <c r="AR34" s="13" t="n">
-        <v>3756</v>
+        <v>3727</v>
       </c>
       <c r="AS34" s="13" t="n">
-        <v>3727</v>
+        <v>5520</v>
       </c>
       <c r="AT34" s="13" t="n">
-        <v>5520</v>
+        <v>5729</v>
       </c>
       <c r="AU34" s="13" t="n">
-        <v>5729</v>
+        <v>5236</v>
       </c>
       <c r="AV34" s="13" t="n">
-        <v>5236</v>
+        <v>4694</v>
       </c>
       <c r="AW34" s="13" t="n">
-        <v>4694</v>
+        <v>6014</v>
       </c>
       <c r="AX34" s="13" t="n">
-        <v>6014</v>
+        <v>5909</v>
       </c>
       <c r="AY34" s="13" t="n">
-        <v>5909</v>
+        <v>7119</v>
       </c>
       <c r="AZ34" s="13" t="n">
-        <v>7119</v>
+        <v>6944</v>
       </c>
       <c r="BA34" s="13" t="n">
-        <v>6944</v>
+        <v>5675</v>
       </c>
       <c r="BB34" s="13" t="n">
-        <v>5675</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6420,107 +6420,107 @@
       <c r="T35" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U35" s="16" t="s">
-        <v>58</v>
+      <c r="U35" s="16" t="n">
+        <v>3995</v>
       </c>
       <c r="V35" s="16" t="n">
-        <v>3995</v>
+        <v>2870</v>
       </c>
       <c r="W35" s="16" t="n">
-        <v>2870</v>
+        <v>2962</v>
       </c>
       <c r="X35" s="16" t="n">
-        <v>2962</v>
+        <v>3071</v>
       </c>
       <c r="Y35" s="16" t="n">
-        <v>3071</v>
+        <v>3060</v>
       </c>
       <c r="Z35" s="16" t="n">
-        <v>3060</v>
+        <v>4152</v>
       </c>
       <c r="AA35" s="16" t="n">
-        <v>4152</v>
+        <v>4784</v>
       </c>
       <c r="AB35" s="16" t="n">
-        <v>4784</v>
+        <v>5942</v>
       </c>
       <c r="AC35" s="16" t="n">
-        <v>5942</v>
+        <v>4383</v>
       </c>
       <c r="AD35" s="16" t="n">
-        <v>4383</v>
+        <v>2230</v>
       </c>
       <c r="AE35" s="16" t="n">
-        <v>2230</v>
+        <v>3022</v>
       </c>
       <c r="AF35" s="16" t="n">
-        <v>3022</v>
+        <v>3182</v>
       </c>
       <c r="AG35" s="16" t="n">
-        <v>3182</v>
+        <v>4672</v>
       </c>
       <c r="AH35" s="16" t="n">
-        <v>4672</v>
+        <v>3714</v>
       </c>
       <c r="AI35" s="16" t="n">
-        <v>3714</v>
+        <v>5351</v>
       </c>
       <c r="AJ35" s="16" t="n">
-        <v>5351</v>
+        <v>4041</v>
       </c>
       <c r="AK35" s="16" t="n">
-        <v>4041</v>
+        <v>4085</v>
       </c>
       <c r="AL35" s="16" t="n">
-        <v>4085</v>
+        <v>3345</v>
       </c>
       <c r="AM35" s="16" t="n">
-        <v>3345</v>
+        <v>4231</v>
       </c>
       <c r="AN35" s="16" t="n">
-        <v>4231</v>
+        <v>5165</v>
       </c>
       <c r="AO35" s="16" t="n">
-        <v>5165</v>
+        <v>5171</v>
       </c>
       <c r="AP35" s="16" t="n">
-        <v>5171</v>
+        <v>1838</v>
       </c>
       <c r="AQ35" s="16" t="n">
-        <v>1838</v>
+        <v>3684</v>
       </c>
       <c r="AR35" s="16" t="n">
-        <v>3684</v>
+        <v>3630</v>
       </c>
       <c r="AS35" s="16" t="n">
-        <v>3630</v>
+        <v>4112</v>
       </c>
       <c r="AT35" s="16" t="n">
-        <v>4112</v>
+        <v>4788</v>
       </c>
       <c r="AU35" s="16" t="n">
-        <v>4788</v>
+        <v>4406</v>
       </c>
       <c r="AV35" s="16" t="n">
-        <v>4406</v>
+        <v>3890</v>
       </c>
       <c r="AW35" s="16" t="n">
-        <v>3890</v>
+        <v>5175</v>
       </c>
       <c r="AX35" s="16" t="n">
-        <v>5175</v>
+        <v>5002</v>
       </c>
       <c r="AY35" s="16" t="n">
-        <v>5002</v>
+        <v>5321</v>
       </c>
       <c r="AZ35" s="16" t="n">
-        <v>5321</v>
+        <v>7471</v>
       </c>
       <c r="BA35" s="16" t="n">
-        <v>7471</v>
+        <v>4811</v>
       </c>
       <c r="BB35" s="16" t="n">
-        <v>4811</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6578,106 +6578,106 @@
         <v>0</v>
       </c>
       <c r="U36" s="18" t="n">
-        <v>0</v>
+        <v>12423</v>
       </c>
       <c r="V36" s="18" t="n">
-        <v>12423</v>
+        <v>10990</v>
       </c>
       <c r="W36" s="18" t="n">
-        <v>10990</v>
+        <v>10759</v>
       </c>
       <c r="X36" s="18" t="n">
-        <v>10759</v>
+        <v>10986</v>
       </c>
       <c r="Y36" s="18" t="n">
-        <v>10986</v>
+        <v>12131</v>
       </c>
       <c r="Z36" s="18" t="n">
-        <v>12131</v>
+        <v>14367</v>
       </c>
       <c r="AA36" s="18" t="n">
-        <v>14367</v>
+        <v>16956</v>
       </c>
       <c r="AB36" s="18" t="n">
-        <v>16956</v>
+        <v>15552</v>
       </c>
       <c r="AC36" s="18" t="n">
-        <v>15552</v>
+        <v>14447</v>
       </c>
       <c r="AD36" s="18" t="n">
-        <v>14447</v>
+        <v>5409</v>
       </c>
       <c r="AE36" s="18" t="n">
-        <v>5409</v>
+        <v>8618</v>
       </c>
       <c r="AF36" s="18" t="n">
-        <v>8618</v>
+        <v>8609</v>
       </c>
       <c r="AG36" s="18" t="n">
-        <v>8609</v>
+        <v>14273</v>
       </c>
       <c r="AH36" s="18" t="n">
-        <v>14273</v>
+        <v>11762</v>
       </c>
       <c r="AI36" s="18" t="n">
-        <v>11762</v>
+        <v>14037</v>
       </c>
       <c r="AJ36" s="18" t="n">
-        <v>14037</v>
+        <v>9797</v>
       </c>
       <c r="AK36" s="18" t="n">
-        <v>9797</v>
+        <v>11915</v>
       </c>
       <c r="AL36" s="18" t="n">
-        <v>11915</v>
+        <v>9310</v>
       </c>
       <c r="AM36" s="18" t="n">
-        <v>9310</v>
+        <v>11538</v>
       </c>
       <c r="AN36" s="18" t="n">
-        <v>11538</v>
+        <v>13890</v>
       </c>
       <c r="AO36" s="18" t="n">
-        <v>13890</v>
+        <v>14871</v>
       </c>
       <c r="AP36" s="18" t="n">
-        <v>14871</v>
+        <v>5528</v>
       </c>
       <c r="AQ36" s="18" t="n">
-        <v>5528</v>
+        <v>10191</v>
       </c>
       <c r="AR36" s="18" t="n">
-        <v>10191</v>
+        <v>10921</v>
       </c>
       <c r="AS36" s="18" t="n">
-        <v>10921</v>
+        <v>13081</v>
       </c>
       <c r="AT36" s="18" t="n">
-        <v>13081</v>
+        <v>14564</v>
       </c>
       <c r="AU36" s="18" t="n">
-        <v>14564</v>
+        <v>13598</v>
       </c>
       <c r="AV36" s="18" t="n">
-        <v>13598</v>
+        <v>11771</v>
       </c>
       <c r="AW36" s="18" t="n">
-        <v>11771</v>
+        <v>15211</v>
       </c>
       <c r="AX36" s="18" t="n">
-        <v>15211</v>
+        <v>14420</v>
       </c>
       <c r="AY36" s="18" t="n">
-        <v>14420</v>
+        <v>17010</v>
       </c>
       <c r="AZ36" s="18" t="n">
-        <v>17010</v>
+        <v>20049</v>
       </c>
       <c r="BA36" s="18" t="n">
-        <v>20049</v>
+        <v>14727</v>
       </c>
       <c r="BB36" s="18" t="n">
-        <v>14727</v>
+        <v>8801</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6820,11 +6820,11 @@
       <c r="AC38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE38" s="13" t="n">
-        <v>0</v>
+      <c r="AD38" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF38" s="13" t="s">
         <v>58</v>
@@ -6853,11 +6853,11 @@
       <c r="AN38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP38" s="13" t="n">
-        <v>0</v>
+      <c r="AO38" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ38" s="13" t="s">
         <v>58</v>
@@ -6952,107 +6952,107 @@
       <c r="T39" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U39" s="16" t="s">
-        <v>58</v>
+      <c r="U39" s="16" t="n">
+        <v>6</v>
       </c>
       <c r="V39" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA39" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD39" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE39" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF39" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG39" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="W39" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="16" t="n">
+      <c r="AH39" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI39" s="16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ39" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK39" s="16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL39" s="16" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM39" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN39" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO39" s="16" t="n">
+        <v>48</v>
+      </c>
+      <c r="AP39" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ39" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR39" s="16" t="n">
         <v>11</v>
       </c>
-      <c r="AB39" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="16" t="n">
+      <c r="AS39" s="16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AT39" s="16" t="n">
+        <v>69</v>
+      </c>
+      <c r="AU39" s="16" t="n">
+        <v>47</v>
+      </c>
+      <c r="AV39" s="16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AW39" s="16" t="n">
         <v>13</v>
       </c>
-      <c r="AE39" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF39" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG39" s="16" t="n">
+      <c r="AX39" s="16" t="n">
+        <v>63</v>
+      </c>
+      <c r="AY39" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="AH39" s="16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI39" s="16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ39" s="16" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK39" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL39" s="16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM39" s="16" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN39" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO39" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="AP39" s="16" t="n">
-        <v>48</v>
-      </c>
-      <c r="AQ39" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AR39" s="16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AS39" s="16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AT39" s="16" t="n">
-        <v>65</v>
-      </c>
-      <c r="AU39" s="16" t="n">
-        <v>69</v>
-      </c>
-      <c r="AV39" s="16" t="n">
-        <v>47</v>
-      </c>
-      <c r="AW39" s="16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AX39" s="16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY39" s="16" t="n">
-        <v>63</v>
-      </c>
       <c r="AZ39" s="16" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="BA39" s="16" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="BB39" s="16" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7111,11 +7111,11 @@
       <c r="T40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U40" s="13" t="s">
-        <v>58</v>
+      <c r="U40" s="13" t="n">
+        <v>5</v>
       </c>
       <c r="V40" s="13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W40" s="13" t="n">
         <v>0</v>
@@ -7127,91 +7127,91 @@
         <v>0</v>
       </c>
       <c r="Z40" s="13" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA40" s="13" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AB40" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AC40" s="13" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD40" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE40" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF40" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="AE40" s="13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF40" s="13" t="s">
-        <v>58</v>
-      </c>
       <c r="AG40" s="13" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="AH40" s="13" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="AI40" s="13" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="AJ40" s="13" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="AK40" s="13" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="AL40" s="13" t="n">
+        <v>232</v>
+      </c>
+      <c r="AM40" s="13" t="n">
+        <v>234</v>
+      </c>
+      <c r="AN40" s="13" t="n">
+        <v>89</v>
+      </c>
+      <c r="AO40" s="13" t="n">
+        <v>352</v>
+      </c>
+      <c r="AP40" s="13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ40" s="13" t="n">
         <v>46</v>
       </c>
-      <c r="AM40" s="13" t="n">
-        <v>232</v>
-      </c>
-      <c r="AN40" s="13" t="n">
-        <v>234</v>
-      </c>
-      <c r="AO40" s="13" t="n">
-        <v>89</v>
-      </c>
-      <c r="AP40" s="13" t="n">
-        <v>352</v>
-      </c>
-      <c r="AQ40" s="13" t="n">
-        <v>9</v>
-      </c>
       <c r="AR40" s="13" t="n">
-        <v>46</v>
+        <v>522</v>
       </c>
       <c r="AS40" s="13" t="n">
-        <v>522</v>
+        <v>209</v>
       </c>
       <c r="AT40" s="13" t="n">
-        <v>209</v>
+        <v>72</v>
       </c>
       <c r="AU40" s="13" t="n">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="AV40" s="13" t="n">
-        <v>204</v>
+        <v>73</v>
       </c>
       <c r="AW40" s="13" t="n">
-        <v>73</v>
+        <v>212</v>
       </c>
       <c r="AX40" s="13" t="n">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="AY40" s="13" t="n">
-        <v>81</v>
+        <v>557</v>
       </c>
       <c r="AZ40" s="13" t="n">
-        <v>557</v>
+        <v>2293</v>
       </c>
       <c r="BA40" s="13" t="n">
-        <v>2293</v>
+        <v>1597</v>
       </c>
       <c r="BB40" s="13" t="n">
-        <v>1597</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7270,11 +7270,11 @@
       <c r="T41" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U41" s="16" t="s">
-        <v>58</v>
+      <c r="U41" s="16" t="n">
+        <v>9</v>
       </c>
       <c r="V41" s="16" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="W41" s="16" t="n">
         <v>0</v>
@@ -7286,91 +7286,91 @@
         <v>0</v>
       </c>
       <c r="Z41" s="16" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AA41" s="16" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AC41" s="16" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD41" s="16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE41" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="AF41" s="16" t="s">
-        <v>58</v>
+      <c r="AE41" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF41" s="16" t="n">
+        <v>6</v>
       </c>
       <c r="AG41" s="16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AH41" s="16" t="n">
         <v>3</v>
       </c>
       <c r="AI41" s="16" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AJ41" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK41" s="16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL41" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM41" s="16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN41" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO41" s="16" t="n">
+        <v>47</v>
+      </c>
+      <c r="AP41" s="16" t="n">
         <v>10</v>
-      </c>
-      <c r="AK41" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL41" s="16" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM41" s="16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AN41" s="16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO41" s="16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AP41" s="16" t="n">
-        <v>47</v>
       </c>
       <c r="AQ41" s="16" t="n">
         <v>10</v>
       </c>
       <c r="AR41" s="16" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AS41" s="16" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AT41" s="16" t="n">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="AU41" s="16" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="AV41" s="16" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AW41" s="16" t="n">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="AX41" s="16" t="n">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="AY41" s="16" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AZ41" s="16" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="BA41" s="16" t="n">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="BB41" s="16" t="n">
-        <v>166</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7428,106 +7428,106 @@
         <v>0</v>
       </c>
       <c r="U42" s="18" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V42" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="18" t="n">
+        <v>76</v>
+      </c>
+      <c r="AA42" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="18" t="n">
+        <v>37</v>
+      </c>
+      <c r="AD42" s="18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE42" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="18" t="n">
         <v>20</v>
       </c>
-      <c r="W42" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="18" t="n">
-        <v>76</v>
-      </c>
-      <c r="AB42" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="18" t="n">
-        <v>37</v>
-      </c>
-      <c r="AE42" s="18" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF42" s="18" t="n">
-        <v>0</v>
-      </c>
       <c r="AG42" s="18" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="AH42" s="18" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="AI42" s="18" t="n">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="AJ42" s="18" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="AK42" s="18" t="n">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="AL42" s="18" t="n">
-        <v>94</v>
+        <v>275</v>
       </c>
       <c r="AM42" s="18" t="n">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="AN42" s="18" t="n">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c r="AO42" s="18" t="n">
-        <v>123</v>
+        <v>447</v>
       </c>
       <c r="AP42" s="18" t="n">
-        <v>447</v>
+        <v>23</v>
       </c>
       <c r="AQ42" s="18" t="n">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="AR42" s="18" t="n">
-        <v>64</v>
+        <v>533</v>
       </c>
       <c r="AS42" s="18" t="n">
-        <v>533</v>
+        <v>368</v>
       </c>
       <c r="AT42" s="18" t="n">
-        <v>368</v>
+        <v>190</v>
       </c>
       <c r="AU42" s="18" t="n">
-        <v>190</v>
+        <v>306</v>
       </c>
       <c r="AV42" s="18" t="n">
-        <v>306</v>
+        <v>130</v>
       </c>
       <c r="AW42" s="18" t="n">
-        <v>130</v>
+        <v>326</v>
       </c>
       <c r="AX42" s="18" t="n">
+        <v>176</v>
+      </c>
+      <c r="AY42" s="18" t="n">
+        <v>576</v>
+      </c>
+      <c r="AZ42" s="18" t="n">
+        <v>2403</v>
+      </c>
+      <c r="BA42" s="18" t="n">
+        <v>1863</v>
+      </c>
+      <c r="BB42" s="18" t="n">
         <v>326</v>
-      </c>
-      <c r="AY42" s="18" t="n">
-        <v>176</v>
-      </c>
-      <c r="AZ42" s="18" t="n">
-        <v>576</v>
-      </c>
-      <c r="BA42" s="18" t="n">
-        <v>2403</v>
-      </c>
-      <c r="BB42" s="18" t="n">
-        <v>1863</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7709,11 +7709,11 @@
       <c r="AP44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR44" s="13" t="n">
-        <v>0</v>
+      <c r="AQ44" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR44" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS44" s="13" t="s">
         <v>58</v>
@@ -7800,8 +7800,8 @@
       <c r="T45" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U45" s="20" t="s">
-        <v>58</v>
+      <c r="U45" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V45" s="20" t="n">
         <v>0</v>
@@ -8014,8 +8014,8 @@
       <c r="T47" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U47" s="18" t="s">
-        <v>58</v>
+      <c r="U47" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V47" s="18" t="n">
         <v>0</v>
@@ -8172,106 +8172,106 @@
         <v>0</v>
       </c>
       <c r="U48" s="20" t="n">
-        <v>0</v>
+        <v>12443</v>
       </c>
       <c r="V48" s="20" t="n">
-        <v>12443</v>
+        <v>10990</v>
       </c>
       <c r="W48" s="20" t="n">
-        <v>10990</v>
+        <v>10759</v>
       </c>
       <c r="X48" s="20" t="n">
-        <v>10759</v>
+        <v>10986</v>
       </c>
       <c r="Y48" s="20" t="n">
-        <v>10986</v>
+        <v>12131</v>
       </c>
       <c r="Z48" s="20" t="n">
-        <v>12131</v>
+        <v>14443</v>
       </c>
       <c r="AA48" s="20" t="n">
-        <v>14443</v>
+        <v>16956</v>
       </c>
       <c r="AB48" s="20" t="n">
-        <v>16956</v>
+        <v>15552</v>
       </c>
       <c r="AC48" s="20" t="n">
-        <v>15552</v>
+        <v>14484</v>
       </c>
       <c r="AD48" s="20" t="n">
-        <v>14484</v>
+        <v>5427</v>
       </c>
       <c r="AE48" s="20" t="n">
-        <v>5427</v>
+        <v>8618</v>
       </c>
       <c r="AF48" s="20" t="n">
-        <v>8618</v>
+        <v>8629</v>
       </c>
       <c r="AG48" s="20" t="n">
-        <v>8629</v>
+        <v>14315</v>
       </c>
       <c r="AH48" s="20" t="n">
-        <v>14315</v>
+        <v>11781</v>
       </c>
       <c r="AI48" s="20" t="n">
-        <v>11781</v>
+        <v>14102</v>
       </c>
       <c r="AJ48" s="20" t="n">
-        <v>14102</v>
+        <v>9818</v>
       </c>
       <c r="AK48" s="20" t="n">
-        <v>9818</v>
+        <v>12009</v>
       </c>
       <c r="AL48" s="20" t="n">
-        <v>12009</v>
+        <v>9585</v>
       </c>
       <c r="AM48" s="20" t="n">
-        <v>9585</v>
+        <v>11803</v>
       </c>
       <c r="AN48" s="20" t="n">
-        <v>11803</v>
+        <v>14013</v>
       </c>
       <c r="AO48" s="20" t="n">
-        <v>14013</v>
+        <v>15318</v>
       </c>
       <c r="AP48" s="20" t="n">
-        <v>15318</v>
+        <v>5551</v>
       </c>
       <c r="AQ48" s="20" t="n">
-        <v>5551</v>
+        <v>10255</v>
       </c>
       <c r="AR48" s="20" t="n">
-        <v>10255</v>
+        <v>11454</v>
       </c>
       <c r="AS48" s="20" t="n">
-        <v>11454</v>
+        <v>13449</v>
       </c>
       <c r="AT48" s="20" t="n">
-        <v>13449</v>
+        <v>14754</v>
       </c>
       <c r="AU48" s="20" t="n">
-        <v>14754</v>
+        <v>13904</v>
       </c>
       <c r="AV48" s="20" t="n">
-        <v>13904</v>
+        <v>11901</v>
       </c>
       <c r="AW48" s="20" t="n">
-        <v>11901</v>
+        <v>15537</v>
       </c>
       <c r="AX48" s="20" t="n">
-        <v>15537</v>
+        <v>14596</v>
       </c>
       <c r="AY48" s="20" t="n">
-        <v>14596</v>
+        <v>17586</v>
       </c>
       <c r="AZ48" s="20" t="n">
-        <v>17586</v>
+        <v>22452</v>
       </c>
       <c r="BA48" s="20" t="n">
-        <v>22452</v>
+        <v>16590</v>
       </c>
       <c r="BB48" s="20" t="n">
-        <v>16590</v>
+        <v>9127</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8791,8 +8791,8 @@
       <c r="AC55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD55" s="13" t="s">
-        <v>58</v>
+      <c r="AD55" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AE55" s="13" t="n">
         <v>0</v>
@@ -8827,8 +8827,8 @@
       <c r="AO55" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP55" s="13" t="n">
-        <v>0</v>
+      <c r="AP55" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ55" s="13" t="s">
         <v>58</v>
@@ -8923,107 +8923,107 @@
       <c r="T56" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U56" s="16" t="s">
-        <v>58</v>
+      <c r="U56" s="16" t="n">
+        <v>616646</v>
       </c>
       <c r="V56" s="16" t="n">
-        <v>616646</v>
+        <v>599851</v>
       </c>
       <c r="W56" s="16" t="n">
-        <v>599851</v>
+        <v>539514</v>
       </c>
       <c r="X56" s="16" t="n">
-        <v>539514</v>
+        <v>535115</v>
       </c>
       <c r="Y56" s="16" t="n">
-        <v>535115</v>
+        <v>762474</v>
       </c>
       <c r="Z56" s="16" t="n">
-        <v>762474</v>
+        <v>931426</v>
       </c>
       <c r="AA56" s="16" t="n">
-        <v>931426</v>
+        <v>1210523</v>
       </c>
       <c r="AB56" s="16" t="n">
-        <v>1210523</v>
+        <v>792902</v>
       </c>
       <c r="AC56" s="16" t="n">
-        <v>792902</v>
+        <v>859086</v>
       </c>
       <c r="AD56" s="16" t="n">
-        <v>859086</v>
+        <v>232727</v>
       </c>
       <c r="AE56" s="16" t="n">
-        <v>232727</v>
+        <v>638333</v>
       </c>
       <c r="AF56" s="16" t="n">
-        <v>638333</v>
+        <v>599912</v>
       </c>
       <c r="AG56" s="16" t="n">
-        <v>599912</v>
+        <v>1086802</v>
       </c>
       <c r="AH56" s="16" t="n">
-        <v>1086802</v>
+        <v>963842</v>
       </c>
       <c r="AI56" s="16" t="n">
-        <v>963842</v>
+        <v>1185274</v>
       </c>
       <c r="AJ56" s="16" t="n">
-        <v>1185274</v>
+        <v>694052</v>
       </c>
       <c r="AK56" s="16" t="n">
-        <v>694052</v>
+        <v>873969</v>
       </c>
       <c r="AL56" s="16" t="n">
-        <v>873969</v>
+        <v>619276</v>
       </c>
       <c r="AM56" s="16" t="n">
-        <v>619276</v>
+        <v>856651</v>
       </c>
       <c r="AN56" s="16" t="n">
-        <v>856651</v>
+        <v>878466</v>
       </c>
       <c r="AO56" s="16" t="n">
-        <v>878466</v>
+        <v>1000199</v>
       </c>
       <c r="AP56" s="16" t="n">
-        <v>1000199</v>
+        <v>398941</v>
       </c>
       <c r="AQ56" s="16" t="n">
-        <v>398941</v>
+        <v>744596</v>
       </c>
       <c r="AR56" s="16" t="n">
-        <v>744596</v>
+        <v>1099057</v>
       </c>
       <c r="AS56" s="16" t="n">
-        <v>1099057</v>
+        <v>1141676</v>
       </c>
       <c r="AT56" s="16" t="n">
-        <v>1141676</v>
+        <v>1278262</v>
       </c>
       <c r="AU56" s="16" t="n">
-        <v>1278262</v>
+        <v>1213104</v>
       </c>
       <c r="AV56" s="16" t="n">
-        <v>1213104</v>
+        <v>1080945</v>
       </c>
       <c r="AW56" s="16" t="n">
-        <v>1080945</v>
+        <v>1430834</v>
       </c>
       <c r="AX56" s="16" t="n">
-        <v>1430834</v>
+        <v>1264780</v>
       </c>
       <c r="AY56" s="16" t="n">
-        <v>1264780</v>
+        <v>1515421</v>
       </c>
       <c r="AZ56" s="16" t="n">
-        <v>1515421</v>
+        <v>1809042</v>
       </c>
       <c r="BA56" s="16" t="n">
-        <v>1809042</v>
+        <v>1205699</v>
       </c>
       <c r="BB56" s="16" t="n">
-        <v>1205699</v>
+        <v>871527</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9082,107 +9082,107 @@
       <c r="T57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U57" s="13" t="s">
-        <v>58</v>
+      <c r="U57" s="13" t="n">
+        <v>392359</v>
       </c>
       <c r="V57" s="13" t="n">
-        <v>392359</v>
+        <v>369450</v>
       </c>
       <c r="W57" s="13" t="n">
-        <v>369450</v>
+        <v>517319</v>
       </c>
       <c r="X57" s="13" t="n">
-        <v>517319</v>
+        <v>489695</v>
       </c>
       <c r="Y57" s="13" t="n">
-        <v>489695</v>
+        <v>676661</v>
       </c>
       <c r="Z57" s="13" t="n">
-        <v>676661</v>
+        <v>698396</v>
       </c>
       <c r="AA57" s="13" t="n">
-        <v>698396</v>
+        <v>837746</v>
       </c>
       <c r="AB57" s="13" t="n">
-        <v>837746</v>
+        <v>760151</v>
       </c>
       <c r="AC57" s="13" t="n">
-        <v>760151</v>
+        <v>816710</v>
       </c>
       <c r="AD57" s="13" t="n">
-        <v>816710</v>
+        <v>311136</v>
       </c>
       <c r="AE57" s="13" t="n">
-        <v>311136</v>
+        <v>359496</v>
       </c>
       <c r="AF57" s="13" t="n">
-        <v>359496</v>
+        <v>427359</v>
       </c>
       <c r="AG57" s="13" t="n">
-        <v>427359</v>
+        <v>847067</v>
       </c>
       <c r="AH57" s="13" t="n">
-        <v>847067</v>
+        <v>797931</v>
       </c>
       <c r="AI57" s="13" t="n">
-        <v>797931</v>
+        <v>818224</v>
       </c>
       <c r="AJ57" s="13" t="n">
-        <v>818224</v>
+        <v>555686</v>
       </c>
       <c r="AK57" s="13" t="n">
-        <v>555686</v>
+        <v>819305</v>
       </c>
       <c r="AL57" s="13" t="n">
-        <v>819305</v>
+        <v>673372</v>
       </c>
       <c r="AM57" s="13" t="n">
-        <v>673372</v>
+        <v>689735</v>
       </c>
       <c r="AN57" s="13" t="n">
-        <v>689735</v>
+        <v>877278</v>
       </c>
       <c r="AO57" s="13" t="n">
-        <v>877278</v>
+        <v>984707</v>
       </c>
       <c r="AP57" s="13" t="n">
-        <v>984707</v>
+        <v>446848</v>
       </c>
       <c r="AQ57" s="13" t="n">
-        <v>446848</v>
+        <v>791817</v>
       </c>
       <c r="AR57" s="13" t="n">
-        <v>791817</v>
+        <v>916710</v>
       </c>
       <c r="AS57" s="13" t="n">
-        <v>916710</v>
+        <v>1394519</v>
       </c>
       <c r="AT57" s="13" t="n">
-        <v>1394519</v>
+        <v>1472106</v>
       </c>
       <c r="AU57" s="13" t="n">
-        <v>1472106</v>
+        <v>1162021</v>
       </c>
       <c r="AV57" s="13" t="n">
-        <v>1162021</v>
+        <v>1157839</v>
       </c>
       <c r="AW57" s="13" t="n">
-        <v>1157839</v>
+        <v>1626537</v>
       </c>
       <c r="AX57" s="13" t="n">
-        <v>1626537</v>
+        <v>1506714</v>
       </c>
       <c r="AY57" s="13" t="n">
-        <v>1506714</v>
+        <v>1790087</v>
       </c>
       <c r="AZ57" s="13" t="n">
-        <v>1790087</v>
+        <v>1831556</v>
       </c>
       <c r="BA57" s="13" t="n">
-        <v>1831556</v>
+        <v>1429335</v>
       </c>
       <c r="BB57" s="13" t="n">
-        <v>1429335</v>
+        <v>997405</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9241,107 +9241,107 @@
       <c r="T58" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U58" s="16" t="s">
-        <v>58</v>
+      <c r="U58" s="16" t="n">
+        <v>309560</v>
       </c>
       <c r="V58" s="16" t="n">
-        <v>309560</v>
+        <v>190654</v>
       </c>
       <c r="W58" s="16" t="n">
-        <v>190654</v>
+        <v>200646</v>
       </c>
       <c r="X58" s="16" t="n">
-        <v>200646</v>
+        <v>216550</v>
       </c>
       <c r="Y58" s="16" t="n">
-        <v>216550</v>
+        <v>272077</v>
       </c>
       <c r="Z58" s="16" t="n">
-        <v>272077</v>
+        <v>391506</v>
       </c>
       <c r="AA58" s="16" t="n">
-        <v>391506</v>
+        <v>471571</v>
       </c>
       <c r="AB58" s="16" t="n">
-        <v>471571</v>
+        <v>581794</v>
       </c>
       <c r="AC58" s="16" t="n">
-        <v>581794</v>
+        <v>471337</v>
       </c>
       <c r="AD58" s="16" t="n">
-        <v>471337</v>
+        <v>224718</v>
       </c>
       <c r="AE58" s="16" t="n">
-        <v>224718</v>
+        <v>304049</v>
       </c>
       <c r="AF58" s="16" t="n">
-        <v>304049</v>
+        <v>320928</v>
       </c>
       <c r="AG58" s="16" t="n">
-        <v>320928</v>
+        <v>510603</v>
       </c>
       <c r="AH58" s="16" t="n">
-        <v>510603</v>
+        <v>470813</v>
       </c>
       <c r="AI58" s="16" t="n">
-        <v>470813</v>
+        <v>719251</v>
       </c>
       <c r="AJ58" s="16" t="n">
-        <v>719251</v>
+        <v>434340</v>
       </c>
       <c r="AK58" s="16" t="n">
-        <v>434340</v>
+        <v>438896</v>
       </c>
       <c r="AL58" s="16" t="n">
-        <v>438896</v>
+        <v>363204</v>
       </c>
       <c r="AM58" s="16" t="n">
-        <v>363204</v>
+        <v>447217</v>
       </c>
       <c r="AN58" s="16" t="n">
-        <v>447217</v>
+        <v>552378</v>
       </c>
       <c r="AO58" s="16" t="n">
-        <v>552378</v>
+        <v>582195</v>
       </c>
       <c r="AP58" s="16" t="n">
-        <v>582195</v>
+        <v>239411</v>
       </c>
       <c r="AQ58" s="16" t="n">
-        <v>239411</v>
+        <v>461908</v>
       </c>
       <c r="AR58" s="16" t="n">
-        <v>461908</v>
+        <v>556739</v>
       </c>
       <c r="AS58" s="16" t="n">
-        <v>556739</v>
+        <v>587901</v>
       </c>
       <c r="AT58" s="16" t="n">
-        <v>587901</v>
+        <v>774201</v>
       </c>
       <c r="AU58" s="16" t="n">
-        <v>774201</v>
+        <v>602769</v>
       </c>
       <c r="AV58" s="16" t="n">
-        <v>602769</v>
+        <v>543359</v>
       </c>
       <c r="AW58" s="16" t="n">
-        <v>543359</v>
+        <v>762402</v>
       </c>
       <c r="AX58" s="16" t="n">
-        <v>762402</v>
+        <v>754831</v>
       </c>
       <c r="AY58" s="16" t="n">
-        <v>754831</v>
+        <v>860800</v>
       </c>
       <c r="AZ58" s="16" t="n">
-        <v>860800</v>
+        <v>1179600</v>
       </c>
       <c r="BA58" s="16" t="n">
-        <v>1179600</v>
+        <v>670383</v>
       </c>
       <c r="BB58" s="16" t="n">
-        <v>670383</v>
+        <v>410915</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9399,106 +9399,106 @@
         <v>0</v>
       </c>
       <c r="U59" s="18" t="n">
-        <v>0</v>
+        <v>1318565</v>
       </c>
       <c r="V59" s="18" t="n">
-        <v>1318565</v>
+        <v>1159955</v>
       </c>
       <c r="W59" s="18" t="n">
-        <v>1159955</v>
+        <v>1257479</v>
       </c>
       <c r="X59" s="18" t="n">
-        <v>1257479</v>
+        <v>1241360</v>
       </c>
       <c r="Y59" s="18" t="n">
-        <v>1241360</v>
+        <v>1711212</v>
       </c>
       <c r="Z59" s="18" t="n">
-        <v>1711212</v>
+        <v>2021328</v>
       </c>
       <c r="AA59" s="18" t="n">
-        <v>2021328</v>
+        <v>2519840</v>
       </c>
       <c r="AB59" s="18" t="n">
-        <v>2519840</v>
+        <v>2134847</v>
       </c>
       <c r="AC59" s="18" t="n">
-        <v>2134847</v>
+        <v>2147133</v>
       </c>
       <c r="AD59" s="18" t="n">
-        <v>2147133</v>
+        <v>768581</v>
       </c>
       <c r="AE59" s="18" t="n">
-        <v>768581</v>
+        <v>1301878</v>
       </c>
       <c r="AF59" s="18" t="n">
-        <v>1301878</v>
+        <v>1348199</v>
       </c>
       <c r="AG59" s="18" t="n">
-        <v>1348199</v>
+        <v>2444472</v>
       </c>
       <c r="AH59" s="18" t="n">
-        <v>2444472</v>
+        <v>2232586</v>
       </c>
       <c r="AI59" s="18" t="n">
-        <v>2232586</v>
+        <v>2722749</v>
       </c>
       <c r="AJ59" s="18" t="n">
-        <v>2722749</v>
+        <v>1684078</v>
       </c>
       <c r="AK59" s="18" t="n">
-        <v>1684078</v>
+        <v>2132170</v>
       </c>
       <c r="AL59" s="18" t="n">
-        <v>2132170</v>
+        <v>1655852</v>
       </c>
       <c r="AM59" s="18" t="n">
-        <v>1655852</v>
+        <v>1993603</v>
       </c>
       <c r="AN59" s="18" t="n">
-        <v>1993603</v>
+        <v>2308122</v>
       </c>
       <c r="AO59" s="18" t="n">
-        <v>2308122</v>
+        <v>2567101</v>
       </c>
       <c r="AP59" s="18" t="n">
-        <v>2567101</v>
+        <v>1085200</v>
       </c>
       <c r="AQ59" s="18" t="n">
-        <v>1085200</v>
+        <v>1998321</v>
       </c>
       <c r="AR59" s="18" t="n">
-        <v>1998321</v>
+        <v>2572506</v>
       </c>
       <c r="AS59" s="18" t="n">
-        <v>2572506</v>
+        <v>3124096</v>
       </c>
       <c r="AT59" s="18" t="n">
-        <v>3124096</v>
+        <v>3524569</v>
       </c>
       <c r="AU59" s="18" t="n">
-        <v>3524569</v>
+        <v>2977894</v>
       </c>
       <c r="AV59" s="18" t="n">
-        <v>2977894</v>
+        <v>2782143</v>
       </c>
       <c r="AW59" s="18" t="n">
-        <v>2782143</v>
+        <v>3819773</v>
       </c>
       <c r="AX59" s="18" t="n">
-        <v>3819773</v>
+        <v>3526325</v>
       </c>
       <c r="AY59" s="18" t="n">
-        <v>3526325</v>
+        <v>4166308</v>
       </c>
       <c r="AZ59" s="18" t="n">
-        <v>4166308</v>
+        <v>4820198</v>
       </c>
       <c r="BA59" s="18" t="n">
-        <v>4820198</v>
+        <v>3305417</v>
       </c>
       <c r="BB59" s="18" t="n">
-        <v>3305417</v>
+        <v>2279847</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9641,8 +9641,8 @@
       <c r="AC61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD61" s="13" t="s">
-        <v>58</v>
+      <c r="AD61" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AE61" s="13" t="n">
         <v>0</v>
@@ -9677,8 +9677,8 @@
       <c r="AO61" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP61" s="13" t="n">
-        <v>0</v>
+      <c r="AP61" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ61" s="13" t="s">
         <v>58</v>
@@ -9773,11 +9773,11 @@
       <c r="T62" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U62" s="16" t="s">
-        <v>58</v>
+      <c r="U62" s="16" t="n">
+        <v>1551</v>
       </c>
       <c r="V62" s="16" t="n">
-        <v>1551</v>
+        <v>0</v>
       </c>
       <c r="W62" s="16" t="n">
         <v>0</v>
@@ -9789,91 +9789,91 @@
         <v>0</v>
       </c>
       <c r="Z62" s="16" t="n">
-        <v>0</v>
+        <v>3067</v>
       </c>
       <c r="AA62" s="16" t="n">
-        <v>3067</v>
+        <v>0</v>
       </c>
       <c r="AB62" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AC62" s="16" t="n">
-        <v>0</v>
+        <v>3395</v>
       </c>
       <c r="AD62" s="16" t="n">
-        <v>3395</v>
+        <v>1105</v>
       </c>
       <c r="AE62" s="16" t="n">
-        <v>1105</v>
+        <v>0</v>
       </c>
       <c r="AF62" s="16" t="n">
-        <v>0</v>
+        <v>828</v>
       </c>
       <c r="AG62" s="16" t="n">
-        <v>828</v>
+        <v>1528</v>
       </c>
       <c r="AH62" s="16" t="n">
-        <v>1528</v>
+        <v>1403</v>
       </c>
       <c r="AI62" s="16" t="n">
-        <v>1403</v>
+        <v>7873</v>
       </c>
       <c r="AJ62" s="16" t="n">
-        <v>7873</v>
+        <v>950</v>
       </c>
       <c r="AK62" s="16" t="n">
-        <v>950</v>
+        <v>5626</v>
       </c>
       <c r="AL62" s="16" t="n">
-        <v>5626</v>
+        <v>10433</v>
       </c>
       <c r="AM62" s="16" t="n">
-        <v>10433</v>
+        <v>3364</v>
       </c>
       <c r="AN62" s="16" t="n">
-        <v>3364</v>
+        <v>5220</v>
       </c>
       <c r="AO62" s="16" t="n">
-        <v>5220</v>
+        <v>15188</v>
       </c>
       <c r="AP62" s="16" t="n">
-        <v>15188</v>
+        <v>1562</v>
       </c>
       <c r="AQ62" s="16" t="n">
-        <v>1562</v>
+        <v>2366</v>
       </c>
       <c r="AR62" s="16" t="n">
-        <v>2366</v>
+        <v>5738</v>
       </c>
       <c r="AS62" s="16" t="n">
-        <v>5738</v>
+        <v>49254</v>
       </c>
       <c r="AT62" s="16" t="n">
-        <v>49254</v>
+        <v>22354</v>
       </c>
       <c r="AU62" s="16" t="n">
-        <v>22354</v>
+        <v>12742</v>
       </c>
       <c r="AV62" s="16" t="n">
-        <v>12742</v>
+        <v>4940</v>
       </c>
       <c r="AW62" s="16" t="n">
-        <v>4940</v>
+        <v>3225</v>
       </c>
       <c r="AX62" s="16" t="n">
-        <v>3225</v>
+        <v>29139</v>
       </c>
       <c r="AY62" s="16" t="n">
-        <v>29139</v>
+        <v>1349</v>
       </c>
       <c r="AZ62" s="16" t="n">
-        <v>1349</v>
+        <v>28522</v>
       </c>
       <c r="BA62" s="16" t="n">
-        <v>28522</v>
+        <v>71744</v>
       </c>
       <c r="BB62" s="16" t="n">
-        <v>71744</v>
+        <v>18141</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9932,11 +9932,11 @@
       <c r="T63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U63" s="13" t="s">
-        <v>58</v>
+      <c r="U63" s="13" t="n">
+        <v>628</v>
       </c>
       <c r="V63" s="13" t="n">
-        <v>628</v>
+        <v>0</v>
       </c>
       <c r="W63" s="13" t="n">
         <v>0</v>
@@ -9948,91 +9948,91 @@
         <v>0</v>
       </c>
       <c r="Z63" s="13" t="n">
-        <v>0</v>
+        <v>3433</v>
       </c>
       <c r="AA63" s="13" t="n">
-        <v>3433</v>
+        <v>0</v>
       </c>
       <c r="AB63" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AC63" s="13" t="n">
-        <v>0</v>
+        <v>1257</v>
       </c>
       <c r="AD63" s="13" t="n">
-        <v>1257</v>
+        <v>710</v>
       </c>
       <c r="AE63" s="13" t="n">
-        <v>710</v>
+        <v>0</v>
       </c>
       <c r="AF63" s="13" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="AG63" s="13" t="n">
-        <v>1500</v>
+        <v>4562</v>
       </c>
       <c r="AH63" s="13" t="n">
-        <v>4562</v>
+        <v>1303</v>
       </c>
       <c r="AI63" s="13" t="n">
-        <v>1303</v>
+        <v>4360</v>
       </c>
       <c r="AJ63" s="13" t="n">
-        <v>4360</v>
+        <v>2555</v>
       </c>
       <c r="AK63" s="13" t="n">
-        <v>2555</v>
+        <v>7376</v>
       </c>
       <c r="AL63" s="13" t="n">
-        <v>7376</v>
+        <v>34829</v>
       </c>
       <c r="AM63" s="13" t="n">
-        <v>34829</v>
+        <v>19055</v>
       </c>
       <c r="AN63" s="13" t="n">
-        <v>19055</v>
+        <v>9777</v>
       </c>
       <c r="AO63" s="13" t="n">
-        <v>9777</v>
+        <v>34940</v>
       </c>
       <c r="AP63" s="13" t="n">
-        <v>34940</v>
+        <v>1311</v>
       </c>
       <c r="AQ63" s="13" t="n">
-        <v>1311</v>
+        <v>8424</v>
       </c>
       <c r="AR63" s="13" t="n">
-        <v>8424</v>
+        <v>36915</v>
       </c>
       <c r="AS63" s="13" t="n">
-        <v>36915</v>
+        <v>31178</v>
       </c>
       <c r="AT63" s="13" t="n">
-        <v>31178</v>
+        <v>10651</v>
       </c>
       <c r="AU63" s="13" t="n">
-        <v>10651</v>
+        <v>27367</v>
       </c>
       <c r="AV63" s="13" t="n">
-        <v>27367</v>
+        <v>18963</v>
       </c>
       <c r="AW63" s="13" t="n">
-        <v>18963</v>
+        <v>37581</v>
       </c>
       <c r="AX63" s="13" t="n">
-        <v>37581</v>
+        <v>17369</v>
       </c>
       <c r="AY63" s="13" t="n">
-        <v>17369</v>
+        <v>83423</v>
       </c>
       <c r="AZ63" s="13" t="n">
-        <v>83423</v>
+        <v>279619</v>
       </c>
       <c r="BA63" s="13" t="n">
-        <v>279619</v>
+        <v>292562</v>
       </c>
       <c r="BB63" s="13" t="n">
-        <v>292562</v>
+        <v>53531</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10091,11 +10091,11 @@
       <c r="T64" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U64" s="16" t="s">
-        <v>58</v>
+      <c r="U64" s="16" t="n">
+        <v>1307</v>
       </c>
       <c r="V64" s="16" t="n">
-        <v>1307</v>
+        <v>0</v>
       </c>
       <c r="W64" s="16" t="n">
         <v>0</v>
@@ -10107,91 +10107,91 @@
         <v>0</v>
       </c>
       <c r="Z64" s="16" t="n">
-        <v>0</v>
+        <v>7021</v>
       </c>
       <c r="AA64" s="16" t="n">
-        <v>7021</v>
+        <v>0</v>
       </c>
       <c r="AB64" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AC64" s="16" t="n">
-        <v>0</v>
+        <v>3342</v>
       </c>
       <c r="AD64" s="16" t="n">
-        <v>3342</v>
+        <v>667</v>
       </c>
       <c r="AE64" s="16" t="n">
-        <v>667</v>
+        <v>0</v>
       </c>
       <c r="AF64" s="16" t="n">
-        <v>0</v>
+        <v>1052</v>
       </c>
       <c r="AG64" s="16" t="n">
-        <v>1052</v>
+        <v>439</v>
       </c>
       <c r="AH64" s="16" t="n">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="AI64" s="16" t="n">
-        <v>462</v>
+        <v>2102</v>
       </c>
       <c r="AJ64" s="16" t="n">
-        <v>2102</v>
+        <v>363</v>
       </c>
       <c r="AK64" s="16" t="n">
-        <v>363</v>
+        <v>5206</v>
       </c>
       <c r="AL64" s="16" t="n">
-        <v>5206</v>
+        <v>1489</v>
       </c>
       <c r="AM64" s="16" t="n">
-        <v>1489</v>
+        <v>3002</v>
       </c>
       <c r="AN64" s="16" t="n">
-        <v>3002</v>
+        <v>3222</v>
       </c>
       <c r="AO64" s="16" t="n">
-        <v>3222</v>
+        <v>8233</v>
       </c>
       <c r="AP64" s="16" t="n">
-        <v>8233</v>
+        <v>1631</v>
       </c>
       <c r="AQ64" s="16" t="n">
-        <v>1631</v>
+        <v>1815</v>
       </c>
       <c r="AR64" s="16" t="n">
-        <v>1815</v>
+        <v>0</v>
       </c>
       <c r="AS64" s="16" t="n">
-        <v>0</v>
+        <v>16185</v>
       </c>
       <c r="AT64" s="16" t="n">
-        <v>16185</v>
+        <v>6785</v>
       </c>
       <c r="AU64" s="16" t="n">
-        <v>6785</v>
+        <v>11181</v>
       </c>
       <c r="AV64" s="16" t="n">
-        <v>11181</v>
+        <v>8910</v>
       </c>
       <c r="AW64" s="16" t="n">
-        <v>8910</v>
+        <v>16705</v>
       </c>
       <c r="AX64" s="16" t="n">
-        <v>16705</v>
+        <v>8185</v>
       </c>
       <c r="AY64" s="16" t="n">
-        <v>8185</v>
+        <v>5246</v>
       </c>
       <c r="AZ64" s="16" t="n">
-        <v>5246</v>
+        <v>16213</v>
       </c>
       <c r="BA64" s="16" t="n">
-        <v>16213</v>
+        <v>55336</v>
       </c>
       <c r="BB64" s="16" t="n">
-        <v>55336</v>
+        <v>10880</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10249,10 +10249,10 @@
         <v>0</v>
       </c>
       <c r="U65" s="18" t="n">
-        <v>0</v>
+        <v>3486</v>
       </c>
       <c r="V65" s="18" t="n">
-        <v>3486</v>
+        <v>0</v>
       </c>
       <c r="W65" s="18" t="n">
         <v>0</v>
@@ -10264,91 +10264,91 @@
         <v>0</v>
       </c>
       <c r="Z65" s="18" t="n">
-        <v>0</v>
+        <v>13521</v>
       </c>
       <c r="AA65" s="18" t="n">
-        <v>13521</v>
+        <v>0</v>
       </c>
       <c r="AB65" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AC65" s="18" t="n">
-        <v>0</v>
+        <v>7994</v>
       </c>
       <c r="AD65" s="18" t="n">
-        <v>7994</v>
+        <v>2482</v>
       </c>
       <c r="AE65" s="18" t="n">
-        <v>2482</v>
+        <v>0</v>
       </c>
       <c r="AF65" s="18" t="n">
-        <v>0</v>
+        <v>3380</v>
       </c>
       <c r="AG65" s="18" t="n">
-        <v>3380</v>
+        <v>6529</v>
       </c>
       <c r="AH65" s="18" t="n">
-        <v>6529</v>
+        <v>3168</v>
       </c>
       <c r="AI65" s="18" t="n">
-        <v>3168</v>
+        <v>14335</v>
       </c>
       <c r="AJ65" s="18" t="n">
-        <v>14335</v>
+        <v>3868</v>
       </c>
       <c r="AK65" s="18" t="n">
-        <v>3868</v>
+        <v>18208</v>
       </c>
       <c r="AL65" s="18" t="n">
-        <v>18208</v>
+        <v>46751</v>
       </c>
       <c r="AM65" s="18" t="n">
-        <v>46751</v>
+        <v>25421</v>
       </c>
       <c r="AN65" s="18" t="n">
-        <v>25421</v>
+        <v>18219</v>
       </c>
       <c r="AO65" s="18" t="n">
-        <v>18219</v>
+        <v>58361</v>
       </c>
       <c r="AP65" s="18" t="n">
-        <v>58361</v>
+        <v>4504</v>
       </c>
       <c r="AQ65" s="18" t="n">
-        <v>4504</v>
+        <v>12605</v>
       </c>
       <c r="AR65" s="18" t="n">
-        <v>12605</v>
+        <v>42653</v>
       </c>
       <c r="AS65" s="18" t="n">
-        <v>42653</v>
+        <v>96617</v>
       </c>
       <c r="AT65" s="18" t="n">
-        <v>96617</v>
+        <v>39790</v>
       </c>
       <c r="AU65" s="18" t="n">
-        <v>39790</v>
+        <v>51290</v>
       </c>
       <c r="AV65" s="18" t="n">
-        <v>51290</v>
+        <v>32813</v>
       </c>
       <c r="AW65" s="18" t="n">
-        <v>32813</v>
+        <v>57511</v>
       </c>
       <c r="AX65" s="18" t="n">
-        <v>57511</v>
+        <v>54693</v>
       </c>
       <c r="AY65" s="18" t="n">
-        <v>54693</v>
+        <v>90018</v>
       </c>
       <c r="AZ65" s="18" t="n">
-        <v>90018</v>
+        <v>324354</v>
       </c>
       <c r="BA65" s="18" t="n">
-        <v>324354</v>
+        <v>419642</v>
       </c>
       <c r="BB65" s="18" t="n">
-        <v>419642</v>
+        <v>82552</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10497,74 +10497,74 @@
       <c r="AE67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF67" s="13" t="s">
-        <v>58</v>
+      <c r="AF67" s="13" t="n">
+        <v>6789</v>
       </c>
       <c r="AG67" s="13" t="n">
-        <v>6789</v>
+        <v>0</v>
       </c>
       <c r="AH67" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AI67" s="13" t="n">
-        <v>0</v>
+        <v>5565</v>
       </c>
       <c r="AJ67" s="13" t="n">
-        <v>5565</v>
+        <v>2306</v>
       </c>
       <c r="AK67" s="13" t="n">
-        <v>2306</v>
+        <v>1518</v>
       </c>
       <c r="AL67" s="13" t="n">
-        <v>1518</v>
+        <v>19527</v>
       </c>
       <c r="AM67" s="13" t="n">
-        <v>19527</v>
+        <v>5089</v>
       </c>
       <c r="AN67" s="13" t="n">
-        <v>5089</v>
+        <v>1558</v>
       </c>
       <c r="AO67" s="13" t="n">
-        <v>1558</v>
+        <v>1839</v>
       </c>
       <c r="AP67" s="13" t="n">
-        <v>1839</v>
+        <v>1485</v>
       </c>
       <c r="AQ67" s="13" t="n">
-        <v>1485</v>
+        <v>8779</v>
       </c>
       <c r="AR67" s="13" t="n">
-        <v>8779</v>
+        <v>4375</v>
       </c>
       <c r="AS67" s="13" t="n">
-        <v>4375</v>
+        <v>9332</v>
       </c>
       <c r="AT67" s="13" t="n">
-        <v>9332</v>
+        <v>8864</v>
       </c>
       <c r="AU67" s="13" t="n">
-        <v>8864</v>
+        <v>7404</v>
       </c>
       <c r="AV67" s="13" t="n">
-        <v>7404</v>
+        <v>7218</v>
       </c>
       <c r="AW67" s="13" t="n">
-        <v>7218</v>
+        <v>966</v>
       </c>
       <c r="AX67" s="13" t="n">
-        <v>966</v>
+        <v>3723</v>
       </c>
       <c r="AY67" s="13" t="n">
-        <v>3723</v>
+        <v>4371</v>
       </c>
       <c r="AZ67" s="13" t="n">
-        <v>4371</v>
+        <v>1868</v>
       </c>
       <c r="BA67" s="13" t="n">
-        <v>1868</v>
+        <v>6831</v>
       </c>
       <c r="BB67" s="13" t="n">
-        <v>6831</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10623,8 +10623,8 @@
       <c r="T68" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U68" s="20" t="s">
-        <v>58</v>
+      <c r="U68" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V68" s="23" t="n">
         <v>0</v>
@@ -10657,73 +10657,73 @@
         <v>0</v>
       </c>
       <c r="AF68" s="23" t="n">
-        <v>0</v>
+        <v>6789</v>
       </c>
       <c r="AG68" s="23" t="n">
-        <v>6789</v>
+        <v>0</v>
       </c>
       <c r="AH68" s="23" t="n">
         <v>0</v>
       </c>
       <c r="AI68" s="23" t="n">
-        <v>0</v>
+        <v>5565</v>
       </c>
       <c r="AJ68" s="23" t="n">
-        <v>5565</v>
+        <v>2306</v>
       </c>
       <c r="AK68" s="23" t="n">
-        <v>2306</v>
+        <v>1518</v>
       </c>
       <c r="AL68" s="23" t="n">
-        <v>1518</v>
+        <v>19527</v>
       </c>
       <c r="AM68" s="23" t="n">
-        <v>19527</v>
+        <v>5089</v>
       </c>
       <c r="AN68" s="23" t="n">
-        <v>5089</v>
+        <v>1558</v>
       </c>
       <c r="AO68" s="23" t="n">
-        <v>1558</v>
+        <v>1839</v>
       </c>
       <c r="AP68" s="23" t="n">
-        <v>1839</v>
+        <v>1485</v>
       </c>
       <c r="AQ68" s="23" t="n">
-        <v>1485</v>
+        <v>8779</v>
       </c>
       <c r="AR68" s="23" t="n">
-        <v>8779</v>
+        <v>4375</v>
       </c>
       <c r="AS68" s="23" t="n">
-        <v>4375</v>
+        <v>9332</v>
       </c>
       <c r="AT68" s="23" t="n">
-        <v>9332</v>
+        <v>8864</v>
       </c>
       <c r="AU68" s="23" t="n">
-        <v>8864</v>
+        <v>7404</v>
       </c>
       <c r="AV68" s="23" t="n">
-        <v>7404</v>
+        <v>7218</v>
       </c>
       <c r="AW68" s="23" t="n">
-        <v>7218</v>
+        <v>966</v>
       </c>
       <c r="AX68" s="23" t="n">
-        <v>966</v>
+        <v>3723</v>
       </c>
       <c r="AY68" s="23" t="n">
-        <v>3723</v>
+        <v>4371</v>
       </c>
       <c r="AZ68" s="23" t="n">
-        <v>4371</v>
+        <v>1868</v>
       </c>
       <c r="BA68" s="23" t="n">
-        <v>1868</v>
+        <v>6831</v>
       </c>
       <c r="BB68" s="23" t="n">
-        <v>6831</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10839,8 +10839,8 @@
       <c r="T70" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U70" s="18" t="s">
-        <v>58</v>
+      <c r="U70" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="V70" s="24" t="n">
         <v>0</v>
@@ -11055,8 +11055,8 @@
       <c r="T72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U72" s="13" t="s">
-        <v>58</v>
+      <c r="U72" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V72" s="13" t="n">
         <v>0</v>
@@ -11213,106 +11213,106 @@
         <v>0</v>
       </c>
       <c r="U73" s="23" t="n">
-        <v>0</v>
+        <v>1322051</v>
       </c>
       <c r="V73" s="23" t="n">
-        <v>1322051</v>
+        <v>1159955</v>
       </c>
       <c r="W73" s="23" t="n">
-        <v>1159955</v>
+        <v>1257479</v>
       </c>
       <c r="X73" s="23" t="n">
-        <v>1257479</v>
+        <v>1241360</v>
       </c>
       <c r="Y73" s="23" t="n">
-        <v>1241360</v>
+        <v>1711212</v>
       </c>
       <c r="Z73" s="23" t="n">
-        <v>1711212</v>
+        <v>2034849</v>
       </c>
       <c r="AA73" s="23" t="n">
-        <v>2034849</v>
+        <v>2519840</v>
       </c>
       <c r="AB73" s="23" t="n">
-        <v>2519840</v>
+        <v>2134847</v>
       </c>
       <c r="AC73" s="23" t="n">
-        <v>2134847</v>
+        <v>2155127</v>
       </c>
       <c r="AD73" s="23" t="n">
-        <v>2155127</v>
+        <v>771063</v>
       </c>
       <c r="AE73" s="23" t="n">
-        <v>771063</v>
+        <v>1301878</v>
       </c>
       <c r="AF73" s="23" t="n">
-        <v>1301878</v>
+        <v>1358368</v>
       </c>
       <c r="AG73" s="23" t="n">
-        <v>1358368</v>
+        <v>2451001</v>
       </c>
       <c r="AH73" s="23" t="n">
-        <v>2451001</v>
+        <v>2235754</v>
       </c>
       <c r="AI73" s="23" t="n">
-        <v>2235754</v>
+        <v>2742649</v>
       </c>
       <c r="AJ73" s="23" t="n">
-        <v>2742649</v>
+        <v>1690252</v>
       </c>
       <c r="AK73" s="23" t="n">
-        <v>1690252</v>
+        <v>2151896</v>
       </c>
       <c r="AL73" s="23" t="n">
-        <v>2151896</v>
+        <v>1722130</v>
       </c>
       <c r="AM73" s="23" t="n">
-        <v>1722130</v>
+        <v>2024113</v>
       </c>
       <c r="AN73" s="23" t="n">
-        <v>2024113</v>
+        <v>2327899</v>
       </c>
       <c r="AO73" s="23" t="n">
-        <v>2327899</v>
+        <v>2627301</v>
       </c>
       <c r="AP73" s="23" t="n">
-        <v>2627301</v>
+        <v>1091189</v>
       </c>
       <c r="AQ73" s="23" t="n">
-        <v>1091189</v>
+        <v>2019705</v>
       </c>
       <c r="AR73" s="23" t="n">
-        <v>2019705</v>
+        <v>2619534</v>
       </c>
       <c r="AS73" s="23" t="n">
-        <v>2619534</v>
+        <v>3230045</v>
       </c>
       <c r="AT73" s="23" t="n">
-        <v>3230045</v>
+        <v>3573223</v>
       </c>
       <c r="AU73" s="23" t="n">
-        <v>3573223</v>
+        <v>3036588</v>
       </c>
       <c r="AV73" s="23" t="n">
-        <v>3036588</v>
+        <v>2822174</v>
       </c>
       <c r="AW73" s="23" t="n">
-        <v>2822174</v>
+        <v>3878250</v>
       </c>
       <c r="AX73" s="23" t="n">
-        <v>3878250</v>
+        <v>3584741</v>
       </c>
       <c r="AY73" s="23" t="n">
-        <v>3584741</v>
+        <v>4260697</v>
       </c>
       <c r="AZ73" s="23" t="n">
-        <v>4260697</v>
+        <v>5146420</v>
       </c>
       <c r="BA73" s="23" t="n">
-        <v>5146420</v>
+        <v>3731890</v>
       </c>
       <c r="BB73" s="23" t="n">
-        <v>3731890</v>
+        <v>2364535</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11805,107 +11805,107 @@
       <c r="T80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U80" s="13" t="s">
-        <v>58</v>
+      <c r="U80" s="13" t="n">
+        <v>122642403</v>
       </c>
       <c r="V80" s="13" t="n">
-        <v>122642403</v>
+        <v>122995899</v>
       </c>
       <c r="W80" s="13" t="n">
-        <v>122995899</v>
+        <v>151676694</v>
       </c>
       <c r="X80" s="13" t="n">
-        <v>151676694</v>
+        <v>132914804</v>
       </c>
       <c r="Y80" s="13" t="n">
-        <v>132914804</v>
+        <v>158815663</v>
       </c>
       <c r="Z80" s="13" t="n">
-        <v>158815663</v>
+        <v>159928915</v>
       </c>
       <c r="AA80" s="13" t="n">
-        <v>159928915</v>
+        <v>176409647</v>
       </c>
       <c r="AB80" s="13" t="n">
-        <v>176409647</v>
+        <v>167668006</v>
       </c>
       <c r="AC80" s="13" t="n">
-        <v>167668006</v>
+        <v>172161523</v>
       </c>
       <c r="AD80" s="13" t="n">
-        <v>172161523</v>
+        <v>189981224</v>
       </c>
       <c r="AE80" s="13" t="n">
-        <v>189981224</v>
+        <v>198919601</v>
       </c>
       <c r="AF80" s="13" t="n">
-        <v>198919601</v>
+        <v>229061474</v>
       </c>
       <c r="AG80" s="13" t="n">
-        <v>229061474</v>
+        <v>219777958</v>
       </c>
       <c r="AH80" s="13" t="n">
-        <v>219777958</v>
+        <v>240359601</v>
       </c>
       <c r="AI80" s="13" t="n">
-        <v>240359601</v>
+        <v>258004789</v>
       </c>
       <c r="AJ80" s="13" t="n">
-        <v>258004789</v>
+        <v>242590703</v>
       </c>
       <c r="AK80" s="13" t="n">
-        <v>242590703</v>
+        <v>243242137</v>
       </c>
       <c r="AL80" s="13" t="n">
-        <v>243242137</v>
+        <v>259981528</v>
       </c>
       <c r="AM80" s="13" t="n">
-        <v>259981528</v>
+        <v>246589234</v>
       </c>
       <c r="AN80" s="13" t="n">
-        <v>246589234</v>
+        <v>221946943</v>
       </c>
       <c r="AO80" s="13" t="n">
-        <v>221946943</v>
+        <v>232064733</v>
       </c>
       <c r="AP80" s="13" t="n">
-        <v>232064733</v>
+        <v>277234885</v>
       </c>
       <c r="AQ80" s="13" t="n">
-        <v>277234885</v>
+        <v>270663759</v>
       </c>
       <c r="AR80" s="13" t="n">
-        <v>270663759</v>
+        <v>308377385</v>
       </c>
       <c r="AS80" s="13" t="n">
-        <v>308377385</v>
+        <v>331016527</v>
       </c>
       <c r="AT80" s="13" t="n">
-        <v>331016527</v>
+        <v>315854213</v>
       </c>
       <c r="AU80" s="13" t="n">
-        <v>315854213</v>
+        <v>306649141</v>
       </c>
       <c r="AV80" s="13" t="n">
-        <v>306649141</v>
+        <v>339173204</v>
       </c>
       <c r="AW80" s="13" t="n">
-        <v>339173204</v>
+        <v>355751865</v>
       </c>
       <c r="AX80" s="13" t="n">
-        <v>355751865</v>
+        <v>360438871</v>
       </c>
       <c r="AY80" s="13" t="n">
-        <v>360438871</v>
+        <v>331601969</v>
       </c>
       <c r="AZ80" s="13" t="n">
-        <v>331601969</v>
+        <v>321093717</v>
       </c>
       <c r="BA80" s="13" t="n">
-        <v>321093717</v>
+        <v>284295921</v>
       </c>
       <c r="BB80" s="13" t="n">
-        <v>284295921</v>
+        <v>340839656</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11964,107 +11964,107 @@
       <c r="T81" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U81" s="16" t="s">
-        <v>58</v>
+      <c r="U81" s="16" t="n">
+        <v>115399706</v>
       </c>
       <c r="V81" s="16" t="n">
-        <v>115399706</v>
+        <v>113922294</v>
       </c>
       <c r="W81" s="16" t="n">
-        <v>113922294</v>
+        <v>122009198</v>
       </c>
       <c r="X81" s="16" t="n">
-        <v>122009198</v>
+        <v>125917974</v>
       </c>
       <c r="Y81" s="16" t="n">
-        <v>125917974</v>
+        <v>158468618</v>
       </c>
       <c r="Z81" s="16" t="n">
-        <v>158468618</v>
+        <v>159051697</v>
       </c>
       <c r="AA81" s="16" t="n">
-        <v>159051697</v>
+        <v>157767608</v>
       </c>
       <c r="AB81" s="16" t="n">
-        <v>157767608</v>
+        <v>155736734</v>
       </c>
       <c r="AC81" s="16" t="n">
-        <v>155736734</v>
+        <v>160959795</v>
       </c>
       <c r="AD81" s="16" t="n">
-        <v>160959795</v>
+        <v>159230297</v>
       </c>
       <c r="AE81" s="16" t="n">
-        <v>159230297</v>
+        <v>150605781</v>
       </c>
       <c r="AF81" s="16" t="n">
-        <v>150605781</v>
+        <v>152193376</v>
       </c>
       <c r="AG81" s="16" t="n">
-        <v>152193376</v>
+        <v>181930198</v>
       </c>
       <c r="AH81" s="16" t="n">
-        <v>181930198</v>
+        <v>197605498</v>
       </c>
       <c r="AI81" s="16" t="n">
-        <v>197605498</v>
+        <v>199956989</v>
       </c>
       <c r="AJ81" s="16" t="n">
-        <v>199956989</v>
+        <v>191946805</v>
       </c>
       <c r="AK81" s="16" t="n">
-        <v>191946805</v>
+        <v>193369129</v>
       </c>
       <c r="AL81" s="16" t="n">
-        <v>193369129</v>
+        <v>187935250</v>
       </c>
       <c r="AM81" s="16" t="n">
-        <v>187935250</v>
+        <v>179946517</v>
       </c>
       <c r="AN81" s="16" t="n">
-        <v>179946517</v>
+        <v>184031466</v>
       </c>
       <c r="AO81" s="16" t="n">
-        <v>184031466</v>
+        <v>182691466</v>
       </c>
       <c r="AP81" s="16" t="n">
-        <v>182691466</v>
+        <v>198510884</v>
       </c>
       <c r="AQ81" s="16" t="n">
-        <v>198510884</v>
+        <v>210813898</v>
       </c>
       <c r="AR81" s="16" t="n">
-        <v>210813898</v>
+        <v>245964583</v>
       </c>
       <c r="AS81" s="16" t="n">
-        <v>245964583</v>
+        <v>252630254</v>
       </c>
       <c r="AT81" s="16" t="n">
-        <v>252630254</v>
+        <v>256956886</v>
       </c>
       <c r="AU81" s="16" t="n">
-        <v>256956886</v>
+        <v>221929144</v>
       </c>
       <c r="AV81" s="16" t="n">
-        <v>221929144</v>
+        <v>246663613</v>
       </c>
       <c r="AW81" s="16" t="n">
-        <v>246663613</v>
+        <v>270458430</v>
       </c>
       <c r="AX81" s="16" t="n">
-        <v>270458430</v>
+        <v>254986292</v>
       </c>
       <c r="AY81" s="16" t="n">
-        <v>254986292</v>
+        <v>251452030</v>
       </c>
       <c r="AZ81" s="16" t="n">
-        <v>251452030</v>
+        <v>263760945</v>
       </c>
       <c r="BA81" s="16" t="n">
-        <v>263760945</v>
+        <v>251865198</v>
       </c>
       <c r="BB81" s="16" t="n">
-        <v>251865198</v>
+        <v>257262058</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12123,107 +12123,107 @@
       <c r="T82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U82" s="13" t="s">
-        <v>58</v>
+      <c r="U82" s="13" t="n">
+        <v>77486859</v>
       </c>
       <c r="V82" s="13" t="n">
-        <v>77486859</v>
+        <v>66429965</v>
       </c>
       <c r="W82" s="13" t="n">
-        <v>66429965</v>
+        <v>67740041</v>
       </c>
       <c r="X82" s="13" t="n">
-        <v>67740041</v>
+        <v>70514490</v>
       </c>
       <c r="Y82" s="13" t="n">
-        <v>70514490</v>
+        <v>88914052</v>
       </c>
       <c r="Z82" s="13" t="n">
-        <v>88914052</v>
+        <v>94293353</v>
       </c>
       <c r="AA82" s="13" t="n">
-        <v>94293353</v>
+        <v>98572533</v>
       </c>
       <c r="AB82" s="13" t="n">
-        <v>98572533</v>
+        <v>97912151</v>
       </c>
       <c r="AC82" s="13" t="n">
-        <v>97912151</v>
+        <v>107537531</v>
       </c>
       <c r="AD82" s="13" t="n">
-        <v>107537531</v>
+        <v>100770404</v>
       </c>
       <c r="AE82" s="13" t="n">
-        <v>100770404</v>
+        <v>100611846</v>
       </c>
       <c r="AF82" s="13" t="n">
-        <v>100611846</v>
+        <v>100857322</v>
       </c>
       <c r="AG82" s="13" t="n">
-        <v>100857322</v>
+        <v>109290026</v>
       </c>
       <c r="AH82" s="13" t="n">
-        <v>109290026</v>
+        <v>126767097</v>
       </c>
       <c r="AI82" s="13" t="n">
-        <v>126767097</v>
+        <v>134414315</v>
       </c>
       <c r="AJ82" s="13" t="n">
-        <v>134414315</v>
+        <v>107483296</v>
       </c>
       <c r="AK82" s="13" t="n">
-        <v>107483296</v>
+        <v>107440881</v>
       </c>
       <c r="AL82" s="13" t="n">
-        <v>107440881</v>
+        <v>108581166</v>
       </c>
       <c r="AM82" s="13" t="n">
-        <v>108581166</v>
+        <v>105700071</v>
       </c>
       <c r="AN82" s="13" t="n">
-        <v>105700071</v>
+        <v>106946370</v>
       </c>
       <c r="AO82" s="13" t="n">
-        <v>106946370</v>
+        <v>112588474</v>
       </c>
       <c r="AP82" s="13" t="n">
-        <v>112588474</v>
+        <v>130256257</v>
       </c>
       <c r="AQ82" s="13" t="n">
-        <v>130256257</v>
+        <v>125382193</v>
       </c>
       <c r="AR82" s="13" t="n">
-        <v>125382193</v>
+        <v>153371625</v>
       </c>
       <c r="AS82" s="13" t="n">
-        <v>153371625</v>
+        <v>142972033</v>
       </c>
       <c r="AT82" s="13" t="n">
-        <v>142972033</v>
+        <v>161696115</v>
       </c>
       <c r="AU82" s="13" t="n">
-        <v>161696115</v>
+        <v>136806400</v>
       </c>
       <c r="AV82" s="13" t="n">
-        <v>136806400</v>
+        <v>139680977</v>
       </c>
       <c r="AW82" s="13" t="n">
-        <v>139680977</v>
+        <v>147324058</v>
       </c>
       <c r="AX82" s="13" t="n">
-        <v>147324058</v>
+        <v>150905838</v>
       </c>
       <c r="AY82" s="13" t="n">
-        <v>150905838</v>
+        <v>161774103</v>
       </c>
       <c r="AZ82" s="13" t="n">
-        <v>161774103</v>
+        <v>157890510</v>
       </c>
       <c r="BA82" s="13" t="n">
-        <v>157890510</v>
+        <v>139343795</v>
       </c>
       <c r="BB82" s="13" t="n">
-        <v>139343795</v>
+        <v>173601605</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12339,12 +12339,12 @@
       <c r="T84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U84" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V84" s="13" t="n">
+      <c r="U84" s="13" t="n">
         <v>258500000</v>
       </c>
+      <c r="V84" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="W84" s="13" t="s">
         <v>58</v>
       </c>
@@ -12354,92 +12354,92 @@
       <c r="Y84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z84" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA84" s="13" t="n">
+      <c r="Z84" s="13" t="n">
         <v>278818182</v>
       </c>
+      <c r="AA84" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AB84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC84" s="13" t="s">
-        <v>58</v>
+      <c r="AC84" s="13" t="n">
+        <v>261153846</v>
       </c>
       <c r="AD84" s="13" t="n">
-        <v>261153846</v>
-      </c>
-      <c r="AE84" s="13" t="n">
         <v>276250000</v>
       </c>
-      <c r="AF84" s="13" t="s">
-        <v>58</v>
+      <c r="AE84" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF84" s="13" t="n">
+        <v>276000000</v>
       </c>
       <c r="AG84" s="13" t="n">
-        <v>276000000</v>
+        <v>254666667</v>
       </c>
       <c r="AH84" s="13" t="n">
-        <v>254666667</v>
+        <v>175375000</v>
       </c>
       <c r="AI84" s="13" t="n">
-        <v>175375000</v>
+        <v>281178571</v>
       </c>
       <c r="AJ84" s="13" t="n">
-        <v>281178571</v>
+        <v>316666667</v>
       </c>
       <c r="AK84" s="13" t="n">
-        <v>316666667</v>
+        <v>244608696</v>
       </c>
       <c r="AL84" s="13" t="n">
-        <v>244608696</v>
+        <v>298085714</v>
       </c>
       <c r="AM84" s="13" t="n">
-        <v>298085714</v>
+        <v>280333333</v>
       </c>
       <c r="AN84" s="13" t="n">
-        <v>280333333</v>
+        <v>290000000</v>
       </c>
       <c r="AO84" s="13" t="n">
-        <v>290000000</v>
+        <v>316416667</v>
       </c>
       <c r="AP84" s="13" t="n">
-        <v>316416667</v>
+        <v>390500000</v>
       </c>
       <c r="AQ84" s="13" t="n">
-        <v>390500000</v>
+        <v>295750000</v>
       </c>
       <c r="AR84" s="13" t="n">
-        <v>295750000</v>
+        <v>521636364</v>
       </c>
       <c r="AS84" s="13" t="n">
-        <v>521636364</v>
+        <v>757753846</v>
       </c>
       <c r="AT84" s="13" t="n">
-        <v>757753846</v>
+        <v>323971014</v>
       </c>
       <c r="AU84" s="13" t="n">
-        <v>323971014</v>
+        <v>271106383</v>
       </c>
       <c r="AV84" s="13" t="n">
-        <v>271106383</v>
+        <v>329333333</v>
       </c>
       <c r="AW84" s="13" t="n">
-        <v>329333333</v>
+        <v>248076923</v>
       </c>
       <c r="AX84" s="13" t="n">
-        <v>248076923</v>
+        <v>462523810</v>
       </c>
       <c r="AY84" s="13" t="n">
-        <v>462523810</v>
+        <v>449666667</v>
       </c>
       <c r="AZ84" s="13" t="n">
-        <v>449666667</v>
+        <v>475366667</v>
       </c>
       <c r="BA84" s="13" t="n">
-        <v>475366667</v>
+        <v>717440000</v>
       </c>
       <c r="BB84" s="13" t="n">
-        <v>717440000</v>
+        <v>503916667</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12498,12 +12498,12 @@
       <c r="T85" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U85" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="V85" s="16" t="n">
+      <c r="U85" s="16" t="n">
         <v>125600000</v>
       </c>
+      <c r="V85" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="W85" s="16" t="s">
         <v>58</v>
       </c>
@@ -12513,92 +12513,92 @@
       <c r="Y85" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z85" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA85" s="16" t="n">
+      <c r="Z85" s="16" t="n">
         <v>122607143</v>
       </c>
+      <c r="AA85" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AB85" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AC85" s="16" t="s">
-        <v>58</v>
+      <c r="AC85" s="16" t="n">
+        <v>114272727</v>
       </c>
       <c r="AD85" s="16" t="n">
-        <v>114272727</v>
-      </c>
-      <c r="AE85" s="16" t="n">
         <v>71000000</v>
       </c>
-      <c r="AF85" s="16" t="s">
-        <v>58</v>
+      <c r="AE85" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF85" s="16" t="n">
+        <v>136363636</v>
       </c>
       <c r="AG85" s="16" t="n">
-        <v>136363636</v>
+        <v>138242424</v>
       </c>
       <c r="AH85" s="16" t="n">
-        <v>138242424</v>
+        <v>162875000</v>
       </c>
       <c r="AI85" s="16" t="n">
-        <v>162875000</v>
+        <v>161481481</v>
       </c>
       <c r="AJ85" s="16" t="n">
-        <v>161481481</v>
+        <v>159687500</v>
       </c>
       <c r="AK85" s="16" t="n">
-        <v>159687500</v>
+        <v>160347826</v>
       </c>
       <c r="AL85" s="16" t="n">
-        <v>160347826</v>
+        <v>150125000</v>
       </c>
       <c r="AM85" s="16" t="n">
-        <v>150125000</v>
+        <v>81431624</v>
       </c>
       <c r="AN85" s="16" t="n">
-        <v>81431624</v>
+        <v>109853933</v>
       </c>
       <c r="AO85" s="16" t="n">
-        <v>109853933</v>
+        <v>99261364</v>
       </c>
       <c r="AP85" s="16" t="n">
-        <v>99261364</v>
+        <v>145666667</v>
       </c>
       <c r="AQ85" s="16" t="n">
-        <v>145666667</v>
+        <v>183130435</v>
       </c>
       <c r="AR85" s="16" t="n">
-        <v>183130435</v>
+        <v>70718391</v>
       </c>
       <c r="AS85" s="16" t="n">
-        <v>70718391</v>
+        <v>149177033</v>
       </c>
       <c r="AT85" s="16" t="n">
-        <v>149177033</v>
+        <v>147930556</v>
       </c>
       <c r="AU85" s="16" t="n">
-        <v>147930556</v>
+        <v>134151961</v>
       </c>
       <c r="AV85" s="16" t="n">
-        <v>134151961</v>
+        <v>259767123</v>
       </c>
       <c r="AW85" s="16" t="n">
-        <v>259767123</v>
+        <v>177268868</v>
       </c>
       <c r="AX85" s="16" t="n">
-        <v>177268868</v>
+        <v>214432099</v>
       </c>
       <c r="AY85" s="16" t="n">
-        <v>214432099</v>
+        <v>149771993</v>
       </c>
       <c r="AZ85" s="16" t="n">
-        <v>149771993</v>
+        <v>121944614</v>
       </c>
       <c r="BA85" s="16" t="n">
-        <v>121944614</v>
+        <v>183194740</v>
       </c>
       <c r="BB85" s="16" t="n">
-        <v>183194740</v>
+        <v>204316794</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12657,12 +12657,12 @@
       <c r="T86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U86" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V86" s="13" t="n">
+      <c r="U86" s="13" t="n">
         <v>145222222</v>
       </c>
+      <c r="V86" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="W86" s="13" t="s">
         <v>58</v>
       </c>
@@ -12672,92 +12672,92 @@
       <c r="Y86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z86" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA86" s="13" t="n">
+      <c r="Z86" s="13" t="n">
         <v>189756757</v>
       </c>
+      <c r="AA86" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AB86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC86" s="13" t="s">
-        <v>58</v>
+      <c r="AC86" s="13" t="n">
+        <v>257076923</v>
       </c>
       <c r="AD86" s="13" t="n">
-        <v>257076923</v>
-      </c>
-      <c r="AE86" s="13" t="n">
         <v>166750000</v>
       </c>
-      <c r="AF86" s="13" t="s">
-        <v>58</v>
+      <c r="AE86" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF86" s="13" t="n">
+        <v>175333333</v>
       </c>
       <c r="AG86" s="13" t="n">
-        <v>175333333</v>
+        <v>146333333</v>
       </c>
       <c r="AH86" s="13" t="n">
-        <v>146333333</v>
+        <v>154000000</v>
       </c>
       <c r="AI86" s="13" t="n">
-        <v>154000000</v>
+        <v>210200000</v>
       </c>
       <c r="AJ86" s="13" t="n">
-        <v>210200000</v>
+        <v>181500000</v>
       </c>
       <c r="AK86" s="13" t="n">
+        <v>208240000</v>
+      </c>
+      <c r="AL86" s="13" t="n">
+        <v>186125000</v>
+      </c>
+      <c r="AM86" s="13" t="n">
+        <v>158000000</v>
+      </c>
+      <c r="AN86" s="13" t="n">
+        <v>201375000</v>
+      </c>
+      <c r="AO86" s="13" t="n">
+        <v>175170213</v>
+      </c>
+      <c r="AP86" s="13" t="n">
+        <v>163100000</v>
+      </c>
+      <c r="AQ86" s="13" t="n">
         <v>181500000</v>
       </c>
-      <c r="AL86" s="13" t="n">
-        <v>208240000</v>
-      </c>
-      <c r="AM86" s="13" t="n">
-        <v>186125000</v>
-      </c>
-      <c r="AN86" s="13" t="n">
-        <v>158000000</v>
-      </c>
-      <c r="AO86" s="13" t="n">
-        <v>201375000</v>
-      </c>
-      <c r="AP86" s="13" t="n">
-        <v>175170213</v>
-      </c>
-      <c r="AQ86" s="13" t="n">
-        <v>163100000</v>
-      </c>
-      <c r="AR86" s="13" t="n">
-        <v>181500000</v>
-      </c>
-      <c r="AS86" s="13" t="s">
-        <v>58</v>
+      <c r="AR86" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS86" s="13" t="n">
+        <v>172180851</v>
       </c>
       <c r="AT86" s="13" t="n">
-        <v>172180851</v>
+        <v>138469388</v>
       </c>
       <c r="AU86" s="13" t="n">
-        <v>138469388</v>
+        <v>203290909</v>
       </c>
       <c r="AV86" s="13" t="n">
-        <v>203290909</v>
+        <v>212142857</v>
       </c>
       <c r="AW86" s="13" t="n">
-        <v>212142857</v>
+        <v>165396040</v>
       </c>
       <c r="AX86" s="13" t="n">
-        <v>165396040</v>
+        <v>255781250</v>
       </c>
       <c r="AY86" s="13" t="n">
-        <v>255781250</v>
+        <v>327875000</v>
       </c>
       <c r="AZ86" s="13" t="n">
-        <v>327875000</v>
+        <v>324260000</v>
       </c>
       <c r="BA86" s="13" t="n">
-        <v>324260000</v>
+        <v>333349398</v>
       </c>
       <c r="BB86" s="13" t="n">
-        <v>333349398</v>
+        <v>388571429</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12906,8 +12906,8 @@
       <c r="AE88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF88" s="13" t="s">
-        <v>58</v>
+      <c r="AF88" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AG88" s="13" t="n">
         <v>0</v>

--- a/database/industries/shoyande/gharn/product/monthly.xlsx
+++ b/database/industries/shoyande/gharn/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\gharn\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\shoyande\gharn\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EAA3F0-BE0D-417B-B014-32AC58FDDF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C3B5B1-D84B-4B55-942C-B0487C67EB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="80">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 12 منتهی به 1397/12</t>
-  </si>
-  <si>
     <t>ماه 1 منتهی به 1398/01</t>
   </si>
   <si>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 1 منتهی به 1402/01</t>
+  </si>
+  <si>
+    <t>ماه 2 منتهی به 1402/02</t>
   </si>
   <si>
     <t>سایر</t>
@@ -1489,8 +1489,8 @@
       <c r="AB11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC11" s="11" t="s">
-        <v>57</v>
+      <c r="AC11" s="11">
+        <v>0</v>
       </c>
       <c r="AD11" s="11">
         <v>0</v>
@@ -1525,8 +1525,8 @@
       <c r="AN11" s="11">
         <v>0</v>
       </c>
-      <c r="AO11" s="11">
-        <v>0</v>
+      <c r="AO11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AP11" s="11" t="s">
         <v>57</v>
@@ -1576,155 +1576,155 @@
         <v>56</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
-        <v>57</v>
+      <c r="E12" s="13">
+        <v>1745</v>
       </c>
       <c r="F12" s="13">
-        <v>1745</v>
+        <v>3498</v>
       </c>
       <c r="G12" s="13">
-        <v>3498</v>
+        <v>2884</v>
       </c>
       <c r="H12" s="13">
-        <v>2884</v>
+        <v>3898</v>
       </c>
       <c r="I12" s="13">
-        <v>3898</v>
+        <v>2452</v>
       </c>
       <c r="J12" s="13">
-        <v>2452</v>
+        <v>3187</v>
       </c>
       <c r="K12" s="13">
-        <v>3187</v>
+        <v>2803</v>
       </c>
       <c r="L12" s="13">
-        <v>2803</v>
+        <v>2514</v>
       </c>
       <c r="M12" s="13">
-        <v>2514</v>
+        <v>3801</v>
       </c>
       <c r="N12" s="13">
-        <v>3801</v>
+        <v>3829</v>
       </c>
       <c r="O12" s="13">
-        <v>3829</v>
+        <v>3972</v>
       </c>
       <c r="P12" s="13">
-        <v>3972</v>
+        <v>5108</v>
       </c>
       <c r="Q12" s="13">
-        <v>5108</v>
+        <v>3629</v>
       </c>
       <c r="R12" s="13">
-        <v>3629</v>
+        <v>5395</v>
       </c>
       <c r="S12" s="13">
-        <v>5395</v>
+        <v>4741</v>
       </c>
       <c r="T12" s="13">
-        <v>4741</v>
+        <v>5003</v>
       </c>
       <c r="U12" s="13">
-        <v>5003</v>
+        <v>4441</v>
       </c>
       <c r="V12" s="13">
-        <v>4441</v>
+        <v>3227</v>
       </c>
       <c r="W12" s="13">
-        <v>3227</v>
+        <v>4038</v>
       </c>
       <c r="X12" s="13">
-        <v>4038</v>
+        <v>5117</v>
       </c>
       <c r="Y12" s="13">
-        <v>5117</v>
+        <v>6377</v>
       </c>
       <c r="Z12" s="13">
-        <v>6377</v>
+        <v>6970</v>
       </c>
       <c r="AA12" s="13">
-        <v>6970</v>
+        <v>3508</v>
       </c>
       <c r="AB12" s="13">
-        <v>3508</v>
+        <v>5201</v>
       </c>
       <c r="AC12" s="13">
-        <v>5201</v>
+        <v>2219</v>
       </c>
       <c r="AD12" s="13">
-        <v>2219</v>
+        <v>2061</v>
       </c>
       <c r="AE12" s="13">
-        <v>2061</v>
+        <v>2726</v>
       </c>
       <c r="AF12" s="13">
-        <v>2726</v>
+        <v>5507</v>
       </c>
       <c r="AG12" s="13">
-        <v>5507</v>
+        <v>4011</v>
       </c>
       <c r="AH12" s="13">
-        <v>4011</v>
+        <v>4579</v>
       </c>
       <c r="AI12" s="13">
-        <v>4579</v>
+        <v>3298</v>
       </c>
       <c r="AJ12" s="13">
-        <v>3298</v>
+        <v>2788</v>
       </c>
       <c r="AK12" s="13">
-        <v>2788</v>
+        <v>2869</v>
       </c>
       <c r="AL12" s="13">
-        <v>2869</v>
+        <v>2727</v>
       </c>
       <c r="AM12" s="13">
-        <v>2727</v>
+        <v>4657</v>
       </c>
       <c r="AN12" s="13">
-        <v>4657</v>
+        <v>3661</v>
       </c>
       <c r="AO12" s="13">
-        <v>3661</v>
+        <v>1798</v>
       </c>
       <c r="AP12" s="13">
-        <v>1798</v>
+        <v>2509</v>
       </c>
       <c r="AQ12" s="13">
-        <v>2509</v>
+        <v>4262</v>
       </c>
       <c r="AR12" s="13">
-        <v>4262</v>
+        <v>3811</v>
       </c>
       <c r="AS12" s="13">
-        <v>3811</v>
+        <v>3928</v>
       </c>
       <c r="AT12" s="13">
-        <v>3928</v>
+        <v>4555</v>
       </c>
       <c r="AU12" s="13">
-        <v>4555</v>
+        <v>3266</v>
       </c>
       <c r="AV12" s="13">
-        <v>3266</v>
+        <v>3588</v>
       </c>
       <c r="AW12" s="13">
-        <v>3588</v>
+        <v>3891</v>
       </c>
       <c r="AX12" s="13">
-        <v>3891</v>
+        <v>3887</v>
       </c>
       <c r="AY12" s="13">
-        <v>3887</v>
+        <v>5669</v>
       </c>
       <c r="AZ12" s="13">
-        <v>5669</v>
+        <v>4195</v>
       </c>
       <c r="BA12" s="13">
-        <v>4195</v>
+        <v>2838</v>
       </c>
       <c r="BB12" s="13">
-        <v>2838</v>
+        <v>4713</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1735,155 +1735,155 @@
         <v>56</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>57</v>
+      <c r="E13" s="11">
+        <v>2242</v>
       </c>
       <c r="F13" s="11">
-        <v>2242</v>
+        <v>4250</v>
       </c>
       <c r="G13" s="11">
-        <v>4250</v>
+        <v>2863</v>
       </c>
       <c r="H13" s="11">
-        <v>2863</v>
+        <v>4800</v>
       </c>
       <c r="I13" s="11">
-        <v>4800</v>
+        <v>3613</v>
       </c>
       <c r="J13" s="11">
-        <v>3613</v>
+        <v>4665</v>
       </c>
       <c r="K13" s="11">
-        <v>4665</v>
+        <v>3321</v>
       </c>
       <c r="L13" s="11">
-        <v>3321</v>
+        <v>2946</v>
       </c>
       <c r="M13" s="11">
-        <v>2946</v>
+        <v>3813</v>
       </c>
       <c r="N13" s="11">
-        <v>3813</v>
+        <v>4920</v>
       </c>
       <c r="O13" s="11">
-        <v>4920</v>
+        <v>5229</v>
       </c>
       <c r="P13" s="11">
-        <v>5229</v>
+        <v>4494</v>
       </c>
       <c r="Q13" s="11">
-        <v>4494</v>
+        <v>3002</v>
       </c>
       <c r="R13" s="11">
-        <v>3002</v>
+        <v>4738</v>
       </c>
       <c r="S13" s="11">
-        <v>4738</v>
+        <v>3318</v>
       </c>
       <c r="T13" s="11">
-        <v>3318</v>
+        <v>3965</v>
       </c>
       <c r="U13" s="11">
-        <v>3965</v>
+        <v>2649</v>
       </c>
       <c r="V13" s="11">
-        <v>2649</v>
+        <v>4152</v>
       </c>
       <c r="W13" s="11">
-        <v>4152</v>
+        <v>3219</v>
       </c>
       <c r="X13" s="11">
-        <v>3219</v>
+        <v>4166</v>
       </c>
       <c r="Y13" s="11">
-        <v>4166</v>
+        <v>5144</v>
       </c>
       <c r="Z13" s="11">
-        <v>5144</v>
+        <v>5700</v>
       </c>
       <c r="AA13" s="11">
-        <v>5700</v>
+        <v>3767</v>
       </c>
       <c r="AB13" s="11">
-        <v>3767</v>
+        <v>5500</v>
       </c>
       <c r="AC13" s="11">
-        <v>5500</v>
+        <v>2838</v>
       </c>
       <c r="AD13" s="11">
-        <v>2838</v>
+        <v>885</v>
       </c>
       <c r="AE13" s="11">
-        <v>885</v>
+        <v>3309</v>
       </c>
       <c r="AF13" s="11">
-        <v>3309</v>
+        <v>5341</v>
       </c>
       <c r="AG13" s="11">
-        <v>5341</v>
+        <v>3657</v>
       </c>
       <c r="AH13" s="11">
-        <v>3657</v>
+        <v>4860</v>
       </c>
       <c r="AI13" s="11">
-        <v>4860</v>
+        <v>3183</v>
       </c>
       <c r="AJ13" s="11">
-        <v>3183</v>
+        <v>3651</v>
       </c>
       <c r="AK13" s="11">
-        <v>3651</v>
+        <v>4748</v>
       </c>
       <c r="AL13" s="11">
-        <v>4748</v>
+        <v>4251</v>
       </c>
       <c r="AM13" s="11">
-        <v>4251</v>
+        <v>5069</v>
       </c>
       <c r="AN13" s="11">
-        <v>5069</v>
+        <v>4555</v>
       </c>
       <c r="AO13" s="11">
-        <v>4555</v>
+        <v>2354</v>
       </c>
       <c r="AP13" s="11">
-        <v>2354</v>
+        <v>3415</v>
       </c>
       <c r="AQ13" s="11">
-        <v>3415</v>
+        <v>5170</v>
       </c>
       <c r="AR13" s="11">
-        <v>5170</v>
+        <v>5489</v>
       </c>
       <c r="AS13" s="11">
-        <v>5489</v>
+        <v>5494</v>
       </c>
       <c r="AT13" s="11">
-        <v>5494</v>
+        <v>5571</v>
       </c>
       <c r="AU13" s="11">
-        <v>5571</v>
+        <v>4921</v>
       </c>
       <c r="AV13" s="11">
-        <v>4921</v>
+        <v>6802</v>
       </c>
       <c r="AW13" s="11">
-        <v>6802</v>
+        <v>6652</v>
       </c>
       <c r="AX13" s="11">
-        <v>6652</v>
+        <v>7428</v>
       </c>
       <c r="AY13" s="11">
-        <v>7428</v>
+        <v>8904</v>
       </c>
       <c r="AZ13" s="11">
-        <v>8904</v>
+        <v>6531</v>
       </c>
       <c r="BA13" s="11">
-        <v>6531</v>
+        <v>4527</v>
       </c>
       <c r="BB13" s="11">
-        <v>4527</v>
+        <v>8342</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1894,155 +1894,155 @@
         <v>56</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
-        <v>57</v>
+      <c r="E14" s="13">
+        <v>1838</v>
       </c>
       <c r="F14" s="13">
-        <v>1838</v>
+        <v>3469</v>
       </c>
       <c r="G14" s="13">
-        <v>3469</v>
+        <v>2743</v>
       </c>
       <c r="H14" s="13">
-        <v>2743</v>
+        <v>3519</v>
       </c>
       <c r="I14" s="13">
-        <v>3519</v>
+        <v>2665</v>
       </c>
       <c r="J14" s="13">
-        <v>2665</v>
+        <v>3141</v>
       </c>
       <c r="K14" s="13">
-        <v>3141</v>
+        <v>2877</v>
       </c>
       <c r="L14" s="13">
-        <v>2877</v>
+        <v>2278</v>
       </c>
       <c r="M14" s="13">
-        <v>2278</v>
+        <v>3015</v>
       </c>
       <c r="N14" s="13">
-        <v>3015</v>
+        <v>4016</v>
       </c>
       <c r="O14" s="13">
-        <v>4016</v>
+        <v>4010</v>
       </c>
       <c r="P14" s="13">
-        <v>4010</v>
+        <v>3544</v>
       </c>
       <c r="Q14" s="13">
-        <v>3544</v>
+        <v>1584</v>
       </c>
       <c r="R14" s="13">
-        <v>1584</v>
+        <v>3328</v>
       </c>
       <c r="S14" s="13">
-        <v>3328</v>
+        <v>3107</v>
       </c>
       <c r="T14" s="13">
-        <v>3107</v>
+        <v>4240</v>
       </c>
       <c r="U14" s="13">
-        <v>4240</v>
+        <v>2713</v>
       </c>
       <c r="V14" s="13">
-        <v>2713</v>
+        <v>2941</v>
       </c>
       <c r="W14" s="13">
-        <v>2941</v>
+        <v>2879</v>
       </c>
       <c r="X14" s="13">
-        <v>2879</v>
+        <v>3392</v>
       </c>
       <c r="Y14" s="13">
-        <v>3392</v>
+        <v>4575</v>
       </c>
       <c r="Z14" s="13">
-        <v>4575</v>
+        <v>5244</v>
       </c>
       <c r="AA14" s="13">
-        <v>5244</v>
+        <v>5692</v>
       </c>
       <c r="AB14" s="13">
-        <v>5692</v>
+        <v>5317</v>
       </c>
       <c r="AC14" s="13">
-        <v>5317</v>
+        <v>2424</v>
       </c>
       <c r="AD14" s="13">
-        <v>2424</v>
+        <v>2852</v>
       </c>
       <c r="AE14" s="13">
-        <v>2852</v>
+        <v>3738</v>
       </c>
       <c r="AF14" s="13">
-        <v>3738</v>
+        <v>4833</v>
       </c>
       <c r="AG14" s="13">
-        <v>4833</v>
+        <v>4126</v>
       </c>
       <c r="AH14" s="13">
-        <v>4126</v>
+        <v>5335</v>
       </c>
       <c r="AI14" s="13">
-        <v>5335</v>
+        <v>4371</v>
       </c>
       <c r="AJ14" s="13">
-        <v>4371</v>
+        <v>4164</v>
       </c>
       <c r="AK14" s="13">
-        <v>4164</v>
+        <v>3631</v>
       </c>
       <c r="AL14" s="13">
-        <v>3631</v>
+        <v>3673</v>
       </c>
       <c r="AM14" s="13">
-        <v>3673</v>
+        <v>5490</v>
       </c>
       <c r="AN14" s="13">
-        <v>5490</v>
+        <v>4234</v>
       </c>
       <c r="AO14" s="13">
-        <v>4234</v>
+        <v>2384</v>
       </c>
       <c r="AP14" s="13">
-        <v>2384</v>
+        <v>3547</v>
       </c>
       <c r="AQ14" s="13">
-        <v>3547</v>
+        <v>4053</v>
       </c>
       <c r="AR14" s="13">
-        <v>4053</v>
+        <v>4193</v>
       </c>
       <c r="AS14" s="13">
-        <v>4193</v>
+        <v>4611</v>
       </c>
       <c r="AT14" s="13">
-        <v>4611</v>
+        <v>4703</v>
       </c>
       <c r="AU14" s="13">
-        <v>4703</v>
+        <v>3902</v>
       </c>
       <c r="AV14" s="13">
-        <v>3902</v>
+        <v>5535</v>
       </c>
       <c r="AW14" s="13">
-        <v>5535</v>
+        <v>5618</v>
       </c>
       <c r="AX14" s="13">
-        <v>5618</v>
+        <v>5087</v>
       </c>
       <c r="AY14" s="13">
-        <v>5087</v>
+        <v>6711</v>
       </c>
       <c r="AZ14" s="13">
-        <v>6711</v>
+        <v>4861</v>
       </c>
       <c r="BA14" s="13">
-        <v>4861</v>
+        <v>2853</v>
       </c>
       <c r="BB14" s="13">
-        <v>2853</v>
+        <v>5831</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2221,11 +2221,11 @@
       <c r="AO16" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AP16" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ16" s="11">
-        <v>0</v>
+      <c r="AP16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR16" s="11" t="s">
         <v>57</v>
@@ -2312,8 +2312,8 @@
       <c r="S17" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="T17" s="15" t="s">
-        <v>57</v>
+      <c r="T17" s="15">
+        <v>0</v>
       </c>
       <c r="U17" s="15">
         <v>0</v>
@@ -2425,154 +2425,154 @@
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17">
-        <v>0</v>
+        <v>5825</v>
       </c>
       <c r="F18" s="17">
-        <v>5825</v>
+        <v>11217</v>
       </c>
       <c r="G18" s="17">
-        <v>11217</v>
+        <v>8490</v>
       </c>
       <c r="H18" s="17">
-        <v>8490</v>
+        <v>12217</v>
       </c>
       <c r="I18" s="17">
-        <v>12217</v>
+        <v>8730</v>
       </c>
       <c r="J18" s="17">
-        <v>8730</v>
+        <v>10993</v>
       </c>
       <c r="K18" s="17">
-        <v>10993</v>
+        <v>9001</v>
       </c>
       <c r="L18" s="17">
-        <v>9001</v>
+        <v>7738</v>
       </c>
       <c r="M18" s="17">
-        <v>7738</v>
+        <v>10629</v>
       </c>
       <c r="N18" s="17">
-        <v>10629</v>
+        <v>12765</v>
       </c>
       <c r="O18" s="17">
-        <v>12765</v>
+        <v>13211</v>
       </c>
       <c r="P18" s="17">
-        <v>13211</v>
+        <v>13146</v>
       </c>
       <c r="Q18" s="17">
-        <v>13146</v>
+        <v>8215</v>
       </c>
       <c r="R18" s="17">
-        <v>8215</v>
+        <v>13461</v>
       </c>
       <c r="S18" s="17">
-        <v>13461</v>
+        <v>11166</v>
       </c>
       <c r="T18" s="17">
-        <v>11166</v>
+        <v>13208</v>
       </c>
       <c r="U18" s="17">
-        <v>13208</v>
+        <v>9803</v>
       </c>
       <c r="V18" s="17">
-        <v>9803</v>
+        <v>10320</v>
       </c>
       <c r="W18" s="17">
-        <v>10320</v>
+        <v>10136</v>
       </c>
       <c r="X18" s="17">
-        <v>10136</v>
+        <v>12675</v>
       </c>
       <c r="Y18" s="17">
-        <v>12675</v>
+        <v>16096</v>
       </c>
       <c r="Z18" s="17">
-        <v>16096</v>
+        <v>17914</v>
       </c>
       <c r="AA18" s="17">
-        <v>17914</v>
+        <v>12967</v>
       </c>
       <c r="AB18" s="17">
-        <v>12967</v>
+        <v>16018</v>
       </c>
       <c r="AC18" s="17">
-        <v>16018</v>
+        <v>7481</v>
       </c>
       <c r="AD18" s="17">
-        <v>7481</v>
+        <v>5798</v>
       </c>
       <c r="AE18" s="17">
-        <v>5798</v>
+        <v>9773</v>
       </c>
       <c r="AF18" s="17">
-        <v>9773</v>
+        <v>15681</v>
       </c>
       <c r="AG18" s="17">
-        <v>15681</v>
+        <v>11794</v>
       </c>
       <c r="AH18" s="17">
-        <v>11794</v>
+        <v>14774</v>
       </c>
       <c r="AI18" s="17">
-        <v>14774</v>
+        <v>10852</v>
       </c>
       <c r="AJ18" s="17">
-        <v>10852</v>
+        <v>10603</v>
       </c>
       <c r="AK18" s="17">
-        <v>10603</v>
+        <v>11248</v>
       </c>
       <c r="AL18" s="17">
-        <v>11248</v>
+        <v>10651</v>
       </c>
       <c r="AM18" s="17">
-        <v>10651</v>
+        <v>15216</v>
       </c>
       <c r="AN18" s="17">
-        <v>15216</v>
+        <v>12450</v>
       </c>
       <c r="AO18" s="17">
-        <v>12450</v>
+        <v>6536</v>
       </c>
       <c r="AP18" s="17">
-        <v>6536</v>
+        <v>9471</v>
       </c>
       <c r="AQ18" s="17">
-        <v>9471</v>
+        <v>13485</v>
       </c>
       <c r="AR18" s="17">
-        <v>13485</v>
+        <v>13493</v>
       </c>
       <c r="AS18" s="17">
-        <v>13493</v>
+        <v>14033</v>
       </c>
       <c r="AT18" s="17">
-        <v>14033</v>
+        <v>14829</v>
       </c>
       <c r="AU18" s="17">
-        <v>14829</v>
+        <v>12089</v>
       </c>
       <c r="AV18" s="17">
-        <v>12089</v>
+        <v>15925</v>
       </c>
       <c r="AW18" s="17">
-        <v>15925</v>
+        <v>16161</v>
       </c>
       <c r="AX18" s="17">
-        <v>16161</v>
+        <v>16402</v>
       </c>
       <c r="AY18" s="17">
-        <v>16402</v>
+        <v>21284</v>
       </c>
       <c r="AZ18" s="17">
-        <v>21284</v>
+        <v>15587</v>
       </c>
       <c r="BA18" s="17">
-        <v>15587</v>
+        <v>10218</v>
       </c>
       <c r="BB18" s="17">
-        <v>10218</v>
+        <v>18886</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -3089,8 +3089,8 @@
       <c r="AB25" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC25" s="11" t="s">
-        <v>57</v>
+      <c r="AC25" s="11">
+        <v>0</v>
       </c>
       <c r="AD25" s="11">
         <v>0</v>
@@ -3125,8 +3125,8 @@
       <c r="AN25" s="11">
         <v>0</v>
       </c>
-      <c r="AO25" s="11">
-        <v>0</v>
+      <c r="AO25" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AP25" s="11" t="s">
         <v>57</v>
@@ -3176,155 +3176,155 @@
         <v>56</v>
       </c>
       <c r="D26" s="13"/>
-      <c r="E26" s="13" t="s">
-        <v>57</v>
+      <c r="E26" s="13">
+        <v>1716</v>
       </c>
       <c r="F26" s="13">
-        <v>1716</v>
+        <v>3527</v>
       </c>
       <c r="G26" s="13">
-        <v>3527</v>
+        <v>2654</v>
       </c>
       <c r="H26" s="13">
-        <v>2654</v>
+        <v>3608</v>
       </c>
       <c r="I26" s="13">
-        <v>3608</v>
+        <v>2317</v>
       </c>
       <c r="J26" s="13">
-        <v>2317</v>
+        <v>4004</v>
       </c>
       <c r="K26" s="13">
-        <v>4004</v>
+        <v>1796</v>
       </c>
       <c r="L26" s="13">
-        <v>1796</v>
+        <v>2188</v>
       </c>
       <c r="M26" s="13">
-        <v>2188</v>
+        <v>3762</v>
       </c>
       <c r="N26" s="13">
-        <v>3762</v>
+        <v>3760</v>
       </c>
       <c r="O26" s="13">
-        <v>3760</v>
+        <v>3851</v>
       </c>
       <c r="P26" s="13">
-        <v>3851</v>
+        <v>5171</v>
       </c>
       <c r="Q26" s="13">
-        <v>5171</v>
+        <v>3977</v>
       </c>
       <c r="R26" s="13">
-        <v>3977</v>
+        <v>4984</v>
       </c>
       <c r="S26" s="13">
-        <v>4984</v>
+        <v>4224</v>
       </c>
       <c r="T26" s="13">
-        <v>4224</v>
+        <v>5034</v>
       </c>
       <c r="U26" s="13">
-        <v>5034</v>
+        <v>4877</v>
       </c>
       <c r="V26" s="13">
-        <v>4877</v>
+        <v>3557</v>
       </c>
       <c r="W26" s="13">
-        <v>3557</v>
+        <v>4026</v>
       </c>
       <c r="X26" s="13">
-        <v>4026</v>
+        <v>4801</v>
       </c>
       <c r="Y26" s="13">
-        <v>4801</v>
+        <v>5835</v>
       </c>
       <c r="Z26" s="13">
-        <v>5835</v>
+        <v>6862</v>
       </c>
       <c r="AA26" s="13">
-        <v>6862</v>
+        <v>4729</v>
       </c>
       <c r="AB26" s="13">
-        <v>4729</v>
+        <v>5003</v>
       </c>
       <c r="AC26" s="13">
-        <v>5003</v>
+        <v>1229</v>
       </c>
       <c r="AD26" s="13">
-        <v>1229</v>
+        <v>3209</v>
       </c>
       <c r="AE26" s="13">
-        <v>3209</v>
+        <v>2622</v>
       </c>
       <c r="AF26" s="13">
-        <v>2622</v>
+        <v>4951</v>
       </c>
       <c r="AG26" s="13">
-        <v>4951</v>
+        <v>4018</v>
       </c>
       <c r="AH26" s="13">
-        <v>4018</v>
+        <v>4622</v>
       </c>
       <c r="AI26" s="13">
-        <v>4622</v>
+        <v>2864</v>
       </c>
       <c r="AJ26" s="13">
-        <v>2864</v>
+        <v>3616</v>
       </c>
       <c r="AK26" s="13">
-        <v>3616</v>
+        <v>2417</v>
       </c>
       <c r="AL26" s="13">
-        <v>2417</v>
+        <v>3486</v>
       </c>
       <c r="AM26" s="13">
-        <v>3486</v>
+        <v>3976</v>
       </c>
       <c r="AN26" s="13">
-        <v>3976</v>
+        <v>4358</v>
       </c>
       <c r="AO26" s="13">
-        <v>4358</v>
+        <v>1443</v>
       </c>
       <c r="AP26" s="13">
-        <v>1443</v>
+        <v>2759</v>
       </c>
       <c r="AQ26" s="13">
-        <v>2759</v>
+        <v>3575</v>
       </c>
       <c r="AR26" s="13">
-        <v>3575</v>
+        <v>3514</v>
       </c>
       <c r="AS26" s="13">
-        <v>3514</v>
+        <v>4116</v>
       </c>
       <c r="AT26" s="13">
-        <v>4116</v>
+        <v>4003</v>
       </c>
       <c r="AU26" s="13">
-        <v>4003</v>
+        <v>3202</v>
       </c>
       <c r="AV26" s="13">
-        <v>3202</v>
+        <v>4035</v>
       </c>
       <c r="AW26" s="13">
-        <v>4035</v>
+        <v>3572</v>
       </c>
       <c r="AX26" s="13">
-        <v>3572</v>
+        <v>4573</v>
       </c>
       <c r="AY26" s="13">
-        <v>4573</v>
+        <v>5694</v>
       </c>
       <c r="AZ26" s="13">
-        <v>5694</v>
+        <v>4341</v>
       </c>
       <c r="BA26" s="13">
-        <v>4341</v>
+        <v>2593</v>
       </c>
       <c r="BB26" s="13">
-        <v>2593</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -3335,155 +3335,155 @@
         <v>56</v>
       </c>
       <c r="D27" s="11"/>
-      <c r="E27" s="11" t="s">
-        <v>57</v>
+      <c r="E27" s="11">
+        <v>1980</v>
       </c>
       <c r="F27" s="11">
-        <v>1980</v>
+        <v>3784</v>
       </c>
       <c r="G27" s="11">
-        <v>3784</v>
+        <v>3314</v>
       </c>
       <c r="H27" s="11">
-        <v>3314</v>
+        <v>4337</v>
       </c>
       <c r="I27" s="11">
-        <v>4337</v>
+        <v>3362</v>
       </c>
       <c r="J27" s="11">
-        <v>3362</v>
+        <v>5284</v>
       </c>
       <c r="K27" s="11">
-        <v>5284</v>
+        <v>2702</v>
       </c>
       <c r="L27" s="11">
-        <v>2702</v>
+        <v>2593</v>
       </c>
       <c r="M27" s="11">
-        <v>2593</v>
+        <v>3706</v>
       </c>
       <c r="N27" s="11">
-        <v>3706</v>
+        <v>3763</v>
       </c>
       <c r="O27" s="11">
-        <v>3763</v>
+        <v>4919</v>
       </c>
       <c r="P27" s="11">
-        <v>4919</v>
+        <v>4952</v>
       </c>
       <c r="Q27" s="11">
-        <v>4952</v>
+        <v>2617</v>
       </c>
       <c r="R27" s="11">
-        <v>2617</v>
+        <v>4245</v>
       </c>
       <c r="S27" s="11">
-        <v>4245</v>
+        <v>3978</v>
       </c>
       <c r="T27" s="11">
-        <v>3978</v>
+        <v>3405</v>
       </c>
       <c r="U27" s="11">
-        <v>3405</v>
+        <v>3243</v>
       </c>
       <c r="V27" s="11">
-        <v>3243</v>
+        <v>4240</v>
       </c>
       <c r="W27" s="11">
-        <v>4240</v>
+        <v>3889</v>
       </c>
       <c r="X27" s="11">
-        <v>3889</v>
+        <v>4270</v>
       </c>
       <c r="Y27" s="11">
-        <v>4270</v>
+        <v>4419</v>
       </c>
       <c r="Z27" s="11">
-        <v>4419</v>
+        <v>5310</v>
       </c>
       <c r="AA27" s="11">
-        <v>5310</v>
+        <v>4881</v>
       </c>
       <c r="AB27" s="11">
-        <v>4881</v>
+        <v>5085</v>
       </c>
       <c r="AC27" s="11">
-        <v>5085</v>
+        <v>1964</v>
       </c>
       <c r="AD27" s="11">
-        <v>1964</v>
+        <v>2387</v>
       </c>
       <c r="AE27" s="11">
-        <v>2387</v>
+        <v>2819</v>
       </c>
       <c r="AF27" s="11">
-        <v>2819</v>
+        <v>4689</v>
       </c>
       <c r="AG27" s="11">
-        <v>4689</v>
+        <v>4046</v>
       </c>
       <c r="AH27" s="11">
-        <v>4046</v>
+        <v>4119</v>
       </c>
       <c r="AI27" s="11">
-        <v>4119</v>
+        <v>2911</v>
       </c>
       <c r="AJ27" s="11">
-        <v>2911</v>
+        <v>4283</v>
       </c>
       <c r="AK27" s="11">
-        <v>4283</v>
+        <v>3815</v>
       </c>
       <c r="AL27" s="11">
-        <v>3815</v>
+        <v>4067</v>
       </c>
       <c r="AM27" s="11">
-        <v>4067</v>
+        <v>4856</v>
       </c>
       <c r="AN27" s="11">
-        <v>4856</v>
+        <v>5742</v>
       </c>
       <c r="AO27" s="11">
-        <v>5742</v>
+        <v>2260</v>
       </c>
       <c r="AP27" s="11">
-        <v>2260</v>
+        <v>3802</v>
       </c>
       <c r="AQ27" s="11">
-        <v>3802</v>
+        <v>4249</v>
       </c>
       <c r="AR27" s="11">
-        <v>4249</v>
+        <v>5729</v>
       </c>
       <c r="AS27" s="11">
-        <v>5729</v>
+        <v>5801</v>
       </c>
       <c r="AT27" s="11">
-        <v>5801</v>
+        <v>5440</v>
       </c>
       <c r="AU27" s="11">
-        <v>5440</v>
+        <v>4767</v>
       </c>
       <c r="AV27" s="11">
-        <v>4767</v>
+        <v>6226</v>
       </c>
       <c r="AW27" s="11">
-        <v>6226</v>
+        <v>5990</v>
       </c>
       <c r="AX27" s="11">
-        <v>5990</v>
+        <v>7676</v>
       </c>
       <c r="AY27" s="11">
-        <v>7676</v>
+        <v>9237</v>
       </c>
       <c r="AZ27" s="11">
-        <v>9237</v>
+        <v>7272</v>
       </c>
       <c r="BA27" s="11">
-        <v>7272</v>
+        <v>4139</v>
       </c>
       <c r="BB27" s="11">
-        <v>4139</v>
+        <v>7247</v>
       </c>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.3">
@@ -3494,155 +3494,155 @@
         <v>56</v>
       </c>
       <c r="D28" s="13"/>
-      <c r="E28" s="13" t="s">
-        <v>57</v>
+      <c r="E28" s="13">
+        <v>1586</v>
       </c>
       <c r="F28" s="13">
-        <v>1586</v>
+        <v>3435</v>
       </c>
       <c r="G28" s="13">
-        <v>3435</v>
+        <v>2882</v>
       </c>
       <c r="H28" s="13">
-        <v>2882</v>
+        <v>3183</v>
       </c>
       <c r="I28" s="13">
-        <v>3183</v>
+        <v>2648</v>
       </c>
       <c r="J28" s="13">
-        <v>2648</v>
+        <v>3361</v>
       </c>
       <c r="K28" s="13">
-        <v>3361</v>
+        <v>2641</v>
       </c>
       <c r="L28" s="13">
-        <v>2641</v>
+        <v>2172</v>
       </c>
       <c r="M28" s="13">
-        <v>2172</v>
+        <v>2861</v>
       </c>
       <c r="N28" s="13">
-        <v>2861</v>
+        <v>3195</v>
       </c>
       <c r="O28" s="13">
-        <v>3195</v>
+        <v>4375</v>
       </c>
       <c r="P28" s="13">
-        <v>4375</v>
+        <v>4291</v>
       </c>
       <c r="Q28" s="13">
-        <v>4291</v>
+        <v>1456</v>
       </c>
       <c r="R28" s="13">
-        <v>1456</v>
+        <v>3241</v>
       </c>
       <c r="S28" s="13">
-        <v>3241</v>
+        <v>3053</v>
       </c>
       <c r="T28" s="13">
-        <v>3053</v>
+        <v>4004</v>
       </c>
       <c r="U28" s="13">
-        <v>4004</v>
+        <v>2870</v>
       </c>
       <c r="V28" s="13">
-        <v>2870</v>
+        <v>2962</v>
       </c>
       <c r="W28" s="13">
-        <v>2962</v>
+        <v>3071</v>
       </c>
       <c r="X28" s="13">
-        <v>3071</v>
+        <v>3060</v>
       </c>
       <c r="Y28" s="13">
-        <v>3060</v>
+        <v>4189</v>
       </c>
       <c r="Z28" s="13">
-        <v>4189</v>
+        <v>4784</v>
       </c>
       <c r="AA28" s="13">
-        <v>4784</v>
+        <v>5942</v>
       </c>
       <c r="AB28" s="13">
-        <v>5942</v>
+        <v>4396</v>
       </c>
       <c r="AC28" s="13">
-        <v>4396</v>
+        <v>2234</v>
       </c>
       <c r="AD28" s="13">
-        <v>2234</v>
+        <v>3022</v>
       </c>
       <c r="AE28" s="13">
-        <v>3022</v>
+        <v>3188</v>
       </c>
       <c r="AF28" s="13">
-        <v>3188</v>
+        <v>4675</v>
       </c>
       <c r="AG28" s="13">
-        <v>4675</v>
+        <v>3717</v>
       </c>
       <c r="AH28" s="13">
-        <v>3717</v>
+        <v>5361</v>
       </c>
       <c r="AI28" s="13">
-        <v>5361</v>
+        <v>4043</v>
       </c>
       <c r="AJ28" s="13">
-        <v>4043</v>
+        <v>4110</v>
       </c>
       <c r="AK28" s="13">
-        <v>4110</v>
+        <v>3353</v>
       </c>
       <c r="AL28" s="13">
-        <v>3353</v>
+        <v>4250</v>
       </c>
       <c r="AM28" s="13">
-        <v>4250</v>
+        <v>5181</v>
       </c>
       <c r="AN28" s="13">
-        <v>5181</v>
+        <v>5218</v>
       </c>
       <c r="AO28" s="13">
-        <v>5218</v>
+        <v>1848</v>
       </c>
       <c r="AP28" s="13">
-        <v>1848</v>
+        <v>3694</v>
       </c>
       <c r="AQ28" s="13">
-        <v>3694</v>
+        <v>3630</v>
       </c>
       <c r="AR28" s="13">
-        <v>3630</v>
+        <v>4206</v>
       </c>
       <c r="AS28" s="13">
-        <v>4206</v>
+        <v>4837</v>
       </c>
       <c r="AT28" s="13">
-        <v>4837</v>
+        <v>4461</v>
       </c>
       <c r="AU28" s="13">
-        <v>4461</v>
+        <v>3932</v>
       </c>
       <c r="AV28" s="13">
-        <v>3932</v>
+        <v>5276</v>
       </c>
       <c r="AW28" s="13">
-        <v>5276</v>
+        <v>5034</v>
       </c>
       <c r="AX28" s="13">
-        <v>5034</v>
+        <v>5337</v>
       </c>
       <c r="AY28" s="13">
-        <v>5337</v>
+        <v>7521</v>
       </c>
       <c r="AZ28" s="13">
-        <v>7521</v>
+        <v>4977</v>
       </c>
       <c r="BA28" s="13">
-        <v>4977</v>
+        <v>2395</v>
       </c>
       <c r="BB28" s="13">
-        <v>2395</v>
+        <v>5726</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.3">
@@ -3821,11 +3821,11 @@
       <c r="AO30" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AP30" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ30" s="11">
-        <v>0</v>
+      <c r="AP30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR30" s="11" t="s">
         <v>57</v>
@@ -3912,8 +3912,8 @@
       <c r="S31" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="T31" s="15" t="s">
-        <v>57</v>
+      <c r="T31" s="15">
+        <v>0</v>
       </c>
       <c r="U31" s="15">
         <v>0</v>
@@ -4126,8 +4126,8 @@
       <c r="S33" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="T33" s="17" t="s">
-        <v>57</v>
+      <c r="T33" s="17">
+        <v>0</v>
       </c>
       <c r="U33" s="17">
         <v>0</v>
@@ -4239,154 +4239,154 @@
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15">
-        <v>0</v>
+        <v>5282</v>
       </c>
       <c r="F34" s="15">
-        <v>5282</v>
+        <v>10746</v>
       </c>
       <c r="G34" s="15">
-        <v>10746</v>
+        <v>8850</v>
       </c>
       <c r="H34" s="15">
-        <v>8850</v>
+        <v>11128</v>
       </c>
       <c r="I34" s="15">
-        <v>11128</v>
+        <v>8327</v>
       </c>
       <c r="J34" s="15">
-        <v>8327</v>
+        <v>12649</v>
       </c>
       <c r="K34" s="15">
-        <v>12649</v>
+        <v>7139</v>
       </c>
       <c r="L34" s="15">
-        <v>7139</v>
+        <v>6953</v>
       </c>
       <c r="M34" s="15">
-        <v>6953</v>
+        <v>10329</v>
       </c>
       <c r="N34" s="15">
-        <v>10329</v>
+        <v>10718</v>
       </c>
       <c r="O34" s="15">
-        <v>10718</v>
+        <v>13145</v>
       </c>
       <c r="P34" s="15">
-        <v>13145</v>
+        <v>14414</v>
       </c>
       <c r="Q34" s="15">
-        <v>14414</v>
+        <v>8050</v>
       </c>
       <c r="R34" s="15">
-        <v>8050</v>
+        <v>12470</v>
       </c>
       <c r="S34" s="15">
-        <v>12470</v>
+        <v>11255</v>
       </c>
       <c r="T34" s="15">
-        <v>11255</v>
+        <v>12443</v>
       </c>
       <c r="U34" s="15">
-        <v>12443</v>
+        <v>10990</v>
       </c>
       <c r="V34" s="15">
-        <v>10990</v>
+        <v>10759</v>
       </c>
       <c r="W34" s="15">
-        <v>10759</v>
+        <v>10986</v>
       </c>
       <c r="X34" s="15">
-        <v>10986</v>
+        <v>12131</v>
       </c>
       <c r="Y34" s="15">
-        <v>12131</v>
+        <v>14443</v>
       </c>
       <c r="Z34" s="15">
-        <v>14443</v>
+        <v>16956</v>
       </c>
       <c r="AA34" s="15">
-        <v>16956</v>
+        <v>15552</v>
       </c>
       <c r="AB34" s="15">
-        <v>15552</v>
+        <v>14484</v>
       </c>
       <c r="AC34" s="15">
-        <v>14484</v>
+        <v>5427</v>
       </c>
       <c r="AD34" s="15">
-        <v>5427</v>
+        <v>8618</v>
       </c>
       <c r="AE34" s="15">
-        <v>8618</v>
+        <v>8629</v>
       </c>
       <c r="AF34" s="15">
-        <v>8629</v>
+        <v>14315</v>
       </c>
       <c r="AG34" s="15">
-        <v>14315</v>
+        <v>11781</v>
       </c>
       <c r="AH34" s="15">
-        <v>11781</v>
+        <v>14102</v>
       </c>
       <c r="AI34" s="15">
-        <v>14102</v>
+        <v>9818</v>
       </c>
       <c r="AJ34" s="15">
-        <v>9818</v>
+        <v>12009</v>
       </c>
       <c r="AK34" s="15">
-        <v>12009</v>
+        <v>9585</v>
       </c>
       <c r="AL34" s="15">
-        <v>9585</v>
+        <v>11803</v>
       </c>
       <c r="AM34" s="15">
-        <v>11803</v>
+        <v>14013</v>
       </c>
       <c r="AN34" s="15">
-        <v>14013</v>
+        <v>15318</v>
       </c>
       <c r="AO34" s="15">
-        <v>15318</v>
+        <v>5551</v>
       </c>
       <c r="AP34" s="15">
-        <v>5551</v>
+        <v>10255</v>
       </c>
       <c r="AQ34" s="15">
-        <v>10255</v>
+        <v>11454</v>
       </c>
       <c r="AR34" s="15">
-        <v>11454</v>
+        <v>13449</v>
       </c>
       <c r="AS34" s="15">
-        <v>13449</v>
+        <v>14754</v>
       </c>
       <c r="AT34" s="15">
-        <v>14754</v>
+        <v>13904</v>
       </c>
       <c r="AU34" s="15">
-        <v>13904</v>
+        <v>11901</v>
       </c>
       <c r="AV34" s="15">
-        <v>11901</v>
+        <v>15537</v>
       </c>
       <c r="AW34" s="15">
-        <v>15537</v>
+        <v>14596</v>
       </c>
       <c r="AX34" s="15">
-        <v>14596</v>
+        <v>17586</v>
       </c>
       <c r="AY34" s="15">
-        <v>17586</v>
+        <v>22452</v>
       </c>
       <c r="AZ34" s="15">
-        <v>22452</v>
+        <v>16590</v>
       </c>
       <c r="BA34" s="15">
-        <v>16590</v>
+        <v>9127</v>
       </c>
       <c r="BB34" s="15">
-        <v>9127</v>
+        <v>17349</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4903,8 +4903,8 @@
       <c r="AB41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC41" s="11" t="s">
-        <v>57</v>
+      <c r="AC41" s="11">
+        <v>0</v>
       </c>
       <c r="AD41" s="11">
         <v>0</v>
@@ -4939,8 +4939,8 @@
       <c r="AN41" s="11">
         <v>0</v>
       </c>
-      <c r="AO41" s="11">
-        <v>0</v>
+      <c r="AO41" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AP41" s="11" t="s">
         <v>57</v>
@@ -4990,155 +4990,155 @@
         <v>70</v>
       </c>
       <c r="D42" s="13"/>
-      <c r="E42" s="13" t="s">
-        <v>57</v>
+      <c r="E42" s="13">
+        <v>146301</v>
       </c>
       <c r="F42" s="13">
-        <v>146301</v>
+        <v>306687</v>
       </c>
       <c r="G42" s="13">
-        <v>306687</v>
+        <v>265735</v>
       </c>
       <c r="H42" s="13">
-        <v>265735</v>
+        <v>377182</v>
       </c>
       <c r="I42" s="13">
-        <v>377182</v>
+        <v>272335</v>
       </c>
       <c r="J42" s="13">
-        <v>272335</v>
+        <v>478398</v>
       </c>
       <c r="K42" s="13">
-        <v>478398</v>
+        <v>210428</v>
       </c>
       <c r="L42" s="13">
-        <v>210428</v>
+        <v>240205</v>
       </c>
       <c r="M42" s="13">
-        <v>240205</v>
+        <v>403712</v>
       </c>
       <c r="N42" s="13">
-        <v>403712</v>
+        <v>382531</v>
       </c>
       <c r="O42" s="13">
-        <v>382531</v>
+        <v>410833</v>
       </c>
       <c r="P42" s="13">
-        <v>410833</v>
+        <v>564386</v>
       </c>
       <c r="Q42" s="13">
-        <v>564386</v>
+        <v>437522</v>
       </c>
       <c r="R42" s="13">
-        <v>437522</v>
+        <v>550411</v>
       </c>
       <c r="S42" s="13">
-        <v>550411</v>
+        <v>444026</v>
       </c>
       <c r="T42" s="13">
-        <v>444026</v>
+        <v>618197</v>
       </c>
       <c r="U42" s="13">
-        <v>618197</v>
+        <v>599851</v>
       </c>
       <c r="V42" s="13">
-        <v>599851</v>
+        <v>539514</v>
       </c>
       <c r="W42" s="13">
-        <v>539514</v>
+        <v>535115</v>
       </c>
       <c r="X42" s="13">
-        <v>535115</v>
+        <v>762474</v>
       </c>
       <c r="Y42" s="13">
-        <v>762474</v>
+        <v>934493</v>
       </c>
       <c r="Z42" s="13">
-        <v>934493</v>
+        <v>1210523</v>
       </c>
       <c r="AA42" s="13">
-        <v>1210523</v>
+        <v>792902</v>
       </c>
       <c r="AB42" s="13">
-        <v>792902</v>
+        <v>862481</v>
       </c>
       <c r="AC42" s="13">
-        <v>862481</v>
+        <v>233832</v>
       </c>
       <c r="AD42" s="13">
-        <v>233832</v>
+        <v>638333</v>
       </c>
       <c r="AE42" s="13">
-        <v>638333</v>
+        <v>600740</v>
       </c>
       <c r="AF42" s="13">
-        <v>600740</v>
+        <v>1088330</v>
       </c>
       <c r="AG42" s="13">
-        <v>1088330</v>
+        <v>965245</v>
       </c>
       <c r="AH42" s="13">
-        <v>965245</v>
+        <v>1193147</v>
       </c>
       <c r="AI42" s="13">
-        <v>1193147</v>
+        <v>695002</v>
       </c>
       <c r="AJ42" s="13">
-        <v>695002</v>
+        <v>879595</v>
       </c>
       <c r="AK42" s="13">
-        <v>879595</v>
+        <v>629709</v>
       </c>
       <c r="AL42" s="13">
-        <v>629709</v>
+        <v>860015</v>
       </c>
       <c r="AM42" s="13">
-        <v>860015</v>
+        <v>883686</v>
       </c>
       <c r="AN42" s="13">
-        <v>883686</v>
+        <v>1015387</v>
       </c>
       <c r="AO42" s="13">
-        <v>1015387</v>
+        <v>400503</v>
       </c>
       <c r="AP42" s="13">
-        <v>400503</v>
+        <v>746962</v>
       </c>
       <c r="AQ42" s="13">
-        <v>746962</v>
+        <v>1104795</v>
       </c>
       <c r="AR42" s="13">
-        <v>1104795</v>
+        <v>1190930</v>
       </c>
       <c r="AS42" s="13">
-        <v>1190930</v>
+        <v>1300616</v>
       </c>
       <c r="AT42" s="13">
-        <v>1300616</v>
+        <v>1225846</v>
       </c>
       <c r="AU42" s="13">
-        <v>1225846</v>
+        <v>1085885</v>
       </c>
       <c r="AV42" s="13">
-        <v>1085885</v>
+        <v>1434059</v>
       </c>
       <c r="AW42" s="13">
-        <v>1434059</v>
+        <v>1293919</v>
       </c>
       <c r="AX42" s="13">
-        <v>1293919</v>
+        <v>1516770</v>
       </c>
       <c r="AY42" s="13">
-        <v>1516770</v>
+        <v>1837564</v>
       </c>
       <c r="AZ42" s="13">
-        <v>1837564</v>
+        <v>1250380</v>
       </c>
       <c r="BA42" s="13">
-        <v>1250380</v>
+        <v>889668</v>
       </c>
       <c r="BB42" s="13">
-        <v>889668</v>
+        <v>1509477</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5149,155 +5149,155 @@
         <v>70</v>
       </c>
       <c r="D43" s="11"/>
-      <c r="E43" s="11" t="s">
-        <v>57</v>
+      <c r="E43" s="11">
+        <v>149761</v>
       </c>
       <c r="F43" s="11">
-        <v>149761</v>
+        <v>293977</v>
       </c>
       <c r="G43" s="11">
-        <v>293977</v>
+        <v>263037</v>
       </c>
       <c r="H43" s="11">
-        <v>263037</v>
+        <v>399846</v>
       </c>
       <c r="I43" s="11">
-        <v>399846</v>
+        <v>321643</v>
       </c>
       <c r="J43" s="11">
-        <v>321643</v>
+        <v>508286</v>
       </c>
       <c r="K43" s="11">
-        <v>508286</v>
+        <v>241088</v>
       </c>
       <c r="L43" s="11">
-        <v>241088</v>
+        <v>239413</v>
       </c>
       <c r="M43" s="11">
-        <v>239413</v>
+        <v>350196</v>
       </c>
       <c r="N43" s="11">
-        <v>350196</v>
+        <v>354984</v>
       </c>
       <c r="O43" s="11">
-        <v>354984</v>
+        <v>438597</v>
       </c>
       <c r="P43" s="11">
-        <v>438597</v>
+        <v>426526</v>
       </c>
       <c r="Q43" s="11">
-        <v>426526</v>
+        <v>241638</v>
       </c>
       <c r="R43" s="11">
-        <v>241638</v>
+        <v>416145</v>
       </c>
       <c r="S43" s="11">
-        <v>416145</v>
+        <v>373148</v>
       </c>
       <c r="T43" s="11">
-        <v>373148</v>
+        <v>392987</v>
       </c>
       <c r="U43" s="11">
-        <v>392987</v>
+        <v>369450</v>
       </c>
       <c r="V43" s="11">
-        <v>369450</v>
+        <v>517319</v>
       </c>
       <c r="W43" s="11">
-        <v>517319</v>
+        <v>489695</v>
       </c>
       <c r="X43" s="11">
-        <v>489695</v>
+        <v>676661</v>
       </c>
       <c r="Y43" s="11">
-        <v>676661</v>
+        <v>701829</v>
       </c>
       <c r="Z43" s="11">
-        <v>701829</v>
+        <v>837746</v>
       </c>
       <c r="AA43" s="11">
-        <v>837746</v>
+        <v>760151</v>
       </c>
       <c r="AB43" s="11">
-        <v>760151</v>
+        <v>817967</v>
       </c>
       <c r="AC43" s="11">
-        <v>817967</v>
+        <v>311846</v>
       </c>
       <c r="AD43" s="11">
-        <v>311846</v>
+        <v>359496</v>
       </c>
       <c r="AE43" s="11">
-        <v>359496</v>
+        <v>428859</v>
       </c>
       <c r="AF43" s="11">
-        <v>428859</v>
+        <v>851629</v>
       </c>
       <c r="AG43" s="11">
-        <v>851629</v>
+        <v>799234</v>
       </c>
       <c r="AH43" s="11">
-        <v>799234</v>
+        <v>822584</v>
       </c>
       <c r="AI43" s="11">
-        <v>822584</v>
+        <v>558241</v>
       </c>
       <c r="AJ43" s="11">
-        <v>558241</v>
+        <v>826681</v>
       </c>
       <c r="AK43" s="11">
-        <v>826681</v>
+        <v>708201</v>
       </c>
       <c r="AL43" s="11">
-        <v>708201</v>
+        <v>708790</v>
       </c>
       <c r="AM43" s="11">
-        <v>708790</v>
+        <v>887055</v>
       </c>
       <c r="AN43" s="11">
-        <v>887055</v>
+        <v>1019647</v>
       </c>
       <c r="AO43" s="11">
-        <v>1019647</v>
+        <v>448159</v>
       </c>
       <c r="AP43" s="11">
-        <v>448159</v>
+        <v>800241</v>
       </c>
       <c r="AQ43" s="11">
-        <v>800241</v>
+        <v>953625</v>
       </c>
       <c r="AR43" s="11">
-        <v>953625</v>
+        <v>1425697</v>
       </c>
       <c r="AS43" s="11">
-        <v>1425697</v>
+        <v>1482757</v>
       </c>
       <c r="AT43" s="11">
-        <v>1482757</v>
+        <v>1189388</v>
       </c>
       <c r="AU43" s="11">
-        <v>1189388</v>
+        <v>1176802</v>
       </c>
       <c r="AV43" s="11">
-        <v>1176802</v>
+        <v>1664118</v>
       </c>
       <c r="AW43" s="11">
-        <v>1664118</v>
+        <v>1524083</v>
       </c>
       <c r="AX43" s="11">
-        <v>1524083</v>
+        <v>1873510</v>
       </c>
       <c r="AY43" s="11">
-        <v>1873510</v>
+        <v>2111175</v>
       </c>
       <c r="AZ43" s="11">
-        <v>2111175</v>
+        <v>1721908</v>
       </c>
       <c r="BA43" s="11">
-        <v>1721908</v>
+        <v>1050936</v>
       </c>
       <c r="BB43" s="11">
-        <v>1050936</v>
+        <v>1890799</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -5308,155 +5308,155 @@
         <v>70</v>
       </c>
       <c r="D44" s="13"/>
-      <c r="E44" s="13" t="s">
-        <v>57</v>
+      <c r="E44" s="13">
+        <v>83676</v>
       </c>
       <c r="F44" s="13">
-        <v>83676</v>
+        <v>164484</v>
       </c>
       <c r="G44" s="13">
-        <v>164484</v>
+        <v>143029</v>
       </c>
       <c r="H44" s="13">
-        <v>143029</v>
+        <v>180653</v>
       </c>
       <c r="I44" s="13">
-        <v>180653</v>
+        <v>156385</v>
       </c>
       <c r="J44" s="13">
-        <v>156385</v>
+        <v>230991</v>
       </c>
       <c r="K44" s="13">
-        <v>230991</v>
+        <v>141829</v>
       </c>
       <c r="L44" s="13">
-        <v>141829</v>
+        <v>109262</v>
       </c>
       <c r="M44" s="13">
-        <v>109262</v>
+        <v>170593</v>
       </c>
       <c r="N44" s="13">
-        <v>170593</v>
+        <v>185831</v>
       </c>
       <c r="O44" s="13">
-        <v>185831</v>
+        <v>256287</v>
       </c>
       <c r="P44" s="13">
-        <v>256287</v>
+        <v>261151</v>
       </c>
       <c r="Q44" s="13">
-        <v>261151</v>
+        <v>81195</v>
       </c>
       <c r="R44" s="13">
-        <v>81195</v>
+        <v>196733</v>
       </c>
       <c r="S44" s="13">
-        <v>196733</v>
+        <v>182428</v>
       </c>
       <c r="T44" s="13">
-        <v>182428</v>
+        <v>310867</v>
       </c>
       <c r="U44" s="13">
-        <v>310867</v>
+        <v>190654</v>
       </c>
       <c r="V44" s="13">
-        <v>190654</v>
+        <v>200646</v>
       </c>
       <c r="W44" s="13">
-        <v>200646</v>
+        <v>216550</v>
       </c>
       <c r="X44" s="13">
-        <v>216550</v>
+        <v>272077</v>
       </c>
       <c r="Y44" s="13">
-        <v>272077</v>
+        <v>398527</v>
       </c>
       <c r="Z44" s="13">
-        <v>398527</v>
+        <v>471571</v>
       </c>
       <c r="AA44" s="13">
-        <v>471571</v>
+        <v>581794</v>
       </c>
       <c r="AB44" s="13">
-        <v>581794</v>
+        <v>474679</v>
       </c>
       <c r="AC44" s="13">
-        <v>474679</v>
+        <v>225385</v>
       </c>
       <c r="AD44" s="13">
-        <v>225385</v>
+        <v>304049</v>
       </c>
       <c r="AE44" s="13">
-        <v>304049</v>
+        <v>321980</v>
       </c>
       <c r="AF44" s="13">
-        <v>321980</v>
+        <v>511042</v>
       </c>
       <c r="AG44" s="13">
-        <v>511042</v>
+        <v>471275</v>
       </c>
       <c r="AH44" s="13">
-        <v>471275</v>
+        <v>721353</v>
       </c>
       <c r="AI44" s="13">
-        <v>721353</v>
+        <v>434703</v>
       </c>
       <c r="AJ44" s="13">
-        <v>434703</v>
+        <v>444102</v>
       </c>
       <c r="AK44" s="13">
-        <v>444102</v>
+        <v>364693</v>
       </c>
       <c r="AL44" s="13">
-        <v>364693</v>
+        <v>450219</v>
       </c>
       <c r="AM44" s="13">
-        <v>450219</v>
+        <v>555600</v>
       </c>
       <c r="AN44" s="13">
-        <v>555600</v>
+        <v>590428</v>
       </c>
       <c r="AO44" s="13">
-        <v>590428</v>
+        <v>241042</v>
       </c>
       <c r="AP44" s="13">
-        <v>241042</v>
+        <v>463723</v>
       </c>
       <c r="AQ44" s="13">
-        <v>463723</v>
+        <v>556739</v>
       </c>
       <c r="AR44" s="13">
-        <v>556739</v>
+        <v>604086</v>
       </c>
       <c r="AS44" s="13">
-        <v>604086</v>
+        <v>780986</v>
       </c>
       <c r="AT44" s="13">
-        <v>780986</v>
+        <v>613950</v>
       </c>
       <c r="AU44" s="13">
-        <v>613950</v>
+        <v>552269</v>
       </c>
       <c r="AV44" s="13">
-        <v>552269</v>
+        <v>779107</v>
       </c>
       <c r="AW44" s="13">
-        <v>779107</v>
+        <v>763016</v>
       </c>
       <c r="AX44" s="13">
-        <v>763016</v>
+        <v>866046</v>
       </c>
       <c r="AY44" s="13">
-        <v>866046</v>
+        <v>1195813</v>
       </c>
       <c r="AZ44" s="13">
-        <v>1195813</v>
+        <v>752323</v>
       </c>
       <c r="BA44" s="13">
-        <v>752323</v>
+        <v>421795</v>
       </c>
       <c r="BB44" s="13">
-        <v>421795</v>
+        <v>877022</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -5602,77 +5602,77 @@
       <c r="AD46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AE46" s="11" t="s">
-        <v>57</v>
+      <c r="AE46" s="11">
+        <v>6789</v>
       </c>
       <c r="AF46" s="11">
-        <v>6789</v>
+        <v>0</v>
       </c>
       <c r="AG46" s="11">
         <v>0</v>
       </c>
       <c r="AH46" s="11">
-        <v>0</v>
+        <v>5565</v>
       </c>
       <c r="AI46" s="11">
-        <v>5565</v>
+        <v>2306</v>
       </c>
       <c r="AJ46" s="11">
-        <v>2306</v>
+        <v>1518</v>
       </c>
       <c r="AK46" s="11">
-        <v>1518</v>
+        <v>19527</v>
       </c>
       <c r="AL46" s="11">
-        <v>19527</v>
+        <v>5089</v>
       </c>
       <c r="AM46" s="11">
-        <v>5089</v>
+        <v>1558</v>
       </c>
       <c r="AN46" s="11">
-        <v>1558</v>
+        <v>1839</v>
       </c>
       <c r="AO46" s="11">
-        <v>1839</v>
+        <v>1485</v>
       </c>
       <c r="AP46" s="11">
-        <v>1485</v>
+        <v>8779</v>
       </c>
       <c r="AQ46" s="11">
-        <v>8779</v>
+        <v>4375</v>
       </c>
       <c r="AR46" s="11">
-        <v>4375</v>
+        <v>9332</v>
       </c>
       <c r="AS46" s="11">
-        <v>9332</v>
+        <v>8864</v>
       </c>
       <c r="AT46" s="11">
-        <v>8864</v>
+        <v>7404</v>
       </c>
       <c r="AU46" s="11">
-        <v>7404</v>
+        <v>7218</v>
       </c>
       <c r="AV46" s="11">
-        <v>7218</v>
+        <v>966</v>
       </c>
       <c r="AW46" s="11">
-        <v>966</v>
+        <v>3723</v>
       </c>
       <c r="AX46" s="11">
-        <v>3723</v>
+        <v>4371</v>
       </c>
       <c r="AY46" s="11">
-        <v>4371</v>
+        <v>1868</v>
       </c>
       <c r="AZ46" s="11">
-        <v>1868</v>
+        <v>6847</v>
       </c>
       <c r="BA46" s="11">
-        <v>6847</v>
+        <v>2136</v>
       </c>
       <c r="BB46" s="11">
-        <v>2136</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -5728,8 +5728,8 @@
       <c r="S47" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="T47" s="15" t="s">
-        <v>57</v>
+      <c r="T47" s="15">
+        <v>0</v>
       </c>
       <c r="U47" s="15">
         <v>0</v>
@@ -5762,76 +5762,76 @@
         <v>0</v>
       </c>
       <c r="AE47" s="15">
-        <v>0</v>
+        <v>6789</v>
       </c>
       <c r="AF47" s="15">
-        <v>6789</v>
+        <v>0</v>
       </c>
       <c r="AG47" s="15">
         <v>0</v>
       </c>
       <c r="AH47" s="15">
-        <v>0</v>
+        <v>5565</v>
       </c>
       <c r="AI47" s="15">
-        <v>5565</v>
+        <v>2306</v>
       </c>
       <c r="AJ47" s="15">
-        <v>2306</v>
+        <v>1518</v>
       </c>
       <c r="AK47" s="15">
-        <v>1518</v>
+        <v>19527</v>
       </c>
       <c r="AL47" s="15">
-        <v>19527</v>
+        <v>5089</v>
       </c>
       <c r="AM47" s="15">
-        <v>5089</v>
+        <v>1558</v>
       </c>
       <c r="AN47" s="15">
-        <v>1558</v>
+        <v>1839</v>
       </c>
       <c r="AO47" s="15">
-        <v>1839</v>
+        <v>1485</v>
       </c>
       <c r="AP47" s="15">
-        <v>1485</v>
+        <v>8779</v>
       </c>
       <c r="AQ47" s="15">
-        <v>8779</v>
+        <v>4375</v>
       </c>
       <c r="AR47" s="15">
-        <v>4375</v>
+        <v>9332</v>
       </c>
       <c r="AS47" s="15">
-        <v>9332</v>
+        <v>8864</v>
       </c>
       <c r="AT47" s="15">
-        <v>8864</v>
+        <v>7404</v>
       </c>
       <c r="AU47" s="15">
-        <v>7404</v>
+        <v>7218</v>
       </c>
       <c r="AV47" s="15">
-        <v>7218</v>
+        <v>966</v>
       </c>
       <c r="AW47" s="15">
-        <v>966</v>
+        <v>3723</v>
       </c>
       <c r="AX47" s="15">
-        <v>3723</v>
+        <v>4371</v>
       </c>
       <c r="AY47" s="15">
-        <v>4371</v>
+        <v>1868</v>
       </c>
       <c r="AZ47" s="15">
-        <v>1868</v>
+        <v>6847</v>
       </c>
       <c r="BA47" s="15">
-        <v>6847</v>
+        <v>2136</v>
       </c>
       <c r="BB47" s="15">
-        <v>2136</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -5944,8 +5944,8 @@
       <c r="S49" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="T49" s="17" t="s">
-        <v>57</v>
+      <c r="T49" s="17">
+        <v>0</v>
       </c>
       <c r="U49" s="17">
         <v>0</v>
@@ -6160,8 +6160,8 @@
       <c r="S51" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T51" s="11" t="s">
-        <v>57</v>
+      <c r="T51" s="11">
+        <v>0</v>
       </c>
       <c r="U51" s="11">
         <v>0</v>
@@ -6273,154 +6273,154 @@
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15">
-        <v>0</v>
+        <v>379738</v>
       </c>
       <c r="F52" s="15">
-        <v>379738</v>
+        <v>765148</v>
       </c>
       <c r="G52" s="15">
-        <v>765148</v>
+        <v>671801</v>
       </c>
       <c r="H52" s="15">
-        <v>671801</v>
+        <v>957681</v>
       </c>
       <c r="I52" s="15">
-        <v>957681</v>
+        <v>750363</v>
       </c>
       <c r="J52" s="15">
-        <v>750363</v>
+        <v>1217675</v>
       </c>
       <c r="K52" s="15">
-        <v>1217675</v>
+        <v>593345</v>
       </c>
       <c r="L52" s="15">
-        <v>593345</v>
+        <v>588880</v>
       </c>
       <c r="M52" s="15">
-        <v>588880</v>
+        <v>924501</v>
       </c>
       <c r="N52" s="15">
-        <v>924501</v>
+        <v>923346</v>
       </c>
       <c r="O52" s="15">
-        <v>923346</v>
+        <v>1105717</v>
       </c>
       <c r="P52" s="15">
-        <v>1105717</v>
+        <v>1252063</v>
       </c>
       <c r="Q52" s="15">
-        <v>1252063</v>
+        <v>760355</v>
       </c>
       <c r="R52" s="15">
-        <v>760355</v>
+        <v>1163289</v>
       </c>
       <c r="S52" s="15">
-        <v>1163289</v>
+        <v>999602</v>
       </c>
       <c r="T52" s="15">
-        <v>999602</v>
+        <v>1322051</v>
       </c>
       <c r="U52" s="15">
-        <v>1322051</v>
+        <v>1159955</v>
       </c>
       <c r="V52" s="15">
-        <v>1159955</v>
+        <v>1257479</v>
       </c>
       <c r="W52" s="15">
-        <v>1257479</v>
+        <v>1241360</v>
       </c>
       <c r="X52" s="15">
-        <v>1241360</v>
+        <v>1711212</v>
       </c>
       <c r="Y52" s="15">
-        <v>1711212</v>
+        <v>2034849</v>
       </c>
       <c r="Z52" s="15">
-        <v>2034849</v>
+        <v>2519840</v>
       </c>
       <c r="AA52" s="15">
-        <v>2519840</v>
+        <v>2134847</v>
       </c>
       <c r="AB52" s="15">
-        <v>2134847</v>
+        <v>2155127</v>
       </c>
       <c r="AC52" s="15">
-        <v>2155127</v>
+        <v>771063</v>
       </c>
       <c r="AD52" s="15">
-        <v>771063</v>
+        <v>1301878</v>
       </c>
       <c r="AE52" s="15">
-        <v>1301878</v>
+        <v>1358368</v>
       </c>
       <c r="AF52" s="15">
-        <v>1358368</v>
+        <v>2451001</v>
       </c>
       <c r="AG52" s="15">
-        <v>2451001</v>
+        <v>2235754</v>
       </c>
       <c r="AH52" s="15">
-        <v>2235754</v>
+        <v>2742649</v>
       </c>
       <c r="AI52" s="15">
-        <v>2742649</v>
+        <v>1690252</v>
       </c>
       <c r="AJ52" s="15">
-        <v>1690252</v>
+        <v>2151896</v>
       </c>
       <c r="AK52" s="15">
-        <v>2151896</v>
+        <v>1722130</v>
       </c>
       <c r="AL52" s="15">
-        <v>1722130</v>
+        <v>2024113</v>
       </c>
       <c r="AM52" s="15">
-        <v>2024113</v>
+        <v>2327899</v>
       </c>
       <c r="AN52" s="15">
-        <v>2327899</v>
+        <v>2627301</v>
       </c>
       <c r="AO52" s="15">
-        <v>2627301</v>
+        <v>1091189</v>
       </c>
       <c r="AP52" s="15">
-        <v>1091189</v>
+        <v>2019705</v>
       </c>
       <c r="AQ52" s="15">
-        <v>2019705</v>
+        <v>2619534</v>
       </c>
       <c r="AR52" s="15">
-        <v>2619534</v>
+        <v>3230045</v>
       </c>
       <c r="AS52" s="15">
-        <v>3230045</v>
+        <v>3573223</v>
       </c>
       <c r="AT52" s="15">
-        <v>3573223</v>
+        <v>3036588</v>
       </c>
       <c r="AU52" s="15">
-        <v>3036588</v>
+        <v>2822174</v>
       </c>
       <c r="AV52" s="15">
-        <v>2822174</v>
+        <v>3878250</v>
       </c>
       <c r="AW52" s="15">
-        <v>3878250</v>
+        <v>3584741</v>
       </c>
       <c r="AX52" s="15">
-        <v>3584741</v>
+        <v>4260697</v>
       </c>
       <c r="AY52" s="15">
-        <v>4260697</v>
+        <v>5146420</v>
       </c>
       <c r="AZ52" s="15">
-        <v>5146420</v>
+        <v>3731458</v>
       </c>
       <c r="BA52" s="15">
-        <v>3731458</v>
+        <v>2364535</v>
       </c>
       <c r="BB52" s="15">
-        <v>2364535</v>
+        <v>4280559</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
@@ -6865,155 +6865,155 @@
         <v>77</v>
       </c>
       <c r="D59" s="11"/>
-      <c r="E59" s="11" t="s">
-        <v>57</v>
+      <c r="E59" s="11">
+        <v>85256993</v>
       </c>
       <c r="F59" s="11">
-        <v>85256993</v>
+        <v>86954069</v>
       </c>
       <c r="G59" s="11">
-        <v>86954069</v>
+        <v>100126225</v>
       </c>
       <c r="H59" s="11">
-        <v>100126225</v>
+        <v>104540466</v>
       </c>
       <c r="I59" s="11">
-        <v>104540466</v>
+        <v>117537764</v>
       </c>
       <c r="J59" s="11">
-        <v>117537764</v>
+        <v>119480020</v>
       </c>
       <c r="K59" s="11">
-        <v>119480020</v>
+        <v>117164811</v>
       </c>
       <c r="L59" s="11">
-        <v>117164811</v>
+        <v>109782907</v>
       </c>
       <c r="M59" s="11">
-        <v>109782907</v>
+        <v>107313131</v>
       </c>
       <c r="N59" s="11">
-        <v>107313131</v>
+        <v>101736968</v>
       </c>
       <c r="O59" s="11">
-        <v>101736968</v>
+        <v>106682160</v>
       </c>
       <c r="P59" s="11">
-        <v>106682160</v>
+        <v>109144459</v>
       </c>
       <c r="Q59" s="11">
-        <v>109144459</v>
+        <v>110013075</v>
       </c>
       <c r="R59" s="11">
-        <v>110013075</v>
+        <v>110435594</v>
       </c>
       <c r="S59" s="11">
-        <v>110435594</v>
+        <v>105119792</v>
       </c>
       <c r="T59" s="11">
-        <v>105119792</v>
+        <v>122804331</v>
       </c>
       <c r="U59" s="11">
-        <v>122804331</v>
+        <v>122995899</v>
       </c>
       <c r="V59" s="11">
-        <v>122995899</v>
+        <v>151676694</v>
       </c>
       <c r="W59" s="11">
-        <v>151676694</v>
+        <v>132914804</v>
       </c>
       <c r="X59" s="11">
-        <v>132914804</v>
+        <v>158815663</v>
       </c>
       <c r="Y59" s="11">
-        <v>158815663</v>
+        <v>160153042</v>
       </c>
       <c r="Z59" s="11">
-        <v>160153042</v>
+        <v>176409647</v>
       </c>
       <c r="AA59" s="11">
-        <v>176409647</v>
+        <v>167668006</v>
       </c>
       <c r="AB59" s="11">
-        <v>167668006</v>
+        <v>172392764</v>
       </c>
       <c r="AC59" s="11">
-        <v>172392764</v>
+        <v>190262002</v>
       </c>
       <c r="AD59" s="11">
-        <v>190262002</v>
+        <v>198919601</v>
       </c>
       <c r="AE59" s="11">
-        <v>198919601</v>
+        <v>229115179</v>
       </c>
       <c r="AF59" s="11">
-        <v>229115179</v>
+        <v>219820238</v>
       </c>
       <c r="AG59" s="11">
-        <v>219820238</v>
+        <v>240230214</v>
       </c>
       <c r="AH59" s="11">
-        <v>240230214</v>
+        <v>258145175</v>
       </c>
       <c r="AI59" s="11">
-        <v>258145175</v>
+        <v>242668296</v>
       </c>
       <c r="AJ59" s="11">
-        <v>242668296</v>
+        <v>243250830</v>
       </c>
       <c r="AK59" s="11">
-        <v>243250830</v>
+        <v>260533306</v>
       </c>
       <c r="AL59" s="11">
-        <v>260533306</v>
+        <v>246705393</v>
       </c>
       <c r="AM59" s="11">
-        <v>246705393</v>
+        <v>222255030</v>
       </c>
       <c r="AN59" s="11">
-        <v>222255030</v>
+        <v>232993805</v>
       </c>
       <c r="AO59" s="11">
-        <v>232993805</v>
+        <v>277548857</v>
       </c>
       <c r="AP59" s="11">
-        <v>277548857</v>
+        <v>270736499</v>
       </c>
       <c r="AQ59" s="11">
-        <v>270736499</v>
+        <v>309033566</v>
       </c>
       <c r="AR59" s="11">
-        <v>309033566</v>
+        <v>338910074</v>
       </c>
       <c r="AS59" s="11">
-        <v>338910074</v>
+        <v>315990282</v>
       </c>
       <c r="AT59" s="11">
-        <v>315990282</v>
+        <v>306231826</v>
       </c>
       <c r="AU59" s="11">
-        <v>306231826</v>
+        <v>339127108</v>
       </c>
       <c r="AV59" s="11">
-        <v>339127108</v>
+        <v>355404957</v>
       </c>
       <c r="AW59" s="11">
-        <v>355404957</v>
+        <v>362239362</v>
       </c>
       <c r="AX59" s="11">
-        <v>362239362</v>
+        <v>331679423</v>
       </c>
       <c r="AY59" s="11">
-        <v>331679423</v>
+        <v>322719354</v>
       </c>
       <c r="AZ59" s="11">
-        <v>322719354</v>
+        <v>288039622</v>
       </c>
       <c r="BA59" s="11">
-        <v>288039622</v>
+        <v>343103741</v>
       </c>
       <c r="BB59" s="11">
-        <v>343103741</v>
+        <v>344944470</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -7024,155 +7024,155 @@
         <v>77</v>
       </c>
       <c r="D60" s="13"/>
-      <c r="E60" s="13" t="s">
-        <v>57</v>
+      <c r="E60" s="13">
+        <v>75636869</v>
       </c>
       <c r="F60" s="13">
-        <v>75636869</v>
+        <v>77689482</v>
       </c>
       <c r="G60" s="13">
-        <v>77689482</v>
+        <v>79371454</v>
       </c>
       <c r="H60" s="13">
-        <v>79371454</v>
+        <v>92194143</v>
       </c>
       <c r="I60" s="13">
-        <v>92194143</v>
+        <v>95670137</v>
       </c>
       <c r="J60" s="13">
-        <v>95670137</v>
+        <v>96193414</v>
       </c>
       <c r="K60" s="13">
-        <v>96193414</v>
+        <v>89225759</v>
       </c>
       <c r="L60" s="13">
-        <v>89225759</v>
+        <v>92330505</v>
       </c>
       <c r="M60" s="13">
-        <v>92330505</v>
+        <v>94494334</v>
       </c>
       <c r="N60" s="13">
-        <v>94494334</v>
+        <v>94335371</v>
       </c>
       <c r="O60" s="13">
-        <v>94335371</v>
+        <v>89163854</v>
       </c>
       <c r="P60" s="13">
-        <v>89163854</v>
+        <v>86132068</v>
       </c>
       <c r="Q60" s="13">
-        <v>86132068</v>
+        <v>92333970</v>
       </c>
       <c r="R60" s="13">
-        <v>92333970</v>
+        <v>98031802</v>
       </c>
       <c r="S60" s="13">
-        <v>98031802</v>
+        <v>93802916</v>
       </c>
       <c r="T60" s="13">
-        <v>93802916</v>
+        <v>115414684</v>
       </c>
       <c r="U60" s="13">
-        <v>115414684</v>
+        <v>113922294</v>
       </c>
       <c r="V60" s="13">
-        <v>113922294</v>
+        <v>122009198</v>
       </c>
       <c r="W60" s="13">
-        <v>122009198</v>
+        <v>125917974</v>
       </c>
       <c r="X60" s="13">
-        <v>125917974</v>
+        <v>158468618</v>
       </c>
       <c r="Y60" s="13">
-        <v>158468618</v>
+        <v>158820774</v>
       </c>
       <c r="Z60" s="13">
-        <v>158820774</v>
+        <v>157767608</v>
       </c>
       <c r="AA60" s="13">
-        <v>157767608</v>
+        <v>155736734</v>
       </c>
       <c r="AB60" s="13">
-        <v>155736734</v>
+        <v>160858800</v>
       </c>
       <c r="AC60" s="13">
-        <v>160858800</v>
+        <v>158781059</v>
       </c>
       <c r="AD60" s="13">
-        <v>158781059</v>
+        <v>150605781</v>
       </c>
       <c r="AE60" s="13">
-        <v>150605781</v>
+        <v>152131607</v>
       </c>
       <c r="AF60" s="13">
-        <v>152131607</v>
+        <v>181622734</v>
       </c>
       <c r="AG60" s="13">
-        <v>181622734</v>
+        <v>197536827</v>
       </c>
       <c r="AH60" s="13">
-        <v>197536827</v>
+        <v>199704783</v>
       </c>
       <c r="AI60" s="13">
-        <v>199704783</v>
+        <v>191769495</v>
       </c>
       <c r="AJ60" s="13">
-        <v>191769495</v>
+        <v>193014476</v>
       </c>
       <c r="AK60" s="13">
-        <v>193014476</v>
+        <v>185635911</v>
       </c>
       <c r="AL60" s="13">
-        <v>185635911</v>
+        <v>174278338</v>
       </c>
       <c r="AM60" s="13">
-        <v>174278338</v>
+        <v>182671952</v>
       </c>
       <c r="AN60" s="13">
-        <v>182671952</v>
+        <v>177576977</v>
       </c>
       <c r="AO60" s="13">
-        <v>177576977</v>
+        <v>198300442</v>
       </c>
       <c r="AP60" s="13">
-        <v>198300442</v>
+        <v>210478958</v>
       </c>
       <c r="AQ60" s="13">
-        <v>210478958</v>
+        <v>224435161</v>
       </c>
       <c r="AR60" s="13">
-        <v>224435161</v>
+        <v>248856170</v>
       </c>
       <c r="AS60" s="13">
-        <v>248856170</v>
+        <v>255603689</v>
       </c>
       <c r="AT60" s="13">
-        <v>255603689</v>
+        <v>218637500</v>
       </c>
       <c r="AU60" s="13">
-        <v>218637500</v>
+        <v>246864275</v>
       </c>
       <c r="AV60" s="13">
-        <v>246864275</v>
+        <v>267285255</v>
       </c>
       <c r="AW60" s="13">
-        <v>267285255</v>
+        <v>254437896</v>
       </c>
       <c r="AX60" s="13">
-        <v>254437896</v>
+        <v>244073736</v>
       </c>
       <c r="AY60" s="13">
-        <v>244073736</v>
+        <v>228556349</v>
       </c>
       <c r="AZ60" s="13">
-        <v>228556349</v>
+        <v>236786029</v>
       </c>
       <c r="BA60" s="13">
-        <v>236786029</v>
+        <v>253910606</v>
       </c>
       <c r="BB60" s="13">
-        <v>253910606</v>
+        <v>260907824</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -7183,155 +7183,155 @@
         <v>77</v>
       </c>
       <c r="D61" s="11"/>
-      <c r="E61" s="11" t="s">
-        <v>57</v>
+      <c r="E61" s="11">
+        <v>52759142</v>
       </c>
       <c r="F61" s="11">
-        <v>52759142</v>
+        <v>47884716</v>
       </c>
       <c r="G61" s="11">
-        <v>47884716</v>
+        <v>49628383</v>
       </c>
       <c r="H61" s="11">
-        <v>49628383</v>
+        <v>56755577</v>
       </c>
       <c r="I61" s="11">
-        <v>56755577</v>
+        <v>59057779</v>
       </c>
       <c r="J61" s="11">
-        <v>59057779</v>
+        <v>68726867</v>
       </c>
       <c r="K61" s="11">
-        <v>68726867</v>
+        <v>53702764</v>
       </c>
       <c r="L61" s="11">
-        <v>53702764</v>
+        <v>50304788</v>
       </c>
       <c r="M61" s="11">
-        <v>50304788</v>
+        <v>59627053</v>
       </c>
       <c r="N61" s="11">
-        <v>59627053</v>
+        <v>58163067</v>
       </c>
       <c r="O61" s="11">
-        <v>58163067</v>
+        <v>58579886</v>
       </c>
       <c r="P61" s="11">
-        <v>58579886</v>
+        <v>60860172</v>
       </c>
       <c r="Q61" s="11">
-        <v>60860172</v>
+        <v>55765797</v>
       </c>
       <c r="R61" s="11">
-        <v>55765797</v>
+        <v>60701327</v>
       </c>
       <c r="S61" s="11">
-        <v>60701327</v>
+        <v>59753685</v>
       </c>
       <c r="T61" s="11">
-        <v>59753685</v>
+        <v>77639111</v>
       </c>
       <c r="U61" s="11">
-        <v>77639111</v>
+        <v>66429965</v>
       </c>
       <c r="V61" s="11">
-        <v>66429965</v>
+        <v>67740041</v>
       </c>
       <c r="W61" s="11">
-        <v>67740041</v>
+        <v>70514490</v>
       </c>
       <c r="X61" s="11">
-        <v>70514490</v>
+        <v>88914052</v>
       </c>
       <c r="Y61" s="11">
-        <v>88914052</v>
+        <v>95136548</v>
       </c>
       <c r="Z61" s="11">
-        <v>95136548</v>
+        <v>98572533</v>
       </c>
       <c r="AA61" s="11">
-        <v>98572533</v>
+        <v>97912151</v>
       </c>
       <c r="AB61" s="11">
-        <v>97912151</v>
+        <v>107979754</v>
       </c>
       <c r="AC61" s="11">
-        <v>107979754</v>
+        <v>100888541</v>
       </c>
       <c r="AD61" s="11">
-        <v>100888541</v>
+        <v>100611846</v>
       </c>
       <c r="AE61" s="11">
-        <v>100611846</v>
+        <v>100997491</v>
       </c>
       <c r="AF61" s="11">
-        <v>100997491</v>
+        <v>109313797</v>
       </c>
       <c r="AG61" s="11">
-        <v>109313797</v>
+        <v>126789077</v>
       </c>
       <c r="AH61" s="11">
-        <v>126789077</v>
+        <v>134555680</v>
       </c>
       <c r="AI61" s="11">
-        <v>134555680</v>
+        <v>107519911</v>
       </c>
       <c r="AJ61" s="11">
-        <v>107519911</v>
+        <v>108054015</v>
       </c>
       <c r="AK61" s="11">
-        <v>108054015</v>
+        <v>108766180</v>
       </c>
       <c r="AL61" s="11">
-        <v>108766180</v>
+        <v>105933882</v>
       </c>
       <c r="AM61" s="11">
-        <v>105933882</v>
+        <v>107237985</v>
       </c>
       <c r="AN61" s="11">
-        <v>107237985</v>
+        <v>113152166</v>
       </c>
       <c r="AO61" s="11">
-        <v>113152166</v>
+        <v>130433983</v>
       </c>
       <c r="AP61" s="11">
-        <v>130433983</v>
+        <v>125534109</v>
       </c>
       <c r="AQ61" s="11">
-        <v>125534109</v>
+        <v>153371625</v>
       </c>
       <c r="AR61" s="11">
-        <v>153371625</v>
+        <v>143624822</v>
       </c>
       <c r="AS61" s="11">
-        <v>143624822</v>
+        <v>161460823</v>
       </c>
       <c r="AT61" s="11">
-        <v>161460823</v>
+        <v>137626093</v>
       </c>
       <c r="AU61" s="11">
-        <v>137626093</v>
+        <v>140454985</v>
       </c>
       <c r="AV61" s="11">
-        <v>140454985</v>
+        <v>147670015</v>
       </c>
       <c r="AW61" s="11">
-        <v>147670015</v>
+        <v>151572507</v>
       </c>
       <c r="AX61" s="11">
-        <v>151572507</v>
+        <v>162272063</v>
       </c>
       <c r="AY61" s="11">
-        <v>162272063</v>
+        <v>158996543</v>
       </c>
       <c r="AZ61" s="11">
-        <v>158996543</v>
+        <v>151159936</v>
       </c>
       <c r="BA61" s="11">
-        <v>151159936</v>
+        <v>176114823</v>
       </c>
       <c r="BB61" s="11">
-        <v>176114823</v>
+        <v>153164862</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -7477,8 +7477,8 @@
       <c r="AD63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AE63" s="11" t="s">
-        <v>57</v>
+      <c r="AE63" s="11">
+        <v>0</v>
       </c>
       <c r="AF63" s="11">
         <v>0</v>
